--- a/tweetlist.xlsx
+++ b/tweetlist.xlsx
@@ -770,9 +770,6 @@
     <t>【今日の人工衛星】6/9 1966年：MIDAS10（ミサイル早期警戒衛星）、SECOR6（測位衛星）、ERS16（空軍の実験衛星） アメリカの軍事衛星3機がアトラス　アジェナDロケットで打ち上げられた</t>
   </si>
   <si>
-    <t xml:space="preserve">【お帰りはやぶさ・帰還6周年】6/9 12:30-15:00 最後の軌道修正となるTCM-4完了。4/4-6、5/1-4、5/23-27、6/3-5とあわせ5回の軌道修正でオーストラリア・ウーメラ砂漠の着陸地点へ誘導完了 </t>
-  </si>
-  <si>
     <t>【今日の人工衛星】6/10 2003年：スピリット アメリカの火星探査機。打ち上げ直前のコロンビア号の事故を受けて死亡した搭乗員7人を記念したプレートが付いている。2004年1月から2010年1月まで探査を続けた</t>
   </si>
   <si>
@@ -791,18 +788,6 @@
     <t>【今日の人工衛星】6/13 1984年：NAVSTAR-9 GPS衛星のブロックIシリーズ。ブロックIは実験的要素もあった 1968年：IDCSP4-1～4-8 米軍の通信衛星の初代シリーズ。8機を同時に打ち上げる仕組み</t>
   </si>
   <si>
-    <t xml:space="preserve">【お帰りはやぶさ・帰還6周年】6/13 19:54 イトカワのサンプルを格納したカプセルの切り離しに成功 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">【お帰りはやぶさ・帰還6周年】6/13 22:02 はやぶさ、最後の地球撮影。この写真 http://bit.ly/d6pjWp を内之浦局に送信中に、内之浦の水平線の向こう側に入り通信途絶(22:28)。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">【お帰りはやぶさ・帰還6周年】6/13 22:28 はやぶさ、内之浦局の観測圏外になり通信途絶。最後の信号はhttp://hayabusa.jaxa.jp/message/message_049.htmlに掲載されている </t>
-  </si>
-  <si>
-    <t xml:space="preserve">【お帰りはやぶさ・帰還6周年】6/13 22:51 はやぶさ、地球大気圏再突入。22:56にカプセルからパラシュートが展開され、23:08に着陸を果たした。 </t>
-  </si>
-  <si>
     <t>【今日の人工衛星】6/14 1967年：マリナー5号 アメリカの金星探査機。火星探査機のマリナー4号のバックアップだったが、マリナー4号の成功をうけ金星探査機に転用。6/12打ち上げのベネラ4号と観測を相互補完した</t>
   </si>
   <si>
@@ -3186,6 +3171,26 @@
   </si>
   <si>
     <t>12/31 07:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">【お帰りはやぶさ・帰還7周年】6/13 19:54 イトカワのサンプルを格納したカプセルの切り離しに成功 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【お帰りはやぶさ・帰還7周年】6/13 22:02 はやぶさ、最後の地球撮影。この写真 http://bit.ly/d6pjWp を内之浦局に送信中に、内之浦の水平線の向こう側に入り通信途絶(22:28)。 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【お帰りはやぶさ・帰還7周年】6/13 22:28 はやぶさ、内之浦局の観測圏外になり通信途絶。最後の信号はhttp://hayabusa.jaxa.jp/message/message_049.htmlに掲載されている </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【お帰りはやぶさ・帰還7周年】6/13 22:51 はやぶさ、地球大気圏再突入。22:56にカプセルからパラシュートが展開され、23:08に着陸を果たした。 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【お帰りはやぶさ・帰還7周年】6/9 12:30-15:00 最後の軌道修正となるTCM-4完了。4/4-6、5/1-4、5/23-27、6/3-5とあわせ5回の軌道修正でオーストラリア・ウーメラ砂漠の着陸地点へ誘導完了 </t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -3245,17 +3250,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3545,7 +3540,7 @@
   <dimension ref="A1:C529"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -3556,7 +3551,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3568,7 +3563,7 @@
     </row>
     <row r="2" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -3580,7 +3575,7 @@
     </row>
     <row r="3" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -3592,7 +3587,7 @@
     </row>
     <row r="4" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -3604,7 +3599,7 @@
     </row>
     <row r="5" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -3616,7 +3611,7 @@
     </row>
     <row r="6" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
@@ -3628,7 +3623,7 @@
     </row>
     <row r="7" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
@@ -3640,7 +3635,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
@@ -3652,7 +3647,7 @@
     </row>
     <row r="9" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>8</v>
@@ -3664,7 +3659,7 @@
     </row>
     <row r="10" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -3676,7 +3671,7 @@
     </row>
     <row r="11" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>10</v>
@@ -3688,7 +3683,7 @@
     </row>
     <row r="12" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
@@ -3700,7 +3695,7 @@
     </row>
     <row r="13" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
@@ -3712,7 +3707,7 @@
     </row>
     <row r="14" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>13</v>
@@ -3724,7 +3719,7 @@
     </row>
     <row r="15" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>14</v>
@@ -3736,7 +3731,7 @@
     </row>
     <row r="16" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>15</v>
@@ -3748,7 +3743,7 @@
     </row>
     <row r="17" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>16</v>
@@ -3760,7 +3755,7 @@
     </row>
     <row r="18" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>17</v>
@@ -3772,7 +3767,7 @@
     </row>
     <row r="19" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>18</v>
@@ -3784,7 +3779,7 @@
     </row>
     <row r="20" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>19</v>
@@ -3796,7 +3791,7 @@
     </row>
     <row r="21" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>20</v>
@@ -3808,7 +3803,7 @@
     </row>
     <row r="22" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>21</v>
@@ -3820,7 +3815,7 @@
     </row>
     <row r="23" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>22</v>
@@ -3832,7 +3827,7 @@
     </row>
     <row r="24" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>23</v>
@@ -3844,7 +3839,7 @@
     </row>
     <row r="25" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>24</v>
@@ -3856,7 +3851,7 @@
     </row>
     <row r="26" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>25</v>
@@ -3868,7 +3863,7 @@
     </row>
     <row r="27" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>26</v>
@@ -3880,7 +3875,7 @@
     </row>
     <row r="28" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>27</v>
@@ -3892,7 +3887,7 @@
     </row>
     <row r="29" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>28</v>
@@ -3904,7 +3899,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>29</v>
@@ -3916,7 +3911,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>30</v>
@@ -3928,7 +3923,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>31</v>
@@ -3940,7 +3935,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>32</v>
@@ -3952,7 +3947,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>33</v>
@@ -3964,7 +3959,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>34</v>
@@ -3976,7 +3971,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>35</v>
@@ -3988,7 +3983,7 @@
     </row>
     <row r="37" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>36</v>
@@ -4000,7 +3995,7 @@
     </row>
     <row r="38" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>37</v>
@@ -4012,7 +4007,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>38</v>
@@ -4024,7 +4019,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>39</v>
@@ -4036,7 +4031,7 @@
     </row>
     <row r="41" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>40</v>
@@ -4048,7 +4043,7 @@
     </row>
     <row r="42" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>41</v>
@@ -4060,7 +4055,7 @@
     </row>
     <row r="43" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>42</v>
@@ -4072,7 +4067,7 @@
     </row>
     <row r="44" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>43</v>
@@ -4084,7 +4079,7 @@
     </row>
     <row r="45" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>44</v>
@@ -4096,7 +4091,7 @@
     </row>
     <row r="46" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>45</v>
@@ -4108,7 +4103,7 @@
     </row>
     <row r="47" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>46</v>
@@ -4120,7 +4115,7 @@
     </row>
     <row r="48" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>47</v>
@@ -4132,7 +4127,7 @@
     </row>
     <row r="49" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>48</v>
@@ -4144,7 +4139,7 @@
     </row>
     <row r="50" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>49</v>
@@ -4156,7 +4151,7 @@
     </row>
     <row r="51" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>50</v>
@@ -4168,7 +4163,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>51</v>
@@ -4180,7 +4175,7 @@
     </row>
     <row r="53" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>52</v>
@@ -4192,7 +4187,7 @@
     </row>
     <row r="54" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>53</v>
@@ -4204,7 +4199,7 @@
     </row>
     <row r="55" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>54</v>
@@ -4216,7 +4211,7 @@
     </row>
     <row r="56" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>55</v>
@@ -4228,7 +4223,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>56</v>
@@ -4240,7 +4235,7 @@
     </row>
     <row r="58" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>57</v>
@@ -4252,7 +4247,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>58</v>
@@ -4264,7 +4259,7 @@
     </row>
     <row r="60" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>59</v>
@@ -4276,7 +4271,7 @@
     </row>
     <row r="61" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>60</v>
@@ -4288,7 +4283,7 @@
     </row>
     <row r="62" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>61</v>
@@ -4300,7 +4295,7 @@
     </row>
     <row r="63" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>62</v>
@@ -4312,7 +4307,7 @@
     </row>
     <row r="64" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>63</v>
@@ -4324,7 +4319,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>64</v>
@@ -4336,7 +4331,7 @@
     </row>
     <row r="66" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>65</v>
@@ -4348,7 +4343,7 @@
     </row>
     <row r="67" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>66</v>
@@ -4360,7 +4355,7 @@
     </row>
     <row r="68" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>67</v>
@@ -4372,7 +4367,7 @@
     </row>
     <row r="69" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>68</v>
@@ -4384,7 +4379,7 @@
     </row>
     <row r="70" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>69</v>
@@ -4396,7 +4391,7 @@
     </row>
     <row r="71" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>70</v>
@@ -4408,7 +4403,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>71</v>
@@ -4420,7 +4415,7 @@
     </row>
     <row r="73" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>72</v>
@@ -4432,7 +4427,7 @@
     </row>
     <row r="74" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>73</v>
@@ -4444,7 +4439,7 @@
     </row>
     <row r="75" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>74</v>
@@ -4456,7 +4451,7 @@
     </row>
     <row r="76" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>75</v>
@@ -4468,7 +4463,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>76</v>
@@ -4480,7 +4475,7 @@
     </row>
     <row r="78" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>77</v>
@@ -4492,7 +4487,7 @@
     </row>
     <row r="79" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>78</v>
@@ -4504,7 +4499,7 @@
     </row>
     <row r="80" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>79</v>
@@ -4516,7 +4511,7 @@
     </row>
     <row r="81" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>80</v>
@@ -4528,7 +4523,7 @@
     </row>
     <row r="82" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>81</v>
@@ -4540,10 +4535,10 @@
     </row>
     <row r="83" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="C83">
         <f t="shared" si="1"/>
@@ -4552,7 +4547,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>82</v>
@@ -4564,7 +4559,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>83</v>
@@ -4576,7 +4571,7 @@
     </row>
     <row r="86" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>84</v>
@@ -4588,7 +4583,7 @@
     </row>
     <row r="87" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>85</v>
@@ -4600,7 +4595,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>86</v>
@@ -4612,7 +4607,7 @@
     </row>
     <row r="89" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>87</v>
@@ -4624,7 +4619,7 @@
     </row>
     <row r="90" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>88</v>
@@ -4636,7 +4631,7 @@
     </row>
     <row r="91" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>89</v>
@@ -4648,7 +4643,7 @@
     </row>
     <row r="92" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>90</v>
@@ -4660,7 +4655,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>91</v>
@@ -4672,7 +4667,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>92</v>
@@ -4684,7 +4679,7 @@
     </row>
     <row r="95" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>93</v>
@@ -4696,7 +4691,7 @@
     </row>
     <row r="96" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>94</v>
@@ -4708,7 +4703,7 @@
     </row>
     <row r="97" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>95</v>
@@ -4720,7 +4715,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>96</v>
@@ -4732,7 +4727,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>97</v>
@@ -4744,7 +4739,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>98</v>
@@ -4756,7 +4751,7 @@
     </row>
     <row r="101" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>99</v>
@@ -4768,7 +4763,7 @@
     </row>
     <row r="102" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>100</v>
@@ -4780,7 +4775,7 @@
     </row>
     <row r="103" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>101</v>
@@ -4792,7 +4787,7 @@
     </row>
     <row r="104" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>102</v>
@@ -4804,7 +4799,7 @@
     </row>
     <row r="105" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>103</v>
@@ -4816,7 +4811,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>104</v>
@@ -4828,7 +4823,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>105</v>
@@ -4840,7 +4835,7 @@
     </row>
     <row r="108" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>106</v>
@@ -4852,7 +4847,7 @@
     </row>
     <row r="109" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>107</v>
@@ -4864,7 +4859,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>108</v>
@@ -4876,7 +4871,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>109</v>
@@ -4888,7 +4883,7 @@
     </row>
     <row r="112" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>110</v>
@@ -4900,7 +4895,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>111</v>
@@ -4912,7 +4907,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>112</v>
@@ -4924,7 +4919,7 @@
     </row>
     <row r="115" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>113</v>
@@ -4936,7 +4931,7 @@
     </row>
     <row r="116" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>114</v>
@@ -4948,7 +4943,7 @@
     </row>
     <row r="117" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>115</v>
@@ -4960,7 +4955,7 @@
     </row>
     <row r="118" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>116</v>
@@ -4972,7 +4967,7 @@
     </row>
     <row r="119" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>117</v>
@@ -4984,7 +4979,7 @@
     </row>
     <row r="120" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>118</v>
@@ -4996,7 +4991,7 @@
     </row>
     <row r="121" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>119</v>
@@ -5008,7 +5003,7 @@
     </row>
     <row r="122" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>120</v>
@@ -5020,7 +5015,7 @@
     </row>
     <row r="123" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>121</v>
@@ -5032,7 +5027,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>122</v>
@@ -5068,7 +5063,7 @@
     </row>
     <row r="127" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>127</v>
@@ -5080,7 +5075,7 @@
     </row>
     <row r="128" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>128</v>
@@ -5092,7 +5087,7 @@
     </row>
     <row r="129" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>129</v>
@@ -5104,7 +5099,7 @@
     </row>
     <row r="130" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>130</v>
@@ -5116,7 +5111,7 @@
     </row>
     <row r="131" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>131</v>
@@ -5128,7 +5123,7 @@
     </row>
     <row r="132" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>132</v>
@@ -5140,7 +5135,7 @@
     </row>
     <row r="133" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>133</v>
@@ -5152,7 +5147,7 @@
     </row>
     <row r="134" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>134</v>
@@ -5164,7 +5159,7 @@
     </row>
     <row r="135" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>135</v>
@@ -5176,7 +5171,7 @@
     </row>
     <row r="136" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>136</v>
@@ -5188,7 +5183,7 @@
     </row>
     <row r="137" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>137</v>
@@ -5200,7 +5195,7 @@
     </row>
     <row r="138" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>138</v>
@@ -5212,7 +5207,7 @@
     </row>
     <row r="139" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>139</v>
@@ -5224,7 +5219,7 @@
     </row>
     <row r="140" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>140</v>
@@ -5236,7 +5231,7 @@
     </row>
     <row r="141" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>141</v>
@@ -5248,7 +5243,7 @@
     </row>
     <row r="142" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>142</v>
@@ -5260,7 +5255,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>143</v>
@@ -5272,7 +5267,7 @@
     </row>
     <row r="144" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>144</v>
@@ -5284,7 +5279,7 @@
     </row>
     <row r="145" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>145</v>
@@ -5296,7 +5291,7 @@
     </row>
     <row r="146" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>146</v>
@@ -5308,7 +5303,7 @@
     </row>
     <row r="147" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>147</v>
@@ -5320,7 +5315,7 @@
     </row>
     <row r="148" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>148</v>
@@ -5332,7 +5327,7 @@
     </row>
     <row r="149" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>149</v>
@@ -5344,7 +5339,7 @@
     </row>
     <row r="150" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>150</v>
@@ -5356,7 +5351,7 @@
     </row>
     <row r="151" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>151</v>
@@ -5368,7 +5363,7 @@
     </row>
     <row r="152" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>152</v>
@@ -5380,7 +5375,7 @@
     </row>
     <row r="153" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>153</v>
@@ -5392,7 +5387,7 @@
     </row>
     <row r="154" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>154</v>
@@ -5404,7 +5399,7 @@
     </row>
     <row r="155" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>155</v>
@@ -5416,7 +5411,7 @@
     </row>
     <row r="156" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>156</v>
@@ -5428,7 +5423,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>157</v>
@@ -5440,7 +5435,7 @@
     </row>
     <row r="158" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>158</v>
@@ -5452,7 +5447,7 @@
     </row>
     <row r="159" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>159</v>
@@ -5464,7 +5459,7 @@
     </row>
     <row r="160" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>160</v>
@@ -5476,7 +5471,7 @@
     </row>
     <row r="161" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>161</v>
@@ -5488,7 +5483,7 @@
     </row>
     <row r="162" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>162</v>
@@ -5500,7 +5495,7 @@
     </row>
     <row r="163" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>163</v>
@@ -5512,7 +5507,7 @@
     </row>
     <row r="164" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>164</v>
@@ -5524,7 +5519,7 @@
     </row>
     <row r="165" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>165</v>
@@ -5536,7 +5531,7 @@
     </row>
     <row r="166" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>166</v>
@@ -5548,7 +5543,7 @@
     </row>
     <row r="167" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>167</v>
@@ -5560,7 +5555,7 @@
     </row>
     <row r="168" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>168</v>
@@ -5572,7 +5567,7 @@
     </row>
     <row r="169" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>169</v>
@@ -5584,7 +5579,7 @@
     </row>
     <row r="170" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>170</v>
@@ -5596,7 +5591,7 @@
     </row>
     <row r="171" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>171</v>
@@ -5608,7 +5603,7 @@
     </row>
     <row r="172" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>172</v>
@@ -5620,7 +5615,7 @@
     </row>
     <row r="173" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>173</v>
@@ -5632,7 +5627,7 @@
     </row>
     <row r="174" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>174</v>
@@ -5644,7 +5639,7 @@
     </row>
     <row r="175" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>175</v>
@@ -5656,7 +5651,7 @@
     </row>
     <row r="176" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>176</v>
@@ -5668,7 +5663,7 @@
     </row>
     <row r="177" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>177</v>
@@ -5680,7 +5675,7 @@
     </row>
     <row r="178" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>178</v>
@@ -5692,7 +5687,7 @@
     </row>
     <row r="179" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>179</v>
@@ -5704,7 +5699,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>180</v>
@@ -5716,7 +5711,7 @@
     </row>
     <row r="181" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>181</v>
@@ -5728,7 +5723,7 @@
     </row>
     <row r="182" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>182</v>
@@ -5740,7 +5735,7 @@
     </row>
     <row r="183" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>183</v>
@@ -5752,7 +5747,7 @@
     </row>
     <row r="184" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>184</v>
@@ -5764,7 +5759,7 @@
     </row>
     <row r="185" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>185</v>
@@ -5776,7 +5771,7 @@
     </row>
     <row r="186" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>186</v>
@@ -5788,7 +5783,7 @@
     </row>
     <row r="187" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>187</v>
@@ -5800,7 +5795,7 @@
     </row>
     <row r="188" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>188</v>
@@ -5812,7 +5807,7 @@
     </row>
     <row r="189" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>189</v>
@@ -5824,7 +5819,7 @@
     </row>
     <row r="190" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>190</v>
@@ -5836,7 +5831,7 @@
     </row>
     <row r="191" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>191</v>
@@ -5848,7 +5843,7 @@
     </row>
     <row r="192" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>192</v>
@@ -5860,7 +5855,7 @@
     </row>
     <row r="193" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>193</v>
@@ -5872,7 +5867,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>194</v>
@@ -5884,7 +5879,7 @@
     </row>
     <row r="195" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>195</v>
@@ -5896,7 +5891,7 @@
     </row>
     <row r="196" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>196</v>
@@ -5908,7 +5903,7 @@
     </row>
     <row r="197" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>197</v>
@@ -5920,7 +5915,7 @@
     </row>
     <row r="198" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>198</v>
@@ -5932,7 +5927,7 @@
     </row>
     <row r="199" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>199</v>
@@ -5944,7 +5939,7 @@
     </row>
     <row r="200" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>200</v>
@@ -5956,7 +5951,7 @@
     </row>
     <row r="201" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>201</v>
@@ -5968,7 +5963,7 @@
     </row>
     <row r="202" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>202</v>
@@ -5980,7 +5975,7 @@
     </row>
     <row r="203" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>203</v>
@@ -5992,7 +5987,7 @@
     </row>
     <row r="204" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>204</v>
@@ -6004,7 +5999,7 @@
     </row>
     <row r="205" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>205</v>
@@ -6016,7 +6011,7 @@
     </row>
     <row r="206" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>206</v>
@@ -6028,7 +6023,7 @@
     </row>
     <row r="207" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>207</v>
@@ -6040,7 +6035,7 @@
     </row>
     <row r="208" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>208</v>
@@ -6052,7 +6047,7 @@
     </row>
     <row r="209" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>209</v>
@@ -6064,7 +6059,7 @@
     </row>
     <row r="210" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>210</v>
@@ -6076,7 +6071,7 @@
     </row>
     <row r="211" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>211</v>
@@ -6088,7 +6083,7 @@
     </row>
     <row r="212" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>212</v>
@@ -6100,7 +6095,7 @@
     </row>
     <row r="213" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>213</v>
@@ -6112,7 +6107,7 @@
     </row>
     <row r="214" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>214</v>
@@ -6124,7 +6119,7 @@
     </row>
     <row r="215" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>215</v>
@@ -6136,7 +6131,7 @@
     </row>
     <row r="216" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>216</v>
@@ -6148,7 +6143,7 @@
     </row>
     <row r="217" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>217</v>
@@ -6160,7 +6155,7 @@
     </row>
     <row r="218" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>218</v>
@@ -6172,7 +6167,7 @@
     </row>
     <row r="219" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>219</v>
@@ -6184,7 +6179,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>220</v>
@@ -6196,7 +6191,7 @@
     </row>
     <row r="221" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>221</v>
@@ -6208,7 +6203,7 @@
     </row>
     <row r="222" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>222</v>
@@ -6220,7 +6215,7 @@
     </row>
     <row r="223" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>223</v>
@@ -6232,7 +6227,7 @@
     </row>
     <row r="224" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>224</v>
@@ -6244,7 +6239,7 @@
     </row>
     <row r="225" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>225</v>
@@ -6256,7 +6251,7 @@
     </row>
     <row r="226" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>226</v>
@@ -6268,7 +6263,7 @@
     </row>
     <row r="227" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>227</v>
@@ -6280,7 +6275,7 @@
     </row>
     <row r="228" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>228</v>
@@ -6292,7 +6287,7 @@
     </row>
     <row r="229" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>229</v>
@@ -6304,7 +6299,7 @@
     </row>
     <row r="230" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>230</v>
@@ -6316,7 +6311,7 @@
     </row>
     <row r="231" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>231</v>
@@ -6328,7 +6323,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>232</v>
@@ -6340,7 +6335,7 @@
     </row>
     <row r="233" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>233</v>
@@ -6352,7 +6347,7 @@
     </row>
     <row r="234" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>234</v>
@@ -6364,7 +6359,7 @@
     </row>
     <row r="235" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>235</v>
@@ -6376,7 +6371,7 @@
     </row>
     <row r="236" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>236</v>
@@ -6388,7 +6383,7 @@
     </row>
     <row r="237" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>237</v>
@@ -6400,7 +6395,7 @@
     </row>
     <row r="238" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>238</v>
@@ -6412,7 +6407,7 @@
     </row>
     <row r="239" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>239</v>
@@ -6424,7 +6419,7 @@
     </row>
     <row r="240" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>240</v>
@@ -6436,7 +6431,7 @@
     </row>
     <row r="241" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>241</v>
@@ -6448,7 +6443,7 @@
     </row>
     <row r="242" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>242</v>
@@ -6460,7 +6455,7 @@
     </row>
     <row r="243" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>243</v>
@@ -6472,7 +6467,7 @@
     </row>
     <row r="244" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>244</v>
@@ -6484,7 +6479,7 @@
     </row>
     <row r="245" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>245</v>
@@ -6496,7 +6491,7 @@
     </row>
     <row r="246" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>246</v>
@@ -6508,7 +6503,7 @@
     </row>
     <row r="247" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>247</v>
@@ -6520,10 +6515,10 @@
     </row>
     <row r="248" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>248</v>
+        <v>1053</v>
       </c>
       <c r="C248">
         <f t="shared" si="3"/>
@@ -6532,10 +6527,10 @@
     </row>
     <row r="249" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C249">
         <f t="shared" si="3"/>
@@ -6544,10 +6539,10 @@
     </row>
     <row r="250" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C250">
         <f t="shared" si="3"/>
@@ -6556,10 +6551,10 @@
     </row>
     <row r="251" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C251">
         <f t="shared" si="3"/>
@@ -6568,10 +6563,10 @@
     </row>
     <row r="252" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C252">
         <f t="shared" si="3"/>
@@ -6580,10 +6575,10 @@
     </row>
     <row r="253" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C253">
         <f t="shared" si="3"/>
@@ -6592,10 +6587,10 @@
     </row>
     <row r="254" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C254">
         <f t="shared" si="3"/>
@@ -6604,10 +6599,10 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>255</v>
+        <v>1049</v>
       </c>
       <c r="C255">
         <f t="shared" si="3"/>
@@ -6616,10 +6611,10 @@
     </row>
     <row r="256" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>256</v>
+        <v>1050</v>
       </c>
       <c r="C256">
         <f t="shared" si="3"/>
@@ -6628,10 +6623,10 @@
     </row>
     <row r="257" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>257</v>
+        <v>1051</v>
       </c>
       <c r="C257">
         <f t="shared" ref="C257:C320" si="4">LEN(B257)</f>
@@ -6640,10 +6635,10 @@
     </row>
     <row r="258" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>258</v>
+        <v>1052</v>
       </c>
       <c r="C258">
         <f t="shared" si="4"/>
@@ -6652,10 +6647,10 @@
     </row>
     <row r="259" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C259">
         <f t="shared" si="4"/>
@@ -6664,10 +6659,10 @@
     </row>
     <row r="260" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C260">
         <f t="shared" si="4"/>
@@ -6676,10 +6671,10 @@
     </row>
     <row r="261" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C261">
         <f t="shared" si="4"/>
@@ -6688,10 +6683,10 @@
     </row>
     <row r="262" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C262">
         <f t="shared" si="4"/>
@@ -6700,10 +6695,10 @@
     </row>
     <row r="263" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C263">
         <f t="shared" si="4"/>
@@ -6712,10 +6707,10 @@
     </row>
     <row r="264" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C264">
         <f t="shared" si="4"/>
@@ -6724,10 +6719,10 @@
     </row>
     <row r="265" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C265">
         <f t="shared" si="4"/>
@@ -6736,10 +6731,10 @@
     </row>
     <row r="266" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C266">
         <f t="shared" si="4"/>
@@ -6748,10 +6743,10 @@
     </row>
     <row r="267" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C267">
         <f t="shared" si="4"/>
@@ -6760,10 +6755,10 @@
     </row>
     <row r="268" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C268">
         <f t="shared" si="4"/>
@@ -6772,10 +6767,10 @@
     </row>
     <row r="269" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C269">
         <f t="shared" si="4"/>
@@ -6784,10 +6779,10 @@
     </row>
     <row r="270" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C270">
         <f t="shared" si="4"/>
@@ -6796,10 +6791,10 @@
     </row>
     <row r="271" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C271">
         <f t="shared" si="4"/>
@@ -6808,10 +6803,10 @@
     </row>
     <row r="272" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C272">
         <f t="shared" si="4"/>
@@ -6820,10 +6815,10 @@
     </row>
     <row r="273" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C273">
         <f t="shared" si="4"/>
@@ -6832,10 +6827,10 @@
     </row>
     <row r="274" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C274">
         <f t="shared" si="4"/>
@@ -6844,10 +6839,10 @@
     </row>
     <row r="275" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C275">
         <f t="shared" si="4"/>
@@ -6856,10 +6851,10 @@
     </row>
     <row r="276" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C276">
         <f t="shared" si="4"/>
@@ -6868,10 +6863,10 @@
     </row>
     <row r="277" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C277">
         <f t="shared" si="4"/>
@@ -6880,10 +6875,10 @@
     </row>
     <row r="278" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C278">
         <f t="shared" si="4"/>
@@ -6892,10 +6887,10 @@
     </row>
     <row r="279" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C279">
         <f t="shared" si="4"/>
@@ -6904,10 +6899,10 @@
     </row>
     <row r="280" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C280">
         <f t="shared" si="4"/>
@@ -6916,10 +6911,10 @@
     </row>
     <row r="281" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C281">
         <f t="shared" si="4"/>
@@ -6928,10 +6923,10 @@
     </row>
     <row r="282" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C282">
         <f t="shared" si="4"/>
@@ -6940,10 +6935,10 @@
     </row>
     <row r="283" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C283">
         <f t="shared" si="4"/>
@@ -6952,10 +6947,10 @@
     </row>
     <row r="284" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C284">
         <f t="shared" si="4"/>
@@ -6964,10 +6959,10 @@
     </row>
     <row r="285" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C285">
         <f t="shared" si="4"/>
@@ -6976,10 +6971,10 @@
     </row>
     <row r="286" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C286">
         <f t="shared" si="4"/>
@@ -6988,10 +6983,10 @@
     </row>
     <row r="287" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C287">
         <f t="shared" si="4"/>
@@ -7000,10 +6995,10 @@
     </row>
     <row r="288" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C288">
         <f t="shared" si="4"/>
@@ -7012,10 +7007,10 @@
     </row>
     <row r="289" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C289">
         <f t="shared" si="4"/>
@@ -7024,10 +7019,10 @@
     </row>
     <row r="290" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C290">
         <f t="shared" si="4"/>
@@ -7036,10 +7031,10 @@
     </row>
     <row r="291" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C291">
         <f t="shared" si="4"/>
@@ -7048,10 +7043,10 @@
     </row>
     <row r="292" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C292">
         <f t="shared" si="4"/>
@@ -7060,10 +7055,10 @@
     </row>
     <row r="293" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C293">
         <f t="shared" si="4"/>
@@ -7072,10 +7067,10 @@
     </row>
     <row r="294" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C294">
         <f t="shared" si="4"/>
@@ -7084,10 +7079,10 @@
     </row>
     <row r="295" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C295">
         <f t="shared" si="4"/>
@@ -7096,10 +7091,10 @@
     </row>
     <row r="296" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C296">
         <f t="shared" si="4"/>
@@ -7108,10 +7103,10 @@
     </row>
     <row r="297" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C297">
         <f t="shared" si="4"/>
@@ -7120,10 +7115,10 @@
     </row>
     <row r="298" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C298">
         <f t="shared" si="4"/>
@@ -7132,10 +7127,10 @@
     </row>
     <row r="299" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C299">
         <f t="shared" si="4"/>
@@ -7144,10 +7139,10 @@
     </row>
     <row r="300" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C300">
         <f t="shared" si="4"/>
@@ -7156,10 +7151,10 @@
     </row>
     <row r="301" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C301">
         <f t="shared" si="4"/>
@@ -7168,10 +7163,10 @@
     </row>
     <row r="302" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C302">
         <f t="shared" si="4"/>
@@ -7180,10 +7175,10 @@
     </row>
     <row r="303" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C303">
         <f t="shared" si="4"/>
@@ -7192,10 +7187,10 @@
     </row>
     <row r="304" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C304">
         <f t="shared" si="4"/>
@@ -7204,10 +7199,10 @@
     </row>
     <row r="305" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C305">
         <f t="shared" si="4"/>
@@ -7216,10 +7211,10 @@
     </row>
     <row r="306" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C306">
         <f t="shared" si="4"/>
@@ -7228,10 +7223,10 @@
     </row>
     <row r="307" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C307">
         <f t="shared" si="4"/>
@@ -7240,10 +7235,10 @@
     </row>
     <row r="308" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C308">
         <f t="shared" si="4"/>
@@ -7252,10 +7247,10 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C309">
         <f t="shared" si="4"/>
@@ -7264,10 +7259,10 @@
     </row>
     <row r="310" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C310">
         <f t="shared" si="4"/>
@@ -7276,10 +7271,10 @@
     </row>
     <row r="311" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C311">
         <f t="shared" si="4"/>
@@ -7288,10 +7283,10 @@
     </row>
     <row r="312" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C312">
         <f t="shared" si="4"/>
@@ -7300,10 +7295,10 @@
     </row>
     <row r="313" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C313">
         <f t="shared" si="4"/>
@@ -7312,10 +7307,10 @@
     </row>
     <row r="314" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C314">
         <f t="shared" si="4"/>
@@ -7324,10 +7319,10 @@
     </row>
     <row r="315" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C315">
         <f t="shared" si="4"/>
@@ -7336,10 +7331,10 @@
     </row>
     <row r="316" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C316">
         <f t="shared" si="4"/>
@@ -7348,10 +7343,10 @@
     </row>
     <row r="317" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C317">
         <f t="shared" si="4"/>
@@ -7360,10 +7355,10 @@
     </row>
     <row r="318" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C318">
         <f t="shared" si="4"/>
@@ -7372,10 +7367,10 @@
     </row>
     <row r="319" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C319">
         <f t="shared" si="4"/>
@@ -7384,10 +7379,10 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C320">
         <f t="shared" si="4"/>
@@ -7396,10 +7391,10 @@
     </row>
     <row r="321" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C321">
         <f t="shared" ref="C321:C384" si="5">LEN(B321)</f>
@@ -7408,10 +7403,10 @@
     </row>
     <row r="322" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C322">
         <f t="shared" si="5"/>
@@ -7420,10 +7415,10 @@
     </row>
     <row r="323" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C323">
         <f t="shared" si="5"/>
@@ -7432,10 +7427,10 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C324">
         <f t="shared" si="5"/>
@@ -7444,10 +7439,10 @@
     </row>
     <row r="325" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C325">
         <f t="shared" si="5"/>
@@ -7456,10 +7451,10 @@
     </row>
     <row r="326" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C326">
         <f t="shared" si="5"/>
@@ -7468,10 +7463,10 @@
     </row>
     <row r="327" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C327">
         <f t="shared" si="5"/>
@@ -7480,10 +7475,10 @@
     </row>
     <row r="328" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C328">
         <f t="shared" si="5"/>
@@ -7492,10 +7487,10 @@
     </row>
     <row r="329" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C329">
         <f t="shared" si="5"/>
@@ -7504,10 +7499,10 @@
     </row>
     <row r="330" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C330">
         <f t="shared" si="5"/>
@@ -7516,10 +7511,10 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C331">
         <f t="shared" si="5"/>
@@ -7528,10 +7523,10 @@
     </row>
     <row r="332" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C332">
         <f t="shared" si="5"/>
@@ -7540,10 +7535,10 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C333">
         <f t="shared" si="5"/>
@@ -7552,10 +7547,10 @@
     </row>
     <row r="334" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C334">
         <f t="shared" si="5"/>
@@ -7564,10 +7559,10 @@
     </row>
     <row r="335" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C335">
         <f t="shared" si="5"/>
@@ -7576,10 +7571,10 @@
     </row>
     <row r="336" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C336">
         <f t="shared" si="5"/>
@@ -7588,10 +7583,10 @@
     </row>
     <row r="337" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C337">
         <f t="shared" si="5"/>
@@ -7600,10 +7595,10 @@
     </row>
     <row r="338" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C338">
         <f t="shared" si="5"/>
@@ -7612,10 +7607,10 @@
     </row>
     <row r="339" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C339">
         <f t="shared" si="5"/>
@@ -7624,10 +7619,10 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C340">
         <f t="shared" si="5"/>
@@ -7636,10 +7631,10 @@
     </row>
     <row r="341" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C341">
         <f t="shared" si="5"/>
@@ -7648,10 +7643,10 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C342">
         <f t="shared" si="5"/>
@@ -7660,10 +7655,10 @@
     </row>
     <row r="343" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C343">
         <f t="shared" si="5"/>
@@ -7672,10 +7667,10 @@
     </row>
     <row r="344" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C344">
         <f t="shared" si="5"/>
@@ -7684,10 +7679,10 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C345">
         <f t="shared" si="5"/>
@@ -7696,10 +7691,10 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C346">
         <f t="shared" si="5"/>
@@ -7708,10 +7703,10 @@
     </row>
     <row r="347" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C347">
         <f t="shared" si="5"/>
@@ -7720,10 +7715,10 @@
     </row>
     <row r="348" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C348">
         <f t="shared" si="5"/>
@@ -7732,10 +7727,10 @@
     </row>
     <row r="349" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C349">
         <f t="shared" si="5"/>
@@ -7744,10 +7739,10 @@
     </row>
     <row r="350" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C350">
         <f t="shared" si="5"/>
@@ -7756,10 +7751,10 @@
     </row>
     <row r="351" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C351">
         <f t="shared" si="5"/>
@@ -7768,10 +7763,10 @@
     </row>
     <row r="352" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C352">
         <f t="shared" si="5"/>
@@ -7780,10 +7775,10 @@
     </row>
     <row r="353" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C353">
         <f t="shared" si="5"/>
@@ -7792,10 +7787,10 @@
     </row>
     <row r="354" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C354">
         <f t="shared" si="5"/>
@@ -7804,10 +7799,10 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C355">
         <f t="shared" si="5"/>
@@ -7816,10 +7811,10 @@
     </row>
     <row r="356" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C356">
         <f t="shared" si="5"/>
@@ -7828,10 +7823,10 @@
     </row>
     <row r="357" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C357">
         <f t="shared" si="5"/>
@@ -7840,10 +7835,10 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C358">
         <f t="shared" si="5"/>
@@ -7852,10 +7847,10 @@
     </row>
     <row r="359" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C359">
         <f t="shared" si="5"/>
@@ -7864,10 +7859,10 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C360">
         <f t="shared" si="5"/>
@@ -7876,10 +7871,10 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C361">
         <f t="shared" si="5"/>
@@ -7888,10 +7883,10 @@
     </row>
     <row r="362" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C362">
         <f t="shared" si="5"/>
@@ -7900,10 +7895,10 @@
     </row>
     <row r="363" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C363">
         <f t="shared" si="5"/>
@@ -7912,10 +7907,10 @@
     </row>
     <row r="364" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C364">
         <f t="shared" si="5"/>
@@ -7924,10 +7919,10 @@
     </row>
     <row r="365" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C365">
         <f t="shared" si="5"/>
@@ -7936,10 +7931,10 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C366">
         <f t="shared" si="5"/>
@@ -7948,10 +7943,10 @@
     </row>
     <row r="367" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C367">
         <f t="shared" si="5"/>
@@ -7960,10 +7955,10 @@
     </row>
     <row r="368" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C368">
         <f t="shared" si="5"/>
@@ -7972,10 +7967,10 @@
     </row>
     <row r="369" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C369">
         <f t="shared" si="5"/>
@@ -7984,10 +7979,10 @@
     </row>
     <row r="370" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C370">
         <f t="shared" si="5"/>
@@ -7996,10 +7991,10 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C371">
         <f t="shared" si="5"/>
@@ -8008,10 +8003,10 @@
     </row>
     <row r="372" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C372">
         <f t="shared" si="5"/>
@@ -8020,10 +8015,10 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C373">
         <f t="shared" si="5"/>
@@ -8032,10 +8027,10 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C374">
         <f t="shared" si="5"/>
@@ -8044,10 +8039,10 @@
     </row>
     <row r="375" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C375">
         <f t="shared" si="5"/>
@@ -8056,10 +8051,10 @@
     </row>
     <row r="376" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C376">
         <f t="shared" si="5"/>
@@ -8068,10 +8063,10 @@
     </row>
     <row r="377" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C377">
         <f t="shared" si="5"/>
@@ -8080,10 +8075,10 @@
     </row>
     <row r="378" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C378">
         <f t="shared" si="5"/>
@@ -8092,10 +8087,10 @@
     </row>
     <row r="379" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C379">
         <f t="shared" si="5"/>
@@ -8104,10 +8099,10 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C380">
         <f t="shared" si="5"/>
@@ -8116,10 +8111,10 @@
     </row>
     <row r="381" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C381">
         <f t="shared" si="5"/>
@@ -8128,10 +8123,10 @@
     </row>
     <row r="382" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C382">
         <f t="shared" si="5"/>
@@ -8140,10 +8135,10 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C383">
         <f t="shared" si="5"/>
@@ -8152,10 +8147,10 @@
     </row>
     <row r="384" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C384">
         <f t="shared" si="5"/>
@@ -8164,10 +8159,10 @@
     </row>
     <row r="385" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C385">
         <f t="shared" ref="C385:C448" si="6">LEN(B385)</f>
@@ -8176,10 +8171,10 @@
     </row>
     <row r="386" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C386">
         <f t="shared" si="6"/>
@@ -8188,10 +8183,10 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C387">
         <f t="shared" si="6"/>
@@ -8200,10 +8195,10 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C388">
         <f t="shared" si="6"/>
@@ -8212,10 +8207,10 @@
     </row>
     <row r="389" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C389">
         <f t="shared" si="6"/>
@@ -8224,10 +8219,10 @@
     </row>
     <row r="390" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C390">
         <f t="shared" si="6"/>
@@ -8236,10 +8231,10 @@
     </row>
     <row r="391" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C391">
         <f t="shared" si="6"/>
@@ -8248,10 +8243,10 @@
     </row>
     <row r="392" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C392">
         <f t="shared" si="6"/>
@@ -8260,10 +8255,10 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C393">
         <f t="shared" si="6"/>
@@ -8272,10 +8267,10 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C394">
         <f t="shared" si="6"/>
@@ -8284,10 +8279,10 @@
     </row>
     <row r="395" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C395">
         <f t="shared" si="6"/>
@@ -8296,10 +8291,10 @@
     </row>
     <row r="396" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C396">
         <f t="shared" si="6"/>
@@ -8308,10 +8303,10 @@
     </row>
     <row r="397" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C397">
         <f t="shared" si="6"/>
@@ -8320,10 +8315,10 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C398">
         <f t="shared" si="6"/>
@@ -8332,10 +8327,10 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C399">
         <f t="shared" si="6"/>
@@ -8344,10 +8339,10 @@
     </row>
     <row r="400" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C400">
         <f t="shared" si="6"/>
@@ -8356,10 +8351,10 @@
     </row>
     <row r="401" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C401">
         <f t="shared" si="6"/>
@@ -8368,10 +8363,10 @@
     </row>
     <row r="402" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C402">
         <f t="shared" si="6"/>
@@ -8380,10 +8375,10 @@
     </row>
     <row r="403" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C403">
         <f t="shared" si="6"/>
@@ -8392,10 +8387,10 @@
     </row>
     <row r="404" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C404">
         <f t="shared" si="6"/>
@@ -8404,10 +8399,10 @@
     </row>
     <row r="405" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C405">
         <f t="shared" si="6"/>
@@ -8416,10 +8411,10 @@
     </row>
     <row r="406" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C406">
         <f t="shared" si="6"/>
@@ -8428,10 +8423,10 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C407">
         <f t="shared" si="6"/>
@@ -8440,10 +8435,10 @@
     </row>
     <row r="408" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C408">
         <f t="shared" si="6"/>
@@ -8452,10 +8447,10 @@
     </row>
     <row r="409" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C409">
         <f t="shared" si="6"/>
@@ -8464,10 +8459,10 @@
     </row>
     <row r="410" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C410">
         <f t="shared" si="6"/>
@@ -8476,10 +8471,10 @@
     </row>
     <row r="411" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C411">
         <f t="shared" si="6"/>
@@ -8488,10 +8483,10 @@
     </row>
     <row r="412" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C412">
         <f t="shared" si="6"/>
@@ -8500,10 +8495,10 @@
     </row>
     <row r="413" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C413">
         <f t="shared" si="6"/>
@@ -8512,10 +8507,10 @@
     </row>
     <row r="414" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C414">
         <f t="shared" si="6"/>
@@ -8524,10 +8519,10 @@
     </row>
     <row r="415" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C415">
         <f t="shared" si="6"/>
@@ -8536,10 +8531,10 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C416">
         <f t="shared" si="6"/>
@@ -8548,10 +8543,10 @@
     </row>
     <row r="417" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C417">
         <f t="shared" si="6"/>
@@ -8560,10 +8555,10 @@
     </row>
     <row r="418" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C418">
         <f t="shared" si="6"/>
@@ -8572,10 +8567,10 @@
     </row>
     <row r="419" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C419">
         <f t="shared" si="6"/>
@@ -8584,10 +8579,10 @@
     </row>
     <row r="420" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C420">
         <f t="shared" si="6"/>
@@ -8596,10 +8591,10 @@
     </row>
     <row r="421" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C421">
         <f t="shared" si="6"/>
@@ -8608,10 +8603,10 @@
     </row>
     <row r="422" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C422">
         <f t="shared" si="6"/>
@@ -8620,10 +8615,10 @@
     </row>
     <row r="423" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C423">
         <f t="shared" si="6"/>
@@ -8632,10 +8627,10 @@
     </row>
     <row r="424" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C424">
         <f t="shared" si="6"/>
@@ -8644,10 +8639,10 @@
     </row>
     <row r="425" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C425">
         <f t="shared" si="6"/>
@@ -8656,10 +8651,10 @@
     </row>
     <row r="426" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C426">
         <f t="shared" si="6"/>
@@ -8668,10 +8663,10 @@
     </row>
     <row r="427" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C427">
         <f t="shared" si="6"/>
@@ -8680,10 +8675,10 @@
     </row>
     <row r="428" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C428">
         <f t="shared" si="6"/>
@@ -8692,10 +8687,10 @@
     </row>
     <row r="429" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C429">
         <f t="shared" si="6"/>
@@ -8704,10 +8699,10 @@
     </row>
     <row r="430" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C430">
         <f t="shared" si="6"/>
@@ -8716,10 +8711,10 @@
     </row>
     <row r="431" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C431">
         <f t="shared" si="6"/>
@@ -8728,10 +8723,10 @@
     </row>
     <row r="432" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C432">
         <f t="shared" si="6"/>
@@ -8740,10 +8735,10 @@
     </row>
     <row r="433" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C433">
         <f t="shared" si="6"/>
@@ -8752,10 +8747,10 @@
     </row>
     <row r="434" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C434">
         <f t="shared" si="6"/>
@@ -8764,10 +8759,10 @@
     </row>
     <row r="435" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C435">
         <f t="shared" si="6"/>
@@ -8776,10 +8771,10 @@
     </row>
     <row r="436" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C436">
         <f t="shared" si="6"/>
@@ -8788,10 +8783,10 @@
     </row>
     <row r="437" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C437">
         <f t="shared" si="6"/>
@@ -8800,10 +8795,10 @@
     </row>
     <row r="438" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C438">
         <f t="shared" si="6"/>
@@ -8812,10 +8807,10 @@
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C439">
         <f t="shared" si="6"/>
@@ -8824,10 +8819,10 @@
     </row>
     <row r="440" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C440">
         <f t="shared" si="6"/>
@@ -8836,10 +8831,10 @@
     </row>
     <row r="441" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C441">
         <f t="shared" si="6"/>
@@ -8848,10 +8843,10 @@
     </row>
     <row r="442" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C442">
         <f t="shared" si="6"/>
@@ -8860,10 +8855,10 @@
     </row>
     <row r="443" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C443">
         <f t="shared" si="6"/>
@@ -8872,10 +8867,10 @@
     </row>
     <row r="444" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C444">
         <f t="shared" si="6"/>
@@ -8884,10 +8879,10 @@
     </row>
     <row r="445" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C445">
         <f t="shared" si="6"/>
@@ -8896,10 +8891,10 @@
     </row>
     <row r="446" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C446">
         <f t="shared" si="6"/>
@@ -8908,10 +8903,10 @@
     </row>
     <row r="447" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C447">
         <f t="shared" si="6"/>
@@ -8920,10 +8915,10 @@
     </row>
     <row r="448" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C448">
         <f t="shared" si="6"/>
@@ -8932,10 +8927,10 @@
     </row>
     <row r="449" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C449">
         <f t="shared" ref="C449:C512" si="7">LEN(B449)</f>
@@ -8944,10 +8939,10 @@
     </row>
     <row r="450" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C450">
         <f t="shared" si="7"/>
@@ -8956,10 +8951,10 @@
     </row>
     <row r="451" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C451">
         <f t="shared" si="7"/>
@@ -8968,10 +8963,10 @@
     </row>
     <row r="452" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C452">
         <f t="shared" si="7"/>
@@ -8980,10 +8975,10 @@
     </row>
     <row r="453" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C453">
         <f t="shared" si="7"/>
@@ -8992,10 +8987,10 @@
     </row>
     <row r="454" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C454">
         <f t="shared" si="7"/>
@@ -9004,10 +8999,10 @@
     </row>
     <row r="455" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C455">
         <f t="shared" si="7"/>
@@ -9016,10 +9011,10 @@
     </row>
     <row r="456" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C456">
         <f t="shared" si="7"/>
@@ -9028,10 +9023,10 @@
     </row>
     <row r="457" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C457">
         <f t="shared" si="7"/>
@@ -9040,10 +9035,10 @@
     </row>
     <row r="458" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C458">
         <f t="shared" si="7"/>
@@ -9052,10 +9047,10 @@
     </row>
     <row r="459" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C459">
         <f t="shared" si="7"/>
@@ -9064,10 +9059,10 @@
     </row>
     <row r="460" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C460">
         <f t="shared" si="7"/>
@@ -9076,10 +9071,10 @@
     </row>
     <row r="461" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C461">
         <f t="shared" si="7"/>
@@ -9088,10 +9083,10 @@
     </row>
     <row r="462" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C462">
         <f t="shared" si="7"/>
@@ -9100,10 +9095,10 @@
     </row>
     <row r="463" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C463">
         <f t="shared" si="7"/>
@@ -9112,10 +9107,10 @@
     </row>
     <row r="464" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C464">
         <f t="shared" si="7"/>
@@ -9124,10 +9119,10 @@
     </row>
     <row r="465" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C465">
         <f t="shared" si="7"/>
@@ -9136,10 +9131,10 @@
     </row>
     <row r="466" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C466">
         <f t="shared" si="7"/>
@@ -9148,10 +9143,10 @@
     </row>
     <row r="467" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C467">
         <f t="shared" si="7"/>
@@ -9160,10 +9155,10 @@
     </row>
     <row r="468" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C468">
         <f t="shared" si="7"/>
@@ -9172,10 +9167,10 @@
     </row>
     <row r="469" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C469">
         <f t="shared" si="7"/>
@@ -9184,10 +9179,10 @@
     </row>
     <row r="470" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C470">
         <f t="shared" si="7"/>
@@ -9196,10 +9191,10 @@
     </row>
     <row r="471" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C471">
         <f t="shared" si="7"/>
@@ -9208,10 +9203,10 @@
     </row>
     <row r="472" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C472">
         <f t="shared" si="7"/>
@@ -9220,10 +9215,10 @@
     </row>
     <row r="473" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C473">
         <f t="shared" si="7"/>
@@ -9232,10 +9227,10 @@
     </row>
     <row r="474" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C474">
         <f t="shared" si="7"/>
@@ -9244,10 +9239,10 @@
     </row>
     <row r="475" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C475">
         <f t="shared" si="7"/>
@@ -9256,10 +9251,10 @@
     </row>
     <row r="476" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C476">
         <f t="shared" si="7"/>
@@ -9268,10 +9263,10 @@
     </row>
     <row r="477" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C477">
         <f t="shared" si="7"/>
@@ -9280,10 +9275,10 @@
     </row>
     <row r="478" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C478">
         <f t="shared" si="7"/>
@@ -9292,10 +9287,10 @@
     </row>
     <row r="479" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C479">
         <f t="shared" si="7"/>
@@ -9304,10 +9299,10 @@
     </row>
     <row r="480" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C480">
         <f t="shared" si="7"/>
@@ -9316,10 +9311,10 @@
     </row>
     <row r="481" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C481">
         <f t="shared" si="7"/>
@@ -9328,10 +9323,10 @@
     </row>
     <row r="482" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C482">
         <f t="shared" si="7"/>
@@ -9340,10 +9335,10 @@
     </row>
     <row r="483" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C483">
         <f t="shared" si="7"/>
@@ -9352,10 +9347,10 @@
     </row>
     <row r="484" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C484">
         <f t="shared" si="7"/>
@@ -9364,10 +9359,10 @@
     </row>
     <row r="485" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C485">
         <f t="shared" si="7"/>
@@ -9376,10 +9371,10 @@
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="C486">
         <f t="shared" si="7"/>
@@ -9388,10 +9383,10 @@
     </row>
     <row r="487" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C487">
         <f t="shared" si="7"/>
@@ -9400,10 +9395,10 @@
     </row>
     <row r="488" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="C488">
         <f t="shared" si="7"/>
@@ -9412,10 +9407,10 @@
     </row>
     <row r="489" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C489">
         <f t="shared" si="7"/>
@@ -9424,10 +9419,10 @@
     </row>
     <row r="490" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C490">
         <f t="shared" si="7"/>
@@ -9436,10 +9431,10 @@
     </row>
     <row r="491" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="C491">
         <f t="shared" si="7"/>
@@ -9448,10 +9443,10 @@
     </row>
     <row r="492" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C492">
         <f t="shared" si="7"/>
@@ -9460,10 +9455,10 @@
     </row>
     <row r="493" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C493">
         <f t="shared" si="7"/>
@@ -9472,10 +9467,10 @@
     </row>
     <row r="494" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C494">
         <f t="shared" si="7"/>
@@ -9484,10 +9479,10 @@
     </row>
     <row r="495" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C495">
         <f t="shared" si="7"/>
@@ -9496,10 +9491,10 @@
     </row>
     <row r="496" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="C496">
         <f t="shared" si="7"/>
@@ -9508,10 +9503,10 @@
     </row>
     <row r="497" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="C497">
         <f t="shared" si="7"/>
@@ -9520,10 +9515,10 @@
     </row>
     <row r="498" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C498">
         <f t="shared" si="7"/>
@@ -9532,10 +9527,10 @@
     </row>
     <row r="499" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C499">
         <f t="shared" si="7"/>
@@ -9544,10 +9539,10 @@
     </row>
     <row r="500" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C500">
         <f t="shared" si="7"/>
@@ -9556,10 +9551,10 @@
     </row>
     <row r="501" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C501">
         <f t="shared" si="7"/>
@@ -9568,10 +9563,10 @@
     </row>
     <row r="502" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C502">
         <f t="shared" si="7"/>
@@ -9580,10 +9575,10 @@
     </row>
     <row r="503" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C503">
         <f t="shared" si="7"/>
@@ -9592,10 +9587,10 @@
     </row>
     <row r="504" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C504">
         <f t="shared" si="7"/>
@@ -9604,10 +9599,10 @@
     </row>
     <row r="505" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C505">
         <f t="shared" si="7"/>
@@ -9616,10 +9611,10 @@
     </row>
     <row r="506" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C506">
         <f t="shared" si="7"/>
@@ -9628,10 +9623,10 @@
     </row>
     <row r="507" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C507">
         <f t="shared" si="7"/>
@@ -9640,10 +9635,10 @@
     </row>
     <row r="508" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C508">
         <f t="shared" si="7"/>
@@ -9652,10 +9647,10 @@
     </row>
     <row r="509" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C509">
         <f t="shared" si="7"/>
@@ -9664,10 +9659,10 @@
     </row>
     <row r="510" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C510">
         <f t="shared" si="7"/>
@@ -9676,10 +9671,10 @@
     </row>
     <row r="511" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C511">
         <f t="shared" si="7"/>
@@ -9688,10 +9683,10 @@
     </row>
     <row r="512" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C512">
         <f t="shared" si="7"/>
@@ -9700,10 +9695,10 @@
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C513">
         <f t="shared" ref="C513:C529" si="8">LEN(B513)</f>
@@ -9712,10 +9707,10 @@
     </row>
     <row r="514" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C514">
         <f t="shared" si="8"/>
@@ -9724,10 +9719,10 @@
     </row>
     <row r="515" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="C515">
         <f t="shared" si="8"/>
@@ -9736,10 +9731,10 @@
     </row>
     <row r="516" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C516">
         <f t="shared" si="8"/>
@@ -9748,10 +9743,10 @@
     </row>
     <row r="517" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C517">
         <f t="shared" si="8"/>
@@ -9760,10 +9755,10 @@
     </row>
     <row r="518" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C518">
         <f t="shared" si="8"/>
@@ -9772,10 +9767,10 @@
     </row>
     <row r="519" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C519">
         <f t="shared" si="8"/>
@@ -9784,10 +9779,10 @@
     </row>
     <row r="520" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C520">
         <f t="shared" si="8"/>
@@ -9796,10 +9791,10 @@
     </row>
     <row r="521" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C521">
         <f t="shared" si="8"/>
@@ -9808,10 +9803,10 @@
     </row>
     <row r="522" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C522">
         <f t="shared" si="8"/>
@@ -9820,10 +9815,10 @@
     </row>
     <row r="523" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C523">
         <f t="shared" si="8"/>
@@ -9832,10 +9827,10 @@
     </row>
     <row r="524" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="C524">
         <f t="shared" si="8"/>
@@ -9844,10 +9839,10 @@
     </row>
     <row r="525" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C525">
         <f t="shared" si="8"/>
@@ -9856,10 +9851,10 @@
     </row>
     <row r="526" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C526">
         <f t="shared" si="8"/>
@@ -9868,10 +9863,10 @@
     </row>
     <row r="527" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C527">
         <f t="shared" si="8"/>
@@ -9880,10 +9875,10 @@
     </row>
     <row r="528" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C528">
         <f t="shared" si="8"/>
@@ -9892,10 +9887,10 @@
     </row>
     <row r="529" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C529">
         <f t="shared" si="8"/>

--- a/tweetlist.xlsx
+++ b/tweetlist.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="todayssatellite" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">todayssatellite!$A$1:$C$530</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="1054">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="1059">
   <si>
     <t>【今日の人工衛星】1/1 1990年：JCSAT-2 日本のJSAT(現・スカパーJSAT)保有の通信衛星。タイタンIIIロケットで打上、東経154度からサービスを提供。現在は寿命が切れている。</t>
   </si>
@@ -176,9 +179,6 @@
     <t xml:space="preserve">【今日の人工衛星】2/2 2007年：北斗2A号(1D号とも) 北斗-2計画の初号機。現在使用されているかは不明。 2009年：オミド イラン初の国産人工衛星。イラン革命30周年記念。  </t>
   </si>
   <si>
-    <t>補足：イランは自力の打ち上げ能力を持つ10カ国目。V2ロケット⇒ソ連：スカッド⇒北朝鮮：ノドン⇒イラン：シャハブ（弾道ミサイル）⇒イラン：サフィール　という流れで打上能力を確保した。</t>
-  </si>
-  <si>
     <t>【今日の人工衛星】2/3 1966年：ESSA 1 米国環境科学局が管理する気象衛星1号機</t>
   </si>
   <si>
@@ -392,9 +392,6 @@
     <t>【今日の人工衛星】2/28 1959年：Discoverer1 アメリカの偵察衛星計画「コロナ」の初号機。KH-1型衛星のプロトタイプであったが、カメラやフィルムカプセルはどちらも搭載せず、軌道投入も失敗した。</t>
   </si>
   <si>
-    <t>★2014年の今日3時37分、H-IIAロケット23号機によりGPM主衛星が打ち上げられました(予定)。 http://t.co/iqUikVIXMk</t>
-  </si>
-  <si>
     <t>02/29 07:00:00</t>
   </si>
   <si>
@@ -410,9 +407,6 @@
     <t>【今日の人工衛星】3/1 2002年：ENVISAT1 欧州の地球観測衛星。重量8.2tとESA最大の衛星。ASAR（高性能合成開口レーダ）による全天候性が強み。</t>
   </si>
   <si>
-    <t>【今日の人工衛星】3/2 2004年：Rosetta 欧州宇宙機関 (ESA) の彗星探査機。2014年にチュリュモフ・ゲラシメンコ彗星を探査・着陸予定。これまで2つの小惑星も探査。詳細：http://www.esa.int/SPECIALS/Rosetta/</t>
-  </si>
-  <si>
     <t>【今日の人工衛星】3/3 1972年：Pioneer10 NASAの惑星探査機、人類初の木星探査機。初めて太陽系脱出速度に達した衛星でもある(後に距離ではボイジャー1号に抜かれる)。2003年1月22日以降通信は途絶。</t>
   </si>
   <si>
@@ -425,15 +419,9 @@
     <t>【今日の人工衛星】3/6 1989年：JCSAT-1 日本通信衛星株式会社(JSAT)が打ち上げた通信衛星。日本及びアジア・太平洋地域で利用が可能。</t>
   </si>
   <si>
-    <t>【今日の人工衛星】3/7 2009年：Kepler NASAの、太陽系外惑星探査衛星。3年半をかけて10万個の恒星を観測し、地球のような惑星が存在するかどうかを探る。2011年2月には、多数の惑星を発見、と発表された。 http://dld.bz/PDAg</t>
-  </si>
-  <si>
     <t>【今日の人工衛星】3/8 2002年：TDRS-9 NASAの打ち上げた、データ中継衛星の第2世代の2号機。現在までに10機が打ち上げられ、寿命を迎えた1号、チャレンジャーと共に喪われた2号機を除き全機現役。</t>
   </si>
   <si>
-    <t>【今日の人工衛星】3/9 2001年：BSAT-2a 日本の放送衛星。アリアンVロケットで10:51に打上。メーカの製造トラブルで打上が半年遅れた。3度のトラブル発生を経て現在は予備機として運用されている。</t>
-  </si>
-  <si>
     <t>【今日の人工衛星】3/9 2008年：Jules Verne 欧州補給機（ATV）の初号機。約3.3tの物資を輸送。ISSの軌道変更能力も持つ。打ち上げは専用型(アリアン5 ES)で、アリアン5 ECAの強力な第1段とアリアン5 Gの再着火可能な第2段を組み合わせている。</t>
   </si>
   <si>
@@ -476,9 +464,6 @@
     <t>【今日の人工衛星】3/20 2010年：エコースター14（EchoStar 14） アメリカ等で衛星放送をしている「DISHネットワーク」社の衛星、重量約6.3tとプロトンロケットが打ち上げた衛星の中で最も重い商業衛星。</t>
   </si>
   <si>
-    <t>【今日の人工衛星】3/21 1996年：IRS-P3 インド宇宙研究機関のリモートセンシング衛星、PSLVロケットの実証飛行として打ち上げ。PSLVは4段式で投入能力は低いものの、最大10個の衛星を同時に打ち上げた実績有り</t>
-  </si>
-  <si>
     <t>【今日の人工衛星】3/22 1982年：STS-3(スペースシャトル3回目、コロンビア号) OSS(Office of Space Science)を搭載しシャトル初の科学実験 1996年：STS-76(76回目、アトランティスのミッション)ミールとの3回目のドッキングを実施</t>
   </si>
   <si>
@@ -500,9 +485,6 @@
     <t>★2003年の今日3/28 10:27、H-IIAロケット5号機で情報収集衛星1号機(光学・レーダ) が打ち上げられました。</t>
   </si>
   <si>
-    <t>【今日の人工衛星】3/28 2003年：情報収集衛星1号機(光学・レーダ) 日本初の偵察衛星。性能は光学が解像度1m程度と、民間衛星に比べても劣っていた。これ以降合計6機の情報収集衛星が軌道上に打ち上げられることになる。</t>
-  </si>
-  <si>
     <t>【今日の人工衛星】3/29 2002年：JCSAT8 / ASTRA 3A アリアン4ロケットで同時打上げ。両方ともボーイング製。JCSATはスカパーJSATの、ASTRA 3AはルクセンブルクSES ASTRAの通信衛星</t>
   </si>
   <si>
@@ -542,9 +524,6 @@
     <t>【今日の人工衛星】4/10 1982年：INSAT-1A インドの気象・通信・放送衛星。米国デルタロケットで打ち上げ。軌道投入が失敗し1年で寿命となる。インドは気象と通信・放送の相乗りが中心、打ち上げは他国のロケットを使用</t>
   </si>
   <si>
-    <t>【今日の人工衛星】4/11 1970年：アポロ13号　アポロ計画の3度目の飛行で、月に向かう途中に事故が発生したものの、3名の飛行士が無事帰還したことから"successful failure"とも呼ばれるミッションである</t>
-  </si>
-  <si>
     <t>【今日の人工衛星】4/12 1961年：ボストーク1号 宇宙飛行士ユーリ・ガガーリンが人類初の宇宙飛行（大気圏外を飛行、地球周回軌道に乗る）を行った宇宙船。最高高度327km、地球を1周して108分の飛行の後帰還</t>
   </si>
   <si>
@@ -782,9 +761,6 @@
     <t>【今日の人工衛星】6/12 1975年：ニンバス6号 アメリカの地球観測衛星。米国の地球リモートセンシング開発の中心となったシリーズ。3号は衛星を利用した測位技術を初搭載、7号はオゾン層観測機能を持ち、オゾンホールを観測</t>
   </si>
   <si>
-    <t>【今日の人工衛星】6/12 2003年：BSAT-2c 放送衛星システム所有のBSデジタル用放送衛星。アリアンVロケットで打上。BSAT-2bが打上に失敗したための代替となる衛星。一時期はBSAT-2aに代わり本放送を行っていたが、現在は予備機となっている。</t>
-  </si>
-  <si>
     <t>【今日の人工衛星】6/13 1984年：NAVSTAR-9 GPS衛星のブロックIシリーズ。ブロックIは実験的要素もあった 1968年：IDCSP4-1～4-8 米軍の通信衛星の初代シリーズ。8機を同時に打ち上げる仕組み</t>
   </si>
   <si>
@@ -881,12 +857,6 @@
     <t>【今日の人工衛星】7/9(UTC) 1996年：Turksat 1C トルコの通信衛星。1Aが打ち上げ失敗したための保険条項により製作されたとのこと</t>
   </si>
   <si>
-    <t>【今日の人工衛星】7/10 2005年：すざく あすかに続く5機目の日本のX線天文衛星であり、2000年に打ち上げ失敗したASTRO-Eの代替機。液体ヘリウム喪失事故があったものの、優れた観測能力を今日も発揮している</t>
-  </si>
-  <si>
-    <t>★2005年の今日、7月10日12:30にX線天文衛星「すざく」がM-Vロケット6号機により打ち上げ。5機目の日本のX線天文衛星、液体ヘリウム喪失事故があったものの、優れた観測能力を今日も発揮している</t>
-  </si>
-  <si>
     <t>【今日の人工衛星】7/11 1990年：Gamma1 旧ソ連のガンマ線・X線観測衛星、フランスとの共同プロジェクト。1965年には望遠鏡の基本設計がされていたが紆余曲折により25年後の打ち上げとなった</t>
   </si>
   <si>
@@ -902,9 +872,6 @@
     <t>★1977年の今日7/14 19:39、日本初の気象衛星、ひまわり1号が打ち上げ。ケネディ宇宙センターからデルタロケットで打ち上げられ、1981年の2号打ち上げ後も予備機として1989年まで運用。</t>
   </si>
   <si>
-    <t>【今日の人工衛星】7/15 1975年：アポロ・ソユーズテスト計画 米ソの宇宙船ドッキング方式の研究のため、ソユーズ19号とアポロ18号がドッキング。デタントの中で行われたこの実験は将来のISS等にも活用されている</t>
-  </si>
-  <si>
     <t>【今日の人工衛星】7/15 2009年：STS-127 エンデバー23回目の飛行。STS-123,124に続き日本の実験棟「きぼう」の組み立てを行い、完成させた。若田光一宇宙飛行士の長期滞在の帰還にも用いられた</t>
   </si>
   <si>
@@ -1022,9 +989,6 @@
     <t xml:space="preserve">【今日の人工衛星】8/13 1992年：Optus(Aussat) B1 オーストラリアの民間の通信衛星 1972年：エクスプローラー46号(MTS-A) アメリカの流星塵研究の衛星 </t>
   </si>
   <si>
-    <t xml:space="preserve">【今日の人工衛星】8/14(UTC) 2007年：BSAT-3a BSデジタル用の放送衛星。2011年現在BS-1,2,9,13,15chの放送を担当 </t>
-  </si>
-  <si>
     <t xml:space="preserve">【今日の人工衛星】8/14(UTC) 2008年：Superbird C2 スカパーJSATの通信衛星。三菱電機が国際競争入札を勝ち抜いたことで、日本企業の保有する民間商用衛星としては初の国産となった </t>
   </si>
   <si>
@@ -1361,9 +1325,6 @@
     <t>【今日の人工衛星】10/27 2005年：XI-V 東京大学中須賀研究室の製作した衛星。XI-IVのバックアップ機で当初は打上予定がなかったものの、太陽電池の実証ミッションが提案されたことで打ち上げられることになった</t>
   </si>
   <si>
-    <t>【今日の人工衛星】10/28(UTC,日本時間29日6:51) 2010年：BSAT-3b 日本の衛星放送を担う衛星。BS-1,3,13,15chを担当すると共に他chの予備機としても活用中</t>
-  </si>
-  <si>
     <t>【今日の人工衛星】10/29 1998年：STS-95 ディスカバリーによる25回目の飛行。アメリカ人初の地球周回飛行をしたョン・ハーシェル・グレン飛行士が77歳という宇宙飛行の最高齢記録を樹立。向井千秋飛行士の2回目の飛行でもある</t>
   </si>
   <si>
@@ -1397,9 +1358,6 @@
     <t>【今日の人工衛星】11/8 1968年：パイオニア9号 アメリカの太陽探査機。地球より内側の軌道を公転しながら、太陽風などを観測。</t>
   </si>
   <si>
-    <t>【今日の人工衛星】11/9 2005年：ビーナス・エクスプレス 欧州宇宙機関ESAの金星探査機。金星探査機は欧州としては初。金星の大気を観測中。</t>
-  </si>
-  <si>
     <t>【今日の人工衛星】11/10 1970年：ルナ17号 旧ソ連の月探査機。世界で初めて月面車(ルノホート1号)を搭載。11ヶ月にわたり10km以上の距離を走行し調査を行った</t>
   </si>
   <si>
@@ -1466,9 +1424,6 @@
     <t>【今日の人工衛星】11/27(UTC,日本時間28日6:27) 1997年：きく7号(おりひめ・ひこぼし) 軌道上での人工衛星の自動ランデブー・ドッキング技術を習得した衛星。この技術は後にHTV(こうのとり)にも活用、高い評価を得た。</t>
   </si>
   <si>
-    <t>【今日の人工衛星】11/27(UTC、日本時間28日6:27) 1997年：TRMM 日本の打ち上げた熱帯降雨観測衛星。熱帯域の降雨状況を観測。当初予定の寿命3年を越えても安定して動作しており、現在でも現役であり、2012年で運用は15年目に突入するも引き続き活躍中。</t>
-  </si>
-  <si>
     <t>★2009年の今日11/28 10:21、H-IIAロケット16号機で情報収集衛星光学3号機(IGS-5A)が打ち上げられました。</t>
   </si>
   <si>
@@ -1505,9 +1460,6 @@
     <t>【今日の人工衛星】12/7 1972年：アポロ17号 米・アポロ計画最後の打上。アポロ計画では初の夜間打上となった。有名な http://t.co/H0zPVqJf 青い地球の写真は17号で撮影されたもの。着陸船の離陸も撮影された</t>
   </si>
   <si>
-    <t>【今日の人工衛星】12/8 1976年：ISEE-3/ICE アメリカのハレー彗星観測衛星。当初は太陽風観測が目的だったが4回のスイングバイ等を経てハレー彗星観測に転用。現在でも観測機器が機能しており、追加のミッションも検討されている</t>
-  </si>
-  <si>
     <t>【今日の人工衛星】12/8 2006年：WildBlue 1 アメリカの通信衛星。アリアン5 ECAロケットで打上。アメリカ各地に高速インターネット接続を提供。</t>
   </si>
   <si>
@@ -1599,9 +1551,6 @@
   </si>
   <si>
     <t>【今日の人工衛星】12/31 なんと、NSSDCカタログ上、この日に打ち上げられた人工物は存在しません。年末ですから、何らかのトラブルを避けるため、だったのでしょうか…？ 今年もどうもありがとうございました。来年もよろしくお願いいたします</t>
-  </si>
-  <si>
-    <t>【今日の人工衛星】2/16 1999年：JCSAT-6 JSAT（現・スカパーJSAT）が保有する通信衛星。東経124度の位置で運用されていたが2013年に東経82度へ移動、4Aから改名。現在も運用中。 http://t.co/VvTseKzf1M</t>
   </si>
   <si>
     <t>01/01 07:00:00</t>
@@ -3190,6 +3139,338 @@
   </si>
   <si>
     <t xml:space="preserve">【お帰りはやぶさ・帰還7周年】6/9 12:30-15:00 最後の軌道修正となるTCM-4完了。4/4-6、5/1-4、5/23-27、6/3-5とあわせ5回の軌道修正でオーストラリア・ウーメラ砂漠の着陸地点へ誘導完了 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補足：イランは自力の打ち上げ能力を持つ9カ国目。V2ロケット⇒ソ連：スカッド⇒北朝鮮：ノドン⇒イラン：シャハブ（弾道ミサイル）⇒イラン：サフィール　という流れで打上能力を確保した。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【今日の人工衛星】3/28 2003年：情報収集衛星1号機(光学・レーダ) 日本初の偵察衛星。性能は光学が解像度1m程度と、民間衛星に比べても劣っていた。これ以降継続的に情報収集衛星が軌道上に打ち上げられることになる。</t>
+    <rPh sb="81" eb="84">
+      <t>ケイゾクテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【今日の人工衛星】7/15 1975年：アポロ・ソユーズテスト計画 米ソの宇宙船ドッキング方式の研究のため、ソユーズ19号とアポロ(18号相当)がドッキング。デタントの中で行われたこの実験は将来のISS等にも活用されている</t>
+    <rPh sb="69" eb="71">
+      <t>ソウトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【今日の人工衛星】3/2 2004年：Rosetta 欧州宇宙機関 (ESA) の彗星探査機。2014年にチュリュモフ・ゲラシメンコ彗星を探査・着陸機も着陸。2016年に運用を終了。詳細：http://www.esa.int/SPECIALS/Rosetta/</t>
+    <rPh sb="72" eb="75">
+      <t>チャクリクキ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ウンヨウ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【今日の人工衛星】3/7 2009年：Kepler NASAの、太陽系外惑星探査衛星。3年半をかけて10万個の恒星を観測し、地球のような惑星が存在するかどうかを探る。2011年2月には、多数の惑星を発見、と発表された。姿勢制御に不具合が生じたが運用は継続している。</t>
+    <rPh sb="109" eb="111">
+      <t>シセイ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="114" eb="117">
+      <t>フグアイ</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>ウンヨウ</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>ケイゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【今日の人工衛星】11/27(UTC、日本時間28日6:27) 1997年：TRMM 日本の打ち上げた熱帯降雨観測衛星。熱帯域の降雨状況を観測。当初予定の寿命3年を越えても安定して動作、2014年打上のGPM打上まで16年以上運用され、2015年に完全に運用を停止した。</t>
+    <rPh sb="97" eb="98">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ウチアゲ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ウチアゲ</t>
+    </rPh>
+    <rPh sb="122" eb="123">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>カンゼン</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>ウンヨウ</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>★2014年の今日3時37分、H-IIAロケット23号機によりGPM主衛星が打ち上げられました。 http://t.co/iqUikVIXMk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【今日の人工衛星】4/11 1970年：アポロ13号　アポロ計画の3度目の月着陸を目指した飛行で、月に向かう途中に事故が発生したものの、3名の飛行士が無事帰還したことから"successful failure"とも呼ばれるミッションである</t>
+    <rPh sb="37" eb="40">
+      <t>ツキチャクリク</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>メザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>★2005年の今日、7月10日12:30にX線天文衛星「すざく」がM-Vロケット6号機により打ち上げ。5機目の日本のX線天文衛星、液体ヘリウム喪失事故があったものの、優れた観測能力を10年間発揮していた</t>
+    <rPh sb="93" eb="95">
+      <t>ネンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【今日の人工衛星】7/10 2005年：すざく あすかに続く5機目の日本のX線天文衛星であり、2000年に打ち上げ失敗したASTRO-Eの代替機。液体ヘリウム喪失事故があったものの、2015年6月まで運用は継続された。</t>
+    <rPh sb="95" eb="96">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ウンヨウ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>ケイゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【今日の人工衛星】11/9 2005年：ビーナス・エクスプレス 欧州宇宙機関ESAの金星探査機。金星探査機は欧州としては初。金星の大気を観測。当初は日本の探査機「あかつき」との共同観測も予定されたが、あかつき到着の前の2014年12月に運用終了。</t>
+    <rPh sb="71" eb="73">
+      <t>トウショ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ニホン</t>
+    </rPh>
+    <rPh sb="77" eb="80">
+      <t>タンサキ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>キョウドウ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>カンソク</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>トウチャク</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>ウンヨウ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【今日の人工衛星】12/8 1976年：ISEE-3/ICE アメリカのハレー彗星観測衛星。当初は太陽風観測が目的だったが4回のスイングバイ等を経てハレー彗星観測に転用。長らく機器が機能していたため、再利用のためのクラウドファンディングが成立するも、再利用自体は成功せず。</t>
+    <rPh sb="85" eb="86">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="100" eb="103">
+      <t>サイリヨウ</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>セイリツ</t>
+    </rPh>
+    <rPh sb="125" eb="128">
+      <t>サイリヨウ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>ジタイ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>セイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【今日の人工衛星】3/21 1996年：IRS-P3 インド宇宙研究機関のリモートセンシング衛星、PSLVロケットの実証飛行として打ち上げ。PSLVは4段式で投入能力は低いものの、2017年には最大108個の衛星を同時に打ち上げた実績有り</t>
+    <rPh sb="94" eb="95">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【今日の人工衛星】3/9 2001年：BSAT-2a 日本の放送衛星。アリアンVロケットで10:51に打上。メーカの製造トラブルで打上が半年遅れた。3度のトラブル発生、予備機運用を経て2013年2月に運用終了。</t>
+    <rPh sb="84" eb="87">
+      <t>ヨビキ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ウンヨウ</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ウンヨウ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【今日の人工衛星】6/12 2003年：BSAT-2c 放送衛星システム所有のBSデジタル用放送衛星。アリアンVロケットで打上。BSAT-2bが打上に失敗したための代替となる衛星。一時期はBSAT-2aに代わり本放送を行っていたが、予備機運用後、2013年8月に運用終了。</t>
+    <rPh sb="119" eb="122">
+      <t>ウンヨウゴ</t>
+    </rPh>
+    <rPh sb="127" eb="128">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="129" eb="130">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>ウンヨウ</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【今日の人工衛星】8/14(UTC) 2007年：BSAT-3a BSデジタル用の放送衛星。2011年現在BS-1,2,9,13,15chの放送を担当、2016年時点でも運用中。</t>
+    <rPh sb="80" eb="81">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="85" eb="88">
+      <t>ウンヨウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【今日の人工衛星】10/28(UTC,日本時間29日6:51) 2010年：BSAT-3b 日本の衛星放送を担う衛星。BS-1,3,13,15chを担当すると共に他chの予備機としても活用中、2016年時点でも運用中。</t>
+    <rPh sb="100" eb="101">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="105" eb="108">
+      <t>ウンヨウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【今日の人工衛星】2/16 1999年：JCSAT-6 JSAT（現・スカパーJSAT）が保有する通信衛星。東経124度の位置で運用されていたが2013年に東経82度へ移動、4Aから改名。2013年に運用終了。</t>
+    <rPh sb="98" eb="99">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ウンヨウ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02/27 07:01:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【今日の人工衛星】2/27 2014年：GPM主衛星 全球降水観測計画の中心となる衛星、NASAとJAXAの共同プロジェクト。NASAは衛星本体とGMI、JAXAはDPRと打上を担当。TRMMの機能も引き継いでいる。</t>
+    <rPh sb="23" eb="24">
+      <t>シュ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>エイセイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>エイセイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>キョウドウ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>エイセイ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ホンタイ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ウチアゲ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>タントウ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3236,7 +3517,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3246,11 +3527,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3537,21 +3831,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C529"/>
+  <dimension ref="A1:E530"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B150" sqref="B150"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="97.3984375" customWidth="1"/>
+    <col min="4" max="4" width="9.06640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3563,7 +3856,7 @@
     </row>
     <row r="2" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>527</v>
+        <v>509</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -3575,7 +3868,7 @@
     </row>
     <row r="3" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>528</v>
+        <v>510</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -3587,7 +3880,7 @@
     </row>
     <row r="4" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>529</v>
+        <v>511</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -3599,7 +3892,7 @@
     </row>
     <row r="5" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>530</v>
+        <v>512</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -3611,7 +3904,7 @@
     </row>
     <row r="6" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
@@ -3623,7 +3916,7 @@
     </row>
     <row r="7" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>532</v>
+        <v>514</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
@@ -3635,7 +3928,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>533</v>
+        <v>515</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
@@ -3647,7 +3940,7 @@
     </row>
     <row r="9" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>8</v>
@@ -3659,7 +3952,7 @@
     </row>
     <row r="10" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>535</v>
+        <v>517</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -3671,7 +3964,7 @@
     </row>
     <row r="11" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>536</v>
+        <v>518</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>10</v>
@@ -3683,7 +3976,7 @@
     </row>
     <row r="12" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
@@ -3695,7 +3988,7 @@
     </row>
     <row r="13" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>538</v>
+        <v>520</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
@@ -3707,7 +4000,7 @@
     </row>
     <row r="14" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>539</v>
+        <v>521</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>13</v>
@@ -3719,7 +4012,7 @@
     </row>
     <row r="15" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>540</v>
+        <v>522</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>14</v>
@@ -3731,7 +4024,7 @@
     </row>
     <row r="16" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>541</v>
+        <v>523</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>15</v>
@@ -3743,7 +4036,7 @@
     </row>
     <row r="17" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>542</v>
+        <v>524</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>16</v>
@@ -3755,7 +4048,7 @@
     </row>
     <row r="18" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>17</v>
@@ -3767,7 +4060,7 @@
     </row>
     <row r="19" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>18</v>
@@ -3779,7 +4072,7 @@
     </row>
     <row r="20" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>545</v>
+        <v>527</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>19</v>
@@ -3791,7 +4084,7 @@
     </row>
     <row r="21" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>546</v>
+        <v>528</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>20</v>
@@ -3803,7 +4096,7 @@
     </row>
     <row r="22" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>547</v>
+        <v>529</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>21</v>
@@ -3815,7 +4108,7 @@
     </row>
     <row r="23" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>22</v>
@@ -3827,7 +4120,7 @@
     </row>
     <row r="24" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>549</v>
+        <v>531</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>23</v>
@@ -3839,7 +4132,7 @@
     </row>
     <row r="25" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>24</v>
@@ -3851,7 +4144,7 @@
     </row>
     <row r="26" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>551</v>
+        <v>533</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>25</v>
@@ -3863,7 +4156,7 @@
     </row>
     <row r="27" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>26</v>
@@ -3875,7 +4168,7 @@
     </row>
     <row r="28" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>553</v>
+        <v>535</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>27</v>
@@ -3887,7 +4180,7 @@
     </row>
     <row r="29" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>554</v>
+        <v>536</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>28</v>
@@ -3899,7 +4192,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>555</v>
+        <v>537</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>29</v>
@@ -3911,7 +4204,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>556</v>
+        <v>538</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>30</v>
@@ -3923,7 +4216,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>557</v>
+        <v>539</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>31</v>
@@ -3935,7 +4228,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>558</v>
+        <v>540</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>32</v>
@@ -3947,7 +4240,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>559</v>
+        <v>541</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>33</v>
@@ -3959,7 +4252,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>560</v>
+        <v>542</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>34</v>
@@ -3971,7 +4264,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>561</v>
+        <v>543</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>35</v>
@@ -3983,7 +4276,7 @@
     </row>
     <row r="37" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>562</v>
+        <v>544</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>36</v>
@@ -3995,7 +4288,7 @@
     </row>
     <row r="38" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>563</v>
+        <v>545</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>37</v>
@@ -4007,7 +4300,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>564</v>
+        <v>546</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>38</v>
@@ -4019,7 +4312,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>565</v>
+        <v>547</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>39</v>
@@ -4031,7 +4324,7 @@
     </row>
     <row r="41" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>566</v>
+        <v>548</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>40</v>
@@ -4043,7 +4336,7 @@
     </row>
     <row r="42" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>567</v>
+        <v>549</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>41</v>
@@ -4055,7 +4348,7 @@
     </row>
     <row r="43" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>568</v>
+        <v>550</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>42</v>
@@ -4067,7 +4360,7 @@
     </row>
     <row r="44" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>569</v>
+        <v>551</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>43</v>
@@ -4079,7 +4372,7 @@
     </row>
     <row r="45" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>570</v>
+        <v>552</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>44</v>
@@ -4091,7 +4384,7 @@
     </row>
     <row r="46" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>571</v>
+        <v>553</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>45</v>
@@ -4103,7 +4396,7 @@
     </row>
     <row r="47" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>572</v>
+        <v>554</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>46</v>
@@ -4115,7 +4408,7 @@
     </row>
     <row r="48" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>573</v>
+        <v>555</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>47</v>
@@ -4125,9 +4418,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>574</v>
+        <v>556</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>48</v>
@@ -4137,9 +4430,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>575</v>
+        <v>557</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>49</v>
@@ -4149,168 +4442,174 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>576</v>
+        <v>558</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>50</v>
+        <v>1036</v>
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="D51">
+        <v>20170515</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>577</v>
+        <v>559</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>578</v>
+        <v>560</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>579</v>
+        <v>561</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>580</v>
+        <v>562</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>581</v>
+        <v>563</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>582</v>
+        <v>564</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>583</v>
+        <v>565</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>584</v>
+        <v>566</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>585</v>
+        <v>567</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>586</v>
+        <v>568</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>587</v>
+        <v>569</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
         <v>134</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>588</v>
+        <v>570</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C63">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>589</v>
+        <v>571</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C64">
         <f t="shared" si="0"/>
@@ -4319,22 +4618,22 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>590</v>
+        <v>572</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C65">
-        <f t="shared" ref="C65:C128" si="1">LEN(B65)</f>
+        <f t="shared" ref="C65:C129" si="1">LEN(B65)</f>
         <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>591</v>
+        <v>573</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C66">
         <f t="shared" si="1"/>
@@ -4343,10 +4642,10 @@
     </row>
     <row r="67" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>592</v>
+        <v>574</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C67">
         <f t="shared" si="1"/>
@@ -4355,10 +4654,10 @@
     </row>
     <row r="68" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C68">
         <f t="shared" si="1"/>
@@ -4367,10 +4666,10 @@
     </row>
     <row r="69" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C69">
         <f t="shared" si="1"/>
@@ -4379,10 +4678,10 @@
     </row>
     <row r="70" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C70">
         <f t="shared" si="1"/>
@@ -4391,10 +4690,10 @@
     </row>
     <row r="71" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C71">
         <f t="shared" si="1"/>
@@ -4403,10 +4702,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>597</v>
+        <v>579</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C72">
         <f t="shared" si="1"/>
@@ -4415,10 +4714,10 @@
     </row>
     <row r="73" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>598</v>
+        <v>580</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C73">
         <f t="shared" si="1"/>
@@ -4427,10 +4726,10 @@
     </row>
     <row r="74" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>599</v>
+        <v>581</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C74">
         <f t="shared" si="1"/>
@@ -4439,10 +4738,10 @@
     </row>
     <row r="75" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C75">
         <f t="shared" si="1"/>
@@ -4451,10 +4750,10 @@
     </row>
     <row r="76" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C76">
         <f t="shared" si="1"/>
@@ -4463,10 +4762,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>602</v>
+        <v>584</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C77">
         <f t="shared" si="1"/>
@@ -4475,10 +4774,10 @@
     </row>
     <row r="78" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C78">
         <f t="shared" si="1"/>
@@ -4487,10 +4786,10 @@
     </row>
     <row r="79" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C79">
         <f t="shared" si="1"/>
@@ -4499,202 +4798,208 @@
     </row>
     <row r="80" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>605</v>
+        <v>587</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C80">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>606</v>
+        <v>588</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C81">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>607</v>
+        <v>589</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C82">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>608</v>
+        <v>590</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>525</v>
+        <v>1053</v>
       </c>
       <c r="C83">
         <f t="shared" si="1"/>
-        <v>124</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="D83">
+        <v>20170515</v>
+      </c>
+      <c r="E83" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>609</v>
+        <v>591</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C84">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>610</v>
+        <v>592</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C85">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>611</v>
+        <v>593</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C86">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>612</v>
+        <v>594</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C87">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>613</v>
+        <v>595</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C88">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>614</v>
+        <v>596</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C89">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>615</v>
+        <v>597</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C90">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>616</v>
+        <v>598</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C91">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>617</v>
+        <v>599</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C92">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>618</v>
+        <v>600</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C93">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>619</v>
+        <v>601</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>620</v>
+        <v>602</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C95">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>621</v>
+        <v>603</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C96">
         <f t="shared" si="1"/>
@@ -4703,10 +5008,10 @@
     </row>
     <row r="97" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>622</v>
+        <v>604</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C97">
         <f t="shared" si="1"/>
@@ -4715,10 +5020,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>623</v>
+        <v>605</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C98">
         <f t="shared" si="1"/>
@@ -4727,10 +5032,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>624</v>
+        <v>606</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C99">
         <f t="shared" si="1"/>
@@ -4739,10 +5044,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>625</v>
+        <v>607</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C100">
         <f t="shared" si="1"/>
@@ -4751,10 +5056,10 @@
     </row>
     <row r="101" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>626</v>
+        <v>608</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C101">
         <f t="shared" si="1"/>
@@ -4763,10 +5068,10 @@
     </row>
     <row r="102" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>627</v>
+        <v>609</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C102">
         <f t="shared" si="1"/>
@@ -4775,10 +5080,10 @@
     </row>
     <row r="103" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>628</v>
+        <v>610</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C103">
         <f t="shared" si="1"/>
@@ -4787,10 +5092,10 @@
     </row>
     <row r="104" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C104">
         <f t="shared" si="1"/>
@@ -4799,10 +5104,10 @@
     </row>
     <row r="105" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>630</v>
+        <v>612</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C105">
         <f t="shared" si="1"/>
@@ -4811,10 +5116,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>631</v>
+        <v>613</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C106">
         <f t="shared" si="1"/>
@@ -4823,10 +5128,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>632</v>
+        <v>614</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C107">
         <f t="shared" si="1"/>
@@ -4835,10 +5140,10 @@
     </row>
     <row r="108" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>633</v>
+        <v>615</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C108">
         <f t="shared" si="1"/>
@@ -4847,10 +5152,10 @@
     </row>
     <row r="109" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>634</v>
+        <v>616</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C109">
         <f t="shared" si="1"/>
@@ -4859,10 +5164,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>635</v>
+        <v>617</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C110">
         <f t="shared" si="1"/>
@@ -4871,10 +5176,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>636</v>
+        <v>618</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C111">
         <f t="shared" si="1"/>
@@ -4883,874 +5188,916 @@
     </row>
     <row r="112" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>637</v>
+        <v>619</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C112">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>638</v>
+        <v>620</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C113">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>639</v>
+        <v>621</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C114">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>640</v>
+        <v>622</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C115">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>641</v>
+        <v>623</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C116">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>642</v>
+        <v>624</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C117">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>643</v>
+        <v>625</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C118">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>644</v>
+        <v>626</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C119">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>645</v>
+        <v>627</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C120">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>646</v>
+        <v>628</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C121">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>647</v>
+        <v>629</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C122">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>648</v>
+        <v>1056</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>121</v>
+        <v>1057</v>
       </c>
       <c r="C123">
         <f t="shared" si="1"/>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="D123">
+        <v>20170515</v>
+      </c>
+      <c r="E123" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>649</v>
+        <v>630</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C124">
         <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>123</v>
+        <v>631</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>124</v>
+        <v>1042</v>
       </c>
       <c r="C125">
         <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="D125">
+        <v>20170515</v>
+      </c>
+      <c r="E125" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C126">
         <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>650</v>
+        <v>123</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C127">
         <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>651</v>
+        <v>632</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C128">
         <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C129">
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C129">
-        <f t="shared" ref="C129:C192" si="2">LEN(B129)</f>
+      <c r="D129">
+        <v>20170515</v>
+      </c>
+      <c r="E129" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C130">
+        <f t="shared" ref="C130:C193" si="2">LEN(B130)</f>
         <v>109</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C130">
+    <row r="131" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C131">
         <f t="shared" si="2"/>
         <v>119</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C131">
+    <row r="132" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C132">
         <f t="shared" si="2"/>
         <v>102</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C132">
+    <row r="133" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C133">
         <f t="shared" si="2"/>
         <v>74</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C133">
-        <f t="shared" si="2"/>
-        <v>128</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>657</v>
+        <v>638</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>134</v>
+        <v>1040</v>
       </c>
       <c r="C134">
         <f t="shared" si="2"/>
-        <v>104</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="D134">
+        <v>20170515</v>
+      </c>
+      <c r="E134" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>658</v>
+        <v>639</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C135">
         <f t="shared" si="2"/>
-        <v>103</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>659</v>
+        <v>640</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>136</v>
+        <v>1049</v>
       </c>
       <c r="C136">
         <f t="shared" si="2"/>
-        <v>136</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="D136">
+        <v>20170515</v>
+      </c>
+      <c r="E136" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>660</v>
+        <v>641</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C137">
         <f t="shared" si="2"/>
-        <v>107</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>661</v>
+        <v>642</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C138">
         <f t="shared" si="2"/>
-        <v>114</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>662</v>
+        <v>643</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C139">
         <f t="shared" si="2"/>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>663</v>
+        <v>644</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C140">
         <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>664</v>
+        <v>645</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C141">
         <f t="shared" si="2"/>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>665</v>
+        <v>646</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C142">
         <f t="shared" si="2"/>
-        <v>106</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>666</v>
+        <v>647</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C143">
         <f t="shared" si="2"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>667</v>
+        <v>648</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C144">
         <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="C145">
         <f t="shared" si="2"/>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>669</v>
+        <v>650</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C146">
         <f t="shared" si="2"/>
-        <v>139</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>670</v>
+        <v>651</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C147">
         <f t="shared" si="2"/>
-        <v>111</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>671</v>
+        <v>652</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C148">
         <f t="shared" si="2"/>
-        <v>124</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>672</v>
+        <v>653</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C149">
         <f t="shared" si="2"/>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>673</v>
+        <v>654</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C150">
         <f t="shared" si="2"/>
-        <v>111</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>674</v>
+        <v>655</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>151</v>
+        <v>1048</v>
       </c>
       <c r="C151">
         <f t="shared" si="2"/>
-        <v>138</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>675</v>
+        <v>656</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C152">
         <f t="shared" si="2"/>
-        <v>109</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>676</v>
+        <v>657</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C153">
         <f t="shared" si="2"/>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>677</v>
+        <v>658</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C154">
         <f t="shared" si="2"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>678</v>
+        <v>659</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C155">
         <f t="shared" si="2"/>
-        <v>111</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>679</v>
+        <v>660</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C156">
         <f t="shared" si="2"/>
         <v>111</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>680</v>
+        <v>661</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C157">
         <f t="shared" si="2"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>681</v>
+        <v>662</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C158">
         <f t="shared" si="2"/>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>682</v>
+        <v>663</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>159</v>
+        <v>1037</v>
       </c>
       <c r="C159">
         <f t="shared" si="2"/>
-        <v>111</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="D159">
+        <v>20170515</v>
+      </c>
+      <c r="E159" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>683</v>
+        <v>664</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C160">
         <f t="shared" si="2"/>
-        <v>133</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>684</v>
+        <v>665</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C161">
         <f t="shared" si="2"/>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>685</v>
+        <v>666</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C162">
         <f t="shared" si="2"/>
-        <v>106</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>686</v>
+        <v>667</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C163">
         <f t="shared" si="2"/>
-        <v>111</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>687</v>
+        <v>668</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C164">
         <f t="shared" si="2"/>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>688</v>
+        <v>669</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C165">
         <f t="shared" si="2"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>689</v>
+        <v>670</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C166">
         <f t="shared" si="2"/>
-        <v>108</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>690</v>
+        <v>671</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C167">
         <f t="shared" si="2"/>
-        <v>107</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>691</v>
+        <v>672</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C168">
         <f t="shared" si="2"/>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>692</v>
+        <v>673</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C169">
         <f t="shared" si="2"/>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>693</v>
+        <v>674</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C170">
         <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>694</v>
+        <v>675</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C171">
         <f t="shared" si="2"/>
-        <v>111</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>695</v>
+        <v>676</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C172">
         <f t="shared" si="2"/>
         <v>111</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>696</v>
+        <v>677</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>173</v>
+        <v>1043</v>
       </c>
       <c r="C173">
         <f t="shared" si="2"/>
-        <v>106</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="D173">
+        <v>20170515</v>
+      </c>
+      <c r="E173" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>697</v>
+        <v>678</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C174">
         <f t="shared" si="2"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>698</v>
+        <v>679</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C175">
         <f t="shared" si="2"/>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>699</v>
+        <v>680</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C176">
         <f t="shared" si="2"/>
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>700</v>
+        <v>681</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C177">
         <f t="shared" si="2"/>
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>701</v>
+        <v>682</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C178">
         <f t="shared" si="2"/>
-        <v>110</v>
+        <v>71</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>702</v>
+        <v>683</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C179">
         <f t="shared" si="2"/>
-        <v>101</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>703</v>
+        <v>684</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C180">
         <f t="shared" si="2"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>704</v>
+        <v>685</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C181">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>705</v>
+        <v>686</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C182">
         <f t="shared" si="2"/>
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>706</v>
+        <v>687</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C183">
         <f t="shared" si="2"/>
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>707</v>
+        <v>688</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C184">
         <f t="shared" si="2"/>
@@ -5759,286 +6106,292 @@
     </row>
     <row r="185" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>708</v>
+        <v>689</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C185">
         <f t="shared" si="2"/>
-        <v>77</v>
+        <v>111</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>709</v>
+        <v>690</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C186">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>710</v>
+        <v>691</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C187">
         <f t="shared" si="2"/>
-        <v>109</v>
+        <v>84</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>711</v>
+        <v>692</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C188">
         <f t="shared" si="2"/>
-        <v>88</v>
+        <v>109</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>712</v>
+        <v>693</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C189">
         <f t="shared" si="2"/>
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>713</v>
+        <v>694</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C190">
         <f t="shared" si="2"/>
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>714</v>
+        <v>695</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C191">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>107</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>715</v>
+        <v>696</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C192">
         <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C193">
+        <f t="shared" si="2"/>
         <v>106</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C193">
-        <f t="shared" ref="C193:C256" si="3">LEN(B193)</f>
+      <c r="D193" s="3">
+        <v>20170515</v>
+      </c>
+      <c r="E193" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C194">
+        <f t="shared" ref="C194:C257" si="3">LEN(B194)</f>
         <v>110</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C194">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C195">
         <f t="shared" si="3"/>
         <v>62</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C195">
+    <row r="196" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C196">
         <f t="shared" si="3"/>
         <v>109</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C196">
+    <row r="197" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C197">
         <f t="shared" si="3"/>
         <v>108</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C197">
+    <row r="198" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C198">
         <f t="shared" si="3"/>
         <v>82</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C198">
+    <row r="199" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C199">
         <f t="shared" si="3"/>
         <v>106</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C199">
+    <row r="200" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C200">
         <f t="shared" si="3"/>
         <v>109</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C200">
+    <row r="201" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C201">
         <f t="shared" si="3"/>
         <v>106</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A201" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C201">
+    <row r="202" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C202">
         <f t="shared" si="3"/>
         <v>89</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C202">
+    <row r="203" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C203">
         <f t="shared" si="3"/>
         <v>104</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A203" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C203">
+    <row r="204" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C204">
         <f t="shared" si="3"/>
         <v>108</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A204" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C204">
+    <row r="205" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C205">
         <f t="shared" si="3"/>
         <v>107</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A205" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C205">
+    <row r="206" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C206">
         <f t="shared" si="3"/>
         <v>123</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A206" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C206">
+    <row r="207" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C207">
         <f t="shared" si="3"/>
         <v>103</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C207">
-        <f t="shared" si="3"/>
-        <v>106</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>731</v>
+        <v>712</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C208">
         <f t="shared" si="3"/>
@@ -6047,34 +6400,34 @@
     </row>
     <row r="209" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>732</v>
+        <v>713</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C209">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>733</v>
+        <v>714</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C210">
         <f t="shared" si="3"/>
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>734</v>
+        <v>715</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="C211">
         <f t="shared" si="3"/>
@@ -6083,10 +6436,10 @@
     </row>
     <row r="212" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>735</v>
+        <v>716</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C212">
         <f t="shared" si="3"/>
@@ -6095,190 +6448,190 @@
     </row>
     <row r="213" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>736</v>
+        <v>717</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C213">
         <f t="shared" si="3"/>
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>737</v>
+        <v>718</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C214">
         <f t="shared" si="3"/>
-        <v>106</v>
+        <v>123</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>738</v>
+        <v>719</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C215">
         <f t="shared" si="3"/>
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>739</v>
+        <v>720</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C216">
         <f t="shared" si="3"/>
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>740</v>
+        <v>721</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C217">
         <f t="shared" si="3"/>
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>741</v>
+        <v>722</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C218">
         <f t="shared" si="3"/>
-        <v>83</v>
+        <v>106</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>742</v>
+        <v>723</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C219">
         <f t="shared" si="3"/>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>743</v>
+        <v>724</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C220">
         <f t="shared" si="3"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>744</v>
+        <v>725</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C221">
         <f t="shared" si="3"/>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>745</v>
+        <v>726</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C222">
         <f t="shared" si="3"/>
-        <v>138</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>746</v>
+        <v>727</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="C223">
         <f t="shared" si="3"/>
-        <v>88</v>
+        <v>138</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>747</v>
+        <v>728</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C224">
         <f t="shared" si="3"/>
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>748</v>
+        <v>729</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C225">
         <f t="shared" si="3"/>
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>749</v>
+        <v>730</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C226">
         <f t="shared" si="3"/>
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>750</v>
+        <v>731</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C227">
         <f t="shared" si="3"/>
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>751</v>
+        <v>732</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C228">
         <f t="shared" si="3"/>
@@ -6287,10 +6640,10 @@
     </row>
     <row r="229" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>752</v>
+        <v>733</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="C229">
         <f t="shared" si="3"/>
@@ -6299,418 +6652,424 @@
     </row>
     <row r="230" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>753</v>
+        <v>734</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C230">
         <f t="shared" si="3"/>
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>754</v>
+        <v>735</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="C231">
         <f t="shared" si="3"/>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>755</v>
+        <v>736</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="C232">
         <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>756</v>
+        <v>737</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C233">
         <f t="shared" si="3"/>
-        <v>92</v>
+        <v>60</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>757</v>
+        <v>738</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C234">
         <f t="shared" si="3"/>
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>758</v>
+        <v>739</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="C235">
         <f t="shared" si="3"/>
-        <v>101</v>
+        <v>83</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>759</v>
+        <v>740</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="C236">
         <f t="shared" si="3"/>
-        <v>79</v>
+        <v>101</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>760</v>
+        <v>741</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="C237">
         <f t="shared" si="3"/>
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>761</v>
+        <v>742</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C238">
         <f t="shared" si="3"/>
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>762</v>
+        <v>743</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C239">
         <f t="shared" si="3"/>
-        <v>111</v>
+        <v>92</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>763</v>
+        <v>744</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C240">
         <f t="shared" si="3"/>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>764</v>
+        <v>745</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C241">
         <f t="shared" si="3"/>
-        <v>108</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>765</v>
+        <v>746</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C242">
         <f t="shared" si="3"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>766</v>
+        <v>747</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="C243">
         <f t="shared" si="3"/>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>767</v>
+        <v>748</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C244">
         <f t="shared" si="3"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>768</v>
+        <v>749</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C245">
         <f t="shared" si="3"/>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>769</v>
+        <v>750</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="C246">
         <f t="shared" si="3"/>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>770</v>
+        <v>751</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C247">
         <f t="shared" si="3"/>
-        <v>101</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>771</v>
+        <v>752</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>1053</v>
+        <v>239</v>
       </c>
       <c r="C248">
         <f t="shared" si="3"/>
-        <v>111</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>772</v>
+        <v>753</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>248</v>
+        <v>1035</v>
       </c>
       <c r="C249">
         <f t="shared" si="3"/>
-        <v>106</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>773</v>
+        <v>754</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="C250">
         <f t="shared" si="3"/>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>774</v>
+        <v>755</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C251">
         <f t="shared" si="3"/>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>775</v>
+        <v>756</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="C252">
         <f t="shared" si="3"/>
         <v>110</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>776</v>
+        <v>757</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C253">
         <f t="shared" si="3"/>
-        <v>129</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>777</v>
+        <v>758</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>253</v>
+        <v>1050</v>
       </c>
       <c r="C254">
         <f t="shared" si="3"/>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="D254">
+        <v>20170515</v>
+      </c>
+      <c r="E254" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>778</v>
+        <v>759</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>1049</v>
+        <v>244</v>
       </c>
       <c r="C255">
         <f t="shared" si="3"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>779</v>
+        <v>760</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>1050</v>
+        <v>1031</v>
       </c>
       <c r="C256">
         <f t="shared" si="3"/>
-        <v>104</v>
+        <v>53</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>780</v>
+        <v>761</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>1051</v>
+        <v>1032</v>
       </c>
       <c r="C257">
-        <f t="shared" ref="C257:C320" si="4">LEN(B257)</f>
-        <v>111</v>
+        <f t="shared" si="3"/>
+        <v>104</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>781</v>
+        <v>762</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>1052</v>
+        <v>1033</v>
       </c>
       <c r="C258">
+        <f t="shared" ref="C258:C321" si="4">LEN(B258)</f>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C259">
         <f t="shared" si="4"/>
         <v>79</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A259" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C259">
+    <row r="260" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C260">
         <f t="shared" si="4"/>
         <v>107</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A260" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C260">
+    <row r="261" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C261">
         <f t="shared" si="4"/>
         <v>103</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A261" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C261">
+    <row r="262" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C262">
         <f t="shared" si="4"/>
         <v>90</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A262" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C262">
+    <row r="263" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C263">
         <f t="shared" si="4"/>
         <v>106</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A263" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C263">
-        <f t="shared" si="4"/>
-        <v>110</v>
-      </c>
-    </row>
     <row r="264" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>787</v>
+        <v>768</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C264">
         <f t="shared" si="4"/>
@@ -6719,1246 +7078,1270 @@
     </row>
     <row r="265" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>788</v>
+        <v>769</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C265">
         <f t="shared" si="4"/>
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>789</v>
+        <v>770</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C266">
         <f t="shared" si="4"/>
-        <v>84</v>
+        <v>109</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>790</v>
+        <v>771</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C267">
         <f t="shared" si="4"/>
-        <v>118</v>
+        <v>84</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>791</v>
+        <v>772</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C268">
         <f t="shared" si="4"/>
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>792</v>
+        <v>773</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="C269">
         <f t="shared" si="4"/>
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>793</v>
+        <v>774</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="C270">
         <f t="shared" si="4"/>
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>794</v>
+        <v>775</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="C271">
         <f t="shared" si="4"/>
-        <v>96</v>
+        <v>110</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>795</v>
+        <v>776</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C272">
         <f t="shared" si="4"/>
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>796</v>
+        <v>777</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="C273">
         <f t="shared" si="4"/>
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>797</v>
+        <v>778</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C274">
         <f t="shared" si="4"/>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>798</v>
+        <v>779</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="C275">
         <f t="shared" si="4"/>
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>799</v>
+        <v>780</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="C276">
         <f t="shared" si="4"/>
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>800</v>
+        <v>781</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="C277">
         <f t="shared" si="4"/>
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>801</v>
+        <v>782</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C278">
         <f t="shared" si="4"/>
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>802</v>
+        <v>783</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="C279">
         <f t="shared" si="4"/>
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>803</v>
+        <v>784</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="C280">
         <f t="shared" si="4"/>
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>804</v>
+        <v>785</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="C281">
         <f t="shared" si="4"/>
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>805</v>
+        <v>786</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C282">
         <f t="shared" si="4"/>
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>806</v>
+        <v>787</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="C283">
         <f t="shared" si="4"/>
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>807</v>
+        <v>788</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="C284">
         <f t="shared" si="4"/>
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>808</v>
+        <v>789</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="C285">
         <f t="shared" si="4"/>
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>809</v>
+        <v>790</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="C286">
         <f t="shared" si="4"/>
-        <v>79</v>
+        <v>110</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>810</v>
+        <v>791</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C287">
         <f t="shared" si="4"/>
-        <v>105</v>
+        <v>79</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>811</v>
+        <v>792</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="C288">
         <f t="shared" si="4"/>
-        <v>101</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>812</v>
+        <v>793</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C289">
         <f t="shared" si="4"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>813</v>
+        <v>794</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="C290">
         <f t="shared" si="4"/>
-        <v>108</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>814</v>
+        <v>795</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>286</v>
+        <v>1045</v>
       </c>
       <c r="C291">
         <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="D291">
+        <v>20170515</v>
+      </c>
+      <c r="E291" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>815</v>
+        <v>796</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>287</v>
+        <v>1044</v>
       </c>
       <c r="C292">
         <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="D292">
+        <v>20170515</v>
+      </c>
+      <c r="E292" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>816</v>
+        <v>797</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C293">
         <f t="shared" si="4"/>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>817</v>
+        <v>798</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="C294">
         <f t="shared" si="4"/>
-        <v>109</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>818</v>
+        <v>799</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C295">
         <f t="shared" si="4"/>
-        <v>108</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>819</v>
+        <v>800</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="C296">
         <f t="shared" si="4"/>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>820</v>
+        <v>801</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="C297">
         <f t="shared" si="4"/>
-        <v>107</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>821</v>
+        <v>802</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>293</v>
+        <v>1038</v>
       </c>
       <c r="C298">
         <f t="shared" si="4"/>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="D298">
+        <v>20170515</v>
+      </c>
+      <c r="E298" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>822</v>
+        <v>803</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="C299">
         <f t="shared" si="4"/>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>823</v>
+        <v>804</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="C300">
         <f t="shared" si="4"/>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>824</v>
+        <v>805</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="C301">
         <f t="shared" si="4"/>
-        <v>109</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="C302">
         <f t="shared" si="4"/>
-        <v>108</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="C303">
         <f t="shared" si="4"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>827</v>
+        <v>808</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="C304">
         <f t="shared" si="4"/>
-        <v>106</v>
+        <v>65</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>828</v>
+        <v>809</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="C305">
         <f t="shared" si="4"/>
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>829</v>
+        <v>810</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="C306">
         <f t="shared" si="4"/>
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>830</v>
+        <v>811</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C307">
         <f t="shared" si="4"/>
-        <v>84</v>
+        <v>110</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>831</v>
+        <v>812</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="C308">
         <f t="shared" si="4"/>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>832</v>
+        <v>813</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="C309">
         <f t="shared" si="4"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>833</v>
+        <v>814</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="C310">
         <f t="shared" si="4"/>
-        <v>104</v>
+        <v>63</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>834</v>
+        <v>815</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="C311">
         <f t="shared" si="4"/>
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>835</v>
+        <v>816</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="C312">
         <f t="shared" si="4"/>
-        <v>76</v>
+        <v>95</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>836</v>
+        <v>817</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="C313">
         <f t="shared" si="4"/>
-        <v>110</v>
+        <v>76</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>837</v>
+        <v>818</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="C314">
         <f t="shared" si="4"/>
-        <v>73</v>
+        <v>110</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>838</v>
+        <v>819</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="C315">
         <f t="shared" si="4"/>
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>839</v>
+        <v>820</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="C316">
         <f t="shared" si="4"/>
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>840</v>
+        <v>821</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="C317">
         <f t="shared" si="4"/>
-        <v>102</v>
+        <v>79</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>841</v>
+        <v>822</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="C318">
         <f t="shared" si="4"/>
-        <v>88</v>
+        <v>102</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>842</v>
+        <v>823</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="C319">
         <f t="shared" si="4"/>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>843</v>
+        <v>824</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="C320">
         <f t="shared" si="4"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C321">
+        <f t="shared" si="4"/>
         <v>51</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A321" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="B321" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C321">
-        <f t="shared" ref="C321:C384" si="5">LEN(B321)</f>
-        <v>98</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>845</v>
+        <v>826</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="C322">
+        <f t="shared" ref="C322:C385" si="5">LEN(B322)</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C323">
         <f t="shared" si="5"/>
         <v>84</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A323" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="B323" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C323">
+    <row r="324" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C324">
         <f t="shared" si="5"/>
         <v>78</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A324" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="B324" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C324">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C325">
         <f t="shared" si="5"/>
         <v>51</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A325" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="B325" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C325">
+    <row r="326" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C326">
         <f t="shared" si="5"/>
         <v>77</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A326" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="B326" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C326">
+    <row r="327" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C327">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A327" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="B327" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C327">
+    <row r="328" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C328">
         <f t="shared" si="5"/>
         <v>74</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A328" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="B328" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C328">
+    <row r="329" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C329">
         <f t="shared" si="5"/>
         <v>78</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A329" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="B329" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C329">
+    <row r="330" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C330">
         <f t="shared" si="5"/>
         <v>70</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A330" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="B330" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C330">
+    <row r="331" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C331">
         <f t="shared" si="5"/>
         <v>92</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A331" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="B331" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C331">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C332">
         <f t="shared" si="5"/>
         <v>52</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A332" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="B332" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="C332">
+    <row r="333" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C333">
         <f t="shared" si="5"/>
         <v>69</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A333" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="B333" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C333">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C334">
         <f t="shared" si="5"/>
         <v>59</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A334" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="B334" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C334">
+    <row r="335" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C335">
         <f t="shared" si="5"/>
         <v>83</v>
       </c>
     </row>
-    <row r="335" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A335" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="B335" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C335">
+    <row r="336" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C336">
         <f t="shared" si="5"/>
         <v>90</v>
       </c>
     </row>
-    <row r="336" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A336" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="B336" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C336">
+    <row r="337" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C337">
         <f t="shared" si="5"/>
         <v>92</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A337" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="B337" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C337">
-        <f t="shared" si="5"/>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>861</v>
+        <v>842</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>333</v>
+        <v>1051</v>
       </c>
       <c r="C338">
         <f t="shared" si="5"/>
-        <v>101</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="D338">
+        <v>20170515</v>
+      </c>
+      <c r="E338" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>862</v>
+        <v>843</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="C339">
         <f t="shared" si="5"/>
-        <v>86</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>863</v>
+        <v>844</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="C340">
         <f t="shared" si="5"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>864</v>
+        <v>845</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="C341">
         <f t="shared" si="5"/>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>865</v>
+        <v>846</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="C342">
         <f t="shared" si="5"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>866</v>
+        <v>847</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="C343">
         <f t="shared" si="5"/>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>867</v>
+        <v>848</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="C344">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>868</v>
+        <v>849</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="C345">
         <f t="shared" si="5"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>869</v>
+        <v>850</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="C346">
         <f t="shared" si="5"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>870</v>
+        <v>851</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="C347">
         <f t="shared" si="5"/>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>871</v>
+        <v>852</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="C348">
         <f t="shared" si="5"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>872</v>
+        <v>853</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="C349">
         <f t="shared" si="5"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>873</v>
+        <v>854</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="C350">
         <f t="shared" si="5"/>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>874</v>
+        <v>855</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="C351">
         <f t="shared" si="5"/>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>875</v>
+        <v>856</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="C352">
         <f t="shared" si="5"/>
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="353" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>876</v>
+        <v>857</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="C353">
         <f t="shared" si="5"/>
-        <v>111</v>
+        <v>66</v>
       </c>
     </row>
     <row r="354" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>877</v>
+        <v>858</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="C354">
         <f t="shared" si="5"/>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>878</v>
+        <v>859</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="C355">
         <f t="shared" si="5"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>879</v>
+        <v>860</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="C356">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>51</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>880</v>
+        <v>861</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="C357">
         <f t="shared" si="5"/>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>881</v>
+        <v>862</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="C358">
         <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>882</v>
+        <v>863</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="C359">
         <f t="shared" si="5"/>
-        <v>86</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>883</v>
+        <v>864</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="C360">
         <f t="shared" si="5"/>
-        <v>56</v>
+        <v>86</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>884</v>
+        <v>865</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="C361">
         <f t="shared" si="5"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>885</v>
+        <v>866</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="C362">
         <f t="shared" si="5"/>
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>885</v>
+        <v>867</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="C363">
         <f t="shared" si="5"/>
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>886</v>
+        <v>867</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="C364">
         <f t="shared" si="5"/>
-        <v>73</v>
+        <v>99</v>
       </c>
     </row>
     <row r="365" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>887</v>
+        <v>868</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="C365">
         <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>888</v>
+        <v>869</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="C366">
         <f t="shared" si="5"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>889</v>
+        <v>870</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="C367">
         <f t="shared" si="5"/>
-        <v>99</v>
+        <v>55</v>
       </c>
     </row>
     <row r="368" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>890</v>
+        <v>871</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="C368">
         <f t="shared" si="5"/>
@@ -7967,694 +8350,694 @@
     </row>
     <row r="369" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>891</v>
+        <v>872</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="C369">
         <f t="shared" si="5"/>
-        <v>81</v>
+        <v>99</v>
       </c>
     </row>
     <row r="370" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>892</v>
+        <v>873</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="C370">
         <f t="shared" si="5"/>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>893</v>
+        <v>874</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="C371">
         <f t="shared" si="5"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>894</v>
+        <v>875</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="C372">
         <f t="shared" si="5"/>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>895</v>
+        <v>876</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="C373">
         <f t="shared" si="5"/>
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>896</v>
+        <v>877</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="C374">
         <f t="shared" si="5"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>897</v>
+        <v>878</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="C375">
         <f t="shared" si="5"/>
-        <v>105</v>
+        <v>50</v>
       </c>
     </row>
     <row r="376" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>898</v>
+        <v>879</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="C376">
         <f t="shared" si="5"/>
-        <v>86</v>
+        <v>105</v>
       </c>
     </row>
     <row r="377" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>899</v>
+        <v>880</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="C377">
         <f t="shared" si="5"/>
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="378" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>900</v>
+        <v>881</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="C378">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="379" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>901</v>
+        <v>882</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="C379">
         <f t="shared" si="5"/>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>902</v>
+        <v>883</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="C380">
         <f t="shared" si="5"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>903</v>
+        <v>884</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="C381">
         <f t="shared" si="5"/>
-        <v>106</v>
+        <v>51</v>
       </c>
     </row>
     <row r="382" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>904</v>
+        <v>885</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="C382">
         <f t="shared" si="5"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>905</v>
+        <v>886</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="C383">
         <f t="shared" si="5"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
-        <v>906</v>
+        <v>887</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="C384">
         <f t="shared" si="5"/>
-        <v>106</v>
+        <v>62</v>
       </c>
     </row>
     <row r="385" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>906</v>
+        <v>888</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="C385">
-        <f t="shared" ref="C385:C448" si="6">LEN(B385)</f>
-        <v>110</v>
+        <f t="shared" si="5"/>
+        <v>106</v>
       </c>
     </row>
     <row r="386" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>907</v>
+        <v>888</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="C386">
+        <f t="shared" ref="C386:C449" si="6">LEN(B386)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A387" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C387">
         <f t="shared" si="6"/>
         <v>99</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A387" s="1" t="s">
-        <v>908</v>
-      </c>
-      <c r="B387" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="C387">
-        <f t="shared" si="6"/>
-        <v>54</v>
-      </c>
-    </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>909</v>
+        <v>890</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="C388">
         <f t="shared" si="6"/>
         <v>54</v>
       </c>
     </row>
-    <row r="389" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>910</v>
+        <v>891</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="C389">
         <f t="shared" si="6"/>
-        <v>101</v>
+        <v>54</v>
       </c>
     </row>
     <row r="390" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>910</v>
+        <v>892</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="C390">
         <f t="shared" si="6"/>
-        <v>89</v>
+        <v>101</v>
       </c>
     </row>
     <row r="391" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>911</v>
+        <v>892</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="C391">
         <f t="shared" si="6"/>
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="392" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>912</v>
+        <v>893</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="C392">
         <f t="shared" si="6"/>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
-        <v>913</v>
+        <v>894</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="C393">
         <f t="shared" si="6"/>
-        <v>52</v>
+        <v>89</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>914</v>
+        <v>895</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="C394">
         <f t="shared" si="6"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>915</v>
+        <v>896</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="C395">
         <f t="shared" si="6"/>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
-        <v>916</v>
+        <v>897</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="C396">
         <f t="shared" si="6"/>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>917</v>
+        <v>898</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="C397">
         <f t="shared" si="6"/>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>918</v>
+        <v>899</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="C398">
         <f t="shared" si="6"/>
-        <v>59</v>
+        <v>92</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
-        <v>919</v>
+        <v>900</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="C399">
         <f t="shared" si="6"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>920</v>
+        <v>901</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="C400">
         <f t="shared" si="6"/>
-        <v>107</v>
+        <v>52</v>
       </c>
     </row>
     <row r="401" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>920</v>
+        <v>902</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="C401">
         <f t="shared" si="6"/>
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="402" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
-        <v>921</v>
+        <v>902</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="C402">
         <f t="shared" si="6"/>
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="403" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>922</v>
+        <v>903</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="C403">
         <f t="shared" si="6"/>
-        <v>71</v>
+        <v>101</v>
       </c>
     </row>
     <row r="404" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>923</v>
+        <v>904</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="C404">
         <f t="shared" si="6"/>
-        <v>101</v>
+        <v>71</v>
       </c>
     </row>
     <row r="405" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
-        <v>924</v>
+        <v>905</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="C405">
         <f t="shared" si="6"/>
-        <v>71</v>
+        <v>101</v>
       </c>
     </row>
     <row r="406" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>925</v>
+        <v>906</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="C406">
         <f t="shared" si="6"/>
-        <v>106</v>
-      </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>926</v>
+        <v>907</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="C407">
         <f t="shared" si="6"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
-        <v>927</v>
+        <v>908</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="C408">
         <f t="shared" si="6"/>
-        <v>101</v>
+        <v>50</v>
       </c>
     </row>
     <row r="409" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>928</v>
+        <v>909</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="C409">
         <f t="shared" si="6"/>
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="410" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>929</v>
+        <v>910</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="C410">
         <f t="shared" si="6"/>
-        <v>113</v>
-      </c>
-    </row>
-    <row r="411" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
-        <v>930</v>
+        <v>911</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="C411">
         <f t="shared" si="6"/>
-        <v>131</v>
-      </c>
-    </row>
-    <row r="412" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>931</v>
+        <v>912</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="C412">
         <f t="shared" si="6"/>
-        <v>104</v>
+        <v>131</v>
       </c>
     </row>
     <row r="413" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>932</v>
+        <v>913</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="C413">
         <f t="shared" si="6"/>
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row r="414" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
-        <v>933</v>
+        <v>914</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="C414">
         <f t="shared" si="6"/>
-        <v>104</v>
+        <v>85</v>
       </c>
     </row>
     <row r="415" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>934</v>
+        <v>915</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="C415">
         <f t="shared" si="6"/>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>935</v>
+        <v>916</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="C416">
         <f t="shared" si="6"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="417" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
-        <v>936</v>
+        <v>917</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C417">
         <f t="shared" si="6"/>
-        <v>85</v>
+        <v>51</v>
       </c>
     </row>
     <row r="418" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>937</v>
+        <v>918</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="C418">
         <f t="shared" si="6"/>
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="419" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>938</v>
+        <v>919</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="C419">
         <f t="shared" si="6"/>
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="420" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
-        <v>939</v>
+        <v>920</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="C420">
         <f t="shared" si="6"/>
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="421" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>940</v>
+        <v>921</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="C421">
         <f t="shared" si="6"/>
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="422" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>941</v>
+        <v>922</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="C422">
         <f t="shared" si="6"/>
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="423" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>942</v>
+        <v>923</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="C423">
         <f t="shared" si="6"/>
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="424" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>943</v>
+        <v>924</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="C424">
         <f t="shared" si="6"/>
-        <v>116</v>
+        <v>82</v>
       </c>
     </row>
     <row r="425" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>944</v>
+        <v>925</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="C425">
         <f t="shared" si="6"/>
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="426" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
-        <v>945</v>
+        <v>926</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="C426">
         <f t="shared" si="6"/>
@@ -8663,82 +9046,82 @@
     </row>
     <row r="427" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>946</v>
+        <v>927</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="C427">
         <f t="shared" si="6"/>
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="428" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>947</v>
+        <v>928</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="C428">
         <f t="shared" si="6"/>
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="429" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
-        <v>948</v>
+        <v>929</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="C429">
         <f t="shared" si="6"/>
-        <v>97</v>
+        <v>111</v>
       </c>
     </row>
     <row r="430" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>949</v>
+        <v>930</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="C430">
         <f t="shared" si="6"/>
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="431" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>950</v>
+        <v>931</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="C431">
         <f t="shared" si="6"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="432" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
-        <v>951</v>
+        <v>932</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="C432">
         <f t="shared" si="6"/>
-        <v>119</v>
-      </c>
-    </row>
-    <row r="433" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
-        <v>952</v>
+        <v>933</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="C433">
         <f t="shared" si="6"/>
@@ -8747,106 +9130,106 @@
     </row>
     <row r="434" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>953</v>
+        <v>934</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="C434">
         <f t="shared" si="6"/>
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="435" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
-        <v>954</v>
+        <v>935</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="C435">
         <f t="shared" si="6"/>
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="436" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
-        <v>955</v>
+        <v>936</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="C436">
         <f t="shared" si="6"/>
-        <v>82</v>
+        <v>114</v>
       </c>
     </row>
     <row r="437" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>956</v>
+        <v>937</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="C437">
         <f t="shared" si="6"/>
-        <v>112</v>
+        <v>82</v>
       </c>
     </row>
     <row r="438" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
-        <v>957</v>
+        <v>938</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="C438">
         <f t="shared" si="6"/>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
-        <v>958</v>
+        <v>939</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="C439">
         <f t="shared" si="6"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="440" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>959</v>
+        <v>940</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C440">
         <f t="shared" si="6"/>
-        <v>117</v>
+        <v>65</v>
       </c>
     </row>
     <row r="441" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
-        <v>960</v>
+        <v>941</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="C441">
         <f t="shared" si="6"/>
-        <v>86</v>
+        <v>117</v>
       </c>
     </row>
     <row r="442" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
-        <v>961</v>
+        <v>942</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="C442">
         <f t="shared" si="6"/>
@@ -8855,1052 +9238,1088 @@
     </row>
     <row r="443" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
-        <v>962</v>
+        <v>943</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="C443">
         <f t="shared" si="6"/>
-        <v>119</v>
+        <v>86</v>
       </c>
     </row>
     <row r="444" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
-        <v>963</v>
+        <v>944</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="C444">
         <f t="shared" si="6"/>
-        <v>100</v>
+        <v>119</v>
       </c>
     </row>
     <row r="445" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
-        <v>964</v>
+        <v>945</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="C445">
         <f t="shared" si="6"/>
-        <v>119</v>
+        <v>100</v>
       </c>
     </row>
     <row r="446" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
-        <v>965</v>
+        <v>946</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="C446">
         <f t="shared" si="6"/>
-        <v>87</v>
+        <v>119</v>
       </c>
     </row>
     <row r="447" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
-        <v>966</v>
+        <v>947</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="C447">
         <f t="shared" si="6"/>
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="448" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
-        <v>967</v>
+        <v>948</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="C448">
         <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A449" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C449">
+        <f t="shared" si="6"/>
         <v>97</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A449" s="1" t="s">
-        <v>968</v>
-      </c>
-      <c r="B449" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="C449">
-        <f t="shared" ref="C449:C512" si="7">LEN(B449)</f>
+    <row r="450" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A450" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="B450" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C450">
+        <f t="shared" ref="C450:C513" si="7">LEN(B450)</f>
         <v>108</v>
       </c>
     </row>
-    <row r="450" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A450" s="1" t="s">
-        <v>969</v>
-      </c>
-      <c r="B450" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="C450">
+    <row r="451" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A451" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="B451" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C451">
+        <f t="shared" si="7"/>
+        <v>109</v>
+      </c>
+      <c r="D451">
+        <v>20170515</v>
+      </c>
+      <c r="E451" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A452" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="B452" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C452">
+        <f t="shared" si="7"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A453" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C453">
+        <f t="shared" si="7"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A454" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="B454" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C454">
+        <f t="shared" si="7"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A455" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="B455" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C455">
+        <f t="shared" si="7"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A456" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="B456" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C456">
         <f t="shared" si="7"/>
         <v>95</v>
       </c>
     </row>
-    <row r="451" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A451" s="1" t="s">
+    <row r="457" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A457" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B457" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C457">
+        <f t="shared" si="7"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A458" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="B458" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C458">
+        <f t="shared" si="7"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A459" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="B459" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C459">
+        <f t="shared" si="7"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A460" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="B460" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C460">
+        <f t="shared" si="7"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A461" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="B461" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C461">
+        <f t="shared" si="7"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A462" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C462">
+        <f t="shared" si="7"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A463" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C463">
+        <f t="shared" si="7"/>
+        <v>123</v>
+      </c>
+      <c r="D463">
+        <v>20170515</v>
+      </c>
+      <c r="E463" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A464" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="B464" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C464">
+        <f t="shared" si="7"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A465" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="B465" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C465">
+        <f t="shared" si="7"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A466" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="B466" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C466">
+        <f t="shared" si="7"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A467" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C467">
+        <f t="shared" si="7"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A468" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C468">
+        <f t="shared" si="7"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A469" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C469">
+        <f t="shared" si="7"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A470" s="1" t="s">
         <v>970</v>
       </c>
-      <c r="B451" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="C451">
+      <c r="B470" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C470">
+        <f t="shared" si="7"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A471" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C471">
+        <f t="shared" si="7"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A472" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C472">
+        <f t="shared" si="7"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A473" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C473">
+        <f t="shared" si="7"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A474" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="B474" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C474">
+        <f t="shared" si="7"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A475" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="B475" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C475">
+        <f t="shared" si="7"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A476" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="B476" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C476">
+        <f t="shared" si="7"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A477" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="B477" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C477">
+        <f t="shared" si="7"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A478" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="B478" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C478">
+        <f t="shared" si="7"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A479" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="B479" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C479">
+        <f t="shared" si="7"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A480" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="B480" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C480">
+        <f t="shared" si="7"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A481" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="B481" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C481">
+        <f t="shared" si="7"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A482" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="B482" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C482">
+        <f t="shared" si="7"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A483" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="B483" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C483">
+        <f t="shared" si="7"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A484" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="B484" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C484">
+        <f t="shared" si="7"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A485" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="B485" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C485">
+        <f t="shared" si="7"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A486" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="B486" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C486">
+        <f t="shared" si="7"/>
+        <v>135</v>
+      </c>
+      <c r="D486">
+        <v>20170515</v>
+      </c>
+      <c r="E486" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A487" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="B487" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C487">
+        <f t="shared" si="7"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A488" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="B488" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C488">
+        <f t="shared" si="7"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A489" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="B489" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C489">
+        <f t="shared" si="7"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A490" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B490" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C490">
+        <f t="shared" si="7"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A491" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="B491" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C491">
+        <f t="shared" si="7"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A492" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="B492" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C492">
+        <f t="shared" si="7"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A493" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="B493" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C493">
+        <f t="shared" si="7"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A494" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="B494" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C494">
+        <f t="shared" si="7"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A495" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="B495" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C495">
+        <f t="shared" si="7"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A496" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="B496" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C496">
+        <f t="shared" si="7"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A497" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="B497" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C497">
+        <f t="shared" si="7"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A498" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="B498" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C498">
+        <f t="shared" si="7"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A499" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="B499" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C499">
+        <f t="shared" si="7"/>
+        <v>136</v>
+      </c>
+      <c r="D499">
+        <v>20170515</v>
+      </c>
+      <c r="E499" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A500" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B500" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C500">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A501" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B501" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C501">
+        <f t="shared" si="7"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A502" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B502" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C502">
+        <f t="shared" si="7"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A503" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B503" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C503">
         <f t="shared" si="7"/>
         <v>116</v>
       </c>
     </row>
-    <row r="452" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A452" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="B452" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="C452">
+    <row r="504" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A504" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B504" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C504">
         <f t="shared" si="7"/>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="453" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A453" s="1" t="s">
-        <v>972</v>
-      </c>
-      <c r="B453" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="C453">
-        <f t="shared" si="7"/>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="454" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A454" s="1" t="s">
-        <v>973</v>
-      </c>
-      <c r="B454" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="C454">
-        <f t="shared" si="7"/>
-        <v>104</v>
-      </c>
-    </row>
-    <row r="455" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A455" s="1" t="s">
-        <v>974</v>
-      </c>
-      <c r="B455" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="C455">
-        <f t="shared" si="7"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="456" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A456" s="1" t="s">
-        <v>975</v>
-      </c>
-      <c r="B456" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="C456">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A505" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B505" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C505">
         <f t="shared" si="7"/>
         <v>85</v>
       </c>
     </row>
-    <row r="457" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A457" s="1" t="s">
-        <v>976</v>
-      </c>
-      <c r="B457" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="C457">
+    <row r="506" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A506" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B506" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C506">
         <f t="shared" si="7"/>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="458" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A458" s="1" t="s">
-        <v>977</v>
-      </c>
-      <c r="B458" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="C458">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A507" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B507" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C507">
+        <f t="shared" si="7"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A508" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B508" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C508">
         <f t="shared" si="7"/>
         <v>96</v>
       </c>
     </row>
-    <row r="459" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A459" s="1" t="s">
-        <v>978</v>
-      </c>
-      <c r="B459" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="C459">
-        <f t="shared" si="7"/>
-        <v>114</v>
-      </c>
-    </row>
-    <row r="460" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A460" s="1" t="s">
-        <v>979</v>
-      </c>
-      <c r="B460" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="C460">
-        <f t="shared" si="7"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="461" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A461" s="1" t="s">
-        <v>980</v>
-      </c>
-      <c r="B461" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="C461">
-        <f t="shared" si="7"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="462" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A462" s="1" t="s">
-        <v>981</v>
-      </c>
-      <c r="B462" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="C462">
-        <f t="shared" si="7"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="463" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A463" s="1" t="s">
-        <v>982</v>
-      </c>
-      <c r="B463" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="C463">
-        <f t="shared" si="7"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="464" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A464" s="1" t="s">
-        <v>983</v>
-      </c>
-      <c r="B464" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="C464">
-        <f t="shared" si="7"/>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="465" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A465" s="1" t="s">
-        <v>984</v>
-      </c>
-      <c r="B465" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="C465">
+    <row r="509" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A509" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B509" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C509">
         <f t="shared" si="7"/>
         <v>108</v>
       </c>
     </row>
-    <row r="466" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A466" s="1" t="s">
-        <v>985</v>
-      </c>
-      <c r="B466" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="C466">
+    <row r="510" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A510" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B510" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C510">
         <f t="shared" si="7"/>
-        <v>118</v>
-      </c>
-    </row>
-    <row r="467" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A467" s="1" t="s">
-        <v>986</v>
-      </c>
-      <c r="B467" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="C467">
-        <f t="shared" si="7"/>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="468" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A468" s="1" t="s">
-        <v>987</v>
-      </c>
-      <c r="B468" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="C468">
-        <f t="shared" si="7"/>
-        <v>114</v>
-      </c>
-    </row>
-    <row r="469" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A469" s="1" t="s">
-        <v>988</v>
-      </c>
-      <c r="B469" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="C469">
-        <f t="shared" si="7"/>
-        <v>132</v>
-      </c>
-    </row>
-    <row r="470" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A470" s="1" t="s">
-        <v>989</v>
-      </c>
-      <c r="B470" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="C470">
-        <f t="shared" si="7"/>
-        <v>118</v>
-      </c>
-    </row>
-    <row r="471" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A471" s="1" t="s">
-        <v>990</v>
-      </c>
-      <c r="B471" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="C471">
-        <f t="shared" si="7"/>
-        <v>115</v>
-      </c>
-    </row>
-    <row r="472" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A472" s="1" t="s">
-        <v>991</v>
-      </c>
-      <c r="B472" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="C472">
-        <f t="shared" si="7"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="473" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A473" s="1" t="s">
-        <v>992</v>
-      </c>
-      <c r="B473" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="C473">
-        <f t="shared" si="7"/>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="474" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A474" s="1" t="s">
-        <v>993</v>
-      </c>
-      <c r="B474" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="C474">
-        <f t="shared" si="7"/>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="475" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A475" s="1" t="s">
-        <v>994</v>
-      </c>
-      <c r="B475" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="C475">
-        <f t="shared" si="7"/>
-        <v>106</v>
-      </c>
-    </row>
-    <row r="476" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A476" s="1" t="s">
-        <v>995</v>
-      </c>
-      <c r="B476" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="C476">
-        <f t="shared" si="7"/>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="477" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A477" s="1" t="s">
-        <v>996</v>
-      </c>
-      <c r="B477" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="C477">
-        <f t="shared" si="7"/>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="478" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A478" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="B478" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="C478">
-        <f t="shared" si="7"/>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="479" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A479" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="B479" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="C479">
-        <f t="shared" si="7"/>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="480" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A480" s="1" t="s">
-        <v>999</v>
-      </c>
-      <c r="B480" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="C480">
-        <f t="shared" si="7"/>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="481" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A481" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B481" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="C481">
-        <f t="shared" si="7"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="482" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A482" s="1" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B482" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="C482">
-        <f t="shared" si="7"/>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="483" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A483" s="1" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B483" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="C483">
-        <f t="shared" si="7"/>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="484" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A484" s="1" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B484" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C484">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A511" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B511" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C511">
         <f t="shared" si="7"/>
         <v>117</v>
       </c>
     </row>
-    <row r="485" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A485" s="1" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B485" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="C485">
-        <f t="shared" si="7"/>
-        <v>134</v>
-      </c>
-    </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A486" s="1" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B486" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="C486">
-        <f t="shared" si="7"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="487" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A487" s="1" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B487" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="C487">
+    <row r="512" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A512" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B512" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C512">
         <f t="shared" si="7"/>
         <v>96</v>
       </c>
     </row>
-    <row r="488" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A488" s="1" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B488" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="C488">
-        <f t="shared" si="7"/>
-        <v>117</v>
-      </c>
-    </row>
-    <row r="489" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A489" s="1" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B489" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="C489">
-        <f t="shared" si="7"/>
-        <v>119</v>
-      </c>
-    </row>
-    <row r="490" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A490" s="1" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B490" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="C490">
-        <f t="shared" si="7"/>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="491" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A491" s="1" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B491" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="C491">
-        <f t="shared" si="7"/>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="492" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A492" s="1" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B492" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="C492">
-        <f t="shared" si="7"/>
-        <v>103</v>
-      </c>
-    </row>
-    <row r="493" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A493" s="1" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B493" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="C493">
-        <f t="shared" si="7"/>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="494" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A494" s="1" t="s">
+    <row r="513" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A513" s="1" t="s">
         <v>1013</v>
       </c>
-      <c r="B494" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="C494">
-        <f t="shared" si="7"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="495" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A495" s="1" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B495" s="2" t="s">
+      <c r="B513" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="C495">
-        <f t="shared" si="7"/>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="496" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A496" s="1" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B496" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="C496">
-        <f t="shared" si="7"/>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="497" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A497" s="1" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B497" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="C497">
-        <f t="shared" si="7"/>
-        <v>115</v>
-      </c>
-    </row>
-    <row r="498" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A498" s="1" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B498" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="C498">
-        <f t="shared" si="7"/>
-        <v>117</v>
-      </c>
-    </row>
-    <row r="499" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A499" s="1" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B499" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="C499">
-        <f t="shared" si="7"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="500" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A500" s="1" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B500" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="C500">
-        <f t="shared" si="7"/>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="501" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A501" s="1" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B501" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="C501">
-        <f t="shared" si="7"/>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="502" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A502" s="1" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B502" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="C502">
-        <f t="shared" si="7"/>
-        <v>116</v>
-      </c>
-    </row>
-    <row r="503" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A503" s="1" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B503" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="C503">
-        <f t="shared" si="7"/>
-        <v>113</v>
-      </c>
-    </row>
-    <row r="504" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A504" s="1" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B504" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="C504">
-        <f t="shared" si="7"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="505" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A505" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B505" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="C505">
-        <f t="shared" si="7"/>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="506" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A506" s="1" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B506" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="C506">
-        <f t="shared" si="7"/>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="507" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A507" s="1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B507" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="C507">
-        <f t="shared" si="7"/>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="508" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A508" s="1" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B508" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="C508">
-        <f t="shared" si="7"/>
-        <v>108</v>
-      </c>
-    </row>
-    <row r="509" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A509" s="1" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B509" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="C509">
-        <f t="shared" si="7"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="510" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A510" s="1" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B510" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="C510">
-        <f t="shared" si="7"/>
-        <v>117</v>
-      </c>
-    </row>
-    <row r="511" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A511" s="1" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B511" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="C511">
-        <f t="shared" si="7"/>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="512" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A512" s="1" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B512" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="C512">
+      <c r="C513">
         <f t="shared" si="7"/>
         <v>74</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A513" s="1" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B513" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="C513">
-        <f t="shared" ref="C513:C529" si="8">LEN(B513)</f>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A514" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B514" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C514">
+        <f t="shared" ref="C514:C530" si="8">LEN(B514)</f>
         <v>56</v>
       </c>
     </row>
-    <row r="514" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A514" s="1" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B514" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="C514">
+    <row r="515" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A515" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B515" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C515">
         <f t="shared" si="8"/>
         <v>112</v>
       </c>
     </row>
-    <row r="515" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A515" s="1" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B515" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="C515">
+    <row r="516" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A516" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B516" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C516">
         <f t="shared" si="8"/>
         <v>105</v>
       </c>
     </row>
-    <row r="516" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A516" s="1" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B516" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="C516">
+    <row r="517" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A517" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B517" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C517">
         <f t="shared" si="8"/>
         <v>112</v>
       </c>
     </row>
-    <row r="517" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A517" s="1" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B517" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="C517">
+    <row r="518" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A518" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B518" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C518">
         <f t="shared" si="8"/>
         <v>117</v>
       </c>
     </row>
-    <row r="518" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A518" s="1" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B518" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="C518">
+    <row r="519" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A519" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B519" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C519">
         <f t="shared" si="8"/>
         <v>106</v>
       </c>
     </row>
-    <row r="519" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A519" s="1" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B519" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="C519">
+    <row r="520" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A520" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B520" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C520">
         <f t="shared" si="8"/>
         <v>135</v>
       </c>
     </row>
-    <row r="520" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A520" s="1" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B520" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C520">
+    <row r="521" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A521" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B521" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C521">
         <f t="shared" si="8"/>
         <v>85</v>
       </c>
     </row>
-    <row r="521" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A521" s="1" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B521" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="C521">
+    <row r="522" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A522" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B522" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C522">
         <f t="shared" si="8"/>
         <v>111</v>
       </c>
     </row>
-    <row r="522" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A522" s="1" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B522" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C522">
+    <row r="523" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A523" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B523" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C523">
         <f t="shared" si="8"/>
         <v>86</v>
       </c>
     </row>
-    <row r="523" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A523" s="1" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B523" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="C523">
+    <row r="524" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A524" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B524" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C524">
         <f t="shared" si="8"/>
         <v>104</v>
       </c>
     </row>
-    <row r="524" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A524" s="1" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B524" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="C524">
+    <row r="525" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A525" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B525" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C525">
         <f t="shared" si="8"/>
         <v>106</v>
       </c>
     </row>
-    <row r="525" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A525" s="1" t="s">
-        <v>1044</v>
-      </c>
-      <c r="B525" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="C525">
+    <row r="526" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A526" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B526" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C526">
         <f t="shared" si="8"/>
         <v>83</v>
       </c>
     </row>
-    <row r="526" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A526" s="1" t="s">
-        <v>1045</v>
-      </c>
-      <c r="B526" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="C526">
+    <row r="527" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A527" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B527" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C527">
         <f t="shared" si="8"/>
         <v>101</v>
       </c>
     </row>
-    <row r="527" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A527" s="1" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B527" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="C527">
+    <row r="528" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A528" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B528" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C528">
         <f t="shared" si="8"/>
         <v>115</v>
       </c>
     </row>
-    <row r="528" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A528" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B528" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="C528">
+    <row r="529" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A529" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B529" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C529">
         <f t="shared" si="8"/>
         <v>87</v>
       </c>
     </row>
-    <row r="529" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A529" s="1" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B529" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="C529">
+    <row r="530" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A530" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B530" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C530">
         <f t="shared" si="8"/>
         <v>119</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="C1:C529">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="C1:C530">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>140</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tweetlist.xlsx
+++ b/tweetlist.xlsx
@@ -654,9 +654,6 @@
   </si>
   <si>
     <t>【今日の人工衛星】5/19 1971年：マルス2号 旧ソ連の火星探査機。軌道上からの探査と、着陸船を保有。着陸船は初めて火星表面に到達した人工物となったが、着陸時に故障して動作せず。軌道上探査機は3号と合同で探査を続けた</t>
-  </si>
-  <si>
-    <t>【今日の人工衛星】5/20(UTC) 2010年：あかつき、IKAROS 日本の金星探査機とソーラー電力セイル実験機。あかつきの金星軌道投入は失敗したが7年後の再投入を目指す。IKAROSの実験は大成功を収めた。</t>
   </si>
   <si>
     <t>★2010年の今日5/21 6:58:22、H-IIAロケット17号機で金星探査機あかつき・ソーラー電力セイル実験機IKAROS、相乗り衛星4基が打ち上げられました。</t>
@@ -3470,6 +3467,37 @@
     <t>追加</t>
     <rPh sb="0" eb="2">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【今日の人工衛星】5/20(UTC) 2010年：あかつき、IKAROS 日本の金星探査機とソーラー電力セイル実験機。あかつきの初回の金星軌道投入は失敗、IKAROSの実験が先行して大成功を収めた。あかつきも5年後の2015年に軌道投入に成功、科学観測を行っている。</t>
+    <rPh sb="64" eb="66">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>センコウ</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>トウニュウ</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>カガク</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>カンソク</t>
+    </rPh>
+    <rPh sb="127" eb="128">
+      <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3534,17 +3562,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3833,7 +3851,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E530"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A214" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B219" sqref="B219"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3844,7 +3864,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3856,7 +3876,7 @@
     </row>
     <row r="2" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -3868,7 +3888,7 @@
     </row>
     <row r="3" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -3880,7 +3900,7 @@
     </row>
     <row r="4" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -3892,7 +3912,7 @@
     </row>
     <row r="5" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -3904,7 +3924,7 @@
     </row>
     <row r="6" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
@@ -3916,7 +3936,7 @@
     </row>
     <row r="7" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
@@ -3928,7 +3948,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
@@ -3940,7 +3960,7 @@
     </row>
     <row r="9" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>8</v>
@@ -3952,7 +3972,7 @@
     </row>
     <row r="10" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -3964,7 +3984,7 @@
     </row>
     <row r="11" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>10</v>
@@ -3976,7 +3996,7 @@
     </row>
     <row r="12" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
@@ -3988,7 +4008,7 @@
     </row>
     <row r="13" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
@@ -4000,7 +4020,7 @@
     </row>
     <row r="14" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>13</v>
@@ -4012,7 +4032,7 @@
     </row>
     <row r="15" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>14</v>
@@ -4024,7 +4044,7 @@
     </row>
     <row r="16" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>15</v>
@@ -4036,7 +4056,7 @@
     </row>
     <row r="17" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>16</v>
@@ -4048,7 +4068,7 @@
     </row>
     <row r="18" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>17</v>
@@ -4060,7 +4080,7 @@
     </row>
     <row r="19" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>18</v>
@@ -4072,7 +4092,7 @@
     </row>
     <row r="20" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>19</v>
@@ -4084,7 +4104,7 @@
     </row>
     <row r="21" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>20</v>
@@ -4096,7 +4116,7 @@
     </row>
     <row r="22" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>21</v>
@@ -4108,7 +4128,7 @@
     </row>
     <row r="23" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>22</v>
@@ -4120,7 +4140,7 @@
     </row>
     <row r="24" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>23</v>
@@ -4132,7 +4152,7 @@
     </row>
     <row r="25" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>24</v>
@@ -4144,7 +4164,7 @@
     </row>
     <row r="26" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>25</v>
@@ -4156,7 +4176,7 @@
     </row>
     <row r="27" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>26</v>
@@ -4168,7 +4188,7 @@
     </row>
     <row r="28" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>27</v>
@@ -4180,7 +4200,7 @@
     </row>
     <row r="29" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>28</v>
@@ -4192,7 +4212,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>29</v>
@@ -4204,7 +4224,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>30</v>
@@ -4216,7 +4236,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>31</v>
@@ -4228,7 +4248,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>32</v>
@@ -4240,7 +4260,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>33</v>
@@ -4252,7 +4272,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>34</v>
@@ -4264,7 +4284,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>35</v>
@@ -4276,7 +4296,7 @@
     </row>
     <row r="37" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>36</v>
@@ -4288,7 +4308,7 @@
     </row>
     <row r="38" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>37</v>
@@ -4300,7 +4320,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>38</v>
@@ -4312,7 +4332,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>39</v>
@@ -4324,7 +4344,7 @@
     </row>
     <row r="41" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>40</v>
@@ -4336,7 +4356,7 @@
     </row>
     <row r="42" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>41</v>
@@ -4348,7 +4368,7 @@
     </row>
     <row r="43" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>42</v>
@@ -4360,7 +4380,7 @@
     </row>
     <row r="44" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>43</v>
@@ -4372,7 +4392,7 @@
     </row>
     <row r="45" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>44</v>
@@ -4384,7 +4404,7 @@
     </row>
     <row r="46" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>45</v>
@@ -4396,7 +4416,7 @@
     </row>
     <row r="47" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>46</v>
@@ -4408,7 +4428,7 @@
     </row>
     <row r="48" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>47</v>
@@ -4420,7 +4440,7 @@
     </row>
     <row r="49" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>48</v>
@@ -4432,7 +4452,7 @@
     </row>
     <row r="50" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>49</v>
@@ -4444,10 +4464,10 @@
     </row>
     <row r="51" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
@@ -4457,12 +4477,12 @@
         <v>20170515</v>
       </c>
       <c r="E51" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>50</v>
@@ -4474,7 +4494,7 @@
     </row>
     <row r="53" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>51</v>
@@ -4486,7 +4506,7 @@
     </row>
     <row r="54" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>52</v>
@@ -4498,7 +4518,7 @@
     </row>
     <row r="55" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>53</v>
@@ -4510,7 +4530,7 @@
     </row>
     <row r="56" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>54</v>
@@ -4522,7 +4542,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>55</v>
@@ -4534,7 +4554,7 @@
     </row>
     <row r="58" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>56</v>
@@ -4546,7 +4566,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>57</v>
@@ -4558,7 +4578,7 @@
     </row>
     <row r="60" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>58</v>
@@ -4570,7 +4590,7 @@
     </row>
     <row r="61" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>59</v>
@@ -4582,7 +4602,7 @@
     </row>
     <row r="62" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>60</v>
@@ -4594,7 +4614,7 @@
     </row>
     <row r="63" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>61</v>
@@ -4606,7 +4626,7 @@
     </row>
     <row r="64" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>62</v>
@@ -4618,7 +4638,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>63</v>
@@ -4630,7 +4650,7 @@
     </row>
     <row r="66" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>64</v>
@@ -4642,7 +4662,7 @@
     </row>
     <row r="67" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>65</v>
@@ -4654,7 +4674,7 @@
     </row>
     <row r="68" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>66</v>
@@ -4666,7 +4686,7 @@
     </row>
     <row r="69" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>67</v>
@@ -4678,7 +4698,7 @@
     </row>
     <row r="70" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>68</v>
@@ -4690,7 +4710,7 @@
     </row>
     <row r="71" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>69</v>
@@ -4702,7 +4722,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>70</v>
@@ -4714,7 +4734,7 @@
     </row>
     <row r="73" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>71</v>
@@ -4726,7 +4746,7 @@
     </row>
     <row r="74" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>72</v>
@@ -4738,7 +4758,7 @@
     </row>
     <row r="75" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>73</v>
@@ -4750,7 +4770,7 @@
     </row>
     <row r="76" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>74</v>
@@ -4762,7 +4782,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>75</v>
@@ -4774,7 +4794,7 @@
     </row>
     <row r="78" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>76</v>
@@ -4786,7 +4806,7 @@
     </row>
     <row r="79" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>77</v>
@@ -4798,7 +4818,7 @@
     </row>
     <row r="80" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>78</v>
@@ -4810,7 +4830,7 @@
     </row>
     <row r="81" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>79</v>
@@ -4822,7 +4842,7 @@
     </row>
     <row r="82" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>80</v>
@@ -4834,10 +4854,10 @@
     </row>
     <row r="83" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C83">
         <f t="shared" si="1"/>
@@ -4847,12 +4867,12 @@
         <v>20170515</v>
       </c>
       <c r="E83" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>81</v>
@@ -4864,7 +4884,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>82</v>
@@ -4876,7 +4896,7 @@
     </row>
     <row r="86" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>83</v>
@@ -4888,7 +4908,7 @@
     </row>
     <row r="87" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>84</v>
@@ -4900,7 +4920,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>85</v>
@@ -4912,7 +4932,7 @@
     </row>
     <row r="89" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>86</v>
@@ -4924,7 +4944,7 @@
     </row>
     <row r="90" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>87</v>
@@ -4936,7 +4956,7 @@
     </row>
     <row r="91" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>88</v>
@@ -4948,7 +4968,7 @@
     </row>
     <row r="92" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>89</v>
@@ -4960,7 +4980,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>90</v>
@@ -4972,7 +4992,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>91</v>
@@ -4984,7 +5004,7 @@
     </row>
     <row r="95" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>92</v>
@@ -4996,7 +5016,7 @@
     </row>
     <row r="96" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>93</v>
@@ -5008,7 +5028,7 @@
     </row>
     <row r="97" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>94</v>
@@ -5020,7 +5040,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>95</v>
@@ -5032,7 +5052,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>96</v>
@@ -5044,7 +5064,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>97</v>
@@ -5056,7 +5076,7 @@
     </row>
     <row r="101" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>98</v>
@@ -5068,7 +5088,7 @@
     </row>
     <row r="102" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>99</v>
@@ -5080,7 +5100,7 @@
     </row>
     <row r="103" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>100</v>
@@ -5092,7 +5112,7 @@
     </row>
     <row r="104" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>101</v>
@@ -5104,7 +5124,7 @@
     </row>
     <row r="105" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>102</v>
@@ -5116,7 +5136,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>103</v>
@@ -5128,7 +5148,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>104</v>
@@ -5140,7 +5160,7 @@
     </row>
     <row r="108" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>105</v>
@@ -5152,7 +5172,7 @@
     </row>
     <row r="109" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>106</v>
@@ -5164,7 +5184,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>107</v>
@@ -5176,7 +5196,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>108</v>
@@ -5188,7 +5208,7 @@
     </row>
     <row r="112" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>109</v>
@@ -5200,7 +5220,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>110</v>
@@ -5212,7 +5232,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>111</v>
@@ -5224,7 +5244,7 @@
     </row>
     <row r="115" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>112</v>
@@ -5236,7 +5256,7 @@
     </row>
     <row r="116" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>113</v>
@@ -5248,7 +5268,7 @@
     </row>
     <row r="117" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>114</v>
@@ -5260,7 +5280,7 @@
     </row>
     <row r="118" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>115</v>
@@ -5272,7 +5292,7 @@
     </row>
     <row r="119" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>116</v>
@@ -5284,7 +5304,7 @@
     </row>
     <row r="120" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>117</v>
@@ -5296,7 +5316,7 @@
     </row>
     <row r="121" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>118</v>
@@ -5308,7 +5328,7 @@
     </row>
     <row r="122" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>119</v>
@@ -5320,10 +5340,10 @@
     </row>
     <row r="123" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>1056</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>1057</v>
       </c>
       <c r="C123">
         <f t="shared" si="1"/>
@@ -5333,12 +5353,12 @@
         <v>20170515</v>
       </c>
       <c r="E123" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>120</v>
@@ -5350,10 +5370,10 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C125">
         <f t="shared" si="1"/>
@@ -5363,7 +5383,7 @@
         <v>20170515</v>
       </c>
       <c r="E125" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -5392,7 +5412,7 @@
     </row>
     <row r="128" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>125</v>
@@ -5404,10 +5424,10 @@
     </row>
     <row r="129" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C129">
         <f t="shared" si="1"/>
@@ -5417,12 +5437,12 @@
         <v>20170515</v>
       </c>
       <c r="E129" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>126</v>
@@ -5434,7 +5454,7 @@
     </row>
     <row r="131" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>127</v>
@@ -5446,7 +5466,7 @@
     </row>
     <row r="132" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>128</v>
@@ -5458,7 +5478,7 @@
     </row>
     <row r="133" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>129</v>
@@ -5470,10 +5490,10 @@
     </row>
     <row r="134" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C134">
         <f t="shared" si="2"/>
@@ -5483,12 +5503,12 @@
         <v>20170515</v>
       </c>
       <c r="E134" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>130</v>
@@ -5500,10 +5520,10 @@
     </row>
     <row r="136" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C136">
         <f t="shared" si="2"/>
@@ -5513,12 +5533,12 @@
         <v>20170515</v>
       </c>
       <c r="E136" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>131</v>
@@ -5530,7 +5550,7 @@
     </row>
     <row r="138" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>132</v>
@@ -5542,7 +5562,7 @@
     </row>
     <row r="139" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>133</v>
@@ -5554,7 +5574,7 @@
     </row>
     <row r="140" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>134</v>
@@ -5566,7 +5586,7 @@
     </row>
     <row r="141" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>135</v>
@@ -5578,7 +5598,7 @@
     </row>
     <row r="142" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>136</v>
@@ -5590,7 +5610,7 @@
     </row>
     <row r="143" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>137</v>
@@ -5602,7 +5622,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>138</v>
@@ -5614,7 +5634,7 @@
     </row>
     <row r="145" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>139</v>
@@ -5626,7 +5646,7 @@
     </row>
     <row r="146" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>140</v>
@@ -5638,7 +5658,7 @@
     </row>
     <row r="147" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>141</v>
@@ -5650,7 +5670,7 @@
     </row>
     <row r="148" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>142</v>
@@ -5662,7 +5682,7 @@
     </row>
     <row r="149" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>143</v>
@@ -5674,7 +5694,7 @@
     </row>
     <row r="150" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>144</v>
@@ -5686,10 +5706,10 @@
     </row>
     <row r="151" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C151">
         <f t="shared" si="2"/>
@@ -5698,7 +5718,7 @@
     </row>
     <row r="152" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>145</v>
@@ -5710,7 +5730,7 @@
     </row>
     <row r="153" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>146</v>
@@ -5722,7 +5742,7 @@
     </row>
     <row r="154" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>147</v>
@@ -5734,7 +5754,7 @@
     </row>
     <row r="155" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>148</v>
@@ -5746,7 +5766,7 @@
     </row>
     <row r="156" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>149</v>
@@ -5758,7 +5778,7 @@
     </row>
     <row r="157" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>150</v>
@@ -5770,7 +5790,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>151</v>
@@ -5782,10 +5802,10 @@
     </row>
     <row r="159" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C159">
         <f t="shared" si="2"/>
@@ -5795,12 +5815,12 @@
         <v>20170515</v>
       </c>
       <c r="E159" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>152</v>
@@ -5812,7 +5832,7 @@
     </row>
     <row r="161" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>153</v>
@@ -5824,7 +5844,7 @@
     </row>
     <row r="162" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>154</v>
@@ -5836,7 +5856,7 @@
     </row>
     <row r="163" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>155</v>
@@ -5848,7 +5868,7 @@
     </row>
     <row r="164" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>156</v>
@@ -5860,7 +5880,7 @@
     </row>
     <row r="165" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>157</v>
@@ -5872,7 +5892,7 @@
     </row>
     <row r="166" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>158</v>
@@ -5884,7 +5904,7 @@
     </row>
     <row r="167" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>159</v>
@@ -5896,7 +5916,7 @@
     </row>
     <row r="168" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>160</v>
@@ -5908,7 +5928,7 @@
     </row>
     <row r="169" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>161</v>
@@ -5920,7 +5940,7 @@
     </row>
     <row r="170" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>162</v>
@@ -5932,7 +5952,7 @@
     </row>
     <row r="171" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>163</v>
@@ -5944,7 +5964,7 @@
     </row>
     <row r="172" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>164</v>
@@ -5956,10 +5976,10 @@
     </row>
     <row r="173" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C173">
         <f t="shared" si="2"/>
@@ -5969,12 +5989,12 @@
         <v>20170515</v>
       </c>
       <c r="E173" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>165</v>
@@ -5986,7 +6006,7 @@
     </row>
     <row r="175" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>166</v>
@@ -5998,7 +6018,7 @@
     </row>
     <row r="176" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>167</v>
@@ -6010,7 +6030,7 @@
     </row>
     <row r="177" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>168</v>
@@ -6022,7 +6042,7 @@
     </row>
     <row r="178" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>169</v>
@@ -6034,7 +6054,7 @@
     </row>
     <row r="179" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>170</v>
@@ -6046,7 +6066,7 @@
     </row>
     <row r="180" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>171</v>
@@ -6058,7 +6078,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>172</v>
@@ -6070,7 +6090,7 @@
     </row>
     <row r="182" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>173</v>
@@ -6082,7 +6102,7 @@
     </row>
     <row r="183" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>174</v>
@@ -6094,7 +6114,7 @@
     </row>
     <row r="184" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>175</v>
@@ -6106,7 +6126,7 @@
     </row>
     <row r="185" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>176</v>
@@ -6118,7 +6138,7 @@
     </row>
     <row r="186" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>177</v>
@@ -6130,7 +6150,7 @@
     </row>
     <row r="187" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>178</v>
@@ -6142,7 +6162,7 @@
     </row>
     <row r="188" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>179</v>
@@ -6154,7 +6174,7 @@
     </row>
     <row r="189" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>180</v>
@@ -6166,7 +6186,7 @@
     </row>
     <row r="190" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>181</v>
@@ -6178,7 +6198,7 @@
     </row>
     <row r="191" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>182</v>
@@ -6190,7 +6210,7 @@
     </row>
     <row r="192" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>183</v>
@@ -6202,7 +6222,7 @@
     </row>
     <row r="193" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>184</v>
@@ -6215,12 +6235,12 @@
         <v>20170515</v>
       </c>
       <c r="E193" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>185</v>
@@ -6232,7 +6252,7 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>186</v>
@@ -6244,7 +6264,7 @@
     </row>
     <row r="196" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>187</v>
@@ -6256,7 +6276,7 @@
     </row>
     <row r="197" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>188</v>
@@ -6268,7 +6288,7 @@
     </row>
     <row r="198" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>189</v>
@@ -6280,7 +6300,7 @@
     </row>
     <row r="199" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>190</v>
@@ -6292,7 +6312,7 @@
     </row>
     <row r="200" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>191</v>
@@ -6304,7 +6324,7 @@
     </row>
     <row r="201" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>192</v>
@@ -6316,7 +6336,7 @@
     </row>
     <row r="202" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>193</v>
@@ -6328,7 +6348,7 @@
     </row>
     <row r="203" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>194</v>
@@ -6340,7 +6360,7 @@
     </row>
     <row r="204" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>195</v>
@@ -6352,7 +6372,7 @@
     </row>
     <row r="205" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>196</v>
@@ -6364,7 +6384,7 @@
     </row>
     <row r="206" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>197</v>
@@ -6376,7 +6396,7 @@
     </row>
     <row r="207" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>198</v>
@@ -6388,7 +6408,7 @@
     </row>
     <row r="208" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>199</v>
@@ -6400,7 +6420,7 @@
     </row>
     <row r="209" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>200</v>
@@ -6412,7 +6432,7 @@
     </row>
     <row r="210" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>201</v>
@@ -6424,7 +6444,7 @@
     </row>
     <row r="211" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>202</v>
@@ -6436,7 +6456,7 @@
     </row>
     <row r="212" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>203</v>
@@ -6448,7 +6468,7 @@
     </row>
     <row r="213" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>204</v>
@@ -6460,7 +6480,7 @@
     </row>
     <row r="214" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>205</v>
@@ -6472,7 +6492,7 @@
     </row>
     <row r="215" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>206</v>
@@ -6484,7 +6504,7 @@
     </row>
     <row r="216" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>207</v>
@@ -6496,7 +6516,7 @@
     </row>
     <row r="217" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>208</v>
@@ -6506,24 +6526,24 @@
         <v>110</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>209</v>
+        <v>1058</v>
       </c>
       <c r="C218">
         <f t="shared" si="3"/>
-        <v>106</v>
+        <v>133</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C219">
         <f t="shared" si="3"/>
@@ -6532,10 +6552,10 @@
     </row>
     <row r="220" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C220">
         <f t="shared" si="3"/>
@@ -6544,10 +6564,10 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C221">
         <f t="shared" si="3"/>
@@ -6556,10 +6576,10 @@
     </row>
     <row r="222" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C222">
         <f t="shared" si="3"/>
@@ -6568,10 +6588,10 @@
     </row>
     <row r="223" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C223">
         <f t="shared" si="3"/>
@@ -6580,10 +6600,10 @@
     </row>
     <row r="224" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C224">
         <f t="shared" si="3"/>
@@ -6592,10 +6612,10 @@
     </row>
     <row r="225" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C225">
         <f t="shared" si="3"/>
@@ -6604,10 +6624,10 @@
     </row>
     <row r="226" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C226">
         <f t="shared" si="3"/>
@@ -6616,10 +6636,10 @@
     </row>
     <row r="227" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C227">
         <f t="shared" si="3"/>
@@ -6628,10 +6648,10 @@
     </row>
     <row r="228" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C228">
         <f t="shared" si="3"/>
@@ -6640,10 +6660,10 @@
     </row>
     <row r="229" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C229">
         <f t="shared" si="3"/>
@@ -6652,10 +6672,10 @@
     </row>
     <row r="230" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C230">
         <f t="shared" si="3"/>
@@ -6664,10 +6684,10 @@
     </row>
     <row r="231" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C231">
         <f t="shared" si="3"/>
@@ -6676,10 +6696,10 @@
     </row>
     <row r="232" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C232">
         <f t="shared" si="3"/>
@@ -6688,10 +6708,10 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C233">
         <f t="shared" si="3"/>
@@ -6700,10 +6720,10 @@
     </row>
     <row r="234" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C234">
         <f t="shared" si="3"/>
@@ -6712,10 +6732,10 @@
     </row>
     <row r="235" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C235">
         <f t="shared" si="3"/>
@@ -6724,10 +6744,10 @@
     </row>
     <row r="236" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C236">
         <f t="shared" si="3"/>
@@ -6736,10 +6756,10 @@
     </row>
     <row r="237" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C237">
         <f t="shared" si="3"/>
@@ -6748,10 +6768,10 @@
     </row>
     <row r="238" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C238">
         <f t="shared" si="3"/>
@@ -6760,10 +6780,10 @@
     </row>
     <row r="239" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C239">
         <f t="shared" si="3"/>
@@ -6772,10 +6792,10 @@
     </row>
     <row r="240" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C240">
         <f t="shared" si="3"/>
@@ -6784,10 +6804,10 @@
     </row>
     <row r="241" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C241">
         <f t="shared" si="3"/>
@@ -6796,10 +6816,10 @@
     </row>
     <row r="242" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C242">
         <f t="shared" si="3"/>
@@ -6808,10 +6828,10 @@
     </row>
     <row r="243" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C243">
         <f t="shared" si="3"/>
@@ -6820,10 +6840,10 @@
     </row>
     <row r="244" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C244">
         <f t="shared" si="3"/>
@@ -6832,10 +6852,10 @@
     </row>
     <row r="245" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C245">
         <f t="shared" si="3"/>
@@ -6844,10 +6864,10 @@
     </row>
     <row r="246" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C246">
         <f t="shared" si="3"/>
@@ -6856,10 +6876,10 @@
     </row>
     <row r="247" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C247">
         <f t="shared" si="3"/>
@@ -6868,10 +6888,10 @@
     </row>
     <row r="248" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C248">
         <f t="shared" si="3"/>
@@ -6880,10 +6900,10 @@
     </row>
     <row r="249" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C249">
         <f t="shared" si="3"/>
@@ -6892,10 +6912,10 @@
     </row>
     <row r="250" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C250">
         <f t="shared" si="3"/>
@@ -6904,10 +6924,10 @@
     </row>
     <row r="251" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C251">
         <f t="shared" si="3"/>
@@ -6916,10 +6936,10 @@
     </row>
     <row r="252" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C252">
         <f t="shared" si="3"/>
@@ -6928,10 +6948,10 @@
     </row>
     <row r="253" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C253">
         <f t="shared" si="3"/>
@@ -6940,10 +6960,10 @@
     </row>
     <row r="254" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C254">
         <f t="shared" si="3"/>
@@ -6953,15 +6973,15 @@
         <v>20170515</v>
       </c>
       <c r="E254" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="255" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C255">
         <f t="shared" si="3"/>
@@ -6970,10 +6990,10 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C256">
         <f t="shared" si="3"/>
@@ -6982,10 +7002,10 @@
     </row>
     <row r="257" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C257">
         <f t="shared" si="3"/>
@@ -6994,10 +7014,10 @@
     </row>
     <row r="258" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C258">
         <f t="shared" ref="C258:C321" si="4">LEN(B258)</f>
@@ -7006,10 +7026,10 @@
     </row>
     <row r="259" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C259">
         <f t="shared" si="4"/>
@@ -7018,10 +7038,10 @@
     </row>
     <row r="260" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C260">
         <f t="shared" si="4"/>
@@ -7030,10 +7050,10 @@
     </row>
     <row r="261" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C261">
         <f t="shared" si="4"/>
@@ -7042,10 +7062,10 @@
     </row>
     <row r="262" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C262">
         <f t="shared" si="4"/>
@@ -7054,10 +7074,10 @@
     </row>
     <row r="263" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C263">
         <f t="shared" si="4"/>
@@ -7066,10 +7086,10 @@
     </row>
     <row r="264" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C264">
         <f t="shared" si="4"/>
@@ -7078,10 +7098,10 @@
     </row>
     <row r="265" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C265">
         <f t="shared" si="4"/>
@@ -7090,10 +7110,10 @@
     </row>
     <row r="266" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C266">
         <f t="shared" si="4"/>
@@ -7102,10 +7122,10 @@
     </row>
     <row r="267" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C267">
         <f t="shared" si="4"/>
@@ -7114,10 +7134,10 @@
     </row>
     <row r="268" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C268">
         <f t="shared" si="4"/>
@@ -7126,10 +7146,10 @@
     </row>
     <row r="269" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C269">
         <f t="shared" si="4"/>
@@ -7138,10 +7158,10 @@
     </row>
     <row r="270" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C270">
         <f t="shared" si="4"/>
@@ -7150,10 +7170,10 @@
     </row>
     <row r="271" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C271">
         <f t="shared" si="4"/>
@@ -7162,10 +7182,10 @@
     </row>
     <row r="272" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C272">
         <f t="shared" si="4"/>
@@ -7174,10 +7194,10 @@
     </row>
     <row r="273" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C273">
         <f t="shared" si="4"/>
@@ -7186,10 +7206,10 @@
     </row>
     <row r="274" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C274">
         <f t="shared" si="4"/>
@@ -7198,10 +7218,10 @@
     </row>
     <row r="275" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C275">
         <f t="shared" si="4"/>
@@ -7210,10 +7230,10 @@
     </row>
     <row r="276" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C276">
         <f t="shared" si="4"/>
@@ -7222,10 +7242,10 @@
     </row>
     <row r="277" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C277">
         <f t="shared" si="4"/>
@@ -7234,10 +7254,10 @@
     </row>
     <row r="278" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C278">
         <f t="shared" si="4"/>
@@ -7246,10 +7266,10 @@
     </row>
     <row r="279" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C279">
         <f t="shared" si="4"/>
@@ -7258,10 +7278,10 @@
     </row>
     <row r="280" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C280">
         <f t="shared" si="4"/>
@@ -7270,10 +7290,10 @@
     </row>
     <row r="281" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C281">
         <f t="shared" si="4"/>
@@ -7282,10 +7302,10 @@
     </row>
     <row r="282" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C282">
         <f t="shared" si="4"/>
@@ -7294,10 +7314,10 @@
     </row>
     <row r="283" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C283">
         <f t="shared" si="4"/>
@@ -7306,10 +7326,10 @@
     </row>
     <row r="284" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C284">
         <f t="shared" si="4"/>
@@ -7318,10 +7338,10 @@
     </row>
     <row r="285" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C285">
         <f t="shared" si="4"/>
@@ -7330,10 +7350,10 @@
     </row>
     <row r="286" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C286">
         <f t="shared" si="4"/>
@@ -7342,10 +7362,10 @@
     </row>
     <row r="287" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C287">
         <f t="shared" si="4"/>
@@ -7354,10 +7374,10 @@
     </row>
     <row r="288" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C288">
         <f t="shared" si="4"/>
@@ -7366,10 +7386,10 @@
     </row>
     <row r="289" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C289">
         <f t="shared" si="4"/>
@@ -7378,10 +7398,10 @@
     </row>
     <row r="290" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C290">
         <f t="shared" si="4"/>
@@ -7390,10 +7410,10 @@
     </row>
     <row r="291" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C291">
         <f t="shared" si="4"/>
@@ -7403,15 +7423,15 @@
         <v>20170515</v>
       </c>
       <c r="E291" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C292">
         <f t="shared" si="4"/>
@@ -7421,15 +7441,15 @@
         <v>20170515</v>
       </c>
       <c r="E292" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C293">
         <f t="shared" si="4"/>
@@ -7438,10 +7458,10 @@
     </row>
     <row r="294" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C294">
         <f t="shared" si="4"/>
@@ -7450,10 +7470,10 @@
     </row>
     <row r="295" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C295">
         <f t="shared" si="4"/>
@@ -7462,10 +7482,10 @@
     </row>
     <row r="296" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C296">
         <f t="shared" si="4"/>
@@ -7474,10 +7494,10 @@
     </row>
     <row r="297" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C297">
         <f t="shared" si="4"/>
@@ -7486,10 +7506,10 @@
     </row>
     <row r="298" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C298">
         <f t="shared" si="4"/>
@@ -7499,15 +7519,15 @@
         <v>20170515</v>
       </c>
       <c r="E298" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C299">
         <f t="shared" si="4"/>
@@ -7516,10 +7536,10 @@
     </row>
     <row r="300" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C300">
         <f t="shared" si="4"/>
@@ -7528,10 +7548,10 @@
     </row>
     <row r="301" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C301">
         <f t="shared" si="4"/>
@@ -7540,10 +7560,10 @@
     </row>
     <row r="302" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C302">
         <f t="shared" si="4"/>
@@ -7552,10 +7572,10 @@
     </row>
     <row r="303" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C303">
         <f t="shared" si="4"/>
@@ -7564,10 +7584,10 @@
     </row>
     <row r="304" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C304">
         <f t="shared" si="4"/>
@@ -7576,10 +7596,10 @@
     </row>
     <row r="305" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C305">
         <f t="shared" si="4"/>
@@ -7588,10 +7608,10 @@
     </row>
     <row r="306" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C306">
         <f t="shared" si="4"/>
@@ -7600,10 +7620,10 @@
     </row>
     <row r="307" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C307">
         <f t="shared" si="4"/>
@@ -7612,10 +7632,10 @@
     </row>
     <row r="308" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C308">
         <f t="shared" si="4"/>
@@ -7624,10 +7644,10 @@
     </row>
     <row r="309" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C309">
         <f t="shared" si="4"/>
@@ -7636,10 +7656,10 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C310">
         <f t="shared" si="4"/>
@@ -7648,10 +7668,10 @@
     </row>
     <row r="311" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C311">
         <f t="shared" si="4"/>
@@ -7660,10 +7680,10 @@
     </row>
     <row r="312" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C312">
         <f t="shared" si="4"/>
@@ -7672,10 +7692,10 @@
     </row>
     <row r="313" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C313">
         <f t="shared" si="4"/>
@@ -7684,10 +7704,10 @@
     </row>
     <row r="314" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C314">
         <f t="shared" si="4"/>
@@ -7696,10 +7716,10 @@
     </row>
     <row r="315" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C315">
         <f t="shared" si="4"/>
@@ -7708,10 +7728,10 @@
     </row>
     <row r="316" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C316">
         <f t="shared" si="4"/>
@@ -7720,10 +7740,10 @@
     </row>
     <row r="317" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C317">
         <f t="shared" si="4"/>
@@ -7732,10 +7752,10 @@
     </row>
     <row r="318" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C318">
         <f t="shared" si="4"/>
@@ -7744,10 +7764,10 @@
     </row>
     <row r="319" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C319">
         <f t="shared" si="4"/>
@@ -7756,10 +7776,10 @@
     </row>
     <row r="320" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C320">
         <f t="shared" si="4"/>
@@ -7768,10 +7788,10 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C321">
         <f t="shared" si="4"/>
@@ -7780,10 +7800,10 @@
     </row>
     <row r="322" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C322">
         <f t="shared" ref="C322:C385" si="5">LEN(B322)</f>
@@ -7792,10 +7812,10 @@
     </row>
     <row r="323" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C323">
         <f t="shared" si="5"/>
@@ -7804,10 +7824,10 @@
     </row>
     <row r="324" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C324">
         <f t="shared" si="5"/>
@@ -7816,10 +7836,10 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C325">
         <f t="shared" si="5"/>
@@ -7828,10 +7848,10 @@
     </row>
     <row r="326" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C326">
         <f t="shared" si="5"/>
@@ -7840,10 +7860,10 @@
     </row>
     <row r="327" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C327">
         <f t="shared" si="5"/>
@@ -7852,10 +7872,10 @@
     </row>
     <row r="328" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C328">
         <f t="shared" si="5"/>
@@ -7864,10 +7884,10 @@
     </row>
     <row r="329" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C329">
         <f t="shared" si="5"/>
@@ -7876,10 +7896,10 @@
     </row>
     <row r="330" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C330">
         <f t="shared" si="5"/>
@@ -7888,10 +7908,10 @@
     </row>
     <row r="331" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C331">
         <f t="shared" si="5"/>
@@ -7900,10 +7920,10 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C332">
         <f t="shared" si="5"/>
@@ -7912,10 +7932,10 @@
     </row>
     <row r="333" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C333">
         <f t="shared" si="5"/>
@@ -7924,10 +7944,10 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C334">
         <f t="shared" si="5"/>
@@ -7936,10 +7956,10 @@
     </row>
     <row r="335" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C335">
         <f t="shared" si="5"/>
@@ -7948,10 +7968,10 @@
     </row>
     <row r="336" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C336">
         <f t="shared" si="5"/>
@@ -7960,10 +7980,10 @@
     </row>
     <row r="337" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C337">
         <f t="shared" si="5"/>
@@ -7972,10 +7992,10 @@
     </row>
     <row r="338" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C338">
         <f t="shared" si="5"/>
@@ -7985,15 +8005,15 @@
         <v>20170515</v>
       </c>
       <c r="E338" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="339" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C339">
         <f t="shared" si="5"/>
@@ -8002,10 +8022,10 @@
     </row>
     <row r="340" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C340">
         <f t="shared" si="5"/>
@@ -8014,10 +8034,10 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C341">
         <f t="shared" si="5"/>
@@ -8026,10 +8046,10 @@
     </row>
     <row r="342" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C342">
         <f t="shared" si="5"/>
@@ -8038,10 +8058,10 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C343">
         <f t="shared" si="5"/>
@@ -8050,10 +8070,10 @@
     </row>
     <row r="344" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C344">
         <f t="shared" si="5"/>
@@ -8062,10 +8082,10 @@
     </row>
     <row r="345" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C345">
         <f t="shared" si="5"/>
@@ -8074,10 +8094,10 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C346">
         <f t="shared" si="5"/>
@@ -8086,10 +8106,10 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C347">
         <f t="shared" si="5"/>
@@ -8098,10 +8118,10 @@
     </row>
     <row r="348" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C348">
         <f t="shared" si="5"/>
@@ -8110,10 +8130,10 @@
     </row>
     <row r="349" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C349">
         <f t="shared" si="5"/>
@@ -8122,10 +8142,10 @@
     </row>
     <row r="350" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C350">
         <f t="shared" si="5"/>
@@ -8134,10 +8154,10 @@
     </row>
     <row r="351" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C351">
         <f t="shared" si="5"/>
@@ -8146,10 +8166,10 @@
     </row>
     <row r="352" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C352">
         <f t="shared" si="5"/>
@@ -8158,10 +8178,10 @@
     </row>
     <row r="353" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C353">
         <f t="shared" si="5"/>
@@ -8170,10 +8190,10 @@
     </row>
     <row r="354" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C354">
         <f t="shared" si="5"/>
@@ -8182,10 +8202,10 @@
     </row>
     <row r="355" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C355">
         <f t="shared" si="5"/>
@@ -8194,10 +8214,10 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C356">
         <f t="shared" si="5"/>
@@ -8206,10 +8226,10 @@
     </row>
     <row r="357" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C357">
         <f t="shared" si="5"/>
@@ -8218,10 +8238,10 @@
     </row>
     <row r="358" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C358">
         <f t="shared" si="5"/>
@@ -8230,10 +8250,10 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C359">
         <f t="shared" si="5"/>
@@ -8242,10 +8262,10 @@
     </row>
     <row r="360" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C360">
         <f t="shared" si="5"/>
@@ -8254,10 +8274,10 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C361">
         <f t="shared" si="5"/>
@@ -8266,10 +8286,10 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C362">
         <f t="shared" si="5"/>
@@ -8278,10 +8298,10 @@
     </row>
     <row r="363" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C363">
         <f t="shared" si="5"/>
@@ -8290,10 +8310,10 @@
     </row>
     <row r="364" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C364">
         <f t="shared" si="5"/>
@@ -8302,10 +8322,10 @@
     </row>
     <row r="365" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C365">
         <f t="shared" si="5"/>
@@ -8314,10 +8334,10 @@
     </row>
     <row r="366" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C366">
         <f t="shared" si="5"/>
@@ -8326,10 +8346,10 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C367">
         <f t="shared" si="5"/>
@@ -8338,10 +8358,10 @@
     </row>
     <row r="368" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C368">
         <f t="shared" si="5"/>
@@ -8350,10 +8370,10 @@
     </row>
     <row r="369" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C369">
         <f t="shared" si="5"/>
@@ -8362,10 +8382,10 @@
     </row>
     <row r="370" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C370">
         <f t="shared" si="5"/>
@@ -8374,10 +8394,10 @@
     </row>
     <row r="371" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C371">
         <f t="shared" si="5"/>
@@ -8386,10 +8406,10 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C372">
         <f t="shared" si="5"/>
@@ -8398,10 +8418,10 @@
     </row>
     <row r="373" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C373">
         <f t="shared" si="5"/>
@@ -8410,10 +8430,10 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C374">
         <f t="shared" si="5"/>
@@ -8422,10 +8442,10 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C375">
         <f t="shared" si="5"/>
@@ -8434,10 +8454,10 @@
     </row>
     <row r="376" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C376">
         <f t="shared" si="5"/>
@@ -8446,10 +8466,10 @@
     </row>
     <row r="377" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C377">
         <f t="shared" si="5"/>
@@ -8458,10 +8478,10 @@
     </row>
     <row r="378" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C378">
         <f t="shared" si="5"/>
@@ -8470,10 +8490,10 @@
     </row>
     <row r="379" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C379">
         <f t="shared" si="5"/>
@@ -8482,10 +8502,10 @@
     </row>
     <row r="380" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C380">
         <f t="shared" si="5"/>
@@ -8494,10 +8514,10 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C381">
         <f t="shared" si="5"/>
@@ -8506,10 +8526,10 @@
     </row>
     <row r="382" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C382">
         <f t="shared" si="5"/>
@@ -8518,10 +8538,10 @@
     </row>
     <row r="383" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C383">
         <f t="shared" si="5"/>
@@ -8530,10 +8550,10 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C384">
         <f t="shared" si="5"/>
@@ -8542,10 +8562,10 @@
     </row>
     <row r="385" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C385">
         <f t="shared" si="5"/>
@@ -8554,10 +8574,10 @@
     </row>
     <row r="386" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C386">
         <f t="shared" ref="C386:C449" si="6">LEN(B386)</f>
@@ -8566,10 +8586,10 @@
     </row>
     <row r="387" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C387">
         <f t="shared" si="6"/>
@@ -8578,10 +8598,10 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C388">
         <f t="shared" si="6"/>
@@ -8590,10 +8610,10 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C389">
         <f t="shared" si="6"/>
@@ -8602,10 +8622,10 @@
     </row>
     <row r="390" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C390">
         <f t="shared" si="6"/>
@@ -8614,10 +8634,10 @@
     </row>
     <row r="391" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C391">
         <f t="shared" si="6"/>
@@ -8626,10 +8646,10 @@
     </row>
     <row r="392" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C392">
         <f t="shared" si="6"/>
@@ -8638,10 +8658,10 @@
     </row>
     <row r="393" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C393">
         <f t="shared" si="6"/>
@@ -8650,10 +8670,10 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C394">
         <f t="shared" si="6"/>
@@ -8662,10 +8682,10 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C395">
         <f t="shared" si="6"/>
@@ -8674,10 +8694,10 @@
     </row>
     <row r="396" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C396">
         <f t="shared" si="6"/>
@@ -8686,10 +8706,10 @@
     </row>
     <row r="397" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C397">
         <f t="shared" si="6"/>
@@ -8698,10 +8718,10 @@
     </row>
     <row r="398" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C398">
         <f t="shared" si="6"/>
@@ -8710,10 +8730,10 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C399">
         <f t="shared" si="6"/>
@@ -8722,10 +8742,10 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C400">
         <f t="shared" si="6"/>
@@ -8734,10 +8754,10 @@
     </row>
     <row r="401" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C401">
         <f t="shared" si="6"/>
@@ -8746,10 +8766,10 @@
     </row>
     <row r="402" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C402">
         <f t="shared" si="6"/>
@@ -8758,10 +8778,10 @@
     </row>
     <row r="403" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C403">
         <f t="shared" si="6"/>
@@ -8770,10 +8790,10 @@
     </row>
     <row r="404" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C404">
         <f t="shared" si="6"/>
@@ -8782,10 +8802,10 @@
     </row>
     <row r="405" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C405">
         <f t="shared" si="6"/>
@@ -8794,10 +8814,10 @@
     </row>
     <row r="406" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C406">
         <f t="shared" si="6"/>
@@ -8806,10 +8826,10 @@
     </row>
     <row r="407" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C407">
         <f t="shared" si="6"/>
@@ -8818,10 +8838,10 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C408">
         <f t="shared" si="6"/>
@@ -8830,10 +8850,10 @@
     </row>
     <row r="409" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C409">
         <f t="shared" si="6"/>
@@ -8842,10 +8862,10 @@
     </row>
     <row r="410" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C410">
         <f t="shared" si="6"/>
@@ -8854,10 +8874,10 @@
     </row>
     <row r="411" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C411">
         <f t="shared" si="6"/>
@@ -8866,10 +8886,10 @@
     </row>
     <row r="412" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C412">
         <f t="shared" si="6"/>
@@ -8878,10 +8898,10 @@
     </row>
     <row r="413" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C413">
         <f t="shared" si="6"/>
@@ -8890,10 +8910,10 @@
     </row>
     <row r="414" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C414">
         <f t="shared" si="6"/>
@@ -8902,10 +8922,10 @@
     </row>
     <row r="415" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C415">
         <f t="shared" si="6"/>
@@ -8914,10 +8934,10 @@
     </row>
     <row r="416" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C416">
         <f t="shared" si="6"/>
@@ -8926,10 +8946,10 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C417">
         <f t="shared" si="6"/>
@@ -8938,10 +8958,10 @@
     </row>
     <row r="418" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C418">
         <f t="shared" si="6"/>
@@ -8950,10 +8970,10 @@
     </row>
     <row r="419" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C419">
         <f t="shared" si="6"/>
@@ -8962,10 +8982,10 @@
     </row>
     <row r="420" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C420">
         <f t="shared" si="6"/>
@@ -8974,10 +8994,10 @@
     </row>
     <row r="421" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C421">
         <f t="shared" si="6"/>
@@ -8986,10 +9006,10 @@
     </row>
     <row r="422" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C422">
         <f t="shared" si="6"/>
@@ -8998,10 +9018,10 @@
     </row>
     <row r="423" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C423">
         <f t="shared" si="6"/>
@@ -9010,10 +9030,10 @@
     </row>
     <row r="424" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C424">
         <f t="shared" si="6"/>
@@ -9022,10 +9042,10 @@
     </row>
     <row r="425" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C425">
         <f t="shared" si="6"/>
@@ -9034,10 +9054,10 @@
     </row>
     <row r="426" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C426">
         <f t="shared" si="6"/>
@@ -9046,10 +9066,10 @@
     </row>
     <row r="427" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C427">
         <f t="shared" si="6"/>
@@ -9058,10 +9078,10 @@
     </row>
     <row r="428" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C428">
         <f t="shared" si="6"/>
@@ -9070,10 +9090,10 @@
     </row>
     <row r="429" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C429">
         <f t="shared" si="6"/>
@@ -9082,10 +9102,10 @@
     </row>
     <row r="430" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C430">
         <f t="shared" si="6"/>
@@ -9094,10 +9114,10 @@
     </row>
     <row r="431" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C431">
         <f t="shared" si="6"/>
@@ -9106,10 +9126,10 @@
     </row>
     <row r="432" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C432">
         <f t="shared" si="6"/>
@@ -9118,10 +9138,10 @@
     </row>
     <row r="433" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C433">
         <f t="shared" si="6"/>
@@ -9130,10 +9150,10 @@
     </row>
     <row r="434" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C434">
         <f t="shared" si="6"/>
@@ -9142,10 +9162,10 @@
     </row>
     <row r="435" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C435">
         <f t="shared" si="6"/>
@@ -9154,10 +9174,10 @@
     </row>
     <row r="436" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C436">
         <f t="shared" si="6"/>
@@ -9166,10 +9186,10 @@
     </row>
     <row r="437" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C437">
         <f t="shared" si="6"/>
@@ -9178,10 +9198,10 @@
     </row>
     <row r="438" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C438">
         <f t="shared" si="6"/>
@@ -9190,10 +9210,10 @@
     </row>
     <row r="439" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C439">
         <f t="shared" si="6"/>
@@ -9202,10 +9222,10 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C440">
         <f t="shared" si="6"/>
@@ -9214,10 +9234,10 @@
     </row>
     <row r="441" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C441">
         <f t="shared" si="6"/>
@@ -9226,10 +9246,10 @@
     </row>
     <row r="442" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C442">
         <f t="shared" si="6"/>
@@ -9238,10 +9258,10 @@
     </row>
     <row r="443" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C443">
         <f t="shared" si="6"/>
@@ -9250,10 +9270,10 @@
     </row>
     <row r="444" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C444">
         <f t="shared" si="6"/>
@@ -9262,10 +9282,10 @@
     </row>
     <row r="445" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C445">
         <f t="shared" si="6"/>
@@ -9274,10 +9294,10 @@
     </row>
     <row r="446" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C446">
         <f t="shared" si="6"/>
@@ -9286,10 +9306,10 @@
     </row>
     <row r="447" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C447">
         <f t="shared" si="6"/>
@@ -9298,10 +9318,10 @@
     </row>
     <row r="448" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C448">
         <f t="shared" si="6"/>
@@ -9310,10 +9330,10 @@
     </row>
     <row r="449" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C449">
         <f t="shared" si="6"/>
@@ -9322,10 +9342,10 @@
     </row>
     <row r="450" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C450">
         <f t="shared" ref="C450:C513" si="7">LEN(B450)</f>
@@ -9334,10 +9354,10 @@
     </row>
     <row r="451" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C451">
         <f t="shared" si="7"/>
@@ -9347,15 +9367,15 @@
         <v>20170515</v>
       </c>
       <c r="E451" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="452" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C452">
         <f t="shared" si="7"/>
@@ -9364,10 +9384,10 @@
     </row>
     <row r="453" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C453">
         <f t="shared" si="7"/>
@@ -9376,10 +9396,10 @@
     </row>
     <row r="454" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C454">
         <f t="shared" si="7"/>
@@ -9388,10 +9408,10 @@
     </row>
     <row r="455" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C455">
         <f t="shared" si="7"/>
@@ -9400,10 +9420,10 @@
     </row>
     <row r="456" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C456">
         <f t="shared" si="7"/>
@@ -9412,10 +9432,10 @@
     </row>
     <row r="457" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C457">
         <f t="shared" si="7"/>
@@ -9424,10 +9444,10 @@
     </row>
     <row r="458" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C458">
         <f t="shared" si="7"/>
@@ -9436,10 +9456,10 @@
     </row>
     <row r="459" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C459">
         <f t="shared" si="7"/>
@@ -9448,10 +9468,10 @@
     </row>
     <row r="460" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C460">
         <f t="shared" si="7"/>
@@ -9460,10 +9480,10 @@
     </row>
     <row r="461" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C461">
         <f t="shared" si="7"/>
@@ -9472,10 +9492,10 @@
     </row>
     <row r="462" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C462">
         <f t="shared" si="7"/>
@@ -9484,10 +9504,10 @@
     </row>
     <row r="463" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C463">
         <f t="shared" si="7"/>
@@ -9497,15 +9517,15 @@
         <v>20170515</v>
       </c>
       <c r="E463" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="464" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C464">
         <f t="shared" si="7"/>
@@ -9514,10 +9534,10 @@
     </row>
     <row r="465" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C465">
         <f t="shared" si="7"/>
@@ -9526,10 +9546,10 @@
     </row>
     <row r="466" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C466">
         <f t="shared" si="7"/>
@@ -9538,10 +9558,10 @@
     </row>
     <row r="467" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C467">
         <f t="shared" si="7"/>
@@ -9550,10 +9570,10 @@
     </row>
     <row r="468" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C468">
         <f t="shared" si="7"/>
@@ -9562,10 +9582,10 @@
     </row>
     <row r="469" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C469">
         <f t="shared" si="7"/>
@@ -9574,10 +9594,10 @@
     </row>
     <row r="470" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C470">
         <f t="shared" si="7"/>
@@ -9586,10 +9606,10 @@
     </row>
     <row r="471" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C471">
         <f t="shared" si="7"/>
@@ -9598,10 +9618,10 @@
     </row>
     <row r="472" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C472">
         <f t="shared" si="7"/>
@@ -9610,10 +9630,10 @@
     </row>
     <row r="473" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C473">
         <f t="shared" si="7"/>
@@ -9622,10 +9642,10 @@
     </row>
     <row r="474" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C474">
         <f t="shared" si="7"/>
@@ -9634,10 +9654,10 @@
     </row>
     <row r="475" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C475">
         <f t="shared" si="7"/>
@@ -9646,10 +9666,10 @@
     </row>
     <row r="476" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C476">
         <f t="shared" si="7"/>
@@ -9658,10 +9678,10 @@
     </row>
     <row r="477" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C477">
         <f t="shared" si="7"/>
@@ -9670,10 +9690,10 @@
     </row>
     <row r="478" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C478">
         <f t="shared" si="7"/>
@@ -9682,10 +9702,10 @@
     </row>
     <row r="479" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C479">
         <f t="shared" si="7"/>
@@ -9694,10 +9714,10 @@
     </row>
     <row r="480" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C480">
         <f t="shared" si="7"/>
@@ -9706,10 +9726,10 @@
     </row>
     <row r="481" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C481">
         <f t="shared" si="7"/>
@@ -9718,10 +9738,10 @@
     </row>
     <row r="482" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C482">
         <f t="shared" si="7"/>
@@ -9730,10 +9750,10 @@
     </row>
     <row r="483" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C483">
         <f t="shared" si="7"/>
@@ -9742,10 +9762,10 @@
     </row>
     <row r="484" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C484">
         <f t="shared" si="7"/>
@@ -9754,10 +9774,10 @@
     </row>
     <row r="485" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C485">
         <f t="shared" si="7"/>
@@ -9766,10 +9786,10 @@
     </row>
     <row r="486" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C486">
         <f t="shared" si="7"/>
@@ -9779,15 +9799,15 @@
         <v>20170515</v>
       </c>
       <c r="E486" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C487">
         <f t="shared" si="7"/>
@@ -9796,10 +9816,10 @@
     </row>
     <row r="488" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C488">
         <f t="shared" si="7"/>
@@ -9808,10 +9828,10 @@
     </row>
     <row r="489" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C489">
         <f t="shared" si="7"/>
@@ -9820,10 +9840,10 @@
     </row>
     <row r="490" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C490">
         <f t="shared" si="7"/>
@@ -9832,10 +9852,10 @@
     </row>
     <row r="491" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C491">
         <f t="shared" si="7"/>
@@ -9844,10 +9864,10 @@
     </row>
     <row r="492" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C492">
         <f t="shared" si="7"/>
@@ -9856,10 +9876,10 @@
     </row>
     <row r="493" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C493">
         <f t="shared" si="7"/>
@@ -9868,10 +9888,10 @@
     </row>
     <row r="494" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C494">
         <f t="shared" si="7"/>
@@ -9880,10 +9900,10 @@
     </row>
     <row r="495" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C495">
         <f t="shared" si="7"/>
@@ -9892,10 +9912,10 @@
     </row>
     <row r="496" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C496">
         <f t="shared" si="7"/>
@@ -9904,10 +9924,10 @@
     </row>
     <row r="497" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C497">
         <f t="shared" si="7"/>
@@ -9916,10 +9936,10 @@
     </row>
     <row r="498" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C498">
         <f t="shared" si="7"/>
@@ -9928,10 +9948,10 @@
     </row>
     <row r="499" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C499">
         <f t="shared" si="7"/>
@@ -9941,15 +9961,15 @@
         <v>20170515</v>
       </c>
       <c r="E499" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="500" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C500">
         <f t="shared" si="7"/>
@@ -9958,10 +9978,10 @@
     </row>
     <row r="501" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C501">
         <f t="shared" si="7"/>
@@ -9970,10 +9990,10 @@
     </row>
     <row r="502" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C502">
         <f t="shared" si="7"/>
@@ -9982,10 +10002,10 @@
     </row>
     <row r="503" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C503">
         <f t="shared" si="7"/>
@@ -9994,10 +10014,10 @@
     </row>
     <row r="504" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C504">
         <f t="shared" si="7"/>
@@ -10006,10 +10026,10 @@
     </row>
     <row r="505" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C505">
         <f t="shared" si="7"/>
@@ -10018,10 +10038,10 @@
     </row>
     <row r="506" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C506">
         <f t="shared" si="7"/>
@@ -10030,10 +10050,10 @@
     </row>
     <row r="507" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C507">
         <f t="shared" si="7"/>
@@ -10042,10 +10062,10 @@
     </row>
     <row r="508" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C508">
         <f t="shared" si="7"/>
@@ -10054,10 +10074,10 @@
     </row>
     <row r="509" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C509">
         <f t="shared" si="7"/>
@@ -10066,10 +10086,10 @@
     </row>
     <row r="510" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C510">
         <f t="shared" si="7"/>
@@ -10078,10 +10098,10 @@
     </row>
     <row r="511" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C511">
         <f t="shared" si="7"/>
@@ -10090,10 +10110,10 @@
     </row>
     <row r="512" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C512">
         <f t="shared" si="7"/>
@@ -10102,10 +10122,10 @@
     </row>
     <row r="513" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C513">
         <f t="shared" si="7"/>
@@ -10114,10 +10134,10 @@
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C514">
         <f t="shared" ref="C514:C530" si="8">LEN(B514)</f>
@@ -10126,10 +10146,10 @@
     </row>
     <row r="515" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C515">
         <f t="shared" si="8"/>
@@ -10138,10 +10158,10 @@
     </row>
     <row r="516" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C516">
         <f t="shared" si="8"/>
@@ -10150,10 +10170,10 @@
     </row>
     <row r="517" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C517">
         <f t="shared" si="8"/>
@@ -10162,10 +10182,10 @@
     </row>
     <row r="518" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C518">
         <f t="shared" si="8"/>
@@ -10174,10 +10194,10 @@
     </row>
     <row r="519" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C519">
         <f t="shared" si="8"/>
@@ -10186,10 +10206,10 @@
     </row>
     <row r="520" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C520">
         <f t="shared" si="8"/>
@@ -10198,10 +10218,10 @@
     </row>
     <row r="521" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C521">
         <f t="shared" si="8"/>
@@ -10210,10 +10230,10 @@
     </row>
     <row r="522" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C522">
         <f t="shared" si="8"/>
@@ -10222,10 +10242,10 @@
     </row>
     <row r="523" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C523">
         <f t="shared" si="8"/>
@@ -10234,10 +10254,10 @@
     </row>
     <row r="524" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C524">
         <f t="shared" si="8"/>
@@ -10246,10 +10266,10 @@
     </row>
     <row r="525" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C525">
         <f t="shared" si="8"/>
@@ -10258,10 +10278,10 @@
     </row>
     <row r="526" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C526">
         <f t="shared" si="8"/>
@@ -10270,10 +10290,10 @@
     </row>
     <row r="527" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C527">
         <f t="shared" si="8"/>
@@ -10282,10 +10302,10 @@
     </row>
     <row r="528" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C528">
         <f t="shared" si="8"/>
@@ -10294,10 +10314,10 @@
     </row>
     <row r="529" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C529">
         <f t="shared" si="8"/>
@@ -10306,10 +10326,10 @@
     </row>
     <row r="530" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C530">
         <f t="shared" si="8"/>
@@ -10319,7 +10339,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C1:C530">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>140</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tweetlist.xlsx
+++ b/tweetlist.xlsx
@@ -941,9 +941,6 @@
     <t xml:space="preserve">【今日の人工衛星】8/2(UTC) 1984年：ひまわり3号 日本の気象衛星。日本時間8/3に種子島からN-IIロケット6号機で打ち上げ。ひまわり2号の不調をカバーするため少し早く打ち上げられた </t>
   </si>
   <si>
-    <t xml:space="preserve">【今日の人工衛星】8/3 2004年：メッセンジャー アメリカの水星探査機。7回のスイングバイを経て2011年3月18日に水星周回軌道入り。今後の観測結果が期待される </t>
-  </si>
-  <si>
     <t xml:space="preserve">【今日の人工衛星】8/4 2007年：フェニックス アメリカの火星探査機。過去中止された探査機の機器を再利用した。火星に過去水が存在したことを直接確認した </t>
   </si>
   <si>
@@ -1128,9 +1125,6 @@
   </si>
   <si>
     <t>【今日の人工衛星】9/10(UTC) (日本時間11日2:01打上) 2009年：HTV-1 宇宙ステーション補給機の1号機。H-IIBロケット初回の打上でもあったが、無事ミッションに成功。この時点では愛称は付いていない</t>
-  </si>
-  <si>
-    <t>【今日の人工衛星】9/10 (17:20打上) 2002年：こだま データ中継衛星。インド洋上の静止軌道に位置し、低軌道の衛星との高速・長時間通信を実現。278Mbpsの衛星間通信実験も成功している</t>
   </si>
   <si>
     <t>★2006年の今日9/11 13:35、H-IIAロケット号機で情報収集衛星光学2号機が打ち上げられました。</t>
@@ -3498,6 +3492,56 @@
     </rPh>
     <rPh sb="127" eb="128">
       <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【今日の人工衛星】9/10 (17:20打上) 2002年：こだま データ中継衛星。インド洋上の静止軌道に位置し、低軌道の衛星との高速・長時間通信を実現。278Mbpsの衛星間通信実験も成功している。2017年8月に停波。 https://t.co/mzv3eXuW4v</t>
+    <rPh sb="104" eb="105">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>テイハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【今日の人工衛星】8/3 2004年：メッセンジャー アメリカの水星探査機。7回のスイングバイを経て2011年3月18日に水星周回軌道入り。2015年5月に水星に落下してミッション完了するまでに、水星全体の撮影など様々な成果を上げた。</t>
+    <rPh sb="74" eb="75">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>スイセイ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ラッカ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>スイセイ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>サツエイ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>サマザマ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>セイカ</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>ア</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3851,8 +3895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E530"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B219" sqref="B219"/>
+    <sheetView tabSelected="1" topLeftCell="A317" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B324" sqref="B324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -3864,7 +3908,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3876,7 +3920,7 @@
     </row>
     <row r="2" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -3888,7 +3932,7 @@
     </row>
     <row r="3" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -3900,7 +3944,7 @@
     </row>
     <row r="4" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -3912,7 +3956,7 @@
     </row>
     <row r="5" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -3924,7 +3968,7 @@
     </row>
     <row r="6" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
@@ -3936,7 +3980,7 @@
     </row>
     <row r="7" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
@@ -3948,7 +3992,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
@@ -3960,7 +4004,7 @@
     </row>
     <row r="9" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>8</v>
@@ -3972,7 +4016,7 @@
     </row>
     <row r="10" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -3984,7 +4028,7 @@
     </row>
     <row r="11" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>10</v>
@@ -3996,7 +4040,7 @@
     </row>
     <row r="12" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
@@ -4008,7 +4052,7 @@
     </row>
     <row r="13" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
@@ -4020,7 +4064,7 @@
     </row>
     <row r="14" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>13</v>
@@ -4032,7 +4076,7 @@
     </row>
     <row r="15" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>14</v>
@@ -4044,7 +4088,7 @@
     </row>
     <row r="16" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>15</v>
@@ -4056,7 +4100,7 @@
     </row>
     <row r="17" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>16</v>
@@ -4068,7 +4112,7 @@
     </row>
     <row r="18" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>17</v>
@@ -4080,7 +4124,7 @@
     </row>
     <row r="19" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>18</v>
@@ -4092,7 +4136,7 @@
     </row>
     <row r="20" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>19</v>
@@ -4104,7 +4148,7 @@
     </row>
     <row r="21" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>20</v>
@@ -4116,7 +4160,7 @@
     </row>
     <row r="22" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>21</v>
@@ -4128,7 +4172,7 @@
     </row>
     <row r="23" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>22</v>
@@ -4140,7 +4184,7 @@
     </row>
     <row r="24" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>23</v>
@@ -4152,7 +4196,7 @@
     </row>
     <row r="25" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>24</v>
@@ -4164,7 +4208,7 @@
     </row>
     <row r="26" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>25</v>
@@ -4176,7 +4220,7 @@
     </row>
     <row r="27" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>26</v>
@@ -4188,7 +4232,7 @@
     </row>
     <row r="28" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>27</v>
@@ -4200,7 +4244,7 @@
     </row>
     <row r="29" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>28</v>
@@ -4212,7 +4256,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>29</v>
@@ -4224,7 +4268,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>30</v>
@@ -4236,7 +4280,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>31</v>
@@ -4248,7 +4292,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>32</v>
@@ -4260,7 +4304,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>33</v>
@@ -4272,7 +4316,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>34</v>
@@ -4284,7 +4328,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>35</v>
@@ -4296,7 +4340,7 @@
     </row>
     <row r="37" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>36</v>
@@ -4308,7 +4352,7 @@
     </row>
     <row r="38" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>37</v>
@@ -4320,7 +4364,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>38</v>
@@ -4332,7 +4376,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>39</v>
@@ -4344,7 +4388,7 @@
     </row>
     <row r="41" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>40</v>
@@ -4356,7 +4400,7 @@
     </row>
     <row r="42" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>41</v>
@@ -4368,7 +4412,7 @@
     </row>
     <row r="43" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>42</v>
@@ -4380,7 +4424,7 @@
     </row>
     <row r="44" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>43</v>
@@ -4392,7 +4436,7 @@
     </row>
     <row r="45" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>44</v>
@@ -4404,7 +4448,7 @@
     </row>
     <row r="46" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>45</v>
@@ -4416,7 +4460,7 @@
     </row>
     <row r="47" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>46</v>
@@ -4428,7 +4472,7 @@
     </row>
     <row r="48" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>47</v>
@@ -4440,7 +4484,7 @@
     </row>
     <row r="49" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>48</v>
@@ -4452,7 +4496,7 @@
     </row>
     <row r="50" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>49</v>
@@ -4464,10 +4508,10 @@
     </row>
     <row r="51" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
@@ -4477,12 +4521,12 @@
         <v>20170515</v>
       </c>
       <c r="E51" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>50</v>
@@ -4494,7 +4538,7 @@
     </row>
     <row r="53" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>51</v>
@@ -4506,7 +4550,7 @@
     </row>
     <row r="54" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>52</v>
@@ -4518,7 +4562,7 @@
     </row>
     <row r="55" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>53</v>
@@ -4530,7 +4574,7 @@
     </row>
     <row r="56" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>54</v>
@@ -4542,7 +4586,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>55</v>
@@ -4554,7 +4598,7 @@
     </row>
     <row r="58" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>56</v>
@@ -4566,7 +4610,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>57</v>
@@ -4578,7 +4622,7 @@
     </row>
     <row r="60" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>58</v>
@@ -4590,7 +4634,7 @@
     </row>
     <row r="61" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>59</v>
@@ -4602,7 +4646,7 @@
     </row>
     <row r="62" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>60</v>
@@ -4614,7 +4658,7 @@
     </row>
     <row r="63" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>61</v>
@@ -4626,7 +4670,7 @@
     </row>
     <row r="64" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>62</v>
@@ -4638,7 +4682,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>63</v>
@@ -4650,7 +4694,7 @@
     </row>
     <row r="66" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>64</v>
@@ -4662,7 +4706,7 @@
     </row>
     <row r="67" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>65</v>
@@ -4674,7 +4718,7 @@
     </row>
     <row r="68" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>66</v>
@@ -4686,7 +4730,7 @@
     </row>
     <row r="69" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>67</v>
@@ -4698,7 +4742,7 @@
     </row>
     <row r="70" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>68</v>
@@ -4710,7 +4754,7 @@
     </row>
     <row r="71" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>69</v>
@@ -4722,7 +4766,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>70</v>
@@ -4734,7 +4778,7 @@
     </row>
     <row r="73" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>71</v>
@@ -4746,7 +4790,7 @@
     </row>
     <row r="74" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>72</v>
@@ -4758,7 +4802,7 @@
     </row>
     <row r="75" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>73</v>
@@ -4770,7 +4814,7 @@
     </row>
     <row r="76" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>74</v>
@@ -4782,7 +4826,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>75</v>
@@ -4794,7 +4838,7 @@
     </row>
     <row r="78" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>76</v>
@@ -4806,7 +4850,7 @@
     </row>
     <row r="79" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>77</v>
@@ -4818,7 +4862,7 @@
     </row>
     <row r="80" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>78</v>
@@ -4830,7 +4874,7 @@
     </row>
     <row r="81" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>79</v>
@@ -4842,7 +4886,7 @@
     </row>
     <row r="82" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>80</v>
@@ -4854,10 +4898,10 @@
     </row>
     <row r="83" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C83">
         <f t="shared" si="1"/>
@@ -4867,12 +4911,12 @@
         <v>20170515</v>
       </c>
       <c r="E83" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>81</v>
@@ -4884,7 +4928,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>82</v>
@@ -4896,7 +4940,7 @@
     </row>
     <row r="86" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>83</v>
@@ -4908,7 +4952,7 @@
     </row>
     <row r="87" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>84</v>
@@ -4920,7 +4964,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>85</v>
@@ -4932,7 +4976,7 @@
     </row>
     <row r="89" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>86</v>
@@ -4944,7 +4988,7 @@
     </row>
     <row r="90" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>87</v>
@@ -4956,7 +5000,7 @@
     </row>
     <row r="91" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>88</v>
@@ -4968,7 +5012,7 @@
     </row>
     <row r="92" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>89</v>
@@ -4980,7 +5024,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>90</v>
@@ -4992,7 +5036,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>91</v>
@@ -5004,7 +5048,7 @@
     </row>
     <row r="95" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>92</v>
@@ -5016,7 +5060,7 @@
     </row>
     <row r="96" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>93</v>
@@ -5028,7 +5072,7 @@
     </row>
     <row r="97" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>94</v>
@@ -5040,7 +5084,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>95</v>
@@ -5052,7 +5096,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>96</v>
@@ -5064,7 +5108,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>97</v>
@@ -5076,7 +5120,7 @@
     </row>
     <row r="101" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>98</v>
@@ -5088,7 +5132,7 @@
     </row>
     <row r="102" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>99</v>
@@ -5100,7 +5144,7 @@
     </row>
     <row r="103" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>100</v>
@@ -5112,7 +5156,7 @@
     </row>
     <row r="104" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>101</v>
@@ -5124,7 +5168,7 @@
     </row>
     <row r="105" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>102</v>
@@ -5136,7 +5180,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>103</v>
@@ -5148,7 +5192,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>104</v>
@@ -5160,7 +5204,7 @@
     </row>
     <row r="108" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>105</v>
@@ -5172,7 +5216,7 @@
     </row>
     <row r="109" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>106</v>
@@ -5184,7 +5228,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>107</v>
@@ -5196,7 +5240,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>108</v>
@@ -5208,7 +5252,7 @@
     </row>
     <row r="112" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>109</v>
@@ -5220,7 +5264,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>110</v>
@@ -5232,7 +5276,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>111</v>
@@ -5244,7 +5288,7 @@
     </row>
     <row r="115" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>112</v>
@@ -5256,7 +5300,7 @@
     </row>
     <row r="116" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>113</v>
@@ -5268,7 +5312,7 @@
     </row>
     <row r="117" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>114</v>
@@ -5280,7 +5324,7 @@
     </row>
     <row r="118" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>115</v>
@@ -5292,7 +5336,7 @@
     </row>
     <row r="119" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>116</v>
@@ -5304,7 +5348,7 @@
     </row>
     <row r="120" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>117</v>
@@ -5316,7 +5360,7 @@
     </row>
     <row r="121" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>118</v>
@@ -5328,7 +5372,7 @@
     </row>
     <row r="122" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>119</v>
@@ -5340,10 +5384,10 @@
     </row>
     <row r="123" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="C123">
         <f t="shared" si="1"/>
@@ -5353,12 +5397,12 @@
         <v>20170515</v>
       </c>
       <c r="E123" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>120</v>
@@ -5370,10 +5414,10 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="C125">
         <f t="shared" si="1"/>
@@ -5383,7 +5427,7 @@
         <v>20170515</v>
       </c>
       <c r="E125" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -5412,7 +5456,7 @@
     </row>
     <row r="128" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>125</v>
@@ -5424,10 +5468,10 @@
     </row>
     <row r="129" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="C129">
         <f t="shared" si="1"/>
@@ -5437,12 +5481,12 @@
         <v>20170515</v>
       </c>
       <c r="E129" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>126</v>
@@ -5454,7 +5498,7 @@
     </row>
     <row r="131" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>127</v>
@@ -5466,7 +5510,7 @@
     </row>
     <row r="132" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>128</v>
@@ -5478,7 +5522,7 @@
     </row>
     <row r="133" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>129</v>
@@ -5490,10 +5534,10 @@
     </row>
     <row r="134" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C134">
         <f t="shared" si="2"/>
@@ -5503,12 +5547,12 @@
         <v>20170515</v>
       </c>
       <c r="E134" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>130</v>
@@ -5520,10 +5564,10 @@
     </row>
     <row r="136" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="C136">
         <f t="shared" si="2"/>
@@ -5533,12 +5577,12 @@
         <v>20170515</v>
       </c>
       <c r="E136" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>131</v>
@@ -5550,7 +5594,7 @@
     </row>
     <row r="138" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>132</v>
@@ -5562,7 +5606,7 @@
     </row>
     <row r="139" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>133</v>
@@ -5574,7 +5618,7 @@
     </row>
     <row r="140" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>134</v>
@@ -5586,7 +5630,7 @@
     </row>
     <row r="141" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>135</v>
@@ -5598,7 +5642,7 @@
     </row>
     <row r="142" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>136</v>
@@ -5610,7 +5654,7 @@
     </row>
     <row r="143" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>137</v>
@@ -5622,7 +5666,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>138</v>
@@ -5634,7 +5678,7 @@
     </row>
     <row r="145" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>139</v>
@@ -5646,7 +5690,7 @@
     </row>
     <row r="146" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>140</v>
@@ -5658,7 +5702,7 @@
     </row>
     <row r="147" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>141</v>
@@ -5670,7 +5714,7 @@
     </row>
     <row r="148" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>142</v>
@@ -5682,7 +5726,7 @@
     </row>
     <row r="149" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>143</v>
@@ -5694,7 +5738,7 @@
     </row>
     <row r="150" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>144</v>
@@ -5706,10 +5750,10 @@
     </row>
     <row r="151" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="C151">
         <f t="shared" si="2"/>
@@ -5718,7 +5762,7 @@
     </row>
     <row r="152" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>145</v>
@@ -5730,7 +5774,7 @@
     </row>
     <row r="153" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>146</v>
@@ -5742,7 +5786,7 @@
     </row>
     <row r="154" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>147</v>
@@ -5754,7 +5798,7 @@
     </row>
     <row r="155" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>148</v>
@@ -5766,7 +5810,7 @@
     </row>
     <row r="156" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>149</v>
@@ -5778,7 +5822,7 @@
     </row>
     <row r="157" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>150</v>
@@ -5790,7 +5834,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>151</v>
@@ -5802,10 +5846,10 @@
     </row>
     <row r="159" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="C159">
         <f t="shared" si="2"/>
@@ -5815,12 +5859,12 @@
         <v>20170515</v>
       </c>
       <c r="E159" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>152</v>
@@ -5832,7 +5876,7 @@
     </row>
     <row r="161" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>153</v>
@@ -5844,7 +5888,7 @@
     </row>
     <row r="162" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>154</v>
@@ -5856,7 +5900,7 @@
     </row>
     <row r="163" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>155</v>
@@ -5868,7 +5912,7 @@
     </row>
     <row r="164" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>156</v>
@@ -5880,7 +5924,7 @@
     </row>
     <row r="165" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>157</v>
@@ -5892,7 +5936,7 @@
     </row>
     <row r="166" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>158</v>
@@ -5904,7 +5948,7 @@
     </row>
     <row r="167" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>159</v>
@@ -5916,7 +5960,7 @@
     </row>
     <row r="168" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>160</v>
@@ -5928,7 +5972,7 @@
     </row>
     <row r="169" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>161</v>
@@ -5940,7 +5984,7 @@
     </row>
     <row r="170" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>162</v>
@@ -5952,7 +5996,7 @@
     </row>
     <row r="171" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>163</v>
@@ -5964,7 +6008,7 @@
     </row>
     <row r="172" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>164</v>
@@ -5976,10 +6020,10 @@
     </row>
     <row r="173" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="C173">
         <f t="shared" si="2"/>
@@ -5989,12 +6033,12 @@
         <v>20170515</v>
       </c>
       <c r="E173" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>165</v>
@@ -6006,7 +6050,7 @@
     </row>
     <row r="175" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>166</v>
@@ -6018,7 +6062,7 @@
     </row>
     <row r="176" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>167</v>
@@ -6030,7 +6074,7 @@
     </row>
     <row r="177" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>168</v>
@@ -6042,7 +6086,7 @@
     </row>
     <row r="178" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>169</v>
@@ -6054,7 +6098,7 @@
     </row>
     <row r="179" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>170</v>
@@ -6066,7 +6110,7 @@
     </row>
     <row r="180" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>171</v>
@@ -6078,7 +6122,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>172</v>
@@ -6090,7 +6134,7 @@
     </row>
     <row r="182" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>173</v>
@@ -6102,7 +6146,7 @@
     </row>
     <row r="183" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>174</v>
@@ -6114,7 +6158,7 @@
     </row>
     <row r="184" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>175</v>
@@ -6126,7 +6170,7 @@
     </row>
     <row r="185" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>176</v>
@@ -6138,7 +6182,7 @@
     </row>
     <row r="186" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>177</v>
@@ -6150,7 +6194,7 @@
     </row>
     <row r="187" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>178</v>
@@ -6162,7 +6206,7 @@
     </row>
     <row r="188" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>179</v>
@@ -6174,7 +6218,7 @@
     </row>
     <row r="189" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>180</v>
@@ -6186,7 +6230,7 @@
     </row>
     <row r="190" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>181</v>
@@ -6198,7 +6242,7 @@
     </row>
     <row r="191" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>182</v>
@@ -6210,7 +6254,7 @@
     </row>
     <row r="192" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>183</v>
@@ -6222,7 +6266,7 @@
     </row>
     <row r="193" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>184</v>
@@ -6235,12 +6279,12 @@
         <v>20170515</v>
       </c>
       <c r="E193" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>185</v>
@@ -6252,7 +6296,7 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>186</v>
@@ -6264,7 +6308,7 @@
     </row>
     <row r="196" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>187</v>
@@ -6276,7 +6320,7 @@
     </row>
     <row r="197" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>188</v>
@@ -6288,7 +6332,7 @@
     </row>
     <row r="198" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>189</v>
@@ -6300,7 +6344,7 @@
     </row>
     <row r="199" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>190</v>
@@ -6312,7 +6356,7 @@
     </row>
     <row r="200" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>191</v>
@@ -6324,7 +6368,7 @@
     </row>
     <row r="201" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>192</v>
@@ -6336,7 +6380,7 @@
     </row>
     <row r="202" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>193</v>
@@ -6348,7 +6392,7 @@
     </row>
     <row r="203" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>194</v>
@@ -6360,7 +6404,7 @@
     </row>
     <row r="204" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>195</v>
@@ -6372,7 +6416,7 @@
     </row>
     <row r="205" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>196</v>
@@ -6384,7 +6428,7 @@
     </row>
     <row r="206" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>197</v>
@@ -6396,7 +6440,7 @@
     </row>
     <row r="207" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>198</v>
@@ -6408,7 +6452,7 @@
     </row>
     <row r="208" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>199</v>
@@ -6420,7 +6464,7 @@
     </row>
     <row r="209" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>200</v>
@@ -6432,7 +6476,7 @@
     </row>
     <row r="210" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>201</v>
@@ -6444,7 +6488,7 @@
     </row>
     <row r="211" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>202</v>
@@ -6456,7 +6500,7 @@
     </row>
     <row r="212" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>203</v>
@@ -6468,7 +6512,7 @@
     </row>
     <row r="213" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>204</v>
@@ -6480,7 +6524,7 @@
     </row>
     <row r="214" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>205</v>
@@ -6492,7 +6536,7 @@
     </row>
     <row r="215" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>206</v>
@@ -6504,7 +6548,7 @@
     </row>
     <row r="216" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>207</v>
@@ -6516,7 +6560,7 @@
     </row>
     <row r="217" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>208</v>
@@ -6528,10 +6572,10 @@
     </row>
     <row r="218" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C218">
         <f t="shared" si="3"/>
@@ -6540,7 +6584,7 @@
     </row>
     <row r="219" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>209</v>
@@ -6552,7 +6596,7 @@
     </row>
     <row r="220" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>210</v>
@@ -6564,7 +6608,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>211</v>
@@ -6576,7 +6620,7 @@
     </row>
     <row r="222" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>212</v>
@@ -6588,7 +6632,7 @@
     </row>
     <row r="223" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>213</v>
@@ -6600,7 +6644,7 @@
     </row>
     <row r="224" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>214</v>
@@ -6612,7 +6656,7 @@
     </row>
     <row r="225" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>215</v>
@@ -6624,7 +6668,7 @@
     </row>
     <row r="226" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>216</v>
@@ -6636,7 +6680,7 @@
     </row>
     <row r="227" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>217</v>
@@ -6648,7 +6692,7 @@
     </row>
     <row r="228" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>218</v>
@@ -6660,7 +6704,7 @@
     </row>
     <row r="229" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>219</v>
@@ -6672,7 +6716,7 @@
     </row>
     <row r="230" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>220</v>
@@ -6684,7 +6728,7 @@
     </row>
     <row r="231" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>221</v>
@@ -6696,7 +6740,7 @@
     </row>
     <row r="232" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>222</v>
@@ -6708,7 +6752,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>223</v>
@@ -6720,7 +6764,7 @@
     </row>
     <row r="234" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>224</v>
@@ -6732,7 +6776,7 @@
     </row>
     <row r="235" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>225</v>
@@ -6744,7 +6788,7 @@
     </row>
     <row r="236" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>226</v>
@@ -6756,7 +6800,7 @@
     </row>
     <row r="237" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>227</v>
@@ -6768,7 +6812,7 @@
     </row>
     <row r="238" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>228</v>
@@ -6780,7 +6824,7 @@
     </row>
     <row r="239" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>229</v>
@@ -6792,7 +6836,7 @@
     </row>
     <row r="240" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>230</v>
@@ -6804,7 +6848,7 @@
     </row>
     <row r="241" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>231</v>
@@ -6816,7 +6860,7 @@
     </row>
     <row r="242" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>232</v>
@@ -6828,7 +6872,7 @@
     </row>
     <row r="243" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>233</v>
@@ -6840,7 +6884,7 @@
     </row>
     <row r="244" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>234</v>
@@ -6852,7 +6896,7 @@
     </row>
     <row r="245" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>235</v>
@@ -6864,7 +6908,7 @@
     </row>
     <row r="246" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>236</v>
@@ -6876,7 +6920,7 @@
     </row>
     <row r="247" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>237</v>
@@ -6888,7 +6932,7 @@
     </row>
     <row r="248" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>238</v>
@@ -6900,10 +6944,10 @@
     </row>
     <row r="249" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="C249">
         <f t="shared" si="3"/>
@@ -6912,7 +6956,7 @@
     </row>
     <row r="250" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>239</v>
@@ -6924,7 +6968,7 @@
     </row>
     <row r="251" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>240</v>
@@ -6936,7 +6980,7 @@
     </row>
     <row r="252" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>241</v>
@@ -6948,7 +6992,7 @@
     </row>
     <row r="253" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>242</v>
@@ -6960,10 +7004,10 @@
     </row>
     <row r="254" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="C254">
         <f t="shared" si="3"/>
@@ -6973,12 +7017,12 @@
         <v>20170515</v>
       </c>
       <c r="E254" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="255" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>243</v>
@@ -6990,10 +7034,10 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="C256">
         <f t="shared" si="3"/>
@@ -7002,10 +7046,10 @@
     </row>
     <row r="257" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="C257">
         <f t="shared" si="3"/>
@@ -7014,10 +7058,10 @@
     </row>
     <row r="258" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="C258">
         <f t="shared" ref="C258:C321" si="4">LEN(B258)</f>
@@ -7026,10 +7070,10 @@
     </row>
     <row r="259" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="C259">
         <f t="shared" si="4"/>
@@ -7038,7 +7082,7 @@
     </row>
     <row r="260" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>244</v>
@@ -7050,7 +7094,7 @@
     </row>
     <row r="261" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>245</v>
@@ -7062,7 +7106,7 @@
     </row>
     <row r="262" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>246</v>
@@ -7074,7 +7118,7 @@
     </row>
     <row r="263" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>247</v>
@@ -7086,7 +7130,7 @@
     </row>
     <row r="264" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>248</v>
@@ -7098,7 +7142,7 @@
     </row>
     <row r="265" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>249</v>
@@ -7110,7 +7154,7 @@
     </row>
     <row r="266" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>250</v>
@@ -7122,7 +7166,7 @@
     </row>
     <row r="267" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>251</v>
@@ -7134,7 +7178,7 @@
     </row>
     <row r="268" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>252</v>
@@ -7146,7 +7190,7 @@
     </row>
     <row r="269" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>253</v>
@@ -7158,7 +7202,7 @@
     </row>
     <row r="270" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>254</v>
@@ -7170,7 +7214,7 @@
     </row>
     <row r="271" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>255</v>
@@ -7182,7 +7226,7 @@
     </row>
     <row r="272" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>256</v>
@@ -7194,7 +7238,7 @@
     </row>
     <row r="273" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>257</v>
@@ -7206,7 +7250,7 @@
     </row>
     <row r="274" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>258</v>
@@ -7218,7 +7262,7 @@
     </row>
     <row r="275" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>259</v>
@@ -7230,7 +7274,7 @@
     </row>
     <row r="276" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>260</v>
@@ -7242,7 +7286,7 @@
     </row>
     <row r="277" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>261</v>
@@ -7254,7 +7298,7 @@
     </row>
     <row r="278" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>262</v>
@@ -7266,7 +7310,7 @@
     </row>
     <row r="279" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>263</v>
@@ -7278,7 +7322,7 @@
     </row>
     <row r="280" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>264</v>
@@ -7290,7 +7334,7 @@
     </row>
     <row r="281" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>265</v>
@@ -7302,7 +7346,7 @@
     </row>
     <row r="282" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>266</v>
@@ -7314,7 +7358,7 @@
     </row>
     <row r="283" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>267</v>
@@ -7326,7 +7370,7 @@
     </row>
     <row r="284" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>268</v>
@@ -7338,7 +7382,7 @@
     </row>
     <row r="285" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>269</v>
@@ -7350,7 +7394,7 @@
     </row>
     <row r="286" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>270</v>
@@ -7362,7 +7406,7 @@
     </row>
     <row r="287" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>271</v>
@@ -7374,7 +7418,7 @@
     </row>
     <row r="288" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>272</v>
@@ -7386,7 +7430,7 @@
     </row>
     <row r="289" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>273</v>
@@ -7398,7 +7442,7 @@
     </row>
     <row r="290" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>274</v>
@@ -7410,10 +7454,10 @@
     </row>
     <row r="291" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="C291">
         <f t="shared" si="4"/>
@@ -7423,15 +7467,15 @@
         <v>20170515</v>
       </c>
       <c r="E291" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="C292">
         <f t="shared" si="4"/>
@@ -7441,12 +7485,12 @@
         <v>20170515</v>
       </c>
       <c r="E292" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>275</v>
@@ -7458,7 +7502,7 @@
     </row>
     <row r="294" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>276</v>
@@ -7470,7 +7514,7 @@
     </row>
     <row r="295" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>277</v>
@@ -7482,7 +7526,7 @@
     </row>
     <row r="296" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>278</v>
@@ -7494,7 +7538,7 @@
     </row>
     <row r="297" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>279</v>
@@ -7506,10 +7550,10 @@
     </row>
     <row r="298" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="C298">
         <f t="shared" si="4"/>
@@ -7519,12 +7563,12 @@
         <v>20170515</v>
       </c>
       <c r="E298" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>280</v>
@@ -7536,7 +7580,7 @@
     </row>
     <row r="300" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>281</v>
@@ -7548,7 +7592,7 @@
     </row>
     <row r="301" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>282</v>
@@ -7560,7 +7604,7 @@
     </row>
     <row r="302" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>283</v>
@@ -7572,7 +7616,7 @@
     </row>
     <row r="303" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>284</v>
@@ -7584,7 +7628,7 @@
     </row>
     <row r="304" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>285</v>
@@ -7596,7 +7640,7 @@
     </row>
     <row r="305" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>286</v>
@@ -7608,7 +7652,7 @@
     </row>
     <row r="306" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>287</v>
@@ -7620,7 +7664,7 @@
     </row>
     <row r="307" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>288</v>
@@ -7632,7 +7676,7 @@
     </row>
     <row r="308" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>289</v>
@@ -7644,7 +7688,7 @@
     </row>
     <row r="309" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>290</v>
@@ -7656,7 +7700,7 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>291</v>
@@ -7668,7 +7712,7 @@
     </row>
     <row r="311" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>292</v>
@@ -7680,7 +7724,7 @@
     </row>
     <row r="312" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>293</v>
@@ -7692,7 +7736,7 @@
     </row>
     <row r="313" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>294</v>
@@ -7704,7 +7748,7 @@
     </row>
     <row r="314" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>295</v>
@@ -7716,7 +7760,7 @@
     </row>
     <row r="315" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>296</v>
@@ -7728,7 +7772,7 @@
     </row>
     <row r="316" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>297</v>
@@ -7740,7 +7784,7 @@
     </row>
     <row r="317" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>298</v>
@@ -7752,7 +7796,7 @@
     </row>
     <row r="318" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>299</v>
@@ -7764,7 +7808,7 @@
     </row>
     <row r="319" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>300</v>
@@ -7776,7 +7820,7 @@
     </row>
     <row r="320" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>301</v>
@@ -7788,7 +7832,7 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>302</v>
@@ -7800,7 +7844,7 @@
     </row>
     <row r="322" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>303</v>
@@ -7812,22 +7856,22 @@
     </row>
     <row r="323" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>304</v>
+        <v>1058</v>
       </c>
       <c r="C323">
         <f t="shared" si="5"/>
-        <v>84</v>
+        <v>117</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C324">
         <f t="shared" si="5"/>
@@ -7836,10 +7880,10 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C325">
         <f t="shared" si="5"/>
@@ -7848,10 +7892,10 @@
     </row>
     <row r="326" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C326">
         <f t="shared" si="5"/>
@@ -7860,10 +7904,10 @@
     </row>
     <row r="327" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C327">
         <f t="shared" si="5"/>
@@ -7872,10 +7916,10 @@
     </row>
     <row r="328" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C328">
         <f t="shared" si="5"/>
@@ -7884,10 +7928,10 @@
     </row>
     <row r="329" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C329">
         <f t="shared" si="5"/>
@@ -7896,10 +7940,10 @@
     </row>
     <row r="330" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C330">
         <f t="shared" si="5"/>
@@ -7908,10 +7952,10 @@
     </row>
     <row r="331" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C331">
         <f t="shared" si="5"/>
@@ -7920,10 +7964,10 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C332">
         <f t="shared" si="5"/>
@@ -7932,10 +7976,10 @@
     </row>
     <row r="333" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C333">
         <f t="shared" si="5"/>
@@ -7944,10 +7988,10 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C334">
         <f t="shared" si="5"/>
@@ -7956,10 +8000,10 @@
     </row>
     <row r="335" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C335">
         <f t="shared" si="5"/>
@@ -7968,10 +8012,10 @@
     </row>
     <row r="336" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C336">
         <f t="shared" si="5"/>
@@ -7980,10 +8024,10 @@
     </row>
     <row r="337" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C337">
         <f t="shared" si="5"/>
@@ -7992,10 +8036,10 @@
     </row>
     <row r="338" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="C338">
         <f t="shared" si="5"/>
@@ -8005,15 +8049,15 @@
         <v>20170515</v>
       </c>
       <c r="E338" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="339" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C339">
         <f t="shared" si="5"/>
@@ -8022,10 +8066,10 @@
     </row>
     <row r="340" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C340">
         <f t="shared" si="5"/>
@@ -8034,10 +8078,10 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C341">
         <f t="shared" si="5"/>
@@ -8046,10 +8090,10 @@
     </row>
     <row r="342" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C342">
         <f t="shared" si="5"/>
@@ -8058,10 +8102,10 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C343">
         <f t="shared" si="5"/>
@@ -8070,10 +8114,10 @@
     </row>
     <row r="344" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C344">
         <f t="shared" si="5"/>
@@ -8082,10 +8126,10 @@
     </row>
     <row r="345" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C345">
         <f t="shared" si="5"/>
@@ -8094,10 +8138,10 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C346">
         <f t="shared" si="5"/>
@@ -8106,10 +8150,10 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C347">
         <f t="shared" si="5"/>
@@ -8118,10 +8162,10 @@
     </row>
     <row r="348" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C348">
         <f t="shared" si="5"/>
@@ -8130,10 +8174,10 @@
     </row>
     <row r="349" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C349">
         <f t="shared" si="5"/>
@@ -8142,10 +8186,10 @@
     </row>
     <row r="350" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C350">
         <f t="shared" si="5"/>
@@ -8154,10 +8198,10 @@
     </row>
     <row r="351" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C351">
         <f t="shared" si="5"/>
@@ -8166,10 +8210,10 @@
     </row>
     <row r="352" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C352">
         <f t="shared" si="5"/>
@@ -8178,10 +8222,10 @@
     </row>
     <row r="353" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C353">
         <f t="shared" si="5"/>
@@ -8190,10 +8234,10 @@
     </row>
     <row r="354" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C354">
         <f t="shared" si="5"/>
@@ -8202,10 +8246,10 @@
     </row>
     <row r="355" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C355">
         <f t="shared" si="5"/>
@@ -8214,10 +8258,10 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C356">
         <f t="shared" si="5"/>
@@ -8226,10 +8270,10 @@
     </row>
     <row r="357" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C357">
         <f t="shared" si="5"/>
@@ -8238,10 +8282,10 @@
     </row>
     <row r="358" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C358">
         <f t="shared" si="5"/>
@@ -8250,10 +8294,10 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C359">
         <f t="shared" si="5"/>
@@ -8262,10 +8306,10 @@
     </row>
     <row r="360" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C360">
         <f t="shared" si="5"/>
@@ -8274,10 +8318,10 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C361">
         <f t="shared" si="5"/>
@@ -8286,10 +8330,10 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C362">
         <f t="shared" si="5"/>
@@ -8298,10 +8342,10 @@
     </row>
     <row r="363" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C363">
         <f t="shared" si="5"/>
@@ -8310,10 +8354,10 @@
     </row>
     <row r="364" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C364">
         <f t="shared" si="5"/>
@@ -8322,10 +8366,10 @@
     </row>
     <row r="365" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C365">
         <f t="shared" si="5"/>
@@ -8334,10 +8378,10 @@
     </row>
     <row r="366" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C366">
         <f t="shared" si="5"/>
@@ -8346,10 +8390,10 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C367">
         <f t="shared" si="5"/>
@@ -8358,10 +8402,10 @@
     </row>
     <row r="368" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C368">
         <f t="shared" si="5"/>
@@ -8370,10 +8414,10 @@
     </row>
     <row r="369" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C369">
         <f t="shared" si="5"/>
@@ -8382,10 +8426,10 @@
     </row>
     <row r="370" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C370">
         <f t="shared" si="5"/>
@@ -8394,10 +8438,10 @@
     </row>
     <row r="371" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C371">
         <f t="shared" si="5"/>
@@ -8406,10 +8450,10 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C372">
         <f t="shared" si="5"/>
@@ -8418,10 +8462,10 @@
     </row>
     <row r="373" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C373">
         <f t="shared" si="5"/>
@@ -8430,10 +8474,10 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C374">
         <f t="shared" si="5"/>
@@ -8442,10 +8486,10 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C375">
         <f t="shared" si="5"/>
@@ -8454,10 +8498,10 @@
     </row>
     <row r="376" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C376">
         <f t="shared" si="5"/>
@@ -8466,10 +8510,10 @@
     </row>
     <row r="377" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C377">
         <f t="shared" si="5"/>
@@ -8478,10 +8522,10 @@
     </row>
     <row r="378" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C378">
         <f t="shared" si="5"/>
@@ -8490,10 +8534,10 @@
     </row>
     <row r="379" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C379">
         <f t="shared" si="5"/>
@@ -8502,10 +8546,10 @@
     </row>
     <row r="380" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C380">
         <f t="shared" si="5"/>
@@ -8514,10 +8558,10 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C381">
         <f t="shared" si="5"/>
@@ -8526,10 +8570,10 @@
     </row>
     <row r="382" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C382">
         <f t="shared" si="5"/>
@@ -8538,10 +8582,10 @@
     </row>
     <row r="383" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C383">
         <f t="shared" si="5"/>
@@ -8550,10 +8594,10 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C384">
         <f t="shared" si="5"/>
@@ -8562,10 +8606,10 @@
     </row>
     <row r="385" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C385">
         <f t="shared" si="5"/>
@@ -8574,34 +8618,34 @@
     </row>
     <row r="386" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C386">
         <f t="shared" ref="C386:C449" si="6">LEN(B386)</f>
         <v>110</v>
       </c>
     </row>
-    <row r="387" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>367</v>
+        <v>1057</v>
       </c>
       <c r="C387">
         <f t="shared" si="6"/>
-        <v>99</v>
+        <v>135</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C388">
         <f t="shared" si="6"/>
@@ -8610,10 +8654,10 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C389">
         <f t="shared" si="6"/>
@@ -8622,10 +8666,10 @@
     </row>
     <row r="390" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C390">
         <f t="shared" si="6"/>
@@ -8634,10 +8678,10 @@
     </row>
     <row r="391" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C391">
         <f t="shared" si="6"/>
@@ -8646,10 +8690,10 @@
     </row>
     <row r="392" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C392">
         <f t="shared" si="6"/>
@@ -8658,10 +8702,10 @@
     </row>
     <row r="393" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C393">
         <f t="shared" si="6"/>
@@ -8670,10 +8714,10 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C394">
         <f t="shared" si="6"/>
@@ -8682,10 +8726,10 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C395">
         <f t="shared" si="6"/>
@@ -8694,10 +8738,10 @@
     </row>
     <row r="396" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C396">
         <f t="shared" si="6"/>
@@ -8706,10 +8750,10 @@
     </row>
     <row r="397" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C397">
         <f t="shared" si="6"/>
@@ -8718,10 +8762,10 @@
     </row>
     <row r="398" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C398">
         <f t="shared" si="6"/>
@@ -8730,10 +8774,10 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C399">
         <f t="shared" si="6"/>
@@ -8742,10 +8786,10 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C400">
         <f t="shared" si="6"/>
@@ -8754,10 +8798,10 @@
     </row>
     <row r="401" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C401">
         <f t="shared" si="6"/>
@@ -8766,10 +8810,10 @@
     </row>
     <row r="402" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C402">
         <f t="shared" si="6"/>
@@ -8778,10 +8822,10 @@
     </row>
     <row r="403" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C403">
         <f t="shared" si="6"/>
@@ -8790,10 +8834,10 @@
     </row>
     <row r="404" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C404">
         <f t="shared" si="6"/>
@@ -8802,10 +8846,10 @@
     </row>
     <row r="405" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C405">
         <f t="shared" si="6"/>
@@ -8814,10 +8858,10 @@
     </row>
     <row r="406" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C406">
         <f t="shared" si="6"/>
@@ -8826,10 +8870,10 @@
     </row>
     <row r="407" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C407">
         <f t="shared" si="6"/>
@@ -8838,10 +8882,10 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C408">
         <f t="shared" si="6"/>
@@ -8850,10 +8894,10 @@
     </row>
     <row r="409" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C409">
         <f t="shared" si="6"/>
@@ -8862,10 +8906,10 @@
     </row>
     <row r="410" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C410">
         <f t="shared" si="6"/>
@@ -8874,10 +8918,10 @@
     </row>
     <row r="411" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C411">
         <f t="shared" si="6"/>
@@ -8886,10 +8930,10 @@
     </row>
     <row r="412" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C412">
         <f t="shared" si="6"/>
@@ -8898,10 +8942,10 @@
     </row>
     <row r="413" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C413">
         <f t="shared" si="6"/>
@@ -8910,10 +8954,10 @@
     </row>
     <row r="414" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C414">
         <f t="shared" si="6"/>
@@ -8922,10 +8966,10 @@
     </row>
     <row r="415" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C415">
         <f t="shared" si="6"/>
@@ -8934,10 +8978,10 @@
     </row>
     <row r="416" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C416">
         <f t="shared" si="6"/>
@@ -8946,10 +8990,10 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C417">
         <f t="shared" si="6"/>
@@ -8958,10 +9002,10 @@
     </row>
     <row r="418" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C418">
         <f t="shared" si="6"/>
@@ -8970,10 +9014,10 @@
     </row>
     <row r="419" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C419">
         <f t="shared" si="6"/>
@@ -8982,10 +9026,10 @@
     </row>
     <row r="420" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C420">
         <f t="shared" si="6"/>
@@ -8994,10 +9038,10 @@
     </row>
     <row r="421" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C421">
         <f t="shared" si="6"/>
@@ -9006,10 +9050,10 @@
     </row>
     <row r="422" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C422">
         <f t="shared" si="6"/>
@@ -9018,10 +9062,10 @@
     </row>
     <row r="423" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C423">
         <f t="shared" si="6"/>
@@ -9030,10 +9074,10 @@
     </row>
     <row r="424" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C424">
         <f t="shared" si="6"/>
@@ -9042,10 +9086,10 @@
     </row>
     <row r="425" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C425">
         <f t="shared" si="6"/>
@@ -9054,10 +9098,10 @@
     </row>
     <row r="426" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C426">
         <f t="shared" si="6"/>
@@ -9066,10 +9110,10 @@
     </row>
     <row r="427" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C427">
         <f t="shared" si="6"/>
@@ -9078,10 +9122,10 @@
     </row>
     <row r="428" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C428">
         <f t="shared" si="6"/>
@@ -9090,10 +9134,10 @@
     </row>
     <row r="429" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C429">
         <f t="shared" si="6"/>
@@ -9102,10 +9146,10 @@
     </row>
     <row r="430" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C430">
         <f t="shared" si="6"/>
@@ -9114,10 +9158,10 @@
     </row>
     <row r="431" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C431">
         <f t="shared" si="6"/>
@@ -9126,10 +9170,10 @@
     </row>
     <row r="432" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C432">
         <f t="shared" si="6"/>
@@ -9138,10 +9182,10 @@
     </row>
     <row r="433" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C433">
         <f t="shared" si="6"/>
@@ -9150,10 +9194,10 @@
     </row>
     <row r="434" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C434">
         <f t="shared" si="6"/>
@@ -9162,10 +9206,10 @@
     </row>
     <row r="435" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C435">
         <f t="shared" si="6"/>
@@ -9174,10 +9218,10 @@
     </row>
     <row r="436" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C436">
         <f t="shared" si="6"/>
@@ -9186,10 +9230,10 @@
     </row>
     <row r="437" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C437">
         <f t="shared" si="6"/>
@@ -9198,10 +9242,10 @@
     </row>
     <row r="438" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C438">
         <f t="shared" si="6"/>
@@ -9210,10 +9254,10 @@
     </row>
     <row r="439" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C439">
         <f t="shared" si="6"/>
@@ -9222,10 +9266,10 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C440">
         <f t="shared" si="6"/>
@@ -9234,10 +9278,10 @@
     </row>
     <row r="441" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C441">
         <f t="shared" si="6"/>
@@ -9246,10 +9290,10 @@
     </row>
     <row r="442" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C442">
         <f t="shared" si="6"/>
@@ -9258,10 +9302,10 @@
     </row>
     <row r="443" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C443">
         <f t="shared" si="6"/>
@@ -9270,10 +9314,10 @@
     </row>
     <row r="444" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C444">
         <f t="shared" si="6"/>
@@ -9282,10 +9326,10 @@
     </row>
     <row r="445" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C445">
         <f t="shared" si="6"/>
@@ -9294,10 +9338,10 @@
     </row>
     <row r="446" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C446">
         <f t="shared" si="6"/>
@@ -9306,10 +9350,10 @@
     </row>
     <row r="447" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C447">
         <f t="shared" si="6"/>
@@ -9318,10 +9362,10 @@
     </row>
     <row r="448" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C448">
         <f t="shared" si="6"/>
@@ -9330,10 +9374,10 @@
     </row>
     <row r="449" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C449">
         <f t="shared" si="6"/>
@@ -9342,10 +9386,10 @@
     </row>
     <row r="450" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C450">
         <f t="shared" ref="C450:C513" si="7">LEN(B450)</f>
@@ -9354,10 +9398,10 @@
     </row>
     <row r="451" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="C451">
         <f t="shared" si="7"/>
@@ -9367,15 +9411,15 @@
         <v>20170515</v>
       </c>
       <c r="E451" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="452" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C452">
         <f t="shared" si="7"/>
@@ -9384,10 +9428,10 @@
     </row>
     <row r="453" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C453">
         <f t="shared" si="7"/>
@@ -9396,10 +9440,10 @@
     </row>
     <row r="454" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C454">
         <f t="shared" si="7"/>
@@ -9408,10 +9452,10 @@
     </row>
     <row r="455" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C455">
         <f t="shared" si="7"/>
@@ -9420,10 +9464,10 @@
     </row>
     <row r="456" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C456">
         <f t="shared" si="7"/>
@@ -9432,10 +9476,10 @@
     </row>
     <row r="457" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C457">
         <f t="shared" si="7"/>
@@ -9444,10 +9488,10 @@
     </row>
     <row r="458" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C458">
         <f t="shared" si="7"/>
@@ -9456,10 +9500,10 @@
     </row>
     <row r="459" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C459">
         <f t="shared" si="7"/>
@@ -9468,10 +9512,10 @@
     </row>
     <row r="460" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C460">
         <f t="shared" si="7"/>
@@ -9480,10 +9524,10 @@
     </row>
     <row r="461" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C461">
         <f t="shared" si="7"/>
@@ -9492,10 +9536,10 @@
     </row>
     <row r="462" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C462">
         <f t="shared" si="7"/>
@@ -9504,10 +9548,10 @@
     </row>
     <row r="463" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="C463">
         <f t="shared" si="7"/>
@@ -9517,15 +9561,15 @@
         <v>20170515</v>
       </c>
       <c r="E463" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="464" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C464">
         <f t="shared" si="7"/>
@@ -9534,10 +9578,10 @@
     </row>
     <row r="465" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C465">
         <f t="shared" si="7"/>
@@ -9546,10 +9590,10 @@
     </row>
     <row r="466" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C466">
         <f t="shared" si="7"/>
@@ -9558,10 +9602,10 @@
     </row>
     <row r="467" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C467">
         <f t="shared" si="7"/>
@@ -9570,10 +9614,10 @@
     </row>
     <row r="468" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C468">
         <f t="shared" si="7"/>
@@ -9582,10 +9626,10 @@
     </row>
     <row r="469" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C469">
         <f t="shared" si="7"/>
@@ -9594,10 +9638,10 @@
     </row>
     <row r="470" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C470">
         <f t="shared" si="7"/>
@@ -9606,10 +9650,10 @@
     </row>
     <row r="471" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C471">
         <f t="shared" si="7"/>
@@ -9618,10 +9662,10 @@
     </row>
     <row r="472" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C472">
         <f t="shared" si="7"/>
@@ -9630,10 +9674,10 @@
     </row>
     <row r="473" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C473">
         <f t="shared" si="7"/>
@@ -9642,10 +9686,10 @@
     </row>
     <row r="474" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C474">
         <f t="shared" si="7"/>
@@ -9654,10 +9698,10 @@
     </row>
     <row r="475" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C475">
         <f t="shared" si="7"/>
@@ -9666,10 +9710,10 @@
     </row>
     <row r="476" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C476">
         <f t="shared" si="7"/>
@@ -9678,10 +9722,10 @@
     </row>
     <row r="477" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C477">
         <f t="shared" si="7"/>
@@ -9690,10 +9734,10 @@
     </row>
     <row r="478" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C478">
         <f t="shared" si="7"/>
@@ -9702,10 +9746,10 @@
     </row>
     <row r="479" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C479">
         <f t="shared" si="7"/>
@@ -9714,10 +9758,10 @@
     </row>
     <row r="480" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C480">
         <f t="shared" si="7"/>
@@ -9726,10 +9770,10 @@
     </row>
     <row r="481" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C481">
         <f t="shared" si="7"/>
@@ -9738,10 +9782,10 @@
     </row>
     <row r="482" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C482">
         <f t="shared" si="7"/>
@@ -9750,10 +9794,10 @@
     </row>
     <row r="483" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C483">
         <f t="shared" si="7"/>
@@ -9762,10 +9806,10 @@
     </row>
     <row r="484" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C484">
         <f t="shared" si="7"/>
@@ -9774,10 +9818,10 @@
     </row>
     <row r="485" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C485">
         <f t="shared" si="7"/>
@@ -9786,10 +9830,10 @@
     </row>
     <row r="486" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="C486">
         <f t="shared" si="7"/>
@@ -9799,15 +9843,15 @@
         <v>20170515</v>
       </c>
       <c r="E486" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C487">
         <f t="shared" si="7"/>
@@ -9816,10 +9860,10 @@
     </row>
     <row r="488" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C488">
         <f t="shared" si="7"/>
@@ -9828,10 +9872,10 @@
     </row>
     <row r="489" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C489">
         <f t="shared" si="7"/>
@@ -9840,10 +9884,10 @@
     </row>
     <row r="490" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C490">
         <f t="shared" si="7"/>
@@ -9852,10 +9896,10 @@
     </row>
     <row r="491" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C491">
         <f t="shared" si="7"/>
@@ -9864,10 +9908,10 @@
     </row>
     <row r="492" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C492">
         <f t="shared" si="7"/>
@@ -9876,10 +9920,10 @@
     </row>
     <row r="493" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C493">
         <f t="shared" si="7"/>
@@ -9888,10 +9932,10 @@
     </row>
     <row r="494" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C494">
         <f t="shared" si="7"/>
@@ -9900,10 +9944,10 @@
     </row>
     <row r="495" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C495">
         <f t="shared" si="7"/>
@@ -9912,10 +9956,10 @@
     </row>
     <row r="496" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C496">
         <f t="shared" si="7"/>
@@ -9924,10 +9968,10 @@
     </row>
     <row r="497" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C497">
         <f t="shared" si="7"/>
@@ -9936,10 +9980,10 @@
     </row>
     <row r="498" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C498">
         <f t="shared" si="7"/>
@@ -9948,10 +9992,10 @@
     </row>
     <row r="499" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C499">
         <f t="shared" si="7"/>
@@ -9961,15 +10005,15 @@
         <v>20170515</v>
       </c>
       <c r="E499" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="500" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C500">
         <f t="shared" si="7"/>
@@ -9978,10 +10022,10 @@
     </row>
     <row r="501" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C501">
         <f t="shared" si="7"/>
@@ -9990,10 +10034,10 @@
     </row>
     <row r="502" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C502">
         <f t="shared" si="7"/>
@@ -10002,10 +10046,10 @@
     </row>
     <row r="503" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C503">
         <f t="shared" si="7"/>
@@ -10014,10 +10058,10 @@
     </row>
     <row r="504" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C504">
         <f t="shared" si="7"/>
@@ -10026,10 +10070,10 @@
     </row>
     <row r="505" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C505">
         <f t="shared" si="7"/>
@@ -10038,10 +10082,10 @@
     </row>
     <row r="506" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C506">
         <f t="shared" si="7"/>
@@ -10050,10 +10094,10 @@
     </row>
     <row r="507" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C507">
         <f t="shared" si="7"/>
@@ -10062,10 +10106,10 @@
     </row>
     <row r="508" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C508">
         <f t="shared" si="7"/>
@@ -10074,10 +10118,10 @@
     </row>
     <row r="509" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C509">
         <f t="shared" si="7"/>
@@ -10086,10 +10130,10 @@
     </row>
     <row r="510" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C510">
         <f t="shared" si="7"/>
@@ -10098,10 +10142,10 @@
     </row>
     <row r="511" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C511">
         <f t="shared" si="7"/>
@@ -10110,10 +10154,10 @@
     </row>
     <row r="512" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C512">
         <f t="shared" si="7"/>
@@ -10122,10 +10166,10 @@
     </row>
     <row r="513" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C513">
         <f t="shared" si="7"/>
@@ -10134,10 +10178,10 @@
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C514">
         <f t="shared" ref="C514:C530" si="8">LEN(B514)</f>
@@ -10146,10 +10190,10 @@
     </row>
     <row r="515" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C515">
         <f t="shared" si="8"/>
@@ -10158,10 +10202,10 @@
     </row>
     <row r="516" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C516">
         <f t="shared" si="8"/>
@@ -10170,10 +10214,10 @@
     </row>
     <row r="517" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C517">
         <f t="shared" si="8"/>
@@ -10182,10 +10226,10 @@
     </row>
     <row r="518" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C518">
         <f t="shared" si="8"/>
@@ -10194,10 +10238,10 @@
     </row>
     <row r="519" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C519">
         <f t="shared" si="8"/>
@@ -10206,10 +10250,10 @@
     </row>
     <row r="520" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C520">
         <f t="shared" si="8"/>
@@ -10218,10 +10262,10 @@
     </row>
     <row r="521" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C521">
         <f t="shared" si="8"/>
@@ -10230,10 +10274,10 @@
     </row>
     <row r="522" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C522">
         <f t="shared" si="8"/>
@@ -10242,10 +10286,10 @@
     </row>
     <row r="523" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C523">
         <f t="shared" si="8"/>
@@ -10254,10 +10298,10 @@
     </row>
     <row r="524" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C524">
         <f t="shared" si="8"/>
@@ -10266,10 +10310,10 @@
     </row>
     <row r="525" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C525">
         <f t="shared" si="8"/>
@@ -10278,10 +10322,10 @@
     </row>
     <row r="526" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C526">
         <f t="shared" si="8"/>
@@ -10290,10 +10334,10 @@
     </row>
     <row r="527" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C527">
         <f t="shared" si="8"/>
@@ -10302,10 +10346,10 @@
     </row>
     <row r="528" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C528">
         <f t="shared" si="8"/>
@@ -10314,10 +10358,10 @@
     </row>
     <row r="529" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C529">
         <f t="shared" si="8"/>
@@ -10326,10 +10370,10 @@
     </row>
     <row r="530" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C530">
         <f t="shared" si="8"/>

--- a/tweetlist.xlsx
+++ b/tweetlist.xlsx
@@ -1014,9 +1014,6 @@
   </si>
   <si>
     <t xml:space="preserve">【今日の人工衛星】8/20 1975年：バイキング1号 火星探査機。着陸船は翌1976年7月20日に着陸。ほとんどの実験を完了 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">【今日の人工衛星】8/20 1977年：ボイジャー2号 宇宙探査機。木星・土星・天王星・海王星のグランドツアーを始めて実現した探査機 </t>
   </si>
   <si>
     <t xml:space="preserve">【今日の人工衛星】8/21 1965年：ジェミニ5号 ジェミニ計画5回目の飛行 2009年：JCSAT-RA スカパーJSATの通信衛星、予備衛星として軌道上で待機中(日本時間は8/22打上) </t>
@@ -3542,6 +3539,13 @@
     </rPh>
     <rPh sb="113" eb="114">
       <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【今日の人工衛星】8/20 1977年：ボイジャー2号 宇宙探査機。木星・土星・天王星・海王星のグランドツアーを初めて実現した探査機 </t>
+    <rPh sb="56" eb="57">
+      <t>ハジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3895,8 +3899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E530"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A317" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B324" sqref="B324"/>
+    <sheetView tabSelected="1" topLeftCell="A344" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B351" sqref="B351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -3908,7 +3912,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3920,7 +3924,7 @@
     </row>
     <row r="2" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -3932,7 +3936,7 @@
     </row>
     <row r="3" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -3944,7 +3948,7 @@
     </row>
     <row r="4" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -3956,7 +3960,7 @@
     </row>
     <row r="5" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -3968,7 +3972,7 @@
     </row>
     <row r="6" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
@@ -3980,7 +3984,7 @@
     </row>
     <row r="7" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
@@ -3992,7 +3996,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
@@ -4004,7 +4008,7 @@
     </row>
     <row r="9" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>8</v>
@@ -4016,7 +4020,7 @@
     </row>
     <row r="10" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -4028,7 +4032,7 @@
     </row>
     <row r="11" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>10</v>
@@ -4040,7 +4044,7 @@
     </row>
     <row r="12" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
@@ -4052,7 +4056,7 @@
     </row>
     <row r="13" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
@@ -4064,7 +4068,7 @@
     </row>
     <row r="14" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>13</v>
@@ -4076,7 +4080,7 @@
     </row>
     <row r="15" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>14</v>
@@ -4088,7 +4092,7 @@
     </row>
     <row r="16" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>15</v>
@@ -4100,7 +4104,7 @@
     </row>
     <row r="17" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>16</v>
@@ -4112,7 +4116,7 @@
     </row>
     <row r="18" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>17</v>
@@ -4124,7 +4128,7 @@
     </row>
     <row r="19" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>18</v>
@@ -4136,7 +4140,7 @@
     </row>
     <row r="20" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>19</v>
@@ -4148,7 +4152,7 @@
     </row>
     <row r="21" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>20</v>
@@ -4160,7 +4164,7 @@
     </row>
     <row r="22" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>21</v>
@@ -4172,7 +4176,7 @@
     </row>
     <row r="23" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>22</v>
@@ -4184,7 +4188,7 @@
     </row>
     <row r="24" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>23</v>
@@ -4196,7 +4200,7 @@
     </row>
     <row r="25" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>24</v>
@@ -4208,7 +4212,7 @@
     </row>
     <row r="26" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>25</v>
@@ -4220,7 +4224,7 @@
     </row>
     <row r="27" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>26</v>
@@ -4232,7 +4236,7 @@
     </row>
     <row r="28" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>27</v>
@@ -4244,7 +4248,7 @@
     </row>
     <row r="29" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>28</v>
@@ -4256,7 +4260,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>29</v>
@@ -4268,7 +4272,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>30</v>
@@ -4280,7 +4284,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>31</v>
@@ -4292,7 +4296,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>32</v>
@@ -4304,7 +4308,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>33</v>
@@ -4316,7 +4320,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>34</v>
@@ -4328,7 +4332,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>35</v>
@@ -4340,7 +4344,7 @@
     </row>
     <row r="37" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>36</v>
@@ -4352,7 +4356,7 @@
     </row>
     <row r="38" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>37</v>
@@ -4364,7 +4368,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>38</v>
@@ -4376,7 +4380,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>39</v>
@@ -4388,7 +4392,7 @@
     </row>
     <row r="41" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>40</v>
@@ -4400,7 +4404,7 @@
     </row>
     <row r="42" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>41</v>
@@ -4412,7 +4416,7 @@
     </row>
     <row r="43" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>42</v>
@@ -4424,7 +4428,7 @@
     </row>
     <row r="44" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>43</v>
@@ -4436,7 +4440,7 @@
     </row>
     <row r="45" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>44</v>
@@ -4448,7 +4452,7 @@
     </row>
     <row r="46" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>45</v>
@@ -4460,7 +4464,7 @@
     </row>
     <row r="47" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>46</v>
@@ -4472,7 +4476,7 @@
     </row>
     <row r="48" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>47</v>
@@ -4484,7 +4488,7 @@
     </row>
     <row r="49" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>48</v>
@@ -4496,7 +4500,7 @@
     </row>
     <row r="50" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>49</v>
@@ -4508,10 +4512,10 @@
     </row>
     <row r="51" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
@@ -4521,12 +4525,12 @@
         <v>20170515</v>
       </c>
       <c r="E51" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>50</v>
@@ -4538,7 +4542,7 @@
     </row>
     <row r="53" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>51</v>
@@ -4550,7 +4554,7 @@
     </row>
     <row r="54" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>52</v>
@@ -4562,7 +4566,7 @@
     </row>
     <row r="55" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>53</v>
@@ -4574,7 +4578,7 @@
     </row>
     <row r="56" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>54</v>
@@ -4586,7 +4590,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>55</v>
@@ -4598,7 +4602,7 @@
     </row>
     <row r="58" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>56</v>
@@ -4610,7 +4614,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>57</v>
@@ -4622,7 +4626,7 @@
     </row>
     <row r="60" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>58</v>
@@ -4634,7 +4638,7 @@
     </row>
     <row r="61" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>59</v>
@@ -4646,7 +4650,7 @@
     </row>
     <row r="62" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>60</v>
@@ -4658,7 +4662,7 @@
     </row>
     <row r="63" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>61</v>
@@ -4670,7 +4674,7 @@
     </row>
     <row r="64" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>62</v>
@@ -4682,7 +4686,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>63</v>
@@ -4694,7 +4698,7 @@
     </row>
     <row r="66" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>64</v>
@@ -4706,7 +4710,7 @@
     </row>
     <row r="67" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>65</v>
@@ -4718,7 +4722,7 @@
     </row>
     <row r="68" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>66</v>
@@ -4730,7 +4734,7 @@
     </row>
     <row r="69" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>67</v>
@@ -4742,7 +4746,7 @@
     </row>
     <row r="70" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>68</v>
@@ -4754,7 +4758,7 @@
     </row>
     <row r="71" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>69</v>
@@ -4766,7 +4770,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>70</v>
@@ -4778,7 +4782,7 @@
     </row>
     <row r="73" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>71</v>
@@ -4790,7 +4794,7 @@
     </row>
     <row r="74" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>72</v>
@@ -4802,7 +4806,7 @@
     </row>
     <row r="75" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>73</v>
@@ -4814,7 +4818,7 @@
     </row>
     <row r="76" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>74</v>
@@ -4826,7 +4830,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>75</v>
@@ -4838,7 +4842,7 @@
     </row>
     <row r="78" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>76</v>
@@ -4850,7 +4854,7 @@
     </row>
     <row r="79" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>77</v>
@@ -4862,7 +4866,7 @@
     </row>
     <row r="80" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>78</v>
@@ -4874,7 +4878,7 @@
     </row>
     <row r="81" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>79</v>
@@ -4886,7 +4890,7 @@
     </row>
     <row r="82" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>80</v>
@@ -4898,10 +4902,10 @@
     </row>
     <row r="83" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C83">
         <f t="shared" si="1"/>
@@ -4911,12 +4915,12 @@
         <v>20170515</v>
       </c>
       <c r="E83" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>81</v>
@@ -4928,7 +4932,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>82</v>
@@ -4940,7 +4944,7 @@
     </row>
     <row r="86" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>83</v>
@@ -4952,7 +4956,7 @@
     </row>
     <row r="87" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>84</v>
@@ -4964,7 +4968,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>85</v>
@@ -4976,7 +4980,7 @@
     </row>
     <row r="89" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>86</v>
@@ -4988,7 +4992,7 @@
     </row>
     <row r="90" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>87</v>
@@ -5000,7 +5004,7 @@
     </row>
     <row r="91" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>88</v>
@@ -5012,7 +5016,7 @@
     </row>
     <row r="92" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>89</v>
@@ -5024,7 +5028,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>90</v>
@@ -5036,7 +5040,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>91</v>
@@ -5048,7 +5052,7 @@
     </row>
     <row r="95" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>92</v>
@@ -5060,7 +5064,7 @@
     </row>
     <row r="96" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>93</v>
@@ -5072,7 +5076,7 @@
     </row>
     <row r="97" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>94</v>
@@ -5084,7 +5088,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>95</v>
@@ -5096,7 +5100,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>96</v>
@@ -5108,7 +5112,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>97</v>
@@ -5120,7 +5124,7 @@
     </row>
     <row r="101" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>98</v>
@@ -5132,7 +5136,7 @@
     </row>
     <row r="102" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>99</v>
@@ -5144,7 +5148,7 @@
     </row>
     <row r="103" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>100</v>
@@ -5156,7 +5160,7 @@
     </row>
     <row r="104" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>101</v>
@@ -5168,7 +5172,7 @@
     </row>
     <row r="105" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>102</v>
@@ -5180,7 +5184,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>103</v>
@@ -5192,7 +5196,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>104</v>
@@ -5204,7 +5208,7 @@
     </row>
     <row r="108" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>105</v>
@@ -5216,7 +5220,7 @@
     </row>
     <row r="109" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>106</v>
@@ -5228,7 +5232,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>107</v>
@@ -5240,7 +5244,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>108</v>
@@ -5252,7 +5256,7 @@
     </row>
     <row r="112" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>109</v>
@@ -5264,7 +5268,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>110</v>
@@ -5276,7 +5280,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>111</v>
@@ -5288,7 +5292,7 @@
     </row>
     <row r="115" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>112</v>
@@ -5300,7 +5304,7 @@
     </row>
     <row r="116" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>113</v>
@@ -5312,7 +5316,7 @@
     </row>
     <row r="117" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>114</v>
@@ -5324,7 +5328,7 @@
     </row>
     <row r="118" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>115</v>
@@ -5336,7 +5340,7 @@
     </row>
     <row r="119" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>116</v>
@@ -5348,7 +5352,7 @@
     </row>
     <row r="120" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>117</v>
@@ -5360,7 +5364,7 @@
     </row>
     <row r="121" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>118</v>
@@ -5372,7 +5376,7 @@
     </row>
     <row r="122" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>119</v>
@@ -5384,10 +5388,10 @@
     </row>
     <row r="123" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>1053</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>1054</v>
       </c>
       <c r="C123">
         <f t="shared" si="1"/>
@@ -5397,12 +5401,12 @@
         <v>20170515</v>
       </c>
       <c r="E123" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>120</v>
@@ -5414,10 +5418,10 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C125">
         <f t="shared" si="1"/>
@@ -5427,7 +5431,7 @@
         <v>20170515</v>
       </c>
       <c r="E125" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -5456,7 +5460,7 @@
     </row>
     <row r="128" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>125</v>
@@ -5468,10 +5472,10 @@
     </row>
     <row r="129" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C129">
         <f t="shared" si="1"/>
@@ -5481,12 +5485,12 @@
         <v>20170515</v>
       </c>
       <c r="E129" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>126</v>
@@ -5498,7 +5502,7 @@
     </row>
     <row r="131" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>127</v>
@@ -5510,7 +5514,7 @@
     </row>
     <row r="132" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>128</v>
@@ -5522,7 +5526,7 @@
     </row>
     <row r="133" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>129</v>
@@ -5534,10 +5538,10 @@
     </row>
     <row r="134" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C134">
         <f t="shared" si="2"/>
@@ -5547,12 +5551,12 @@
         <v>20170515</v>
       </c>
       <c r="E134" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>130</v>
@@ -5564,10 +5568,10 @@
     </row>
     <row r="136" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C136">
         <f t="shared" si="2"/>
@@ -5577,12 +5581,12 @@
         <v>20170515</v>
       </c>
       <c r="E136" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>131</v>
@@ -5594,7 +5598,7 @@
     </row>
     <row r="138" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>132</v>
@@ -5606,7 +5610,7 @@
     </row>
     <row r="139" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>133</v>
@@ -5618,7 +5622,7 @@
     </row>
     <row r="140" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>134</v>
@@ -5630,7 +5634,7 @@
     </row>
     <row r="141" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>135</v>
@@ -5642,7 +5646,7 @@
     </row>
     <row r="142" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>136</v>
@@ -5654,7 +5658,7 @@
     </row>
     <row r="143" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>137</v>
@@ -5666,7 +5670,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>138</v>
@@ -5678,7 +5682,7 @@
     </row>
     <row r="145" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>139</v>
@@ -5690,7 +5694,7 @@
     </row>
     <row r="146" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>140</v>
@@ -5702,7 +5706,7 @@
     </row>
     <row r="147" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>141</v>
@@ -5714,7 +5718,7 @@
     </row>
     <row r="148" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>142</v>
@@ -5726,7 +5730,7 @@
     </row>
     <row r="149" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>143</v>
@@ -5738,7 +5742,7 @@
     </row>
     <row r="150" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>144</v>
@@ -5750,10 +5754,10 @@
     </row>
     <row r="151" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C151">
         <f t="shared" si="2"/>
@@ -5762,7 +5766,7 @@
     </row>
     <row r="152" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>145</v>
@@ -5774,7 +5778,7 @@
     </row>
     <row r="153" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>146</v>
@@ -5786,7 +5790,7 @@
     </row>
     <row r="154" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>147</v>
@@ -5798,7 +5802,7 @@
     </row>
     <row r="155" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>148</v>
@@ -5810,7 +5814,7 @@
     </row>
     <row r="156" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>149</v>
@@ -5822,7 +5826,7 @@
     </row>
     <row r="157" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>150</v>
@@ -5834,7 +5838,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>151</v>
@@ -5846,10 +5850,10 @@
     </row>
     <row r="159" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C159">
         <f t="shared" si="2"/>
@@ -5859,12 +5863,12 @@
         <v>20170515</v>
       </c>
       <c r="E159" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>152</v>
@@ -5876,7 +5880,7 @@
     </row>
     <row r="161" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>153</v>
@@ -5888,7 +5892,7 @@
     </row>
     <row r="162" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>154</v>
@@ -5900,7 +5904,7 @@
     </row>
     <row r="163" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>155</v>
@@ -5912,7 +5916,7 @@
     </row>
     <row r="164" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>156</v>
@@ -5924,7 +5928,7 @@
     </row>
     <row r="165" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>157</v>
@@ -5936,7 +5940,7 @@
     </row>
     <row r="166" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>158</v>
@@ -5948,7 +5952,7 @@
     </row>
     <row r="167" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>159</v>
@@ -5960,7 +5964,7 @@
     </row>
     <row r="168" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>160</v>
@@ -5972,7 +5976,7 @@
     </row>
     <row r="169" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>161</v>
@@ -5984,7 +5988,7 @@
     </row>
     <row r="170" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>162</v>
@@ -5996,7 +6000,7 @@
     </row>
     <row r="171" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>163</v>
@@ -6008,7 +6012,7 @@
     </row>
     <row r="172" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>164</v>
@@ -6020,10 +6024,10 @@
     </row>
     <row r="173" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C173">
         <f t="shared" si="2"/>
@@ -6033,12 +6037,12 @@
         <v>20170515</v>
       </c>
       <c r="E173" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>165</v>
@@ -6050,7 +6054,7 @@
     </row>
     <row r="175" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>166</v>
@@ -6062,7 +6066,7 @@
     </row>
     <row r="176" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>167</v>
@@ -6074,7 +6078,7 @@
     </row>
     <row r="177" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>168</v>
@@ -6086,7 +6090,7 @@
     </row>
     <row r="178" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>169</v>
@@ -6098,7 +6102,7 @@
     </row>
     <row r="179" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>170</v>
@@ -6110,7 +6114,7 @@
     </row>
     <row r="180" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>171</v>
@@ -6122,7 +6126,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>172</v>
@@ -6134,7 +6138,7 @@
     </row>
     <row r="182" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>173</v>
@@ -6146,7 +6150,7 @@
     </row>
     <row r="183" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>174</v>
@@ -6158,7 +6162,7 @@
     </row>
     <row r="184" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>175</v>
@@ -6170,7 +6174,7 @@
     </row>
     <row r="185" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>176</v>
@@ -6182,7 +6186,7 @@
     </row>
     <row r="186" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>177</v>
@@ -6194,7 +6198,7 @@
     </row>
     <row r="187" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>178</v>
@@ -6206,7 +6210,7 @@
     </row>
     <row r="188" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>179</v>
@@ -6218,7 +6222,7 @@
     </row>
     <row r="189" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>180</v>
@@ -6230,7 +6234,7 @@
     </row>
     <row r="190" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>181</v>
@@ -6242,7 +6246,7 @@
     </row>
     <row r="191" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>182</v>
@@ -6254,7 +6258,7 @@
     </row>
     <row r="192" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>183</v>
@@ -6266,7 +6270,7 @@
     </row>
     <row r="193" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>184</v>
@@ -6279,12 +6283,12 @@
         <v>20170515</v>
       </c>
       <c r="E193" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>185</v>
@@ -6296,7 +6300,7 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>186</v>
@@ -6308,7 +6312,7 @@
     </row>
     <row r="196" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>187</v>
@@ -6320,7 +6324,7 @@
     </row>
     <row r="197" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>188</v>
@@ -6332,7 +6336,7 @@
     </row>
     <row r="198" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>189</v>
@@ -6344,7 +6348,7 @@
     </row>
     <row r="199" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>190</v>
@@ -6356,7 +6360,7 @@
     </row>
     <row r="200" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>191</v>
@@ -6368,7 +6372,7 @@
     </row>
     <row r="201" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>192</v>
@@ -6380,7 +6384,7 @@
     </row>
     <row r="202" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>193</v>
@@ -6392,7 +6396,7 @@
     </row>
     <row r="203" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>194</v>
@@ -6404,7 +6408,7 @@
     </row>
     <row r="204" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>195</v>
@@ -6416,7 +6420,7 @@
     </row>
     <row r="205" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>196</v>
@@ -6428,7 +6432,7 @@
     </row>
     <row r="206" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>197</v>
@@ -6440,7 +6444,7 @@
     </row>
     <row r="207" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>198</v>
@@ -6452,7 +6456,7 @@
     </row>
     <row r="208" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>199</v>
@@ -6464,7 +6468,7 @@
     </row>
     <row r="209" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>200</v>
@@ -6476,7 +6480,7 @@
     </row>
     <row r="210" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>201</v>
@@ -6488,7 +6492,7 @@
     </row>
     <row r="211" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>202</v>
@@ -6500,7 +6504,7 @@
     </row>
     <row r="212" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>203</v>
@@ -6512,7 +6516,7 @@
     </row>
     <row r="213" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>204</v>
@@ -6524,7 +6528,7 @@
     </row>
     <row r="214" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>205</v>
@@ -6536,7 +6540,7 @@
     </row>
     <row r="215" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>206</v>
@@ -6548,7 +6552,7 @@
     </row>
     <row r="216" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>207</v>
@@ -6560,7 +6564,7 @@
     </row>
     <row r="217" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>208</v>
@@ -6572,10 +6576,10 @@
     </row>
     <row r="218" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C218">
         <f t="shared" si="3"/>
@@ -6584,7 +6588,7 @@
     </row>
     <row r="219" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>209</v>
@@ -6596,7 +6600,7 @@
     </row>
     <row r="220" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>210</v>
@@ -6608,7 +6612,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>211</v>
@@ -6620,7 +6624,7 @@
     </row>
     <row r="222" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>212</v>
@@ -6632,7 +6636,7 @@
     </row>
     <row r="223" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>213</v>
@@ -6644,7 +6648,7 @@
     </row>
     <row r="224" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>214</v>
@@ -6656,7 +6660,7 @@
     </row>
     <row r="225" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>215</v>
@@ -6668,7 +6672,7 @@
     </row>
     <row r="226" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>216</v>
@@ -6680,7 +6684,7 @@
     </row>
     <row r="227" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>217</v>
@@ -6692,7 +6696,7 @@
     </row>
     <row r="228" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>218</v>
@@ -6704,7 +6708,7 @@
     </row>
     <row r="229" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>219</v>
@@ -6716,7 +6720,7 @@
     </row>
     <row r="230" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>220</v>
@@ -6728,7 +6732,7 @@
     </row>
     <row r="231" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>221</v>
@@ -6740,7 +6744,7 @@
     </row>
     <row r="232" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>222</v>
@@ -6752,7 +6756,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>223</v>
@@ -6764,7 +6768,7 @@
     </row>
     <row r="234" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>224</v>
@@ -6776,7 +6780,7 @@
     </row>
     <row r="235" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>225</v>
@@ -6788,7 +6792,7 @@
     </row>
     <row r="236" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>226</v>
@@ -6800,7 +6804,7 @@
     </row>
     <row r="237" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>227</v>
@@ -6812,7 +6816,7 @@
     </row>
     <row r="238" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>228</v>
@@ -6824,7 +6828,7 @@
     </row>
     <row r="239" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>229</v>
@@ -6836,7 +6840,7 @@
     </row>
     <row r="240" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>230</v>
@@ -6848,7 +6852,7 @@
     </row>
     <row r="241" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>231</v>
@@ -6860,7 +6864,7 @@
     </row>
     <row r="242" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>232</v>
@@ -6872,7 +6876,7 @@
     </row>
     <row r="243" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>233</v>
@@ -6884,7 +6888,7 @@
     </row>
     <row r="244" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>234</v>
@@ -6896,7 +6900,7 @@
     </row>
     <row r="245" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>235</v>
@@ -6908,7 +6912,7 @@
     </row>
     <row r="246" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>236</v>
@@ -6920,7 +6924,7 @@
     </row>
     <row r="247" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>237</v>
@@ -6932,7 +6936,7 @@
     </row>
     <row r="248" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>238</v>
@@ -6944,10 +6948,10 @@
     </row>
     <row r="249" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C249">
         <f t="shared" si="3"/>
@@ -6956,7 +6960,7 @@
     </row>
     <row r="250" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>239</v>
@@ -6968,7 +6972,7 @@
     </row>
     <row r="251" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>240</v>
@@ -6980,7 +6984,7 @@
     </row>
     <row r="252" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>241</v>
@@ -6992,7 +6996,7 @@
     </row>
     <row r="253" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>242</v>
@@ -7004,10 +7008,10 @@
     </row>
     <row r="254" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C254">
         <f t="shared" si="3"/>
@@ -7017,12 +7021,12 @@
         <v>20170515</v>
       </c>
       <c r="E254" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="255" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>243</v>
@@ -7034,10 +7038,10 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C256">
         <f t="shared" si="3"/>
@@ -7046,10 +7050,10 @@
     </row>
     <row r="257" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C257">
         <f t="shared" si="3"/>
@@ -7058,10 +7062,10 @@
     </row>
     <row r="258" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C258">
         <f t="shared" ref="C258:C321" si="4">LEN(B258)</f>
@@ -7070,10 +7074,10 @@
     </row>
     <row r="259" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C259">
         <f t="shared" si="4"/>
@@ -7082,7 +7086,7 @@
     </row>
     <row r="260" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>244</v>
@@ -7094,7 +7098,7 @@
     </row>
     <row r="261" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>245</v>
@@ -7106,7 +7110,7 @@
     </row>
     <row r="262" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>246</v>
@@ -7118,7 +7122,7 @@
     </row>
     <row r="263" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>247</v>
@@ -7130,7 +7134,7 @@
     </row>
     <row r="264" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>248</v>
@@ -7142,7 +7146,7 @@
     </row>
     <row r="265" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>249</v>
@@ -7154,7 +7158,7 @@
     </row>
     <row r="266" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>250</v>
@@ -7166,7 +7170,7 @@
     </row>
     <row r="267" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>251</v>
@@ -7178,7 +7182,7 @@
     </row>
     <row r="268" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>252</v>
@@ -7190,7 +7194,7 @@
     </row>
     <row r="269" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>253</v>
@@ -7202,7 +7206,7 @@
     </row>
     <row r="270" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>254</v>
@@ -7214,7 +7218,7 @@
     </row>
     <row r="271" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>255</v>
@@ -7226,7 +7230,7 @@
     </row>
     <row r="272" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>256</v>
@@ -7238,7 +7242,7 @@
     </row>
     <row r="273" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>257</v>
@@ -7250,7 +7254,7 @@
     </row>
     <row r="274" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>258</v>
@@ -7262,7 +7266,7 @@
     </row>
     <row r="275" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>259</v>
@@ -7274,7 +7278,7 @@
     </row>
     <row r="276" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>260</v>
@@ -7286,7 +7290,7 @@
     </row>
     <row r="277" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>261</v>
@@ -7298,7 +7302,7 @@
     </row>
     <row r="278" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>262</v>
@@ -7310,7 +7314,7 @@
     </row>
     <row r="279" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>263</v>
@@ -7322,7 +7326,7 @@
     </row>
     <row r="280" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>264</v>
@@ -7334,7 +7338,7 @@
     </row>
     <row r="281" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>265</v>
@@ -7346,7 +7350,7 @@
     </row>
     <row r="282" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>266</v>
@@ -7358,7 +7362,7 @@
     </row>
     <row r="283" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>267</v>
@@ -7370,7 +7374,7 @@
     </row>
     <row r="284" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>268</v>
@@ -7382,7 +7386,7 @@
     </row>
     <row r="285" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>269</v>
@@ -7394,7 +7398,7 @@
     </row>
     <row r="286" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>270</v>
@@ -7406,7 +7410,7 @@
     </row>
     <row r="287" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>271</v>
@@ -7418,7 +7422,7 @@
     </row>
     <row r="288" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>272</v>
@@ -7430,7 +7434,7 @@
     </row>
     <row r="289" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>273</v>
@@ -7442,7 +7446,7 @@
     </row>
     <row r="290" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>274</v>
@@ -7454,10 +7458,10 @@
     </row>
     <row r="291" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C291">
         <f t="shared" si="4"/>
@@ -7467,15 +7471,15 @@
         <v>20170515</v>
       </c>
       <c r="E291" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C292">
         <f t="shared" si="4"/>
@@ -7485,12 +7489,12 @@
         <v>20170515</v>
       </c>
       <c r="E292" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>275</v>
@@ -7502,7 +7506,7 @@
     </row>
     <row r="294" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>276</v>
@@ -7514,7 +7518,7 @@
     </row>
     <row r="295" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>277</v>
@@ -7526,7 +7530,7 @@
     </row>
     <row r="296" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>278</v>
@@ -7538,7 +7542,7 @@
     </row>
     <row r="297" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>279</v>
@@ -7550,10 +7554,10 @@
     </row>
     <row r="298" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C298">
         <f t="shared" si="4"/>
@@ -7563,12 +7567,12 @@
         <v>20170515</v>
       </c>
       <c r="E298" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>280</v>
@@ -7580,7 +7584,7 @@
     </row>
     <row r="300" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>281</v>
@@ -7592,7 +7596,7 @@
     </row>
     <row r="301" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>282</v>
@@ -7604,7 +7608,7 @@
     </row>
     <row r="302" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>283</v>
@@ -7616,7 +7620,7 @@
     </row>
     <row r="303" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>284</v>
@@ -7628,7 +7632,7 @@
     </row>
     <row r="304" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>285</v>
@@ -7640,7 +7644,7 @@
     </row>
     <row r="305" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>286</v>
@@ -7652,7 +7656,7 @@
     </row>
     <row r="306" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>287</v>
@@ -7664,7 +7668,7 @@
     </row>
     <row r="307" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>288</v>
@@ -7676,7 +7680,7 @@
     </row>
     <row r="308" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>289</v>
@@ -7688,7 +7692,7 @@
     </row>
     <row r="309" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>290</v>
@@ -7700,7 +7704,7 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>291</v>
@@ -7712,7 +7716,7 @@
     </row>
     <row r="311" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>292</v>
@@ -7724,7 +7728,7 @@
     </row>
     <row r="312" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>293</v>
@@ -7736,7 +7740,7 @@
     </row>
     <row r="313" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>294</v>
@@ -7748,7 +7752,7 @@
     </row>
     <row r="314" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>295</v>
@@ -7760,7 +7764,7 @@
     </row>
     <row r="315" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>296</v>
@@ -7772,7 +7776,7 @@
     </row>
     <row r="316" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>297</v>
@@ -7784,7 +7788,7 @@
     </row>
     <row r="317" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>298</v>
@@ -7796,7 +7800,7 @@
     </row>
     <row r="318" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>299</v>
@@ -7808,7 +7812,7 @@
     </row>
     <row r="319" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>300</v>
@@ -7820,7 +7824,7 @@
     </row>
     <row r="320" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>301</v>
@@ -7832,7 +7836,7 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>302</v>
@@ -7844,7 +7848,7 @@
     </row>
     <row r="322" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>303</v>
@@ -7856,10 +7860,10 @@
     </row>
     <row r="323" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C323">
         <f t="shared" si="5"/>
@@ -7868,7 +7872,7 @@
     </row>
     <row r="324" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>304</v>
@@ -7880,7 +7884,7 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>305</v>
@@ -7892,7 +7896,7 @@
     </row>
     <row r="326" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>306</v>
@@ -7904,7 +7908,7 @@
     </row>
     <row r="327" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>307</v>
@@ -7916,7 +7920,7 @@
     </row>
     <row r="328" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>308</v>
@@ -7928,7 +7932,7 @@
     </row>
     <row r="329" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>309</v>
@@ -7940,7 +7944,7 @@
     </row>
     <row r="330" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>310</v>
@@ -7952,7 +7956,7 @@
     </row>
     <row r="331" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>311</v>
@@ -7964,7 +7968,7 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>312</v>
@@ -7976,7 +7980,7 @@
     </row>
     <row r="333" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>313</v>
@@ -7988,7 +7992,7 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>314</v>
@@ -8000,7 +8004,7 @@
     </row>
     <row r="335" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>315</v>
@@ -8012,7 +8016,7 @@
     </row>
     <row r="336" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>316</v>
@@ -8024,7 +8028,7 @@
     </row>
     <row r="337" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>317</v>
@@ -8036,10 +8040,10 @@
     </row>
     <row r="338" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C338">
         <f t="shared" si="5"/>
@@ -8049,12 +8053,12 @@
         <v>20170515</v>
       </c>
       <c r="E338" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="339" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>318</v>
@@ -8066,7 +8070,7 @@
     </row>
     <row r="340" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>319</v>
@@ -8078,7 +8082,7 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>320</v>
@@ -8090,7 +8094,7 @@
     </row>
     <row r="342" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>321</v>
@@ -8102,7 +8106,7 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>322</v>
@@ -8114,7 +8118,7 @@
     </row>
     <row r="344" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>323</v>
@@ -8126,7 +8130,7 @@
     </row>
     <row r="345" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>324</v>
@@ -8138,7 +8142,7 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>325</v>
@@ -8150,7 +8154,7 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>326</v>
@@ -8162,7 +8166,7 @@
     </row>
     <row r="348" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>327</v>
@@ -8174,7 +8178,7 @@
     </row>
     <row r="349" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>328</v>
@@ -8186,10 +8190,10 @@
     </row>
     <row r="350" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>329</v>
+        <v>1058</v>
       </c>
       <c r="C350">
         <f t="shared" si="5"/>
@@ -8198,10 +8202,10 @@
     </row>
     <row r="351" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C351">
         <f t="shared" si="5"/>
@@ -8210,10 +8214,10 @@
     </row>
     <row r="352" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C352">
         <f t="shared" si="5"/>
@@ -8222,10 +8226,10 @@
     </row>
     <row r="353" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C353">
         <f t="shared" si="5"/>
@@ -8234,10 +8238,10 @@
     </row>
     <row r="354" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C354">
         <f t="shared" si="5"/>
@@ -8246,10 +8250,10 @@
     </row>
     <row r="355" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C355">
         <f t="shared" si="5"/>
@@ -8258,10 +8262,10 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C356">
         <f t="shared" si="5"/>
@@ -8270,10 +8274,10 @@
     </row>
     <row r="357" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C357">
         <f t="shared" si="5"/>
@@ -8282,10 +8286,10 @@
     </row>
     <row r="358" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C358">
         <f t="shared" si="5"/>
@@ -8294,10 +8298,10 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C359">
         <f t="shared" si="5"/>
@@ -8306,10 +8310,10 @@
     </row>
     <row r="360" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C360">
         <f t="shared" si="5"/>
@@ -8318,10 +8322,10 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C361">
         <f t="shared" si="5"/>
@@ -8330,10 +8334,10 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C362">
         <f t="shared" si="5"/>
@@ -8342,10 +8346,10 @@
     </row>
     <row r="363" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C363">
         <f t="shared" si="5"/>
@@ -8354,10 +8358,10 @@
     </row>
     <row r="364" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C364">
         <f t="shared" si="5"/>
@@ -8366,10 +8370,10 @@
     </row>
     <row r="365" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C365">
         <f t="shared" si="5"/>
@@ -8378,10 +8382,10 @@
     </row>
     <row r="366" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C366">
         <f t="shared" si="5"/>
@@ -8390,10 +8394,10 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C367">
         <f t="shared" si="5"/>
@@ -8402,10 +8406,10 @@
     </row>
     <row r="368" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C368">
         <f t="shared" si="5"/>
@@ -8414,10 +8418,10 @@
     </row>
     <row r="369" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C369">
         <f t="shared" si="5"/>
@@ -8426,10 +8430,10 @@
     </row>
     <row r="370" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C370">
         <f t="shared" si="5"/>
@@ -8438,10 +8442,10 @@
     </row>
     <row r="371" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C371">
         <f t="shared" si="5"/>
@@ -8450,10 +8454,10 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C372">
         <f t="shared" si="5"/>
@@ -8462,10 +8466,10 @@
     </row>
     <row r="373" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C373">
         <f t="shared" si="5"/>
@@ -8474,10 +8478,10 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C374">
         <f t="shared" si="5"/>
@@ -8486,10 +8490,10 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C375">
         <f t="shared" si="5"/>
@@ -8498,10 +8502,10 @@
     </row>
     <row r="376" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C376">
         <f t="shared" si="5"/>
@@ -8510,10 +8514,10 @@
     </row>
     <row r="377" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C377">
         <f t="shared" si="5"/>
@@ -8522,10 +8526,10 @@
     </row>
     <row r="378" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C378">
         <f t="shared" si="5"/>
@@ -8534,10 +8538,10 @@
     </row>
     <row r="379" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C379">
         <f t="shared" si="5"/>
@@ -8546,10 +8550,10 @@
     </row>
     <row r="380" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C380">
         <f t="shared" si="5"/>
@@ -8558,10 +8562,10 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C381">
         <f t="shared" si="5"/>
@@ -8570,10 +8574,10 @@
     </row>
     <row r="382" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C382">
         <f t="shared" si="5"/>
@@ -8582,10 +8586,10 @@
     </row>
     <row r="383" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C383">
         <f t="shared" si="5"/>
@@ -8594,10 +8598,10 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C384">
         <f t="shared" si="5"/>
@@ -8606,10 +8610,10 @@
     </row>
     <row r="385" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C385">
         <f t="shared" si="5"/>
@@ -8618,10 +8622,10 @@
     </row>
     <row r="386" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C386">
         <f t="shared" ref="C386:C449" si="6">LEN(B386)</f>
@@ -8630,10 +8634,10 @@
     </row>
     <row r="387" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C387">
         <f t="shared" si="6"/>
@@ -8642,10 +8646,10 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C388">
         <f t="shared" si="6"/>
@@ -8654,10 +8658,10 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C389">
         <f t="shared" si="6"/>
@@ -8666,10 +8670,10 @@
     </row>
     <row r="390" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C390">
         <f t="shared" si="6"/>
@@ -8678,10 +8682,10 @@
     </row>
     <row r="391" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C391">
         <f t="shared" si="6"/>
@@ -8690,10 +8694,10 @@
     </row>
     <row r="392" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C392">
         <f t="shared" si="6"/>
@@ -8702,10 +8706,10 @@
     </row>
     <row r="393" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C393">
         <f t="shared" si="6"/>
@@ -8714,10 +8718,10 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C394">
         <f t="shared" si="6"/>
@@ -8726,10 +8730,10 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C395">
         <f t="shared" si="6"/>
@@ -8738,10 +8742,10 @@
     </row>
     <row r="396" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C396">
         <f t="shared" si="6"/>
@@ -8750,10 +8754,10 @@
     </row>
     <row r="397" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C397">
         <f t="shared" si="6"/>
@@ -8762,10 +8766,10 @@
     </row>
     <row r="398" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C398">
         <f t="shared" si="6"/>
@@ -8774,10 +8778,10 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C399">
         <f t="shared" si="6"/>
@@ -8786,10 +8790,10 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C400">
         <f t="shared" si="6"/>
@@ -8798,10 +8802,10 @@
     </row>
     <row r="401" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C401">
         <f t="shared" si="6"/>
@@ -8810,10 +8814,10 @@
     </row>
     <row r="402" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C402">
         <f t="shared" si="6"/>
@@ -8822,10 +8826,10 @@
     </row>
     <row r="403" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C403">
         <f t="shared" si="6"/>
@@ -8834,10 +8838,10 @@
     </row>
     <row r="404" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C404">
         <f t="shared" si="6"/>
@@ -8846,10 +8850,10 @@
     </row>
     <row r="405" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C405">
         <f t="shared" si="6"/>
@@ -8858,10 +8862,10 @@
     </row>
     <row r="406" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C406">
         <f t="shared" si="6"/>
@@ -8870,10 +8874,10 @@
     </row>
     <row r="407" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C407">
         <f t="shared" si="6"/>
@@ -8882,10 +8886,10 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C408">
         <f t="shared" si="6"/>
@@ -8894,10 +8898,10 @@
     </row>
     <row r="409" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C409">
         <f t="shared" si="6"/>
@@ -8906,10 +8910,10 @@
     </row>
     <row r="410" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C410">
         <f t="shared" si="6"/>
@@ -8918,10 +8922,10 @@
     </row>
     <row r="411" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C411">
         <f t="shared" si="6"/>
@@ -8930,10 +8934,10 @@
     </row>
     <row r="412" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C412">
         <f t="shared" si="6"/>
@@ -8942,10 +8946,10 @@
     </row>
     <row r="413" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C413">
         <f t="shared" si="6"/>
@@ -8954,10 +8958,10 @@
     </row>
     <row r="414" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C414">
         <f t="shared" si="6"/>
@@ -8966,10 +8970,10 @@
     </row>
     <row r="415" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C415">
         <f t="shared" si="6"/>
@@ -8978,10 +8982,10 @@
     </row>
     <row r="416" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C416">
         <f t="shared" si="6"/>
@@ -8990,10 +8994,10 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C417">
         <f t="shared" si="6"/>
@@ -9002,10 +9006,10 @@
     </row>
     <row r="418" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C418">
         <f t="shared" si="6"/>
@@ -9014,10 +9018,10 @@
     </row>
     <row r="419" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C419">
         <f t="shared" si="6"/>
@@ -9026,10 +9030,10 @@
     </row>
     <row r="420" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C420">
         <f t="shared" si="6"/>
@@ -9038,10 +9042,10 @@
     </row>
     <row r="421" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C421">
         <f t="shared" si="6"/>
@@ -9050,10 +9054,10 @@
     </row>
     <row r="422" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C422">
         <f t="shared" si="6"/>
@@ -9062,10 +9066,10 @@
     </row>
     <row r="423" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C423">
         <f t="shared" si="6"/>
@@ -9074,10 +9078,10 @@
     </row>
     <row r="424" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C424">
         <f t="shared" si="6"/>
@@ -9086,10 +9090,10 @@
     </row>
     <row r="425" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C425">
         <f t="shared" si="6"/>
@@ -9098,10 +9102,10 @@
     </row>
     <row r="426" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C426">
         <f t="shared" si="6"/>
@@ -9110,10 +9114,10 @@
     </row>
     <row r="427" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C427">
         <f t="shared" si="6"/>
@@ -9122,10 +9126,10 @@
     </row>
     <row r="428" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C428">
         <f t="shared" si="6"/>
@@ -9134,10 +9138,10 @@
     </row>
     <row r="429" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C429">
         <f t="shared" si="6"/>
@@ -9146,10 +9150,10 @@
     </row>
     <row r="430" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C430">
         <f t="shared" si="6"/>
@@ -9158,10 +9162,10 @@
     </row>
     <row r="431" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C431">
         <f t="shared" si="6"/>
@@ -9170,10 +9174,10 @@
     </row>
     <row r="432" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C432">
         <f t="shared" si="6"/>
@@ -9182,10 +9186,10 @@
     </row>
     <row r="433" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C433">
         <f t="shared" si="6"/>
@@ -9194,10 +9198,10 @@
     </row>
     <row r="434" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C434">
         <f t="shared" si="6"/>
@@ -9206,10 +9210,10 @@
     </row>
     <row r="435" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C435">
         <f t="shared" si="6"/>
@@ -9218,10 +9222,10 @@
     </row>
     <row r="436" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C436">
         <f t="shared" si="6"/>
@@ -9230,10 +9234,10 @@
     </row>
     <row r="437" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C437">
         <f t="shared" si="6"/>
@@ -9242,10 +9246,10 @@
     </row>
     <row r="438" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C438">
         <f t="shared" si="6"/>
@@ -9254,10 +9258,10 @@
     </row>
     <row r="439" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C439">
         <f t="shared" si="6"/>
@@ -9266,10 +9270,10 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C440">
         <f t="shared" si="6"/>
@@ -9278,10 +9282,10 @@
     </row>
     <row r="441" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C441">
         <f t="shared" si="6"/>
@@ -9290,10 +9294,10 @@
     </row>
     <row r="442" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C442">
         <f t="shared" si="6"/>
@@ -9302,10 +9306,10 @@
     </row>
     <row r="443" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C443">
         <f t="shared" si="6"/>
@@ -9314,10 +9318,10 @@
     </row>
     <row r="444" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C444">
         <f t="shared" si="6"/>
@@ -9326,10 +9330,10 @@
     </row>
     <row r="445" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C445">
         <f t="shared" si="6"/>
@@ -9338,10 +9342,10 @@
     </row>
     <row r="446" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C446">
         <f t="shared" si="6"/>
@@ -9350,10 +9354,10 @@
     </row>
     <row r="447" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C447">
         <f t="shared" si="6"/>
@@ -9362,10 +9366,10 @@
     </row>
     <row r="448" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C448">
         <f t="shared" si="6"/>
@@ -9374,10 +9378,10 @@
     </row>
     <row r="449" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C449">
         <f t="shared" si="6"/>
@@ -9386,10 +9390,10 @@
     </row>
     <row r="450" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C450">
         <f t="shared" ref="C450:C513" si="7">LEN(B450)</f>
@@ -9398,10 +9402,10 @@
     </row>
     <row r="451" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C451">
         <f t="shared" si="7"/>
@@ -9411,15 +9415,15 @@
         <v>20170515</v>
       </c>
       <c r="E451" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="452" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C452">
         <f t="shared" si="7"/>
@@ -9428,10 +9432,10 @@
     </row>
     <row r="453" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C453">
         <f t="shared" si="7"/>
@@ -9440,10 +9444,10 @@
     </row>
     <row r="454" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C454">
         <f t="shared" si="7"/>
@@ -9452,10 +9456,10 @@
     </row>
     <row r="455" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C455">
         <f t="shared" si="7"/>
@@ -9464,10 +9468,10 @@
     </row>
     <row r="456" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C456">
         <f t="shared" si="7"/>
@@ -9476,10 +9480,10 @@
     </row>
     <row r="457" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C457">
         <f t="shared" si="7"/>
@@ -9488,10 +9492,10 @@
     </row>
     <row r="458" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C458">
         <f t="shared" si="7"/>
@@ -9500,10 +9504,10 @@
     </row>
     <row r="459" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C459">
         <f t="shared" si="7"/>
@@ -9512,10 +9516,10 @@
     </row>
     <row r="460" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C460">
         <f t="shared" si="7"/>
@@ -9524,10 +9528,10 @@
     </row>
     <row r="461" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C461">
         <f t="shared" si="7"/>
@@ -9536,10 +9540,10 @@
     </row>
     <row r="462" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C462">
         <f t="shared" si="7"/>
@@ -9548,10 +9552,10 @@
     </row>
     <row r="463" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C463">
         <f t="shared" si="7"/>
@@ -9561,15 +9565,15 @@
         <v>20170515</v>
       </c>
       <c r="E463" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="464" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C464">
         <f t="shared" si="7"/>
@@ -9578,10 +9582,10 @@
     </row>
     <row r="465" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C465">
         <f t="shared" si="7"/>
@@ -9590,10 +9594,10 @@
     </row>
     <row r="466" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C466">
         <f t="shared" si="7"/>
@@ -9602,10 +9606,10 @@
     </row>
     <row r="467" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C467">
         <f t="shared" si="7"/>
@@ -9614,10 +9618,10 @@
     </row>
     <row r="468" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C468">
         <f t="shared" si="7"/>
@@ -9626,10 +9630,10 @@
     </row>
     <row r="469" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C469">
         <f t="shared" si="7"/>
@@ -9638,10 +9642,10 @@
     </row>
     <row r="470" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C470">
         <f t="shared" si="7"/>
@@ -9650,10 +9654,10 @@
     </row>
     <row r="471" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C471">
         <f t="shared" si="7"/>
@@ -9662,10 +9666,10 @@
     </row>
     <row r="472" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C472">
         <f t="shared" si="7"/>
@@ -9674,10 +9678,10 @@
     </row>
     <row r="473" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C473">
         <f t="shared" si="7"/>
@@ -9686,10 +9690,10 @@
     </row>
     <row r="474" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C474">
         <f t="shared" si="7"/>
@@ -9698,10 +9702,10 @@
     </row>
     <row r="475" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C475">
         <f t="shared" si="7"/>
@@ -9710,10 +9714,10 @@
     </row>
     <row r="476" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C476">
         <f t="shared" si="7"/>
@@ -9722,10 +9726,10 @@
     </row>
     <row r="477" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C477">
         <f t="shared" si="7"/>
@@ -9734,10 +9738,10 @@
     </row>
     <row r="478" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C478">
         <f t="shared" si="7"/>
@@ -9746,10 +9750,10 @@
     </row>
     <row r="479" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C479">
         <f t="shared" si="7"/>
@@ -9758,10 +9762,10 @@
     </row>
     <row r="480" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C480">
         <f t="shared" si="7"/>
@@ -9770,10 +9774,10 @@
     </row>
     <row r="481" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C481">
         <f t="shared" si="7"/>
@@ -9782,10 +9786,10 @@
     </row>
     <row r="482" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C482">
         <f t="shared" si="7"/>
@@ -9794,10 +9798,10 @@
     </row>
     <row r="483" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C483">
         <f t="shared" si="7"/>
@@ -9806,10 +9810,10 @@
     </row>
     <row r="484" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C484">
         <f t="shared" si="7"/>
@@ -9818,10 +9822,10 @@
     </row>
     <row r="485" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C485">
         <f t="shared" si="7"/>
@@ -9830,10 +9834,10 @@
     </row>
     <row r="486" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C486">
         <f t="shared" si="7"/>
@@ -9843,15 +9847,15 @@
         <v>20170515</v>
       </c>
       <c r="E486" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C487">
         <f t="shared" si="7"/>
@@ -9860,10 +9864,10 @@
     </row>
     <row r="488" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C488">
         <f t="shared" si="7"/>
@@ -9872,10 +9876,10 @@
     </row>
     <row r="489" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C489">
         <f t="shared" si="7"/>
@@ -9884,10 +9888,10 @@
     </row>
     <row r="490" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C490">
         <f t="shared" si="7"/>
@@ -9896,10 +9900,10 @@
     </row>
     <row r="491" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C491">
         <f t="shared" si="7"/>
@@ -9908,10 +9912,10 @@
     </row>
     <row r="492" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C492">
         <f t="shared" si="7"/>
@@ -9920,10 +9924,10 @@
     </row>
     <row r="493" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C493">
         <f t="shared" si="7"/>
@@ -9932,10 +9936,10 @@
     </row>
     <row r="494" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C494">
         <f t="shared" si="7"/>
@@ -9944,10 +9948,10 @@
     </row>
     <row r="495" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C495">
         <f t="shared" si="7"/>
@@ -9956,10 +9960,10 @@
     </row>
     <row r="496" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C496">
         <f t="shared" si="7"/>
@@ -9968,10 +9972,10 @@
     </row>
     <row r="497" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C497">
         <f t="shared" si="7"/>
@@ -9980,10 +9984,10 @@
     </row>
     <row r="498" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C498">
         <f t="shared" si="7"/>
@@ -9992,10 +9996,10 @@
     </row>
     <row r="499" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C499">
         <f t="shared" si="7"/>
@@ -10005,15 +10009,15 @@
         <v>20170515</v>
       </c>
       <c r="E499" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="500" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C500">
         <f t="shared" si="7"/>
@@ -10022,10 +10026,10 @@
     </row>
     <row r="501" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C501">
         <f t="shared" si="7"/>
@@ -10034,10 +10038,10 @@
     </row>
     <row r="502" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C502">
         <f t="shared" si="7"/>
@@ -10046,10 +10050,10 @@
     </row>
     <row r="503" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C503">
         <f t="shared" si="7"/>
@@ -10058,10 +10062,10 @@
     </row>
     <row r="504" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C504">
         <f t="shared" si="7"/>
@@ -10070,10 +10074,10 @@
     </row>
     <row r="505" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C505">
         <f t="shared" si="7"/>
@@ -10082,10 +10086,10 @@
     </row>
     <row r="506" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C506">
         <f t="shared" si="7"/>
@@ -10094,10 +10098,10 @@
     </row>
     <row r="507" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C507">
         <f t="shared" si="7"/>
@@ -10106,10 +10110,10 @@
     </row>
     <row r="508" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C508">
         <f t="shared" si="7"/>
@@ -10118,10 +10122,10 @@
     </row>
     <row r="509" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C509">
         <f t="shared" si="7"/>
@@ -10130,10 +10134,10 @@
     </row>
     <row r="510" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C510">
         <f t="shared" si="7"/>
@@ -10142,10 +10146,10 @@
     </row>
     <row r="511" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C511">
         <f t="shared" si="7"/>
@@ -10154,10 +10158,10 @@
     </row>
     <row r="512" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C512">
         <f t="shared" si="7"/>
@@ -10166,10 +10170,10 @@
     </row>
     <row r="513" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C513">
         <f t="shared" si="7"/>
@@ -10178,10 +10182,10 @@
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C514">
         <f t="shared" ref="C514:C530" si="8">LEN(B514)</f>
@@ -10190,10 +10194,10 @@
     </row>
     <row r="515" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C515">
         <f t="shared" si="8"/>
@@ -10202,10 +10206,10 @@
     </row>
     <row r="516" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C516">
         <f t="shared" si="8"/>
@@ -10214,10 +10218,10 @@
     </row>
     <row r="517" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C517">
         <f t="shared" si="8"/>
@@ -10226,10 +10230,10 @@
     </row>
     <row r="518" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C518">
         <f t="shared" si="8"/>
@@ -10238,10 +10242,10 @@
     </row>
     <row r="519" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C519">
         <f t="shared" si="8"/>
@@ -10250,10 +10254,10 @@
     </row>
     <row r="520" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C520">
         <f t="shared" si="8"/>
@@ -10262,10 +10266,10 @@
     </row>
     <row r="521" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C521">
         <f t="shared" si="8"/>
@@ -10274,10 +10278,10 @@
     </row>
     <row r="522" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C522">
         <f t="shared" si="8"/>
@@ -10286,10 +10290,10 @@
     </row>
     <row r="523" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C523">
         <f t="shared" si="8"/>
@@ -10298,10 +10302,10 @@
     </row>
     <row r="524" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C524">
         <f t="shared" si="8"/>
@@ -10310,10 +10314,10 @@
     </row>
     <row r="525" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C525">
         <f t="shared" si="8"/>
@@ -10322,10 +10326,10 @@
     </row>
     <row r="526" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C526">
         <f t="shared" si="8"/>
@@ -10334,10 +10338,10 @@
     </row>
     <row r="527" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C527">
         <f t="shared" si="8"/>
@@ -10346,10 +10350,10 @@
     </row>
     <row r="528" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C528">
         <f t="shared" si="8"/>
@@ -10358,10 +10362,10 @@
     </row>
     <row r="529" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C529">
         <f t="shared" si="8"/>
@@ -10370,10 +10374,10 @@
     </row>
     <row r="530" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C530">
         <f t="shared" si="8"/>

--- a/tweetlist.xlsx
+++ b/tweetlist.xlsx
@@ -1091,9 +1091,6 @@
     <t>★1989年の今日9/6 4:11、H-Iロケット5号機で気象衛星ひまわり4号が打ち上げられました。</t>
   </si>
   <si>
-    <t>【今日の人工衛星】9/5 1977年：ボイジャー1号 木星と土星を観測した探査機、現在「地球から最も遠い距離に到達した人工物体」である。末端衝撃波面を通過中であり、まもなく太陽系を脱出した初の探査機となる見込み</t>
-  </si>
-  <si>
     <t>【今日の人工衛星】9/5(UTC) (日本時間6日4:11打上) 1989年：ひまわり4号。 気象観測衛星。大きなトラブルもなく、順調に運用され、2002年2月に運用終了。</t>
   </si>
   <si>
@@ -1122,18 +1119,6 @@
   </si>
   <si>
     <t>【今日の人工衛星】9/10(UTC) (日本時間11日2:01打上) 2009年：HTV-1 宇宙ステーション補給機の1号機。H-IIBロケット初回の打上でもあったが、無事ミッションに成功。この時点では愛称は付いていない</t>
-  </si>
-  <si>
-    <t>★2006年の今日9/11 13:35、H-IIAロケット号機で情報収集衛星光学2号機が打ち上げられました。</t>
-  </si>
-  <si>
-    <t>★2009年の今日9/11 20:17、H-IIAロケット18号機で準天頂衛星みちびきが打ち上げられました。</t>
-  </si>
-  <si>
-    <t>【今日の人工衛星】9/11 (13:35打上) 2006年：情報収集衛星光学2号機(IGS-3A) 日本の偵察衛星。H-IIA6号機の失敗をうけ、今回から1機ずつの打上となった。現在も稼働中と見られる。</t>
-  </si>
-  <si>
-    <t>【今日の人工衛星】9/11 (20:17打上) 2010年：みちびき 準天頂衛星初号機。GPS補完信号を送信し精度を補完。twitter上では@QZSS が毎日挨拶をしてくれます</t>
   </si>
   <si>
     <t>【今日の人工衛星】9/12 1959年：ルナ2号 旧ソ連の月探査機。月の表面に到達した初の宇宙船（1号は着陸できなかった)。太陽風の観測、月の磁場（が無いことを）観測を行った</t>
@@ -3546,6 +3531,71 @@
     <t xml:space="preserve">【今日の人工衛星】8/20 1977年：ボイジャー2号 宇宙探査機。木星・土星・天王星・海王星のグランドツアーを初めて実現した探査機 </t>
     <rPh sb="56" eb="57">
       <t>ハジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>★2010年の今日9/11 20:17、H-IIAロケット18号機で準天頂衛星みちびきが打ち上げられました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【今日の人工衛星】9/11 (20:17打上) 2010年：みちびき 準天頂衛星初号機。GPS補完信号を送信し精度を補完。twitter上では@QZSS が毎日挨拶をしてくれていましたが、内閣府に移管されて挨拶終了となりました</t>
+    <rPh sb="94" eb="97">
+      <t>ナイカクフ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>イカン</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>アイサツ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【今日の人工衛星】9/11 (13:35打上) 2006年：情報収集衛星光学2号機(IGS-3A) 日本の偵察衛星。H-IIA6号機の失敗をうけ、今回から1機ずつの打上となった。2013年11月に運用停止、2016年10月に大気圏に再突入して消滅した。</t>
+    <rPh sb="93" eb="94">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ウンヨウ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="112" eb="115">
+      <t>タイキケン</t>
+    </rPh>
+    <rPh sb="116" eb="119">
+      <t>サイトツニュウ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>ショウメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>★2006年の今日9/11 13:35、H-IIAロケット10号機で情報収集衛星光学2号機が打ち上げられました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【今日の人工衛星】9/5 1977年：ボイジャー1号 木星と土星を観測した探査機、現在「地球から最も遠い距離に到達した人工物体」である。末端衝撃波面を通過中であり（通過したとの説もあり）、太陽系を脱出する初の探査機となる見込み</t>
+    <rPh sb="82" eb="84">
+      <t>ツウカ</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>セツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3899,8 +3949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E530"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A344" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B351" sqref="B351"/>
+    <sheetView tabSelected="1" topLeftCell="A373" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B377" sqref="B377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -3912,7 +3962,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3924,7 +3974,7 @@
     </row>
     <row r="2" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -3936,7 +3986,7 @@
     </row>
     <row r="3" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -3948,7 +3998,7 @@
     </row>
     <row r="4" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -3960,7 +4010,7 @@
     </row>
     <row r="5" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -3972,7 +4022,7 @@
     </row>
     <row r="6" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
@@ -3984,7 +4034,7 @@
     </row>
     <row r="7" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
@@ -3996,7 +4046,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
@@ -4008,7 +4058,7 @@
     </row>
     <row r="9" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>8</v>
@@ -4020,7 +4070,7 @@
     </row>
     <row r="10" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -4032,7 +4082,7 @@
     </row>
     <row r="11" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>10</v>
@@ -4044,7 +4094,7 @@
     </row>
     <row r="12" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
@@ -4056,7 +4106,7 @@
     </row>
     <row r="13" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
@@ -4068,7 +4118,7 @@
     </row>
     <row r="14" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>13</v>
@@ -4080,7 +4130,7 @@
     </row>
     <row r="15" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>14</v>
@@ -4092,7 +4142,7 @@
     </row>
     <row r="16" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>15</v>
@@ -4104,7 +4154,7 @@
     </row>
     <row r="17" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>16</v>
@@ -4116,7 +4166,7 @@
     </row>
     <row r="18" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>17</v>
@@ -4128,7 +4178,7 @@
     </row>
     <row r="19" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>18</v>
@@ -4140,7 +4190,7 @@
     </row>
     <row r="20" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>19</v>
@@ -4152,7 +4202,7 @@
     </row>
     <row r="21" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>20</v>
@@ -4164,7 +4214,7 @@
     </row>
     <row r="22" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>21</v>
@@ -4176,7 +4226,7 @@
     </row>
     <row r="23" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>22</v>
@@ -4188,7 +4238,7 @@
     </row>
     <row r="24" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>23</v>
@@ -4200,7 +4250,7 @@
     </row>
     <row r="25" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>24</v>
@@ -4212,7 +4262,7 @@
     </row>
     <row r="26" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>25</v>
@@ -4224,7 +4274,7 @@
     </row>
     <row r="27" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>26</v>
@@ -4236,7 +4286,7 @@
     </row>
     <row r="28" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>27</v>
@@ -4248,7 +4298,7 @@
     </row>
     <row r="29" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>28</v>
@@ -4260,7 +4310,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>29</v>
@@ -4272,7 +4322,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>30</v>
@@ -4284,7 +4334,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>31</v>
@@ -4296,7 +4346,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>32</v>
@@ -4308,7 +4358,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>33</v>
@@ -4320,7 +4370,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>34</v>
@@ -4332,7 +4382,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>35</v>
@@ -4344,7 +4394,7 @@
     </row>
     <row r="37" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>36</v>
@@ -4356,7 +4406,7 @@
     </row>
     <row r="38" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>37</v>
@@ -4368,7 +4418,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>38</v>
@@ -4380,7 +4430,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>39</v>
@@ -4392,7 +4442,7 @@
     </row>
     <row r="41" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>40</v>
@@ -4404,7 +4454,7 @@
     </row>
     <row r="42" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>41</v>
@@ -4416,7 +4466,7 @@
     </row>
     <row r="43" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>42</v>
@@ -4428,7 +4478,7 @@
     </row>
     <row r="44" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>43</v>
@@ -4440,7 +4490,7 @@
     </row>
     <row r="45" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>44</v>
@@ -4452,7 +4502,7 @@
     </row>
     <row r="46" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>45</v>
@@ -4464,7 +4514,7 @@
     </row>
     <row r="47" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>46</v>
@@ -4476,7 +4526,7 @@
     </row>
     <row r="48" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>47</v>
@@ -4488,7 +4538,7 @@
     </row>
     <row r="49" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>48</v>
@@ -4500,7 +4550,7 @@
     </row>
     <row r="50" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>49</v>
@@ -4512,10 +4562,10 @@
     </row>
     <row r="51" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
@@ -4525,12 +4575,12 @@
         <v>20170515</v>
       </c>
       <c r="E51" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>50</v>
@@ -4542,7 +4592,7 @@
     </row>
     <row r="53" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>51</v>
@@ -4554,7 +4604,7 @@
     </row>
     <row r="54" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>52</v>
@@ -4566,7 +4616,7 @@
     </row>
     <row r="55" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>53</v>
@@ -4578,7 +4628,7 @@
     </row>
     <row r="56" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>54</v>
@@ -4590,7 +4640,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>55</v>
@@ -4602,7 +4652,7 @@
     </row>
     <row r="58" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>56</v>
@@ -4614,7 +4664,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>57</v>
@@ -4626,7 +4676,7 @@
     </row>
     <row r="60" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>58</v>
@@ -4638,7 +4688,7 @@
     </row>
     <row r="61" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>59</v>
@@ -4650,7 +4700,7 @@
     </row>
     <row r="62" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>60</v>
@@ -4662,7 +4712,7 @@
     </row>
     <row r="63" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>61</v>
@@ -4674,7 +4724,7 @@
     </row>
     <row r="64" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>62</v>
@@ -4686,7 +4736,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>63</v>
@@ -4698,7 +4748,7 @@
     </row>
     <row r="66" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>64</v>
@@ -4710,7 +4760,7 @@
     </row>
     <row r="67" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>65</v>
@@ -4722,7 +4772,7 @@
     </row>
     <row r="68" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>66</v>
@@ -4734,7 +4784,7 @@
     </row>
     <row r="69" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>67</v>
@@ -4746,7 +4796,7 @@
     </row>
     <row r="70" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>68</v>
@@ -4758,7 +4808,7 @@
     </row>
     <row r="71" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>69</v>
@@ -4770,7 +4820,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>70</v>
@@ -4782,7 +4832,7 @@
     </row>
     <row r="73" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>71</v>
@@ -4794,7 +4844,7 @@
     </row>
     <row r="74" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>72</v>
@@ -4806,7 +4856,7 @@
     </row>
     <row r="75" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>73</v>
@@ -4818,7 +4868,7 @@
     </row>
     <row r="76" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>74</v>
@@ -4830,7 +4880,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>75</v>
@@ -4842,7 +4892,7 @@
     </row>
     <row r="78" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>76</v>
@@ -4854,7 +4904,7 @@
     </row>
     <row r="79" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>77</v>
@@ -4866,7 +4916,7 @@
     </row>
     <row r="80" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>78</v>
@@ -4878,7 +4928,7 @@
     </row>
     <row r="81" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>79</v>
@@ -4890,7 +4940,7 @@
     </row>
     <row r="82" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>80</v>
@@ -4902,10 +4952,10 @@
     </row>
     <row r="83" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="C83">
         <f t="shared" si="1"/>
@@ -4915,12 +4965,12 @@
         <v>20170515</v>
       </c>
       <c r="E83" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>81</v>
@@ -4932,7 +4982,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>82</v>
@@ -4944,7 +4994,7 @@
     </row>
     <row r="86" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>83</v>
@@ -4956,7 +5006,7 @@
     </row>
     <row r="87" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>84</v>
@@ -4968,7 +5018,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>85</v>
@@ -4980,7 +5030,7 @@
     </row>
     <row r="89" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>86</v>
@@ -4992,7 +5042,7 @@
     </row>
     <row r="90" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>87</v>
@@ -5004,7 +5054,7 @@
     </row>
     <row r="91" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>88</v>
@@ -5016,7 +5066,7 @@
     </row>
     <row r="92" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>89</v>
@@ -5028,7 +5078,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>90</v>
@@ -5040,7 +5090,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>91</v>
@@ -5052,7 +5102,7 @@
     </row>
     <row r="95" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>92</v>
@@ -5064,7 +5114,7 @@
     </row>
     <row r="96" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>93</v>
@@ -5076,7 +5126,7 @@
     </row>
     <row r="97" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>94</v>
@@ -5088,7 +5138,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>95</v>
@@ -5100,7 +5150,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>96</v>
@@ -5112,7 +5162,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>97</v>
@@ -5124,7 +5174,7 @@
     </row>
     <row r="101" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>98</v>
@@ -5136,7 +5186,7 @@
     </row>
     <row r="102" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>99</v>
@@ -5148,7 +5198,7 @@
     </row>
     <row r="103" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>100</v>
@@ -5160,7 +5210,7 @@
     </row>
     <row r="104" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>101</v>
@@ -5172,7 +5222,7 @@
     </row>
     <row r="105" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>102</v>
@@ -5184,7 +5234,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>103</v>
@@ -5196,7 +5246,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>104</v>
@@ -5208,7 +5258,7 @@
     </row>
     <row r="108" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>105</v>
@@ -5220,7 +5270,7 @@
     </row>
     <row r="109" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>106</v>
@@ -5232,7 +5282,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>107</v>
@@ -5244,7 +5294,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>108</v>
@@ -5256,7 +5306,7 @@
     </row>
     <row r="112" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>109</v>
@@ -5268,7 +5318,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>110</v>
@@ -5280,7 +5330,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>111</v>
@@ -5292,7 +5342,7 @@
     </row>
     <row r="115" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>112</v>
@@ -5304,7 +5354,7 @@
     </row>
     <row r="116" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>113</v>
@@ -5316,7 +5366,7 @@
     </row>
     <row r="117" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>114</v>
@@ -5328,7 +5378,7 @@
     </row>
     <row r="118" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>115</v>
@@ -5340,7 +5390,7 @@
     </row>
     <row r="119" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>116</v>
@@ -5352,7 +5402,7 @@
     </row>
     <row r="120" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>117</v>
@@ -5364,7 +5414,7 @@
     </row>
     <row r="121" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>118</v>
@@ -5376,7 +5426,7 @@
     </row>
     <row r="122" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>119</v>
@@ -5388,10 +5438,10 @@
     </row>
     <row r="123" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="C123">
         <f t="shared" si="1"/>
@@ -5401,12 +5451,12 @@
         <v>20170515</v>
       </c>
       <c r="E123" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>120</v>
@@ -5418,10 +5468,10 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="C125">
         <f t="shared" si="1"/>
@@ -5431,7 +5481,7 @@
         <v>20170515</v>
       </c>
       <c r="E125" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -5460,7 +5510,7 @@
     </row>
     <row r="128" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>125</v>
@@ -5472,10 +5522,10 @@
     </row>
     <row r="129" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="C129">
         <f t="shared" si="1"/>
@@ -5485,12 +5535,12 @@
         <v>20170515</v>
       </c>
       <c r="E129" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>126</v>
@@ -5502,7 +5552,7 @@
     </row>
     <row r="131" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>127</v>
@@ -5514,7 +5564,7 @@
     </row>
     <row r="132" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>128</v>
@@ -5526,7 +5576,7 @@
     </row>
     <row r="133" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>129</v>
@@ -5538,10 +5588,10 @@
     </row>
     <row r="134" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="C134">
         <f t="shared" si="2"/>
@@ -5551,12 +5601,12 @@
         <v>20170515</v>
       </c>
       <c r="E134" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>130</v>
@@ -5568,10 +5618,10 @@
     </row>
     <row r="136" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="C136">
         <f t="shared" si="2"/>
@@ -5581,12 +5631,12 @@
         <v>20170515</v>
       </c>
       <c r="E136" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>131</v>
@@ -5598,7 +5648,7 @@
     </row>
     <row r="138" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>132</v>
@@ -5610,7 +5660,7 @@
     </row>
     <row r="139" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>133</v>
@@ -5622,7 +5672,7 @@
     </row>
     <row r="140" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>134</v>
@@ -5634,7 +5684,7 @@
     </row>
     <row r="141" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>135</v>
@@ -5646,7 +5696,7 @@
     </row>
     <row r="142" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>136</v>
@@ -5658,7 +5708,7 @@
     </row>
     <row r="143" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>137</v>
@@ -5670,7 +5720,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>138</v>
@@ -5682,7 +5732,7 @@
     </row>
     <row r="145" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>139</v>
@@ -5694,7 +5744,7 @@
     </row>
     <row r="146" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>140</v>
@@ -5706,7 +5756,7 @@
     </row>
     <row r="147" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>141</v>
@@ -5718,7 +5768,7 @@
     </row>
     <row r="148" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>142</v>
@@ -5730,7 +5780,7 @@
     </row>
     <row r="149" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>143</v>
@@ -5742,7 +5792,7 @@
     </row>
     <row r="150" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>144</v>
@@ -5754,10 +5804,10 @@
     </row>
     <row r="151" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="C151">
         <f t="shared" si="2"/>
@@ -5766,7 +5816,7 @@
     </row>
     <row r="152" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>145</v>
@@ -5778,7 +5828,7 @@
     </row>
     <row r="153" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>146</v>
@@ -5790,7 +5840,7 @@
     </row>
     <row r="154" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>147</v>
@@ -5802,7 +5852,7 @@
     </row>
     <row r="155" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>148</v>
@@ -5814,7 +5864,7 @@
     </row>
     <row r="156" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>149</v>
@@ -5826,7 +5876,7 @@
     </row>
     <row r="157" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>150</v>
@@ -5838,7 +5888,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>151</v>
@@ -5850,10 +5900,10 @@
     </row>
     <row r="159" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="C159">
         <f t="shared" si="2"/>
@@ -5863,12 +5913,12 @@
         <v>20170515</v>
       </c>
       <c r="E159" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>152</v>
@@ -5880,7 +5930,7 @@
     </row>
     <row r="161" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>153</v>
@@ -5892,7 +5942,7 @@
     </row>
     <row r="162" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>154</v>
@@ -5904,7 +5954,7 @@
     </row>
     <row r="163" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>155</v>
@@ -5916,7 +5966,7 @@
     </row>
     <row r="164" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>156</v>
@@ -5928,7 +5978,7 @@
     </row>
     <row r="165" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>157</v>
@@ -5940,7 +5990,7 @@
     </row>
     <row r="166" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>158</v>
@@ -5952,7 +6002,7 @@
     </row>
     <row r="167" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>159</v>
@@ -5964,7 +6014,7 @@
     </row>
     <row r="168" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>160</v>
@@ -5976,7 +6026,7 @@
     </row>
     <row r="169" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>161</v>
@@ -5988,7 +6038,7 @@
     </row>
     <row r="170" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>162</v>
@@ -6000,7 +6050,7 @@
     </row>
     <row r="171" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>163</v>
@@ -6012,7 +6062,7 @@
     </row>
     <row r="172" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>164</v>
@@ -6024,10 +6074,10 @@
     </row>
     <row r="173" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="C173">
         <f t="shared" si="2"/>
@@ -6037,12 +6087,12 @@
         <v>20170515</v>
       </c>
       <c r="E173" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>165</v>
@@ -6054,7 +6104,7 @@
     </row>
     <row r="175" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>166</v>
@@ -6066,7 +6116,7 @@
     </row>
     <row r="176" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>167</v>
@@ -6078,7 +6128,7 @@
     </row>
     <row r="177" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>168</v>
@@ -6090,7 +6140,7 @@
     </row>
     <row r="178" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>169</v>
@@ -6102,7 +6152,7 @@
     </row>
     <row r="179" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>170</v>
@@ -6114,7 +6164,7 @@
     </row>
     <row r="180" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>171</v>
@@ -6126,7 +6176,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>172</v>
@@ -6138,7 +6188,7 @@
     </row>
     <row r="182" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>173</v>
@@ -6150,7 +6200,7 @@
     </row>
     <row r="183" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>174</v>
@@ -6162,7 +6212,7 @@
     </row>
     <row r="184" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>175</v>
@@ -6174,7 +6224,7 @@
     </row>
     <row r="185" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>176</v>
@@ -6186,7 +6236,7 @@
     </row>
     <row r="186" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>177</v>
@@ -6198,7 +6248,7 @@
     </row>
     <row r="187" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>178</v>
@@ -6210,7 +6260,7 @@
     </row>
     <row r="188" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>179</v>
@@ -6222,7 +6272,7 @@
     </row>
     <row r="189" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>180</v>
@@ -6234,7 +6284,7 @@
     </row>
     <row r="190" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>181</v>
@@ -6246,7 +6296,7 @@
     </row>
     <row r="191" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>182</v>
@@ -6258,7 +6308,7 @@
     </row>
     <row r="192" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>183</v>
@@ -6270,7 +6320,7 @@
     </row>
     <row r="193" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>184</v>
@@ -6283,12 +6333,12 @@
         <v>20170515</v>
       </c>
       <c r="E193" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>185</v>
@@ -6300,7 +6350,7 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>186</v>
@@ -6312,7 +6362,7 @@
     </row>
     <row r="196" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>187</v>
@@ -6324,7 +6374,7 @@
     </row>
     <row r="197" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>188</v>
@@ -6336,7 +6386,7 @@
     </row>
     <row r="198" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>189</v>
@@ -6348,7 +6398,7 @@
     </row>
     <row r="199" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>190</v>
@@ -6360,7 +6410,7 @@
     </row>
     <row r="200" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>191</v>
@@ -6372,7 +6422,7 @@
     </row>
     <row r="201" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>192</v>
@@ -6384,7 +6434,7 @@
     </row>
     <row r="202" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>193</v>
@@ -6396,7 +6446,7 @@
     </row>
     <row r="203" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>194</v>
@@ -6408,7 +6458,7 @@
     </row>
     <row r="204" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>195</v>
@@ -6420,7 +6470,7 @@
     </row>
     <row r="205" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>196</v>
@@ -6432,7 +6482,7 @@
     </row>
     <row r="206" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>197</v>
@@ -6444,7 +6494,7 @@
     </row>
     <row r="207" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>198</v>
@@ -6456,7 +6506,7 @@
     </row>
     <row r="208" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>199</v>
@@ -6468,7 +6518,7 @@
     </row>
     <row r="209" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>200</v>
@@ -6480,7 +6530,7 @@
     </row>
     <row r="210" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>201</v>
@@ -6492,7 +6542,7 @@
     </row>
     <row r="211" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>202</v>
@@ -6504,7 +6554,7 @@
     </row>
     <row r="212" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>203</v>
@@ -6516,7 +6566,7 @@
     </row>
     <row r="213" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>204</v>
@@ -6528,7 +6578,7 @@
     </row>
     <row r="214" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>205</v>
@@ -6540,7 +6590,7 @@
     </row>
     <row r="215" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>206</v>
@@ -6552,7 +6602,7 @@
     </row>
     <row r="216" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>207</v>
@@ -6564,7 +6614,7 @@
     </row>
     <row r="217" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>208</v>
@@ -6576,10 +6626,10 @@
     </row>
     <row r="218" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="C218">
         <f t="shared" si="3"/>
@@ -6588,7 +6638,7 @@
     </row>
     <row r="219" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>209</v>
@@ -6600,7 +6650,7 @@
     </row>
     <row r="220" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>210</v>
@@ -6612,7 +6662,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>211</v>
@@ -6624,7 +6674,7 @@
     </row>
     <row r="222" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>212</v>
@@ -6636,7 +6686,7 @@
     </row>
     <row r="223" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>213</v>
@@ -6648,7 +6698,7 @@
     </row>
     <row r="224" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>214</v>
@@ -6660,7 +6710,7 @@
     </row>
     <row r="225" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>215</v>
@@ -6672,7 +6722,7 @@
     </row>
     <row r="226" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>216</v>
@@ -6684,7 +6734,7 @@
     </row>
     <row r="227" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>217</v>
@@ -6696,7 +6746,7 @@
     </row>
     <row r="228" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>218</v>
@@ -6708,7 +6758,7 @@
     </row>
     <row r="229" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>219</v>
@@ -6720,7 +6770,7 @@
     </row>
     <row r="230" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>220</v>
@@ -6732,7 +6782,7 @@
     </row>
     <row r="231" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>221</v>
@@ -6744,7 +6794,7 @@
     </row>
     <row r="232" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>222</v>
@@ -6756,7 +6806,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>223</v>
@@ -6768,7 +6818,7 @@
     </row>
     <row r="234" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>224</v>
@@ -6780,7 +6830,7 @@
     </row>
     <row r="235" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>225</v>
@@ -6792,7 +6842,7 @@
     </row>
     <row r="236" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>226</v>
@@ -6804,7 +6854,7 @@
     </row>
     <row r="237" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>227</v>
@@ -6816,7 +6866,7 @@
     </row>
     <row r="238" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>228</v>
@@ -6828,7 +6878,7 @@
     </row>
     <row r="239" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>229</v>
@@ -6840,7 +6890,7 @@
     </row>
     <row r="240" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>230</v>
@@ -6852,7 +6902,7 @@
     </row>
     <row r="241" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>231</v>
@@ -6864,7 +6914,7 @@
     </row>
     <row r="242" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>232</v>
@@ -6876,7 +6926,7 @@
     </row>
     <row r="243" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>233</v>
@@ -6888,7 +6938,7 @@
     </row>
     <row r="244" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>234</v>
@@ -6900,7 +6950,7 @@
     </row>
     <row r="245" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>235</v>
@@ -6912,7 +6962,7 @@
     </row>
     <row r="246" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>236</v>
@@ -6924,7 +6974,7 @@
     </row>
     <row r="247" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>237</v>
@@ -6936,7 +6986,7 @@
     </row>
     <row r="248" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>238</v>
@@ -6948,10 +6998,10 @@
     </row>
     <row r="249" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="C249">
         <f t="shared" si="3"/>
@@ -6960,7 +7010,7 @@
     </row>
     <row r="250" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>239</v>
@@ -6972,7 +7022,7 @@
     </row>
     <row r="251" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>240</v>
@@ -6984,7 +7034,7 @@
     </row>
     <row r="252" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>241</v>
@@ -6996,7 +7046,7 @@
     </row>
     <row r="253" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>242</v>
@@ -7008,10 +7058,10 @@
     </row>
     <row r="254" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="C254">
         <f t="shared" si="3"/>
@@ -7021,12 +7071,12 @@
         <v>20170515</v>
       </c>
       <c r="E254" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="255" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>243</v>
@@ -7038,10 +7088,10 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="C256">
         <f t="shared" si="3"/>
@@ -7050,10 +7100,10 @@
     </row>
     <row r="257" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="C257">
         <f t="shared" si="3"/>
@@ -7062,10 +7112,10 @@
     </row>
     <row r="258" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="C258">
         <f t="shared" ref="C258:C321" si="4">LEN(B258)</f>
@@ -7074,10 +7124,10 @@
     </row>
     <row r="259" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="C259">
         <f t="shared" si="4"/>
@@ -7086,7 +7136,7 @@
     </row>
     <row r="260" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>244</v>
@@ -7098,7 +7148,7 @@
     </row>
     <row r="261" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>245</v>
@@ -7110,7 +7160,7 @@
     </row>
     <row r="262" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>246</v>
@@ -7122,7 +7172,7 @@
     </row>
     <row r="263" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>247</v>
@@ -7134,7 +7184,7 @@
     </row>
     <row r="264" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>248</v>
@@ -7146,7 +7196,7 @@
     </row>
     <row r="265" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>249</v>
@@ -7158,7 +7208,7 @@
     </row>
     <row r="266" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>250</v>
@@ -7170,7 +7220,7 @@
     </row>
     <row r="267" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>251</v>
@@ -7182,7 +7232,7 @@
     </row>
     <row r="268" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>252</v>
@@ -7194,7 +7244,7 @@
     </row>
     <row r="269" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>253</v>
@@ -7206,7 +7256,7 @@
     </row>
     <row r="270" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>254</v>
@@ -7218,7 +7268,7 @@
     </row>
     <row r="271" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>255</v>
@@ -7230,7 +7280,7 @@
     </row>
     <row r="272" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>256</v>
@@ -7242,7 +7292,7 @@
     </row>
     <row r="273" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>257</v>
@@ -7254,7 +7304,7 @@
     </row>
     <row r="274" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>258</v>
@@ -7266,7 +7316,7 @@
     </row>
     <row r="275" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>259</v>
@@ -7278,7 +7328,7 @@
     </row>
     <row r="276" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>260</v>
@@ -7290,7 +7340,7 @@
     </row>
     <row r="277" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>261</v>
@@ -7302,7 +7352,7 @@
     </row>
     <row r="278" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>262</v>
@@ -7314,7 +7364,7 @@
     </row>
     <row r="279" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>263</v>
@@ -7326,7 +7376,7 @@
     </row>
     <row r="280" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>264</v>
@@ -7338,7 +7388,7 @@
     </row>
     <row r="281" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>265</v>
@@ -7350,7 +7400,7 @@
     </row>
     <row r="282" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>266</v>
@@ -7362,7 +7412,7 @@
     </row>
     <row r="283" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>267</v>
@@ -7374,7 +7424,7 @@
     </row>
     <row r="284" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>268</v>
@@ -7386,7 +7436,7 @@
     </row>
     <row r="285" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>269</v>
@@ -7398,7 +7448,7 @@
     </row>
     <row r="286" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>270</v>
@@ -7410,7 +7460,7 @@
     </row>
     <row r="287" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>271</v>
@@ -7422,7 +7472,7 @@
     </row>
     <row r="288" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>272</v>
@@ -7434,7 +7484,7 @@
     </row>
     <row r="289" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>273</v>
@@ -7446,7 +7496,7 @@
     </row>
     <row r="290" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>274</v>
@@ -7458,10 +7508,10 @@
     </row>
     <row r="291" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="C291">
         <f t="shared" si="4"/>
@@ -7471,15 +7521,15 @@
         <v>20170515</v>
       </c>
       <c r="E291" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="C292">
         <f t="shared" si="4"/>
@@ -7489,12 +7539,12 @@
         <v>20170515</v>
       </c>
       <c r="E292" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>275</v>
@@ -7506,7 +7556,7 @@
     </row>
     <row r="294" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>276</v>
@@ -7518,7 +7568,7 @@
     </row>
     <row r="295" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>277</v>
@@ -7530,7 +7580,7 @@
     </row>
     <row r="296" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>278</v>
@@ -7542,7 +7592,7 @@
     </row>
     <row r="297" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>279</v>
@@ -7554,10 +7604,10 @@
     </row>
     <row r="298" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="C298">
         <f t="shared" si="4"/>
@@ -7567,12 +7617,12 @@
         <v>20170515</v>
       </c>
       <c r="E298" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>280</v>
@@ -7584,7 +7634,7 @@
     </row>
     <row r="300" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>281</v>
@@ -7596,7 +7646,7 @@
     </row>
     <row r="301" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>282</v>
@@ -7608,7 +7658,7 @@
     </row>
     <row r="302" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>283</v>
@@ -7620,7 +7670,7 @@
     </row>
     <row r="303" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>284</v>
@@ -7632,7 +7682,7 @@
     </row>
     <row r="304" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>285</v>
@@ -7644,7 +7694,7 @@
     </row>
     <row r="305" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>286</v>
@@ -7656,7 +7706,7 @@
     </row>
     <row r="306" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>287</v>
@@ -7668,7 +7718,7 @@
     </row>
     <row r="307" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>288</v>
@@ -7680,7 +7730,7 @@
     </row>
     <row r="308" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>289</v>
@@ -7692,7 +7742,7 @@
     </row>
     <row r="309" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>290</v>
@@ -7704,7 +7754,7 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>291</v>
@@ -7716,7 +7766,7 @@
     </row>
     <row r="311" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>292</v>
@@ -7728,7 +7778,7 @@
     </row>
     <row r="312" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>293</v>
@@ -7740,7 +7790,7 @@
     </row>
     <row r="313" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>294</v>
@@ -7752,7 +7802,7 @@
     </row>
     <row r="314" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>295</v>
@@ -7764,7 +7814,7 @@
     </row>
     <row r="315" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>296</v>
@@ -7776,7 +7826,7 @@
     </row>
     <row r="316" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>297</v>
@@ -7788,7 +7838,7 @@
     </row>
     <row r="317" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>298</v>
@@ -7800,7 +7850,7 @@
     </row>
     <row r="318" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>299</v>
@@ -7812,7 +7862,7 @@
     </row>
     <row r="319" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>300</v>
@@ -7824,7 +7874,7 @@
     </row>
     <row r="320" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>301</v>
@@ -7836,7 +7886,7 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>302</v>
@@ -7848,7 +7898,7 @@
     </row>
     <row r="322" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>303</v>
@@ -7860,10 +7910,10 @@
     </row>
     <row r="323" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="C323">
         <f t="shared" si="5"/>
@@ -7872,7 +7922,7 @@
     </row>
     <row r="324" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>304</v>
@@ -7884,7 +7934,7 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>305</v>
@@ -7896,7 +7946,7 @@
     </row>
     <row r="326" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>306</v>
@@ -7908,7 +7958,7 @@
     </row>
     <row r="327" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>307</v>
@@ -7920,7 +7970,7 @@
     </row>
     <row r="328" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>308</v>
@@ -7932,7 +7982,7 @@
     </row>
     <row r="329" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>309</v>
@@ -7944,7 +7994,7 @@
     </row>
     <row r="330" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>310</v>
@@ -7956,7 +8006,7 @@
     </row>
     <row r="331" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>311</v>
@@ -7968,7 +8018,7 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>312</v>
@@ -7980,7 +8030,7 @@
     </row>
     <row r="333" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>313</v>
@@ -7992,7 +8042,7 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>314</v>
@@ -8004,7 +8054,7 @@
     </row>
     <row r="335" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>315</v>
@@ -8016,7 +8066,7 @@
     </row>
     <row r="336" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>316</v>
@@ -8028,7 +8078,7 @@
     </row>
     <row r="337" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>317</v>
@@ -8040,10 +8090,10 @@
     </row>
     <row r="338" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="C338">
         <f t="shared" si="5"/>
@@ -8053,12 +8103,12 @@
         <v>20170515</v>
       </c>
       <c r="E338" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="339" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>318</v>
@@ -8070,7 +8120,7 @@
     </row>
     <row r="340" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>319</v>
@@ -8082,7 +8132,7 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>320</v>
@@ -8094,7 +8144,7 @@
     </row>
     <row r="342" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>321</v>
@@ -8106,7 +8156,7 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>322</v>
@@ -8118,7 +8168,7 @@
     </row>
     <row r="344" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>323</v>
@@ -8130,7 +8180,7 @@
     </row>
     <row r="345" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>324</v>
@@ -8142,7 +8192,7 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>325</v>
@@ -8154,7 +8204,7 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>326</v>
@@ -8166,7 +8216,7 @@
     </row>
     <row r="348" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>327</v>
@@ -8178,7 +8228,7 @@
     </row>
     <row r="349" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>328</v>
@@ -8190,10 +8240,10 @@
     </row>
     <row r="350" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="C350">
         <f t="shared" si="5"/>
@@ -8202,7 +8252,7 @@
     </row>
     <row r="351" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>329</v>
@@ -8214,7 +8264,7 @@
     </row>
     <row r="352" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>330</v>
@@ -8226,7 +8276,7 @@
     </row>
     <row r="353" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>331</v>
@@ -8238,7 +8288,7 @@
     </row>
     <row r="354" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>332</v>
@@ -8250,7 +8300,7 @@
     </row>
     <row r="355" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>333</v>
@@ -8262,7 +8312,7 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>334</v>
@@ -8274,7 +8324,7 @@
     </row>
     <row r="357" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>335</v>
@@ -8286,7 +8336,7 @@
     </row>
     <row r="358" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>336</v>
@@ -8298,7 +8348,7 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>337</v>
@@ -8310,7 +8360,7 @@
     </row>
     <row r="360" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>338</v>
@@ -8322,7 +8372,7 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>339</v>
@@ -8334,7 +8384,7 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>340</v>
@@ -8346,7 +8396,7 @@
     </row>
     <row r="363" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="B363" s="2" t="s">
         <v>341</v>
@@ -8358,7 +8408,7 @@
     </row>
     <row r="364" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="B364" s="2" t="s">
         <v>342</v>
@@ -8370,7 +8420,7 @@
     </row>
     <row r="365" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>343</v>
@@ -8382,7 +8432,7 @@
     </row>
     <row r="366" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>344</v>
@@ -8394,7 +8444,7 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>345</v>
@@ -8406,7 +8456,7 @@
     </row>
     <row r="368" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>346</v>
@@ -8418,7 +8468,7 @@
     </row>
     <row r="369" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>347</v>
@@ -8430,7 +8480,7 @@
     </row>
     <row r="370" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>348</v>
@@ -8442,7 +8492,7 @@
     </row>
     <row r="371" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>349</v>
@@ -8454,7 +8504,7 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>350</v>
@@ -8466,7 +8516,7 @@
     </row>
     <row r="373" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>351</v>
@@ -8478,7 +8528,7 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>352</v>
@@ -8490,7 +8540,7 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>353</v>
@@ -8502,22 +8552,22 @@
     </row>
     <row r="376" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>354</v>
+        <v>1058</v>
       </c>
       <c r="C376">
         <f t="shared" si="5"/>
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="377" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C377">
         <f t="shared" si="5"/>
@@ -8526,10 +8576,10 @@
     </row>
     <row r="378" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C378">
         <f t="shared" si="5"/>
@@ -8538,10 +8588,10 @@
     </row>
     <row r="379" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C379">
         <f t="shared" si="5"/>
@@ -8550,10 +8600,10 @@
     </row>
     <row r="380" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C380">
         <f t="shared" si="5"/>
@@ -8562,10 +8612,10 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C381">
         <f t="shared" si="5"/>
@@ -8574,10 +8624,10 @@
     </row>
     <row r="382" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C382">
         <f t="shared" si="5"/>
@@ -8586,10 +8636,10 @@
     </row>
     <row r="383" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C383">
         <f t="shared" si="5"/>
@@ -8598,10 +8648,10 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C384">
         <f t="shared" si="5"/>
@@ -8610,10 +8660,10 @@
     </row>
     <row r="385" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C385">
         <f t="shared" si="5"/>
@@ -8622,10 +8672,10 @@
     </row>
     <row r="386" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C386">
         <f t="shared" ref="C386:C449" si="6">LEN(B386)</f>
@@ -8634,10 +8684,10 @@
     </row>
     <row r="387" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="C387">
         <f t="shared" si="6"/>
@@ -8646,22 +8696,22 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>365</v>
+        <v>1057</v>
       </c>
       <c r="C388">
         <f t="shared" si="6"/>
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>366</v>
+        <v>1054</v>
       </c>
       <c r="C389">
         <f t="shared" si="6"/>
@@ -8670,34 +8720,34 @@
     </row>
     <row r="390" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>367</v>
+        <v>1056</v>
       </c>
       <c r="C390">
         <f t="shared" si="6"/>
-        <v>101</v>
+        <v>126</v>
       </c>
     </row>
     <row r="391" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>368</v>
+        <v>1055</v>
       </c>
       <c r="C391">
         <f t="shared" si="6"/>
-        <v>89</v>
+        <v>113</v>
       </c>
     </row>
     <row r="392" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C392">
         <f t="shared" si="6"/>
@@ -8706,10 +8756,10 @@
     </row>
     <row r="393" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C393">
         <f t="shared" si="6"/>
@@ -8718,10 +8768,10 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C394">
         <f t="shared" si="6"/>
@@ -8730,10 +8780,10 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C395">
         <f t="shared" si="6"/>
@@ -8742,10 +8792,10 @@
     </row>
     <row r="396" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C396">
         <f t="shared" si="6"/>
@@ -8754,10 +8804,10 @@
     </row>
     <row r="397" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C397">
         <f t="shared" si="6"/>
@@ -8766,10 +8816,10 @@
     </row>
     <row r="398" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C398">
         <f t="shared" si="6"/>
@@ -8778,10 +8828,10 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C399">
         <f t="shared" si="6"/>
@@ -8790,10 +8840,10 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C400">
         <f t="shared" si="6"/>
@@ -8802,10 +8852,10 @@
     </row>
     <row r="401" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C401">
         <f t="shared" si="6"/>
@@ -8814,10 +8864,10 @@
     </row>
     <row r="402" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C402">
         <f t="shared" si="6"/>
@@ -8826,10 +8876,10 @@
     </row>
     <row r="403" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C403">
         <f t="shared" si="6"/>
@@ -8838,10 +8888,10 @@
     </row>
     <row r="404" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C404">
         <f t="shared" si="6"/>
@@ -8850,10 +8900,10 @@
     </row>
     <row r="405" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C405">
         <f t="shared" si="6"/>
@@ -8862,10 +8912,10 @@
     </row>
     <row r="406" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C406">
         <f t="shared" si="6"/>
@@ -8874,10 +8924,10 @@
     </row>
     <row r="407" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C407">
         <f t="shared" si="6"/>
@@ -8886,10 +8936,10 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C408">
         <f t="shared" si="6"/>
@@ -8898,10 +8948,10 @@
     </row>
     <row r="409" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C409">
         <f t="shared" si="6"/>
@@ -8910,10 +8960,10 @@
     </row>
     <row r="410" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C410">
         <f t="shared" si="6"/>
@@ -8922,10 +8972,10 @@
     </row>
     <row r="411" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C411">
         <f t="shared" si="6"/>
@@ -8934,10 +8984,10 @@
     </row>
     <row r="412" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C412">
         <f t="shared" si="6"/>
@@ -8946,10 +8996,10 @@
     </row>
     <row r="413" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C413">
         <f t="shared" si="6"/>
@@ -8958,10 +9008,10 @@
     </row>
     <row r="414" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C414">
         <f t="shared" si="6"/>
@@ -8970,10 +9020,10 @@
     </row>
     <row r="415" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C415">
         <f t="shared" si="6"/>
@@ -8982,10 +9032,10 @@
     </row>
     <row r="416" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C416">
         <f t="shared" si="6"/>
@@ -8994,10 +9044,10 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C417">
         <f t="shared" si="6"/>
@@ -9006,10 +9056,10 @@
     </row>
     <row r="418" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C418">
         <f t="shared" si="6"/>
@@ -9018,10 +9068,10 @@
     </row>
     <row r="419" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C419">
         <f t="shared" si="6"/>
@@ -9030,10 +9080,10 @@
     </row>
     <row r="420" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C420">
         <f t="shared" si="6"/>
@@ -9042,10 +9092,10 @@
     </row>
     <row r="421" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C421">
         <f t="shared" si="6"/>
@@ -9054,10 +9104,10 @@
     </row>
     <row r="422" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C422">
         <f t="shared" si="6"/>
@@ -9066,10 +9116,10 @@
     </row>
     <row r="423" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C423">
         <f t="shared" si="6"/>
@@ -9078,10 +9128,10 @@
     </row>
     <row r="424" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C424">
         <f t="shared" si="6"/>
@@ -9090,10 +9140,10 @@
     </row>
     <row r="425" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C425">
         <f t="shared" si="6"/>
@@ -9102,10 +9152,10 @@
     </row>
     <row r="426" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C426">
         <f t="shared" si="6"/>
@@ -9114,10 +9164,10 @@
     </row>
     <row r="427" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C427">
         <f t="shared" si="6"/>
@@ -9126,10 +9176,10 @@
     </row>
     <row r="428" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C428">
         <f t="shared" si="6"/>
@@ -9138,10 +9188,10 @@
     </row>
     <row r="429" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C429">
         <f t="shared" si="6"/>
@@ -9150,10 +9200,10 @@
     </row>
     <row r="430" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C430">
         <f t="shared" si="6"/>
@@ -9162,10 +9212,10 @@
     </row>
     <row r="431" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C431">
         <f t="shared" si="6"/>
@@ -9174,10 +9224,10 @@
     </row>
     <row r="432" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C432">
         <f t="shared" si="6"/>
@@ -9186,10 +9236,10 @@
     </row>
     <row r="433" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C433">
         <f t="shared" si="6"/>
@@ -9198,10 +9248,10 @@
     </row>
     <row r="434" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C434">
         <f t="shared" si="6"/>
@@ -9210,10 +9260,10 @@
     </row>
     <row r="435" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C435">
         <f t="shared" si="6"/>
@@ -9222,10 +9272,10 @@
     </row>
     <row r="436" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C436">
         <f t="shared" si="6"/>
@@ -9234,10 +9284,10 @@
     </row>
     <row r="437" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C437">
         <f t="shared" si="6"/>
@@ -9246,10 +9296,10 @@
     </row>
     <row r="438" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C438">
         <f t="shared" si="6"/>
@@ -9258,10 +9308,10 @@
     </row>
     <row r="439" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C439">
         <f t="shared" si="6"/>
@@ -9270,10 +9320,10 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C440">
         <f t="shared" si="6"/>
@@ -9282,10 +9332,10 @@
     </row>
     <row r="441" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C441">
         <f t="shared" si="6"/>
@@ -9294,10 +9344,10 @@
     </row>
     <row r="442" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C442">
         <f t="shared" si="6"/>
@@ -9306,10 +9356,10 @@
     </row>
     <row r="443" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C443">
         <f t="shared" si="6"/>
@@ -9318,10 +9368,10 @@
     </row>
     <row r="444" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C444">
         <f t="shared" si="6"/>
@@ -9330,10 +9380,10 @@
     </row>
     <row r="445" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C445">
         <f t="shared" si="6"/>
@@ -9342,10 +9392,10 @@
     </row>
     <row r="446" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C446">
         <f t="shared" si="6"/>
@@ -9354,10 +9404,10 @@
     </row>
     <row r="447" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C447">
         <f t="shared" si="6"/>
@@ -9366,10 +9416,10 @@
     </row>
     <row r="448" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C448">
         <f t="shared" si="6"/>
@@ -9378,10 +9428,10 @@
     </row>
     <row r="449" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C449">
         <f t="shared" si="6"/>
@@ -9390,10 +9440,10 @@
     </row>
     <row r="450" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C450">
         <f t="shared" ref="C450:C513" si="7">LEN(B450)</f>
@@ -9402,10 +9452,10 @@
     </row>
     <row r="451" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="C451">
         <f t="shared" si="7"/>
@@ -9415,15 +9465,15 @@
         <v>20170515</v>
       </c>
       <c r="E451" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="452" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C452">
         <f t="shared" si="7"/>
@@ -9432,10 +9482,10 @@
     </row>
     <row r="453" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C453">
         <f t="shared" si="7"/>
@@ -9444,10 +9494,10 @@
     </row>
     <row r="454" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C454">
         <f t="shared" si="7"/>
@@ -9456,10 +9506,10 @@
     </row>
     <row r="455" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C455">
         <f t="shared" si="7"/>
@@ -9468,10 +9518,10 @@
     </row>
     <row r="456" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C456">
         <f t="shared" si="7"/>
@@ -9480,10 +9530,10 @@
     </row>
     <row r="457" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C457">
         <f t="shared" si="7"/>
@@ -9492,10 +9542,10 @@
     </row>
     <row r="458" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C458">
         <f t="shared" si="7"/>
@@ -9504,10 +9554,10 @@
     </row>
     <row r="459" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C459">
         <f t="shared" si="7"/>
@@ -9516,10 +9566,10 @@
     </row>
     <row r="460" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C460">
         <f t="shared" si="7"/>
@@ -9528,10 +9578,10 @@
     </row>
     <row r="461" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C461">
         <f t="shared" si="7"/>
@@ -9540,10 +9590,10 @@
     </row>
     <row r="462" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C462">
         <f t="shared" si="7"/>
@@ -9552,10 +9602,10 @@
     </row>
     <row r="463" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="C463">
         <f t="shared" si="7"/>
@@ -9565,15 +9615,15 @@
         <v>20170515</v>
       </c>
       <c r="E463" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="464" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C464">
         <f t="shared" si="7"/>
@@ -9582,10 +9632,10 @@
     </row>
     <row r="465" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C465">
         <f t="shared" si="7"/>
@@ -9594,10 +9644,10 @@
     </row>
     <row r="466" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C466">
         <f t="shared" si="7"/>
@@ -9606,10 +9656,10 @@
     </row>
     <row r="467" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C467">
         <f t="shared" si="7"/>
@@ -9618,10 +9668,10 @@
     </row>
     <row r="468" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C468">
         <f t="shared" si="7"/>
@@ -9630,10 +9680,10 @@
     </row>
     <row r="469" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C469">
         <f t="shared" si="7"/>
@@ -9642,10 +9692,10 @@
     </row>
     <row r="470" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C470">
         <f t="shared" si="7"/>
@@ -9654,10 +9704,10 @@
     </row>
     <row r="471" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C471">
         <f t="shared" si="7"/>
@@ -9666,10 +9716,10 @@
     </row>
     <row r="472" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C472">
         <f t="shared" si="7"/>
@@ -9678,10 +9728,10 @@
     </row>
     <row r="473" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C473">
         <f t="shared" si="7"/>
@@ -9690,10 +9740,10 @@
     </row>
     <row r="474" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C474">
         <f t="shared" si="7"/>
@@ -9702,10 +9752,10 @@
     </row>
     <row r="475" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C475">
         <f t="shared" si="7"/>
@@ -9714,10 +9764,10 @@
     </row>
     <row r="476" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C476">
         <f t="shared" si="7"/>
@@ -9726,10 +9776,10 @@
     </row>
     <row r="477" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C477">
         <f t="shared" si="7"/>
@@ -9738,10 +9788,10 @@
     </row>
     <row r="478" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C478">
         <f t="shared" si="7"/>
@@ -9750,10 +9800,10 @@
     </row>
     <row r="479" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C479">
         <f t="shared" si="7"/>
@@ -9762,10 +9812,10 @@
     </row>
     <row r="480" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C480">
         <f t="shared" si="7"/>
@@ -9774,10 +9824,10 @@
     </row>
     <row r="481" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C481">
         <f t="shared" si="7"/>
@@ -9786,10 +9836,10 @@
     </row>
     <row r="482" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C482">
         <f t="shared" si="7"/>
@@ -9798,10 +9848,10 @@
     </row>
     <row r="483" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C483">
         <f t="shared" si="7"/>
@@ -9810,10 +9860,10 @@
     </row>
     <row r="484" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C484">
         <f t="shared" si="7"/>
@@ -9822,10 +9872,10 @@
     </row>
     <row r="485" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C485">
         <f t="shared" si="7"/>
@@ -9834,10 +9884,10 @@
     </row>
     <row r="486" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="C486">
         <f t="shared" si="7"/>
@@ -9847,15 +9897,15 @@
         <v>20170515</v>
       </c>
       <c r="E486" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C487">
         <f t="shared" si="7"/>
@@ -9864,10 +9914,10 @@
     </row>
     <row r="488" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C488">
         <f t="shared" si="7"/>
@@ -9876,10 +9926,10 @@
     </row>
     <row r="489" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C489">
         <f t="shared" si="7"/>
@@ -9888,10 +9938,10 @@
     </row>
     <row r="490" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C490">
         <f t="shared" si="7"/>
@@ -9900,10 +9950,10 @@
     </row>
     <row r="491" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C491">
         <f t="shared" si="7"/>
@@ -9912,10 +9962,10 @@
     </row>
     <row r="492" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C492">
         <f t="shared" si="7"/>
@@ -9924,10 +9974,10 @@
     </row>
     <row r="493" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C493">
         <f t="shared" si="7"/>
@@ -9936,10 +9986,10 @@
     </row>
     <row r="494" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C494">
         <f t="shared" si="7"/>
@@ -9948,10 +9998,10 @@
     </row>
     <row r="495" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C495">
         <f t="shared" si="7"/>
@@ -9960,10 +10010,10 @@
     </row>
     <row r="496" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C496">
         <f t="shared" si="7"/>
@@ -9972,10 +10022,10 @@
     </row>
     <row r="497" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C497">
         <f t="shared" si="7"/>
@@ -9984,10 +10034,10 @@
     </row>
     <row r="498" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C498">
         <f t="shared" si="7"/>
@@ -9996,10 +10046,10 @@
     </row>
     <row r="499" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="C499">
         <f t="shared" si="7"/>
@@ -10009,15 +10059,15 @@
         <v>20170515</v>
       </c>
       <c r="E499" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="500" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C500">
         <f t="shared" si="7"/>
@@ -10026,10 +10076,10 @@
     </row>
     <row r="501" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C501">
         <f t="shared" si="7"/>
@@ -10038,10 +10088,10 @@
     </row>
     <row r="502" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C502">
         <f t="shared" si="7"/>
@@ -10050,10 +10100,10 @@
     </row>
     <row r="503" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C503">
         <f t="shared" si="7"/>
@@ -10062,10 +10112,10 @@
     </row>
     <row r="504" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C504">
         <f t="shared" si="7"/>
@@ -10074,10 +10124,10 @@
     </row>
     <row r="505" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C505">
         <f t="shared" si="7"/>
@@ -10086,10 +10136,10 @@
     </row>
     <row r="506" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C506">
         <f t="shared" si="7"/>
@@ -10098,10 +10148,10 @@
     </row>
     <row r="507" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C507">
         <f t="shared" si="7"/>
@@ -10110,10 +10160,10 @@
     </row>
     <row r="508" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C508">
         <f t="shared" si="7"/>
@@ -10122,10 +10172,10 @@
     </row>
     <row r="509" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C509">
         <f t="shared" si="7"/>
@@ -10134,10 +10184,10 @@
     </row>
     <row r="510" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C510">
         <f t="shared" si="7"/>
@@ -10146,10 +10196,10 @@
     </row>
     <row r="511" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C511">
         <f t="shared" si="7"/>
@@ -10158,10 +10208,10 @@
     </row>
     <row r="512" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C512">
         <f t="shared" si="7"/>
@@ -10170,10 +10220,10 @@
     </row>
     <row r="513" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="C513">
         <f t="shared" si="7"/>
@@ -10182,10 +10232,10 @@
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C514">
         <f t="shared" ref="C514:C530" si="8">LEN(B514)</f>
@@ -10194,10 +10244,10 @@
     </row>
     <row r="515" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="C515">
         <f t="shared" si="8"/>
@@ -10206,10 +10256,10 @@
     </row>
     <row r="516" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C516">
         <f t="shared" si="8"/>
@@ -10218,10 +10268,10 @@
     </row>
     <row r="517" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C517">
         <f t="shared" si="8"/>
@@ -10230,10 +10280,10 @@
     </row>
     <row r="518" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="C518">
         <f t="shared" si="8"/>
@@ -10242,10 +10292,10 @@
     </row>
     <row r="519" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C519">
         <f t="shared" si="8"/>
@@ -10254,10 +10304,10 @@
     </row>
     <row r="520" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C520">
         <f t="shared" si="8"/>
@@ -10266,10 +10316,10 @@
     </row>
     <row r="521" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C521">
         <f t="shared" si="8"/>
@@ -10278,10 +10328,10 @@
     </row>
     <row r="522" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C522">
         <f t="shared" si="8"/>
@@ -10290,10 +10340,10 @@
     </row>
     <row r="523" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="C523">
         <f t="shared" si="8"/>
@@ -10302,10 +10352,10 @@
     </row>
     <row r="524" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="C524">
         <f t="shared" si="8"/>
@@ -10314,10 +10364,10 @@
     </row>
     <row r="525" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C525">
         <f t="shared" si="8"/>
@@ -10326,10 +10376,10 @@
     </row>
     <row r="526" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C526">
         <f t="shared" si="8"/>
@@ -10338,10 +10388,10 @@
     </row>
     <row r="527" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C527">
         <f t="shared" si="8"/>
@@ -10350,10 +10400,10 @@
     </row>
     <row r="528" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C528">
         <f t="shared" si="8"/>
@@ -10362,10 +10412,10 @@
     </row>
     <row r="529" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C529">
         <f t="shared" si="8"/>
@@ -10374,10 +10424,10 @@
     </row>
     <row r="530" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C530">
         <f t="shared" si="8"/>

--- a/tweetlist.xlsx
+++ b/tweetlist.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="1059">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="1062">
   <si>
     <t>【今日の人工衛星】1/1 1990年：JCSAT-2 日本のJSAT(現・スカパーJSAT)保有の通信衛星。タイタンIIIロケットで打上、東経154度からサービスを提供。現在は寿命が切れている。</t>
   </si>
@@ -1398,9 +1398,6 @@
   </si>
   <si>
     <t>★2009年の今日11/28 10:21、H-IIAロケット16号機で情報収集衛星光学3号機(IGS-5A)が打ち上げられました。</t>
-  </si>
-  <si>
-    <t>【今日の人工衛星】11/28 2009年：情報収集衛星光学3号機(IGS-5A) 日本の事実上の偵察衛星の(失敗分を含めて)8機目。分解能は60cm級とされる。H-IIAロケット16号機で打上</t>
   </si>
   <si>
     <t>★2003年の今日11/29 13:33、H-IIAロケット6号機によって行われた情報収集衛星光学・レーダー2号機(IGS-2A/B)の打ち上げは、SRB-Aの分離失敗により失敗。これ以降実証衛星以外の2機同時打上は行われなくなった。</t>
@@ -3596,6 +3593,46 @@
     </rPh>
     <rPh sb="88" eb="89">
       <t>セツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【今日の人工衛星】11/28 2009年：情報収集衛星光学3号機(IGS-5A) 日本の事実上の偵察衛星の(失敗分を含めて)8機目。分解能は60cm級とされる。H-IIAロケット16号機で打上。2017年9月に運用停止。 https://t.co/6uVc9kWdT8</t>
+    <rPh sb="101" eb="102">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>ウンヨウ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追記</t>
+    <rPh sb="0" eb="2">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誤変換修正</t>
+    <rPh sb="0" eb="3">
+      <t>ゴヘンカン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3949,8 +3986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E530"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A373" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B377" sqref="B377"/>
+    <sheetView tabSelected="1" topLeftCell="A349" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E351" sqref="E351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -3962,7 +3999,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3974,7 +4011,7 @@
     </row>
     <row r="2" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -3986,7 +4023,7 @@
     </row>
     <row r="3" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -3998,7 +4035,7 @@
     </row>
     <row r="4" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -4010,7 +4047,7 @@
     </row>
     <row r="5" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -4022,7 +4059,7 @@
     </row>
     <row r="6" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
@@ -4034,7 +4071,7 @@
     </row>
     <row r="7" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
@@ -4046,7 +4083,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
@@ -4058,7 +4095,7 @@
     </row>
     <row r="9" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>8</v>
@@ -4070,7 +4107,7 @@
     </row>
     <row r="10" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -4082,7 +4119,7 @@
     </row>
     <row r="11" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>10</v>
@@ -4094,7 +4131,7 @@
     </row>
     <row r="12" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
@@ -4106,7 +4143,7 @@
     </row>
     <row r="13" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
@@ -4118,7 +4155,7 @@
     </row>
     <row r="14" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>13</v>
@@ -4130,7 +4167,7 @@
     </row>
     <row r="15" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>14</v>
@@ -4142,7 +4179,7 @@
     </row>
     <row r="16" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>15</v>
@@ -4154,7 +4191,7 @@
     </row>
     <row r="17" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>16</v>
@@ -4166,7 +4203,7 @@
     </row>
     <row r="18" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>17</v>
@@ -4178,7 +4215,7 @@
     </row>
     <row r="19" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>18</v>
@@ -4190,7 +4227,7 @@
     </row>
     <row r="20" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>19</v>
@@ -4202,7 +4239,7 @@
     </row>
     <row r="21" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>20</v>
@@ -4214,7 +4251,7 @@
     </row>
     <row r="22" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>21</v>
@@ -4226,7 +4263,7 @@
     </row>
     <row r="23" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>22</v>
@@ -4238,7 +4275,7 @@
     </row>
     <row r="24" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>23</v>
@@ -4250,7 +4287,7 @@
     </row>
     <row r="25" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>24</v>
@@ -4262,7 +4299,7 @@
     </row>
     <row r="26" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>25</v>
@@ -4274,7 +4311,7 @@
     </row>
     <row r="27" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>26</v>
@@ -4286,7 +4323,7 @@
     </row>
     <row r="28" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>27</v>
@@ -4298,7 +4335,7 @@
     </row>
     <row r="29" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>28</v>
@@ -4310,7 +4347,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>29</v>
@@ -4322,7 +4359,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>30</v>
@@ -4334,7 +4371,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>31</v>
@@ -4346,7 +4383,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>32</v>
@@ -4358,7 +4395,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>33</v>
@@ -4370,7 +4407,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>34</v>
@@ -4382,7 +4419,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>35</v>
@@ -4394,7 +4431,7 @@
     </row>
     <row r="37" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>36</v>
@@ -4406,7 +4443,7 @@
     </row>
     <row r="38" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>37</v>
@@ -4418,7 +4455,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>38</v>
@@ -4430,7 +4467,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>39</v>
@@ -4442,7 +4479,7 @@
     </row>
     <row r="41" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>40</v>
@@ -4454,7 +4491,7 @@
     </row>
     <row r="42" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>41</v>
@@ -4466,7 +4503,7 @@
     </row>
     <row r="43" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>42</v>
@@ -4478,7 +4515,7 @@
     </row>
     <row r="44" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>43</v>
@@ -4490,7 +4527,7 @@
     </row>
     <row r="45" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>44</v>
@@ -4502,7 +4539,7 @@
     </row>
     <row r="46" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>45</v>
@@ -4514,7 +4551,7 @@
     </row>
     <row r="47" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>46</v>
@@ -4526,7 +4563,7 @@
     </row>
     <row r="48" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>47</v>
@@ -4538,7 +4575,7 @@
     </row>
     <row r="49" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>48</v>
@@ -4550,7 +4587,7 @@
     </row>
     <row r="50" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>49</v>
@@ -4562,10 +4599,10 @@
     </row>
     <row r="51" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
@@ -4575,12 +4612,12 @@
         <v>20170515</v>
       </c>
       <c r="E51" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>50</v>
@@ -4592,7 +4629,7 @@
     </row>
     <row r="53" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>51</v>
@@ -4604,7 +4641,7 @@
     </row>
     <row r="54" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>52</v>
@@ -4616,7 +4653,7 @@
     </row>
     <row r="55" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>53</v>
@@ -4628,7 +4665,7 @@
     </row>
     <row r="56" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>54</v>
@@ -4640,7 +4677,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>55</v>
@@ -4652,7 +4689,7 @@
     </row>
     <row r="58" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>56</v>
@@ -4664,7 +4701,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>57</v>
@@ -4676,7 +4713,7 @@
     </row>
     <row r="60" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>58</v>
@@ -4688,7 +4725,7 @@
     </row>
     <row r="61" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>59</v>
@@ -4700,7 +4737,7 @@
     </row>
     <row r="62" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>60</v>
@@ -4712,7 +4749,7 @@
     </row>
     <row r="63" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>61</v>
@@ -4724,7 +4761,7 @@
     </row>
     <row r="64" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>62</v>
@@ -4736,7 +4773,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>63</v>
@@ -4748,7 +4785,7 @@
     </row>
     <row r="66" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>64</v>
@@ -4760,7 +4797,7 @@
     </row>
     <row r="67" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>65</v>
@@ -4772,7 +4809,7 @@
     </row>
     <row r="68" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>66</v>
@@ -4784,7 +4821,7 @@
     </row>
     <row r="69" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>67</v>
@@ -4796,7 +4833,7 @@
     </row>
     <row r="70" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>68</v>
@@ -4808,7 +4845,7 @@
     </row>
     <row r="71" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>69</v>
@@ -4820,7 +4857,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>70</v>
@@ -4832,7 +4869,7 @@
     </row>
     <row r="73" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>71</v>
@@ -4844,7 +4881,7 @@
     </row>
     <row r="74" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>72</v>
@@ -4856,7 +4893,7 @@
     </row>
     <row r="75" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>73</v>
@@ -4868,7 +4905,7 @@
     </row>
     <row r="76" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>74</v>
@@ -4880,7 +4917,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>75</v>
@@ -4892,7 +4929,7 @@
     </row>
     <row r="78" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>76</v>
@@ -4904,7 +4941,7 @@
     </row>
     <row r="79" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>77</v>
@@ -4916,7 +4953,7 @@
     </row>
     <row r="80" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>78</v>
@@ -4928,7 +4965,7 @@
     </row>
     <row r="81" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>79</v>
@@ -4940,7 +4977,7 @@
     </row>
     <row r="82" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>80</v>
@@ -4952,10 +4989,10 @@
     </row>
     <row r="83" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C83">
         <f t="shared" si="1"/>
@@ -4965,12 +5002,12 @@
         <v>20170515</v>
       </c>
       <c r="E83" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>81</v>
@@ -4982,7 +5019,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>82</v>
@@ -4994,7 +5031,7 @@
     </row>
     <row r="86" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>83</v>
@@ -5006,7 +5043,7 @@
     </row>
     <row r="87" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>84</v>
@@ -5018,7 +5055,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>85</v>
@@ -5030,7 +5067,7 @@
     </row>
     <row r="89" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>86</v>
@@ -5042,7 +5079,7 @@
     </row>
     <row r="90" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>87</v>
@@ -5054,7 +5091,7 @@
     </row>
     <row r="91" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>88</v>
@@ -5066,7 +5103,7 @@
     </row>
     <row r="92" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>89</v>
@@ -5078,7 +5115,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>90</v>
@@ -5090,7 +5127,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>91</v>
@@ -5102,7 +5139,7 @@
     </row>
     <row r="95" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>92</v>
@@ -5114,7 +5151,7 @@
     </row>
     <row r="96" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>93</v>
@@ -5126,7 +5163,7 @@
     </row>
     <row r="97" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>94</v>
@@ -5138,7 +5175,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>95</v>
@@ -5150,7 +5187,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>96</v>
@@ -5162,7 +5199,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>97</v>
@@ -5174,7 +5211,7 @@
     </row>
     <row r="101" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>98</v>
@@ -5186,7 +5223,7 @@
     </row>
     <row r="102" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>99</v>
@@ -5198,7 +5235,7 @@
     </row>
     <row r="103" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>100</v>
@@ -5210,7 +5247,7 @@
     </row>
     <row r="104" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>101</v>
@@ -5222,7 +5259,7 @@
     </row>
     <row r="105" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>102</v>
@@ -5234,7 +5271,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>103</v>
@@ -5246,7 +5283,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>104</v>
@@ -5258,7 +5295,7 @@
     </row>
     <row r="108" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>105</v>
@@ -5270,7 +5307,7 @@
     </row>
     <row r="109" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>106</v>
@@ -5282,7 +5319,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>107</v>
@@ -5294,7 +5331,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>108</v>
@@ -5306,7 +5343,7 @@
     </row>
     <row r="112" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>109</v>
@@ -5318,7 +5355,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>110</v>
@@ -5330,7 +5367,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>111</v>
@@ -5342,7 +5379,7 @@
     </row>
     <row r="115" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>112</v>
@@ -5354,7 +5391,7 @@
     </row>
     <row r="116" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>113</v>
@@ -5366,7 +5403,7 @@
     </row>
     <row r="117" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>114</v>
@@ -5378,7 +5415,7 @@
     </row>
     <row r="118" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>115</v>
@@ -5390,7 +5427,7 @@
     </row>
     <row r="119" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>116</v>
@@ -5402,7 +5439,7 @@
     </row>
     <row r="120" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>117</v>
@@ -5414,7 +5451,7 @@
     </row>
     <row r="121" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>118</v>
@@ -5426,7 +5463,7 @@
     </row>
     <row r="122" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>119</v>
@@ -5438,10 +5475,10 @@
     </row>
     <row r="123" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>1047</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>1048</v>
       </c>
       <c r="C123">
         <f t="shared" si="1"/>
@@ -5451,12 +5488,12 @@
         <v>20170515</v>
       </c>
       <c r="E123" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>120</v>
@@ -5468,10 +5505,10 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C125">
         <f t="shared" si="1"/>
@@ -5481,7 +5518,7 @@
         <v>20170515</v>
       </c>
       <c r="E125" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -5510,7 +5547,7 @@
     </row>
     <row r="128" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>125</v>
@@ -5522,10 +5559,10 @@
     </row>
     <row r="129" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C129">
         <f t="shared" si="1"/>
@@ -5535,12 +5572,12 @@
         <v>20170515</v>
       </c>
       <c r="E129" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>126</v>
@@ -5552,7 +5589,7 @@
     </row>
     <row r="131" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>127</v>
@@ -5564,7 +5601,7 @@
     </row>
     <row r="132" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>128</v>
@@ -5576,7 +5613,7 @@
     </row>
     <row r="133" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>129</v>
@@ -5588,10 +5625,10 @@
     </row>
     <row r="134" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C134">
         <f t="shared" si="2"/>
@@ -5601,12 +5638,12 @@
         <v>20170515</v>
       </c>
       <c r="E134" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>130</v>
@@ -5618,10 +5655,10 @@
     </row>
     <row r="136" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C136">
         <f t="shared" si="2"/>
@@ -5631,12 +5668,12 @@
         <v>20170515</v>
       </c>
       <c r="E136" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>131</v>
@@ -5648,7 +5685,7 @@
     </row>
     <row r="138" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>132</v>
@@ -5660,7 +5697,7 @@
     </row>
     <row r="139" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>133</v>
@@ -5672,7 +5709,7 @@
     </row>
     <row r="140" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>134</v>
@@ -5684,7 +5721,7 @@
     </row>
     <row r="141" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>135</v>
@@ -5696,7 +5733,7 @@
     </row>
     <row r="142" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>136</v>
@@ -5708,7 +5745,7 @@
     </row>
     <row r="143" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>137</v>
@@ -5720,7 +5757,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>138</v>
@@ -5732,7 +5769,7 @@
     </row>
     <row r="145" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>139</v>
@@ -5744,7 +5781,7 @@
     </row>
     <row r="146" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>140</v>
@@ -5756,7 +5793,7 @@
     </row>
     <row r="147" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>141</v>
@@ -5768,7 +5805,7 @@
     </row>
     <row r="148" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>142</v>
@@ -5780,7 +5817,7 @@
     </row>
     <row r="149" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>143</v>
@@ -5792,7 +5829,7 @@
     </row>
     <row r="150" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>144</v>
@@ -5804,10 +5841,10 @@
     </row>
     <row r="151" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C151">
         <f t="shared" si="2"/>
@@ -5816,7 +5853,7 @@
     </row>
     <row r="152" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>145</v>
@@ -5828,7 +5865,7 @@
     </row>
     <row r="153" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>146</v>
@@ -5840,7 +5877,7 @@
     </row>
     <row r="154" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>147</v>
@@ -5852,7 +5889,7 @@
     </row>
     <row r="155" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>148</v>
@@ -5864,7 +5901,7 @@
     </row>
     <row r="156" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>149</v>
@@ -5876,7 +5913,7 @@
     </row>
     <row r="157" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>150</v>
@@ -5888,7 +5925,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>151</v>
@@ -5900,10 +5937,10 @@
     </row>
     <row r="159" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C159">
         <f t="shared" si="2"/>
@@ -5913,12 +5950,12 @@
         <v>20170515</v>
       </c>
       <c r="E159" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>152</v>
@@ -5930,7 +5967,7 @@
     </row>
     <row r="161" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>153</v>
@@ -5942,7 +5979,7 @@
     </row>
     <row r="162" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>154</v>
@@ -5954,7 +5991,7 @@
     </row>
     <row r="163" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>155</v>
@@ -5966,7 +6003,7 @@
     </row>
     <row r="164" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>156</v>
@@ -5978,7 +6015,7 @@
     </row>
     <row r="165" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>157</v>
@@ -5990,7 +6027,7 @@
     </row>
     <row r="166" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>158</v>
@@ -6002,7 +6039,7 @@
     </row>
     <row r="167" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>159</v>
@@ -6014,7 +6051,7 @@
     </row>
     <row r="168" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>160</v>
@@ -6026,7 +6063,7 @@
     </row>
     <row r="169" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>161</v>
@@ -6038,7 +6075,7 @@
     </row>
     <row r="170" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>162</v>
@@ -6050,7 +6087,7 @@
     </row>
     <row r="171" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>163</v>
@@ -6062,7 +6099,7 @@
     </row>
     <row r="172" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>164</v>
@@ -6074,10 +6111,10 @@
     </row>
     <row r="173" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C173">
         <f t="shared" si="2"/>
@@ -6087,12 +6124,12 @@
         <v>20170515</v>
       </c>
       <c r="E173" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>165</v>
@@ -6104,7 +6141,7 @@
     </row>
     <row r="175" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>166</v>
@@ -6116,7 +6153,7 @@
     </row>
     <row r="176" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>167</v>
@@ -6128,7 +6165,7 @@
     </row>
     <row r="177" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>168</v>
@@ -6140,7 +6177,7 @@
     </row>
     <row r="178" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>169</v>
@@ -6152,7 +6189,7 @@
     </row>
     <row r="179" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>170</v>
@@ -6164,7 +6201,7 @@
     </row>
     <row r="180" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>171</v>
@@ -6176,7 +6213,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>172</v>
@@ -6188,7 +6225,7 @@
     </row>
     <row r="182" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>173</v>
@@ -6200,7 +6237,7 @@
     </row>
     <row r="183" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>174</v>
@@ -6212,7 +6249,7 @@
     </row>
     <row r="184" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>175</v>
@@ -6224,7 +6261,7 @@
     </row>
     <row r="185" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>176</v>
@@ -6236,7 +6273,7 @@
     </row>
     <row r="186" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>177</v>
@@ -6248,7 +6285,7 @@
     </row>
     <row r="187" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>178</v>
@@ -6260,7 +6297,7 @@
     </row>
     <row r="188" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>179</v>
@@ -6272,7 +6309,7 @@
     </row>
     <row r="189" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>180</v>
@@ -6284,7 +6321,7 @@
     </row>
     <row r="190" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>181</v>
@@ -6296,7 +6333,7 @@
     </row>
     <row r="191" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>182</v>
@@ -6308,7 +6345,7 @@
     </row>
     <row r="192" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>183</v>
@@ -6320,7 +6357,7 @@
     </row>
     <row r="193" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>184</v>
@@ -6333,12 +6370,12 @@
         <v>20170515</v>
       </c>
       <c r="E193" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>185</v>
@@ -6350,7 +6387,7 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>186</v>
@@ -6362,7 +6399,7 @@
     </row>
     <row r="196" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>187</v>
@@ -6374,7 +6411,7 @@
     </row>
     <row r="197" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>188</v>
@@ -6386,7 +6423,7 @@
     </row>
     <row r="198" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>189</v>
@@ -6398,7 +6435,7 @@
     </row>
     <row r="199" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>190</v>
@@ -6410,7 +6447,7 @@
     </row>
     <row r="200" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>191</v>
@@ -6422,7 +6459,7 @@
     </row>
     <row r="201" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>192</v>
@@ -6434,7 +6471,7 @@
     </row>
     <row r="202" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>193</v>
@@ -6446,7 +6483,7 @@
     </row>
     <row r="203" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>194</v>
@@ -6458,7 +6495,7 @@
     </row>
     <row r="204" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>195</v>
@@ -6470,7 +6507,7 @@
     </row>
     <row r="205" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>196</v>
@@ -6482,7 +6519,7 @@
     </row>
     <row r="206" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>197</v>
@@ -6494,7 +6531,7 @@
     </row>
     <row r="207" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>198</v>
@@ -6506,7 +6543,7 @@
     </row>
     <row r="208" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>199</v>
@@ -6516,9 +6553,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>200</v>
@@ -6528,9 +6565,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>201</v>
@@ -6540,9 +6577,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>202</v>
@@ -6552,9 +6589,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>203</v>
@@ -6564,9 +6601,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>204</v>
@@ -6576,9 +6613,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>205</v>
@@ -6588,9 +6625,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>206</v>
@@ -6600,9 +6637,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>207</v>
@@ -6612,9 +6649,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>208</v>
@@ -6624,21 +6661,27 @@
         <v>110</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C218">
         <f t="shared" si="3"/>
         <v>133</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="D218">
+        <v>20170520</v>
+      </c>
+      <c r="E218" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>209</v>
@@ -6648,9 +6691,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>210</v>
@@ -6660,9 +6703,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>211</v>
@@ -6672,9 +6715,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>212</v>
@@ -6684,9 +6727,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>213</v>
@@ -6696,9 +6739,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>214</v>
@@ -6710,7 +6753,7 @@
     </row>
     <row r="225" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>215</v>
@@ -6722,7 +6765,7 @@
     </row>
     <row r="226" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>216</v>
@@ -6734,7 +6777,7 @@
     </row>
     <row r="227" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>217</v>
@@ -6746,7 +6789,7 @@
     </row>
     <row r="228" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>218</v>
@@ -6758,7 +6801,7 @@
     </row>
     <row r="229" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>219</v>
@@ -6770,7 +6813,7 @@
     </row>
     <row r="230" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>220</v>
@@ -6782,7 +6825,7 @@
     </row>
     <row r="231" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>221</v>
@@ -6794,7 +6837,7 @@
     </row>
     <row r="232" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>222</v>
@@ -6806,7 +6849,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>223</v>
@@ -6818,7 +6861,7 @@
     </row>
     <row r="234" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>224</v>
@@ -6830,7 +6873,7 @@
     </row>
     <row r="235" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>225</v>
@@ -6842,7 +6885,7 @@
     </row>
     <row r="236" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>226</v>
@@ -6854,7 +6897,7 @@
     </row>
     <row r="237" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>227</v>
@@ -6866,7 +6909,7 @@
     </row>
     <row r="238" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>228</v>
@@ -6878,7 +6921,7 @@
     </row>
     <row r="239" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>229</v>
@@ -6890,7 +6933,7 @@
     </row>
     <row r="240" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>230</v>
@@ -6902,7 +6945,7 @@
     </row>
     <row r="241" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>231</v>
@@ -6914,7 +6957,7 @@
     </row>
     <row r="242" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>232</v>
@@ -6926,7 +6969,7 @@
     </row>
     <row r="243" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>233</v>
@@ -6938,7 +6981,7 @@
     </row>
     <row r="244" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>234</v>
@@ -6950,7 +6993,7 @@
     </row>
     <row r="245" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>235</v>
@@ -6962,7 +7005,7 @@
     </row>
     <row r="246" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>236</v>
@@ -6974,7 +7017,7 @@
     </row>
     <row r="247" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>237</v>
@@ -6986,7 +7029,7 @@
     </row>
     <row r="248" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>238</v>
@@ -6998,10 +7041,10 @@
     </row>
     <row r="249" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C249">
         <f t="shared" si="3"/>
@@ -7010,7 +7053,7 @@
     </row>
     <row r="250" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>239</v>
@@ -7022,7 +7065,7 @@
     </row>
     <row r="251" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>240</v>
@@ -7034,7 +7077,7 @@
     </row>
     <row r="252" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>241</v>
@@ -7046,7 +7089,7 @@
     </row>
     <row r="253" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>242</v>
@@ -7058,10 +7101,10 @@
     </row>
     <row r="254" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C254">
         <f t="shared" si="3"/>
@@ -7071,12 +7114,12 @@
         <v>20170515</v>
       </c>
       <c r="E254" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="255" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>243</v>
@@ -7088,10 +7131,10 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C256">
         <f t="shared" si="3"/>
@@ -7100,10 +7143,10 @@
     </row>
     <row r="257" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C257">
         <f t="shared" si="3"/>
@@ -7112,10 +7155,10 @@
     </row>
     <row r="258" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C258">
         <f t="shared" ref="C258:C321" si="4">LEN(B258)</f>
@@ -7124,10 +7167,10 @@
     </row>
     <row r="259" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C259">
         <f t="shared" si="4"/>
@@ -7136,7 +7179,7 @@
     </row>
     <row r="260" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>244</v>
@@ -7148,7 +7191,7 @@
     </row>
     <row r="261" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>245</v>
@@ -7160,7 +7203,7 @@
     </row>
     <row r="262" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>246</v>
@@ -7172,7 +7215,7 @@
     </row>
     <row r="263" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>247</v>
@@ -7184,7 +7227,7 @@
     </row>
     <row r="264" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>248</v>
@@ -7196,7 +7239,7 @@
     </row>
     <row r="265" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>249</v>
@@ -7208,7 +7251,7 @@
     </row>
     <row r="266" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>250</v>
@@ -7220,7 +7263,7 @@
     </row>
     <row r="267" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>251</v>
@@ -7232,7 +7275,7 @@
     </row>
     <row r="268" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>252</v>
@@ -7244,7 +7287,7 @@
     </row>
     <row r="269" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>253</v>
@@ -7256,7 +7299,7 @@
     </row>
     <row r="270" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>254</v>
@@ -7268,7 +7311,7 @@
     </row>
     <row r="271" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>255</v>
@@ -7280,7 +7323,7 @@
     </row>
     <row r="272" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>256</v>
@@ -7292,7 +7335,7 @@
     </row>
     <row r="273" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>257</v>
@@ -7304,7 +7347,7 @@
     </row>
     <row r="274" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>258</v>
@@ -7316,7 +7359,7 @@
     </row>
     <row r="275" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>259</v>
@@ -7328,7 +7371,7 @@
     </row>
     <row r="276" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>260</v>
@@ -7340,7 +7383,7 @@
     </row>
     <row r="277" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>261</v>
@@ -7352,7 +7395,7 @@
     </row>
     <row r="278" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>262</v>
@@ -7364,7 +7407,7 @@
     </row>
     <row r="279" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>263</v>
@@ -7376,7 +7419,7 @@
     </row>
     <row r="280" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>264</v>
@@ -7388,7 +7431,7 @@
     </row>
     <row r="281" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>265</v>
@@ -7400,7 +7443,7 @@
     </row>
     <row r="282" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>266</v>
@@ -7412,7 +7455,7 @@
     </row>
     <row r="283" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>267</v>
@@ -7424,7 +7467,7 @@
     </row>
     <row r="284" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>268</v>
@@ -7436,7 +7479,7 @@
     </row>
     <row r="285" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>269</v>
@@ -7448,7 +7491,7 @@
     </row>
     <row r="286" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>270</v>
@@ -7460,7 +7503,7 @@
     </row>
     <row r="287" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>271</v>
@@ -7472,7 +7515,7 @@
     </row>
     <row r="288" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>272</v>
@@ -7484,7 +7527,7 @@
     </row>
     <row r="289" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>273</v>
@@ -7496,7 +7539,7 @@
     </row>
     <row r="290" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>274</v>
@@ -7508,10 +7551,10 @@
     </row>
     <row r="291" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C291">
         <f t="shared" si="4"/>
@@ -7521,15 +7564,15 @@
         <v>20170515</v>
       </c>
       <c r="E291" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C292">
         <f t="shared" si="4"/>
@@ -7539,12 +7582,12 @@
         <v>20170515</v>
       </c>
       <c r="E292" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>275</v>
@@ -7556,7 +7599,7 @@
     </row>
     <row r="294" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>276</v>
@@ -7568,7 +7611,7 @@
     </row>
     <row r="295" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>277</v>
@@ -7580,7 +7623,7 @@
     </row>
     <row r="296" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>278</v>
@@ -7592,7 +7635,7 @@
     </row>
     <row r="297" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>279</v>
@@ -7604,10 +7647,10 @@
     </row>
     <row r="298" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C298">
         <f t="shared" si="4"/>
@@ -7617,12 +7660,12 @@
         <v>20170515</v>
       </c>
       <c r="E298" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>280</v>
@@ -7634,7 +7677,7 @@
     </row>
     <row r="300" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>281</v>
@@ -7646,7 +7689,7 @@
     </row>
     <row r="301" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>282</v>
@@ -7658,7 +7701,7 @@
     </row>
     <row r="302" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>283</v>
@@ -7670,7 +7713,7 @@
     </row>
     <row r="303" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>284</v>
@@ -7682,7 +7725,7 @@
     </row>
     <row r="304" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>285</v>
@@ -7694,7 +7737,7 @@
     </row>
     <row r="305" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>286</v>
@@ -7706,7 +7749,7 @@
     </row>
     <row r="306" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>287</v>
@@ -7718,7 +7761,7 @@
     </row>
     <row r="307" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>288</v>
@@ -7730,7 +7773,7 @@
     </row>
     <row r="308" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>289</v>
@@ -7742,7 +7785,7 @@
     </row>
     <row r="309" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>290</v>
@@ -7754,7 +7797,7 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>291</v>
@@ -7766,7 +7809,7 @@
     </row>
     <row r="311" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>292</v>
@@ -7778,7 +7821,7 @@
     </row>
     <row r="312" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>293</v>
@@ -7790,7 +7833,7 @@
     </row>
     <row r="313" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>294</v>
@@ -7802,7 +7845,7 @@
     </row>
     <row r="314" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>295</v>
@@ -7814,7 +7857,7 @@
     </row>
     <row r="315" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>296</v>
@@ -7826,7 +7869,7 @@
     </row>
     <row r="316" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>297</v>
@@ -7838,7 +7881,7 @@
     </row>
     <row r="317" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>298</v>
@@ -7850,7 +7893,7 @@
     </row>
     <row r="318" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>299</v>
@@ -7862,7 +7905,7 @@
     </row>
     <row r="319" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>300</v>
@@ -7874,7 +7917,7 @@
     </row>
     <row r="320" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>301</v>
@@ -7884,9 +7927,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>302</v>
@@ -7896,9 +7939,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>303</v>
@@ -7908,21 +7951,27 @@
         <v>98</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C323">
         <f t="shared" si="5"/>
         <v>117</v>
       </c>
-    </row>
-    <row r="324" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="D323">
+        <v>20170808</v>
+      </c>
+      <c r="E323" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>304</v>
@@ -7932,9 +7981,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>305</v>
@@ -7944,9 +7993,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>306</v>
@@ -7956,9 +8005,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>307</v>
@@ -7968,9 +8017,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>308</v>
@@ -7980,9 +8029,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>309</v>
@@ -7992,9 +8041,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>310</v>
@@ -8004,9 +8053,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>311</v>
@@ -8016,9 +8065,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>312</v>
@@ -8028,9 +8077,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>313</v>
@@ -8040,9 +8089,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>314</v>
@@ -8052,9 +8101,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="335" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>315</v>
@@ -8064,9 +8113,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="336" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>316</v>
@@ -8078,7 +8127,7 @@
     </row>
     <row r="337" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>317</v>
@@ -8090,10 +8139,10 @@
     </row>
     <row r="338" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C338">
         <f t="shared" si="5"/>
@@ -8103,12 +8152,12 @@
         <v>20170515</v>
       </c>
       <c r="E338" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="339" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>318</v>
@@ -8120,7 +8169,7 @@
     </row>
     <row r="340" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>319</v>
@@ -8132,7 +8181,7 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>320</v>
@@ -8144,7 +8193,7 @@
     </row>
     <row r="342" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>321</v>
@@ -8156,7 +8205,7 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>322</v>
@@ -8168,7 +8217,7 @@
     </row>
     <row r="344" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>323</v>
@@ -8180,7 +8229,7 @@
     </row>
     <row r="345" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>324</v>
@@ -8192,7 +8241,7 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>325</v>
@@ -8204,7 +8253,7 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>326</v>
@@ -8216,7 +8265,7 @@
     </row>
     <row r="348" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>327</v>
@@ -8228,7 +8277,7 @@
     </row>
     <row r="349" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>328</v>
@@ -8240,19 +8289,25 @@
     </row>
     <row r="350" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C350">
         <f t="shared" si="5"/>
         <v>67</v>
       </c>
+      <c r="D350">
+        <v>20170820</v>
+      </c>
+      <c r="E350" t="s">
+        <v>1061</v>
+      </c>
     </row>
     <row r="351" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>329</v>
@@ -8264,7 +8319,7 @@
     </row>
     <row r="352" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>330</v>
@@ -8276,7 +8331,7 @@
     </row>
     <row r="353" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>331</v>
@@ -8288,7 +8343,7 @@
     </row>
     <row r="354" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>332</v>
@@ -8300,7 +8355,7 @@
     </row>
     <row r="355" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>333</v>
@@ -8312,7 +8367,7 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>334</v>
@@ -8324,7 +8379,7 @@
     </row>
     <row r="357" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>335</v>
@@ -8336,7 +8391,7 @@
     </row>
     <row r="358" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>336</v>
@@ -8348,7 +8403,7 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>337</v>
@@ -8360,7 +8415,7 @@
     </row>
     <row r="360" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>338</v>
@@ -8372,7 +8427,7 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>339</v>
@@ -8384,7 +8439,7 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>340</v>
@@ -8396,7 +8451,7 @@
     </row>
     <row r="363" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B363" s="2" t="s">
         <v>341</v>
@@ -8408,7 +8463,7 @@
     </row>
     <row r="364" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B364" s="2" t="s">
         <v>342</v>
@@ -8420,7 +8475,7 @@
     </row>
     <row r="365" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>343</v>
@@ -8432,7 +8487,7 @@
     </row>
     <row r="366" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>344</v>
@@ -8444,7 +8499,7 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>345</v>
@@ -8456,7 +8511,7 @@
     </row>
     <row r="368" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>346</v>
@@ -8468,7 +8523,7 @@
     </row>
     <row r="369" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>347</v>
@@ -8480,7 +8535,7 @@
     </row>
     <row r="370" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>348</v>
@@ -8492,7 +8547,7 @@
     </row>
     <row r="371" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>349</v>
@@ -8504,7 +8559,7 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>350</v>
@@ -8516,7 +8571,7 @@
     </row>
     <row r="373" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>351</v>
@@ -8528,7 +8583,7 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>352</v>
@@ -8540,7 +8595,7 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>353</v>
@@ -8552,10 +8607,10 @@
     </row>
     <row r="376" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C376">
         <f t="shared" si="5"/>
@@ -8564,7 +8619,7 @@
     </row>
     <row r="377" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>354</v>
@@ -8576,7 +8631,7 @@
     </row>
     <row r="378" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B378" s="2" t="s">
         <v>355</v>
@@ -8588,7 +8643,7 @@
     </row>
     <row r="379" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B379" s="2" t="s">
         <v>356</v>
@@ -8600,7 +8655,7 @@
     </row>
     <row r="380" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>357</v>
@@ -8612,7 +8667,7 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>358</v>
@@ -8624,7 +8679,7 @@
     </row>
     <row r="382" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B382" s="2" t="s">
         <v>359</v>
@@ -8636,7 +8691,7 @@
     </row>
     <row r="383" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B383" s="2" t="s">
         <v>360</v>
@@ -8648,7 +8703,7 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>361</v>
@@ -8658,9 +8713,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B385" s="2" t="s">
         <v>362</v>
@@ -8670,9 +8725,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="386" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>363</v>
@@ -8682,69 +8737,81 @@
         <v>110</v>
       </c>
     </row>
-    <row r="387" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C387">
         <f t="shared" si="6"/>
         <v>135</v>
       </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D387">
+        <v>20170808</v>
+      </c>
+      <c r="E387" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C388">
         <f t="shared" si="6"/>
         <v>56</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C389">
         <f t="shared" si="6"/>
         <v>54</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C390">
         <f t="shared" si="6"/>
         <v>126</v>
       </c>
-    </row>
-    <row r="391" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="D390">
+        <v>20170911</v>
+      </c>
+      <c r="E390" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C391">
         <f t="shared" si="6"/>
         <v>113</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B392" s="2" t="s">
         <v>364</v>
@@ -8754,9 +8821,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>365</v>
@@ -8766,9 +8833,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B394" s="2" t="s">
         <v>366</v>
@@ -8778,9 +8845,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B395" s="2" t="s">
         <v>367</v>
@@ -8790,9 +8857,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B396" s="2" t="s">
         <v>368</v>
@@ -8802,9 +8869,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="397" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B397" s="2" t="s">
         <v>369</v>
@@ -8814,9 +8881,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="398" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B398" s="2" t="s">
         <v>370</v>
@@ -8826,9 +8893,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B399" s="2" t="s">
         <v>371</v>
@@ -8838,9 +8905,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>372</v>
@@ -8852,7 +8919,7 @@
     </row>
     <row r="401" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>373</v>
@@ -8864,7 +8931,7 @@
     </row>
     <row r="402" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>374</v>
@@ -8876,7 +8943,7 @@
     </row>
     <row r="403" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>375</v>
@@ -8888,7 +8955,7 @@
     </row>
     <row r="404" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B404" s="2" t="s">
         <v>376</v>
@@ -8900,7 +8967,7 @@
     </row>
     <row r="405" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>377</v>
@@ -8912,7 +8979,7 @@
     </row>
     <row r="406" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>378</v>
@@ -8924,7 +8991,7 @@
     </row>
     <row r="407" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B407" s="2" t="s">
         <v>379</v>
@@ -8936,7 +9003,7 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B408" s="2" t="s">
         <v>380</v>
@@ -8948,7 +9015,7 @@
     </row>
     <row r="409" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B409" s="2" t="s">
         <v>381</v>
@@ -8960,7 +9027,7 @@
     </row>
     <row r="410" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>382</v>
@@ -8972,7 +9039,7 @@
     </row>
     <row r="411" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>383</v>
@@ -8984,7 +9051,7 @@
     </row>
     <row r="412" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B412" s="2" t="s">
         <v>384</v>
@@ -8996,7 +9063,7 @@
     </row>
     <row r="413" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B413" s="2" t="s">
         <v>385</v>
@@ -9008,7 +9075,7 @@
     </row>
     <row r="414" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B414" s="2" t="s">
         <v>386</v>
@@ -9020,7 +9087,7 @@
     </row>
     <row r="415" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B415" s="2" t="s">
         <v>387</v>
@@ -9032,7 +9099,7 @@
     </row>
     <row r="416" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B416" s="2" t="s">
         <v>388</v>
@@ -9044,7 +9111,7 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B417" s="2" t="s">
         <v>389</v>
@@ -9056,7 +9123,7 @@
     </row>
     <row r="418" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B418" s="2" t="s">
         <v>390</v>
@@ -9068,7 +9135,7 @@
     </row>
     <row r="419" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>391</v>
@@ -9080,7 +9147,7 @@
     </row>
     <row r="420" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B420" s="2" t="s">
         <v>392</v>
@@ -9092,7 +9159,7 @@
     </row>
     <row r="421" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B421" s="2" t="s">
         <v>393</v>
@@ -9104,7 +9171,7 @@
     </row>
     <row r="422" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B422" s="2" t="s">
         <v>394</v>
@@ -9116,7 +9183,7 @@
     </row>
     <row r="423" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B423" s="2" t="s">
         <v>395</v>
@@ -9128,7 +9195,7 @@
     </row>
     <row r="424" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B424" s="2" t="s">
         <v>396</v>
@@ -9140,7 +9207,7 @@
     </row>
     <row r="425" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>397</v>
@@ -9152,7 +9219,7 @@
     </row>
     <row r="426" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B426" s="2" t="s">
         <v>398</v>
@@ -9164,7 +9231,7 @@
     </row>
     <row r="427" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B427" s="2" t="s">
         <v>399</v>
@@ -9176,7 +9243,7 @@
     </row>
     <row r="428" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B428" s="2" t="s">
         <v>400</v>
@@ -9188,7 +9255,7 @@
     </row>
     <row r="429" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B429" s="2" t="s">
         <v>401</v>
@@ -9200,7 +9267,7 @@
     </row>
     <row r="430" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B430" s="2" t="s">
         <v>402</v>
@@ -9212,7 +9279,7 @@
     </row>
     <row r="431" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B431" s="2" t="s">
         <v>403</v>
@@ -9224,7 +9291,7 @@
     </row>
     <row r="432" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B432" s="2" t="s">
         <v>404</v>
@@ -9236,7 +9303,7 @@
     </row>
     <row r="433" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B433" s="2" t="s">
         <v>405</v>
@@ -9248,7 +9315,7 @@
     </row>
     <row r="434" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B434" s="2" t="s">
         <v>406</v>
@@ -9260,7 +9327,7 @@
     </row>
     <row r="435" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B435" s="2" t="s">
         <v>407</v>
@@ -9272,7 +9339,7 @@
     </row>
     <row r="436" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B436" s="2" t="s">
         <v>408</v>
@@ -9284,7 +9351,7 @@
     </row>
     <row r="437" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B437" s="2" t="s">
         <v>409</v>
@@ -9296,7 +9363,7 @@
     </row>
     <row r="438" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B438" s="2" t="s">
         <v>410</v>
@@ -9308,7 +9375,7 @@
     </row>
     <row r="439" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B439" s="2" t="s">
         <v>411</v>
@@ -9320,7 +9387,7 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B440" s="2" t="s">
         <v>412</v>
@@ -9332,7 +9399,7 @@
     </row>
     <row r="441" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B441" s="2" t="s">
         <v>413</v>
@@ -9344,7 +9411,7 @@
     </row>
     <row r="442" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B442" s="2" t="s">
         <v>414</v>
@@ -9356,7 +9423,7 @@
     </row>
     <row r="443" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B443" s="2" t="s">
         <v>415</v>
@@ -9368,7 +9435,7 @@
     </row>
     <row r="444" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B444" s="2" t="s">
         <v>416</v>
@@ -9380,7 +9447,7 @@
     </row>
     <row r="445" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B445" s="2" t="s">
         <v>417</v>
@@ -9392,7 +9459,7 @@
     </row>
     <row r="446" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B446" s="2" t="s">
         <v>418</v>
@@ -9404,7 +9471,7 @@
     </row>
     <row r="447" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B447" s="2" t="s">
         <v>419</v>
@@ -9416,7 +9483,7 @@
     </row>
     <row r="448" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B448" s="2" t="s">
         <v>420</v>
@@ -9428,7 +9495,7 @@
     </row>
     <row r="449" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B449" s="2" t="s">
         <v>421</v>
@@ -9440,7 +9507,7 @@
     </row>
     <row r="450" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B450" s="2" t="s">
         <v>422</v>
@@ -9452,10 +9519,10 @@
     </row>
     <row r="451" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C451">
         <f t="shared" si="7"/>
@@ -9465,12 +9532,12 @@
         <v>20170515</v>
       </c>
       <c r="E451" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="452" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B452" s="2" t="s">
         <v>423</v>
@@ -9482,7 +9549,7 @@
     </row>
     <row r="453" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B453" s="2" t="s">
         <v>424</v>
@@ -9494,7 +9561,7 @@
     </row>
     <row r="454" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B454" s="2" t="s">
         <v>425</v>
@@ -9506,7 +9573,7 @@
     </row>
     <row r="455" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B455" s="2" t="s">
         <v>426</v>
@@ -9518,7 +9585,7 @@
     </row>
     <row r="456" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B456" s="2" t="s">
         <v>427</v>
@@ -9530,7 +9597,7 @@
     </row>
     <row r="457" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B457" s="2" t="s">
         <v>428</v>
@@ -9542,7 +9609,7 @@
     </row>
     <row r="458" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B458" s="2" t="s">
         <v>429</v>
@@ -9554,7 +9621,7 @@
     </row>
     <row r="459" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B459" s="2" t="s">
         <v>430</v>
@@ -9566,7 +9633,7 @@
     </row>
     <row r="460" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B460" s="2" t="s">
         <v>431</v>
@@ -9578,7 +9645,7 @@
     </row>
     <row r="461" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B461" s="2" t="s">
         <v>432</v>
@@ -9590,7 +9657,7 @@
     </row>
     <row r="462" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B462" s="2" t="s">
         <v>433</v>
@@ -9602,10 +9669,10 @@
     </row>
     <row r="463" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C463">
         <f t="shared" si="7"/>
@@ -9615,12 +9682,12 @@
         <v>20170515</v>
       </c>
       <c r="E463" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="464" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B464" s="2" t="s">
         <v>434</v>
@@ -9632,7 +9699,7 @@
     </row>
     <row r="465" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B465" s="2" t="s">
         <v>435</v>
@@ -9644,7 +9711,7 @@
     </row>
     <row r="466" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B466" s="2" t="s">
         <v>436</v>
@@ -9656,7 +9723,7 @@
     </row>
     <row r="467" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B467" s="2" t="s">
         <v>437</v>
@@ -9668,7 +9735,7 @@
     </row>
     <row r="468" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B468" s="2" t="s">
         <v>438</v>
@@ -9680,7 +9747,7 @@
     </row>
     <row r="469" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B469" s="2" t="s">
         <v>439</v>
@@ -9692,7 +9759,7 @@
     </row>
     <row r="470" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B470" s="2" t="s">
         <v>440</v>
@@ -9704,7 +9771,7 @@
     </row>
     <row r="471" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B471" s="2" t="s">
         <v>441</v>
@@ -9716,7 +9783,7 @@
     </row>
     <row r="472" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B472" s="2" t="s">
         <v>442</v>
@@ -9728,7 +9795,7 @@
     </row>
     <row r="473" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B473" s="2" t="s">
         <v>443</v>
@@ -9740,7 +9807,7 @@
     </row>
     <row r="474" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B474" s="2" t="s">
         <v>444</v>
@@ -9752,7 +9819,7 @@
     </row>
     <row r="475" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B475" s="2" t="s">
         <v>445</v>
@@ -9764,7 +9831,7 @@
     </row>
     <row r="476" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B476" s="2" t="s">
         <v>446</v>
@@ -9776,7 +9843,7 @@
     </row>
     <row r="477" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B477" s="2" t="s">
         <v>447</v>
@@ -9788,7 +9855,7 @@
     </row>
     <row r="478" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B478" s="2" t="s">
         <v>448</v>
@@ -9800,7 +9867,7 @@
     </row>
     <row r="479" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B479" s="2" t="s">
         <v>449</v>
@@ -9812,7 +9879,7 @@
     </row>
     <row r="480" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B480" s="2" t="s">
         <v>450</v>
@@ -9824,7 +9891,7 @@
     </row>
     <row r="481" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B481" s="2" t="s">
         <v>451</v>
@@ -9836,7 +9903,7 @@
     </row>
     <row r="482" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B482" s="2" t="s">
         <v>452</v>
@@ -9848,7 +9915,7 @@
     </row>
     <row r="483" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B483" s="2" t="s">
         <v>453</v>
@@ -9860,7 +9927,7 @@
     </row>
     <row r="484" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B484" s="2" t="s">
         <v>454</v>
@@ -9872,7 +9939,7 @@
     </row>
     <row r="485" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B485" s="2" t="s">
         <v>455</v>
@@ -9884,10 +9951,10 @@
     </row>
     <row r="486" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C486">
         <f t="shared" si="7"/>
@@ -9897,12 +9964,12 @@
         <v>20170515</v>
       </c>
       <c r="E486" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B487" s="2" t="s">
         <v>456</v>
@@ -9914,22 +9981,28 @@
     </row>
     <row r="488" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>457</v>
+        <v>1058</v>
       </c>
       <c r="C488">
         <f t="shared" si="7"/>
-        <v>96</v>
+        <v>134</v>
+      </c>
+      <c r="D488">
+        <v>20170920</v>
+      </c>
+      <c r="E488" t="s">
+        <v>1059</v>
       </c>
     </row>
     <row r="489" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C489">
         <f t="shared" si="7"/>
@@ -9938,10 +10011,10 @@
     </row>
     <row r="490" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C490">
         <f t="shared" si="7"/>
@@ -9950,10 +10023,10 @@
     </row>
     <row r="491" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C491">
         <f t="shared" si="7"/>
@@ -9962,10 +10035,10 @@
     </row>
     <row r="492" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C492">
         <f t="shared" si="7"/>
@@ -9974,10 +10047,10 @@
     </row>
     <row r="493" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C493">
         <f t="shared" si="7"/>
@@ -9986,10 +10059,10 @@
     </row>
     <row r="494" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C494">
         <f t="shared" si="7"/>
@@ -9998,10 +10071,10 @@
     </row>
     <row r="495" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C495">
         <f t="shared" si="7"/>
@@ -10010,10 +10083,10 @@
     </row>
     <row r="496" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C496">
         <f t="shared" si="7"/>
@@ -10022,10 +10095,10 @@
     </row>
     <row r="497" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C497">
         <f t="shared" si="7"/>
@@ -10034,10 +10107,10 @@
     </row>
     <row r="498" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C498">
         <f t="shared" si="7"/>
@@ -10046,10 +10119,10 @@
     </row>
     <row r="499" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C499">
         <f t="shared" si="7"/>
@@ -10059,15 +10132,15 @@
         <v>20170515</v>
       </c>
       <c r="E499" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="500" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C500">
         <f t="shared" si="7"/>
@@ -10076,10 +10149,10 @@
     </row>
     <row r="501" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C501">
         <f t="shared" si="7"/>
@@ -10088,10 +10161,10 @@
     </row>
     <row r="502" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C502">
         <f t="shared" si="7"/>
@@ -10100,10 +10173,10 @@
     </row>
     <row r="503" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C503">
         <f t="shared" si="7"/>
@@ -10112,10 +10185,10 @@
     </row>
     <row r="504" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C504">
         <f t="shared" si="7"/>
@@ -10124,10 +10197,10 @@
     </row>
     <row r="505" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C505">
         <f t="shared" si="7"/>
@@ -10136,10 +10209,10 @@
     </row>
     <row r="506" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C506">
         <f t="shared" si="7"/>
@@ -10148,10 +10221,10 @@
     </row>
     <row r="507" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C507">
         <f t="shared" si="7"/>
@@ -10160,10 +10233,10 @@
     </row>
     <row r="508" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C508">
         <f t="shared" si="7"/>
@@ -10172,10 +10245,10 @@
     </row>
     <row r="509" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C509">
         <f t="shared" si="7"/>
@@ -10184,10 +10257,10 @@
     </row>
     <row r="510" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C510">
         <f t="shared" si="7"/>
@@ -10196,10 +10269,10 @@
     </row>
     <row r="511" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C511">
         <f t="shared" si="7"/>
@@ -10208,10 +10281,10 @@
     </row>
     <row r="512" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C512">
         <f t="shared" si="7"/>
@@ -10220,10 +10293,10 @@
     </row>
     <row r="513" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C513">
         <f t="shared" si="7"/>
@@ -10232,10 +10305,10 @@
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C514">
         <f t="shared" ref="C514:C530" si="8">LEN(B514)</f>
@@ -10244,10 +10317,10 @@
     </row>
     <row r="515" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C515">
         <f t="shared" si="8"/>
@@ -10256,10 +10329,10 @@
     </row>
     <row r="516" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C516">
         <f t="shared" si="8"/>
@@ -10268,10 +10341,10 @@
     </row>
     <row r="517" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C517">
         <f t="shared" si="8"/>
@@ -10280,10 +10353,10 @@
     </row>
     <row r="518" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C518">
         <f t="shared" si="8"/>
@@ -10292,10 +10365,10 @@
     </row>
     <row r="519" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C519">
         <f t="shared" si="8"/>
@@ -10304,10 +10377,10 @@
     </row>
     <row r="520" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C520">
         <f t="shared" si="8"/>
@@ -10316,10 +10389,10 @@
     </row>
     <row r="521" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C521">
         <f t="shared" si="8"/>
@@ -10328,10 +10401,10 @@
     </row>
     <row r="522" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C522">
         <f t="shared" si="8"/>
@@ -10340,10 +10413,10 @@
     </row>
     <row r="523" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C523">
         <f t="shared" si="8"/>
@@ -10352,10 +10425,10 @@
     </row>
     <row r="524" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C524">
         <f t="shared" si="8"/>
@@ -10364,10 +10437,10 @@
     </row>
     <row r="525" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C525">
         <f t="shared" si="8"/>
@@ -10376,10 +10449,10 @@
     </row>
     <row r="526" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C526">
         <f t="shared" si="8"/>
@@ -10388,10 +10461,10 @@
     </row>
     <row r="527" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C527">
         <f t="shared" si="8"/>
@@ -10400,10 +10473,10 @@
     </row>
     <row r="528" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C528">
         <f t="shared" si="8"/>
@@ -10412,10 +10485,10 @@
     </row>
     <row r="529" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C529">
         <f t="shared" si="8"/>
@@ -10424,10 +10497,10 @@
     </row>
     <row r="530" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C530">
         <f t="shared" si="8"/>

--- a/tweetlist.xlsx
+++ b/tweetlist.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="1062">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="1065">
   <si>
     <t>【今日の人工衛星】1/1 1990年：JCSAT-2 日本のJSAT(現・スカパーJSAT)保有の通信衛星。タイタンIIIロケットで打上、東経154度からサービスを提供。現在は寿命が切れている。</t>
   </si>
@@ -92,9 +92,6 @@
     <t>【今日の人工衛星】1/18 1963年：1965-003A アメリカ空軍の打ち上げた物体。詳細情報はNSSDCからは確認できず。1979年に消滅した模様。</t>
   </si>
   <si>
-    <t>【今日の人工衛星】1/19 2006年：ニューホライズンズ アメリカの惑星探査機。人類初の冥王星探査機である。打ち上げ直後の速度30km/sは史上最速、月軌道および木星までも史上最速で駆け抜け、冥王星へ向かっている</t>
-  </si>
-  <si>
     <t>【今日の人工衛星】1/20 1978年：プログレス1号 旧ソ連・ロシアの宇宙補給船プログレスの初号機。サリュート6号への物資輸送に使用した。その後プログレスは42機作成、現在は次々世代のプログレスが使用されている</t>
   </si>
   <si>
@@ -287,9 +284,6 @@
     <t>★1980年の今日2/17 9:40、M-3Sロケット1号機でたんせい4号が打ち上げられました。</t>
   </si>
   <si>
-    <t>【今日の人工衛星】2/18 2006年：MTSAT-2[ひまわり7号] 運輸多目的衛星。重量は4.7tに達する。気象観測ミッションは2010年より本番運用に入った。</t>
-  </si>
-  <si>
     <t>【今日の人工衛星】2/18 2000年：SUPERBIRD B2 スカパーJSATが保有する通信衛星。アリアン4ロケットで打上。東経162度の静止軌道から日本全国に通信サービスを提供。</t>
   </si>
   <si>
@@ -410,18 +404,12 @@
     <t>【今日の人工衛星】3/3 1972年：Pioneer10 NASAの惑星探査機、人類初の木星探査機。初めて太陽系脱出速度に達した衛星でもある(後に距離ではボイジャー1号に抜かれる)。2003年1月22日以降通信は途絶。</t>
   </si>
   <si>
-    <t>【今日の人工衛星】3/4 2010年：GOES-15 アメリカの気象観測衛星GOESの最新機。軌道上で試験中。現在現役なのはGOES11(西)13(東)14(11,13の故障したSEM/SXIの代替)12(故障のため南米の観測支援に変更)</t>
-  </si>
-  <si>
     <t>【今日の人工衛星】3/5 2010年：遥感9A号、9B号、9C号 中国の地球観測衛星、名前は「リモートセンシング」の意味。中国は民生目的だと発表しているが、軍事衛星としても利用されている、という説がある。</t>
   </si>
   <si>
     <t>【今日の人工衛星】3/6 1989年：JCSAT-1 日本通信衛星株式会社(JSAT)が打ち上げた通信衛星。日本及びアジア・太平洋地域で利用が可能。</t>
   </si>
   <si>
-    <t>【今日の人工衛星】3/8 2002年：TDRS-9 NASAの打ち上げた、データ中継衛星の第2世代の2号機。現在までに10機が打ち上げられ、寿命を迎えた1号、チャレンジャーと共に喪われた2号機を除き全機現役。</t>
-  </si>
-  <si>
     <t>【今日の人工衛星】3/9 2008年：Jules Verne 欧州補給機（ATV）の初号機。約3.3tの物資を輸送。ISSの軌道変更能力も持つ。打ち上げは専用型(アリアン5 ES)で、アリアン5 ECAの強力な第1段とアリアン5 Gの再着火可能な第2段を組み合わせている。</t>
   </si>
   <si>
@@ -1445,9 +1433,6 @@
     <t>【今日の人工衛星】12/12 1970年：ウフル(Uhuru) アメリカが打ち上げた世界初のX線天文衛星。ケニア沖から打ち上げられ、ケニアの独立記念日だったことによりスワヒリ語の「自由」という意味のUhuruという名前になった</t>
   </si>
   <si>
-    <t>【今日の人工衛星】12/13 1967年：パイオニア8号 アメリカの太陽観測衛星。現在でも正常に動作しており、観測データとしては活用されないものの、時折交信が行われている</t>
-  </si>
-  <si>
     <t>【今日の人工衛星】12/14 2002年：みどりII 地球観測衛星。太陽電池パネル故障で通信途絶した「みどり」の後継機で、次世代のみどりとして「II」を名乗ったが、約1年で電源の不調により通信途絶。</t>
   </si>
   <si>
@@ -1482,9 +1467,6 @@
   </si>
   <si>
     <t>【今日の人工衛星】12/20 2000年：LDREX きく8号に搭載されたアンテナの展開実験を行った実験モデル。展開が途中で一時停止したため、展開をカメラ映像で確認できなかった。実験は2006年に再度行われ、成功が確認された</t>
-  </si>
-  <si>
-    <t>【今日の人工衛星】12/21 1968年：アポロ8号 アポロ計画2回目の有人飛行で、初めて付きを周回して帰還。月面の奥に地球の出が見える写真はこれで撮影された。当初は月まで行かない予定だったが旧ソ連に負けないための急な予定変更であった</t>
   </si>
   <si>
     <t>【今日の人工衛星】12/21 1984年：ヴェガ2号 ハレー彗星観測と金星探査を目的とした旧ソ連の探査機。同年12/15打上のヴェガ1号と2機で観測を実施。金星に降下ユニットを送り込んで観測後、ハレー彗星を観測。</t>
@@ -3109,10 +3091,6 @@
   </si>
   <si>
     <t xml:space="preserve">【お帰りはやぶさ・帰還7周年】6/9 12:30-15:00 最後の軌道修正となるTCM-4完了。4/4-6、5/1-4、5/23-27、6/3-5とあわせ5回の軌道修正でオーストラリア・ウーメラ砂漠の着陸地点へ誘導完了 </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>補足：イランは自力の打ち上げ能力を持つ9カ国目。V2ロケット⇒ソ連：スカッド⇒北朝鮮：ノドン⇒イラン：シャハブ（弾道ミサイル）⇒イラン：サフィール　という流れで打上能力を確保した。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3633,6 +3611,235 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>04/05 22:19:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【今日の人工衛星】12/13 1967年：パイオニア8号 アメリカの太陽観測衛星。惑星間の太陽風、太陽磁場、宇宙線を精密に観測することが目的。</t>
+    <rPh sb="41" eb="44">
+      <t>ワクセイカン</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>セイミツ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>カンソク</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>モクテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【今日の人工衛星】12/21 1968年：アポロ8号 アポロ計画2回目の有人飛行で、初めて月を周回して帰還。月面の奥に地球の出が見える写真はこれで撮影された。当初は月まで行かない予定だったが旧ソ連に負けないための急な予定変更であった</t>
+    <rPh sb="45" eb="46">
+      <t>ツキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【今日の人工衛星】1/19 2006年：ニューホライズンズ アメリカの惑星探査機。人類初の冥王星探査機である。打ち上げ直後の速度30km/sは史上最速、月軌道および木星までも史上最速で駆け抜け、冥王星を2015年から2016年にかけて探査。その後は太陽系外縁天体を観測予定。</t>
+    <rPh sb="105" eb="106">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>タンサ</t>
+    </rPh>
+    <rPh sb="122" eb="123">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="124" eb="127">
+      <t>タイヨウケイ</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>カンソク</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補足：イランは自力の打ち上げ能力を持つ9カ国目。V2ロケット⇒ソ連：スカッド⇒北朝鮮：ノドン⇒イラン：シャハブ（弾道ミサイル）⇒イラン：サフィール　という流れで打上能力を確保した。なお、その後、北朝鮮とニュージーランドも打上能力を獲得し、合計11ヶ国が人工衛星打上実績を持つ。</t>
+    <rPh sb="95" eb="96">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="97" eb="100">
+      <t>キタチョウセン</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>ウチアゲ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>カクトク</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>コク</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>ジンコウ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>エイセイ</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="131" eb="132">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="135" eb="136">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【今日の人工衛星】2/18 2006年：MTSAT-2[ひまわり7号] 運輸多目的衛星。重量は4.7tに達する。気象観測ミッションは2010年より本番運用に入った。2015年7月には後継機の8号に気象観測を引き継ぎ、9号打上により待機運用も終了。現在は航空管制のみ運用中。</t>
+    <rPh sb="86" eb="87">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="91" eb="94">
+      <t>コウケイキ</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>ゴウ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>キショウ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>カンソク</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>ゴウ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>ウチアゲ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>タイキ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>ウンヨウ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>コウクウ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="132" eb="135">
+      <t>ウンヨウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【今日の人工衛星】3/4 2010年：GOES-15 アメリカの気象観測衛星GOESのうちの1基。2011年より運用中だが、後継機のGOES-17が2018年に打ち上げられ、今後待機運用となる模様。現在現役なのはGOES15,17(西)16(東)13,14(待機)</t>
+    <rPh sb="47" eb="48">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="56" eb="59">
+      <t>ウンヨウチュウ</t>
+    </rPh>
+    <rPh sb="62" eb="65">
+      <t>コウケイキ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>コンゴ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>タイキ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>ウンヨウ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>モヨウ</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>タイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【今日の人工衛星】3/8 2002年：TDRS-9 NASAの打ち上げた、データ中継衛星の第2世代の2号機。現在までに13機が打ち上げられ、寿命を迎えた1号、チャレンジャーと共に喪われた2号機、4号機が退役。3,5号機は待機運用だが他は全部現役である。</t>
+    <rPh sb="98" eb="100">
+      <t>ゴウキ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>タイエキ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>ゴウキ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>タイキ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>ウンヨウ</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>ゼンブ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>ゲンエキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3697,7 +3904,37 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3984,10 +4221,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E530"/>
+  <dimension ref="A1:E531"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A349" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E351" sqref="E351"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -3999,7 +4236,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -4011,7 +4248,7 @@
     </row>
     <row r="2" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -4023,7 +4260,7 @@
     </row>
     <row r="3" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -4035,7 +4272,7 @@
     </row>
     <row r="4" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -4047,7 +4284,7 @@
     </row>
     <row r="5" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -4059,7 +4296,7 @@
     </row>
     <row r="6" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
@@ -4071,7 +4308,7 @@
     </row>
     <row r="7" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
@@ -4083,7 +4320,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
@@ -4095,7 +4332,7 @@
     </row>
     <row r="9" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>8</v>
@@ -4107,7 +4344,7 @@
     </row>
     <row r="10" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -4119,7 +4356,7 @@
     </row>
     <row r="11" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>10</v>
@@ -4131,7 +4368,7 @@
     </row>
     <row r="12" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
@@ -4143,7 +4380,7 @@
     </row>
     <row r="13" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
@@ -4155,7 +4392,7 @@
     </row>
     <row r="14" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>13</v>
@@ -4167,7 +4404,7 @@
     </row>
     <row r="15" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>14</v>
@@ -4179,7 +4416,7 @@
     </row>
     <row r="16" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>15</v>
@@ -4189,9 +4426,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>16</v>
@@ -4201,9 +4438,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>17</v>
@@ -4213,9 +4450,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>18</v>
@@ -4225,9 +4462,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>19</v>
@@ -4237,9 +4474,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>20</v>
@@ -4249,132 +4486,138 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>21</v>
+        <v>1060</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="D22">
+        <v>20180404</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
@@ -4383,10 +4626,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
@@ -4395,10 +4638,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
@@ -4407,10 +4650,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
@@ -4419,10 +4662,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
@@ -4431,10 +4674,10 @@
     </row>
     <row r="37" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
@@ -4443,10 +4686,10 @@
     </row>
     <row r="38" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
@@ -4455,10 +4698,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
@@ -4467,10 +4710,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
@@ -4479,10 +4722,10 @@
     </row>
     <row r="41" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
@@ -4491,10 +4734,10 @@
     </row>
     <row r="42" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
@@ -4503,10 +4746,10 @@
     </row>
     <row r="43" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
@@ -4515,10 +4758,10 @@
     </row>
     <row r="44" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
@@ -4527,10 +4770,10 @@
     </row>
     <row r="45" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
@@ -4539,10 +4782,10 @@
     </row>
     <row r="46" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
@@ -4551,10 +4794,10 @@
     </row>
     <row r="47" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
@@ -4563,10 +4806,10 @@
     </row>
     <row r="48" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
@@ -4575,10 +4818,10 @@
     </row>
     <row r="49" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
@@ -4587,40 +4830,40 @@
     </row>
     <row r="50" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>1026</v>
+        <v>1061</v>
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="D51">
-        <v>20170515</v>
+        <v>20180404</v>
       </c>
       <c r="E51" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
@@ -4629,10 +4872,10 @@
     </row>
     <row r="53" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
@@ -4641,10 +4884,10 @@
     </row>
     <row r="54" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
@@ -4653,10 +4896,10 @@
     </row>
     <row r="55" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
@@ -4665,10 +4908,10 @@
     </row>
     <row r="56" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
@@ -4677,10 +4920,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
@@ -4689,10 +4932,10 @@
     </row>
     <row r="58" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
@@ -4701,10 +4944,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
@@ -4713,10 +4956,10 @@
     </row>
     <row r="60" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
@@ -4725,10 +4968,10 @@
     </row>
     <row r="61" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
@@ -4737,10 +4980,10 @@
     </row>
     <row r="62" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
@@ -4749,10 +4992,10 @@
     </row>
     <row r="63" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C63">
         <f t="shared" si="0"/>
@@ -4761,10 +5004,10 @@
     </row>
     <row r="64" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C64">
         <f t="shared" si="0"/>
@@ -4773,10 +5016,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C65">
         <f t="shared" ref="C65:C129" si="1">LEN(B65)</f>
@@ -4785,10 +5028,10 @@
     </row>
     <row r="66" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C66">
         <f t="shared" si="1"/>
@@ -4797,10 +5040,10 @@
     </row>
     <row r="67" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C67">
         <f t="shared" si="1"/>
@@ -4809,10 +5052,10 @@
     </row>
     <row r="68" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C68">
         <f t="shared" si="1"/>
@@ -4821,10 +5064,10 @@
     </row>
     <row r="69" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C69">
         <f t="shared" si="1"/>
@@ -4833,10 +5076,10 @@
     </row>
     <row r="70" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C70">
         <f t="shared" si="1"/>
@@ -4845,10 +5088,10 @@
     </row>
     <row r="71" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C71">
         <f t="shared" si="1"/>
@@ -4857,10 +5100,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C72">
         <f t="shared" si="1"/>
@@ -4869,10 +5112,10 @@
     </row>
     <row r="73" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C73">
         <f t="shared" si="1"/>
@@ -4881,10 +5124,10 @@
     </row>
     <row r="74" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C74">
         <f t="shared" si="1"/>
@@ -4893,10 +5136,10 @@
     </row>
     <row r="75" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C75">
         <f t="shared" si="1"/>
@@ -4905,10 +5148,10 @@
     </row>
     <row r="76" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C76">
         <f t="shared" si="1"/>
@@ -4917,10 +5160,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C77">
         <f t="shared" si="1"/>
@@ -4929,10 +5172,10 @@
     </row>
     <row r="78" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C78">
         <f t="shared" si="1"/>
@@ -4941,10 +5184,10 @@
     </row>
     <row r="79" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C79">
         <f t="shared" si="1"/>
@@ -4953,10 +5196,10 @@
     </row>
     <row r="80" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C80">
         <f t="shared" si="1"/>
@@ -4965,10 +5208,10 @@
     </row>
     <row r="81" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C81">
         <f t="shared" si="1"/>
@@ -4977,10 +5220,10 @@
     </row>
     <row r="82" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C82">
         <f t="shared" si="1"/>
@@ -4989,10 +5232,10 @@
     </row>
     <row r="83" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>1043</v>
+        <v>1036</v>
       </c>
       <c r="C83">
         <f t="shared" si="1"/>
@@ -5002,15 +5245,15 @@
         <v>20170515</v>
       </c>
       <c r="E83" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C84">
         <f t="shared" si="1"/>
@@ -5019,10 +5262,10 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C85">
         <f t="shared" si="1"/>
@@ -5031,10 +5274,10 @@
     </row>
     <row r="86" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C86">
         <f t="shared" si="1"/>
@@ -5043,10 +5286,10 @@
     </row>
     <row r="87" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C87">
         <f t="shared" si="1"/>
@@ -5055,34 +5298,40 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C88">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>86</v>
+        <v>1062</v>
       </c>
       <c r="C89">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>136</v>
+      </c>
+      <c r="D89">
+        <v>20180404</v>
+      </c>
+      <c r="E89" t="s">
+        <v>1057</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C90">
         <f t="shared" si="1"/>
@@ -5091,10 +5340,10 @@
     </row>
     <row r="91" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C91">
         <f t="shared" si="1"/>
@@ -5103,10 +5352,10 @@
     </row>
     <row r="92" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C92">
         <f t="shared" si="1"/>
@@ -5115,10 +5364,10 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C93">
         <f t="shared" si="1"/>
@@ -5127,10 +5376,10 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C94">
         <f t="shared" si="1"/>
@@ -5139,10 +5388,10 @@
     </row>
     <row r="95" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C95">
         <f t="shared" si="1"/>
@@ -5151,10 +5400,10 @@
     </row>
     <row r="96" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C96">
         <f t="shared" si="1"/>
@@ -5163,10 +5412,10 @@
     </row>
     <row r="97" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C97">
         <f t="shared" si="1"/>
@@ -5175,10 +5424,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C98">
         <f t="shared" si="1"/>
@@ -5187,10 +5436,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C99">
         <f t="shared" si="1"/>
@@ -5199,10 +5448,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C100">
         <f t="shared" si="1"/>
@@ -5211,10 +5460,10 @@
     </row>
     <row r="101" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C101">
         <f t="shared" si="1"/>
@@ -5223,10 +5472,10 @@
     </row>
     <row r="102" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C102">
         <f t="shared" si="1"/>
@@ -5235,10 +5484,10 @@
     </row>
     <row r="103" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C103">
         <f t="shared" si="1"/>
@@ -5247,10 +5496,10 @@
     </row>
     <row r="104" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C104">
         <f t="shared" si="1"/>
@@ -5259,10 +5508,10 @@
     </row>
     <row r="105" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C105">
         <f t="shared" si="1"/>
@@ -5271,10 +5520,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C106">
         <f t="shared" si="1"/>
@@ -5283,10 +5532,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C107">
         <f t="shared" si="1"/>
@@ -5295,10 +5544,10 @@
     </row>
     <row r="108" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C108">
         <f t="shared" si="1"/>
@@ -5307,10 +5556,10 @@
     </row>
     <row r="109" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C109">
         <f t="shared" si="1"/>
@@ -5319,10 +5568,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C110">
         <f t="shared" si="1"/>
@@ -5331,10 +5580,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C111">
         <f t="shared" si="1"/>
@@ -5343,10 +5592,10 @@
     </row>
     <row r="112" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C112">
         <f t="shared" si="1"/>
@@ -5355,10 +5604,10 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C113">
         <f t="shared" si="1"/>
@@ -5367,10 +5616,10 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C114">
         <f t="shared" si="1"/>
@@ -5379,10 +5628,10 @@
     </row>
     <row r="115" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C115">
         <f t="shared" si="1"/>
@@ -5391,10 +5640,10 @@
     </row>
     <row r="116" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C116">
         <f t="shared" si="1"/>
@@ -5403,10 +5652,10 @@
     </row>
     <row r="117" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C117">
         <f t="shared" si="1"/>
@@ -5415,10 +5664,10 @@
     </row>
     <row r="118" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C118">
         <f t="shared" si="1"/>
@@ -5427,10 +5676,10 @@
     </row>
     <row r="119" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C119">
         <f t="shared" si="1"/>
@@ -5439,10 +5688,10 @@
     </row>
     <row r="120" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C120">
         <f t="shared" si="1"/>
@@ -5451,10 +5700,10 @@
     </row>
     <row r="121" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C121">
         <f t="shared" si="1"/>
@@ -5463,10 +5712,10 @@
     </row>
     <row r="122" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C122">
         <f t="shared" si="1"/>
@@ -5475,10 +5724,10 @@
     </row>
     <row r="123" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>1046</v>
+        <v>1039</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
       <c r="C123">
         <f t="shared" si="1"/>
@@ -5488,15 +5737,15 @@
         <v>20170515</v>
       </c>
       <c r="E123" t="s">
-        <v>1048</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C124">
         <f t="shared" si="1"/>
@@ -5505,10 +5754,10 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>1032</v>
+        <v>1025</v>
       </c>
       <c r="C125">
         <f t="shared" si="1"/>
@@ -5518,15 +5767,15 @@
         <v>20170515</v>
       </c>
       <c r="E125" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C126">
         <f t="shared" si="1"/>
@@ -5535,10 +5784,10 @@
     </row>
     <row r="127" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C127">
         <f t="shared" si="1"/>
@@ -5547,10 +5796,10 @@
     </row>
     <row r="128" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C128">
         <f t="shared" si="1"/>
@@ -5559,10 +5808,10 @@
     </row>
     <row r="129" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>1029</v>
+        <v>1022</v>
       </c>
       <c r="C129">
         <f t="shared" si="1"/>
@@ -5572,15 +5821,15 @@
         <v>20170515</v>
       </c>
       <c r="E129" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C130">
         <f t="shared" ref="C130:C193" si="2">LEN(B130)</f>
@@ -5589,22 +5838,28 @@
     </row>
     <row r="131" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>127</v>
+        <v>1063</v>
       </c>
       <c r="C131">
         <f t="shared" si="2"/>
-        <v>119</v>
+        <v>132</v>
+      </c>
+      <c r="D131">
+        <v>20180404</v>
+      </c>
+      <c r="E131" t="s">
+        <v>1057</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C132">
         <f t="shared" si="2"/>
@@ -5613,10 +5868,10 @@
     </row>
     <row r="133" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C133">
         <f t="shared" si="2"/>
@@ -5625,10 +5880,10 @@
     </row>
     <row r="134" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="C134">
         <f t="shared" si="2"/>
@@ -5638,27 +5893,33 @@
         <v>20170515</v>
       </c>
       <c r="E134" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>130</v>
+        <v>1064</v>
       </c>
       <c r="C135">
         <f t="shared" si="2"/>
-        <v>104</v>
+        <v>126</v>
+      </c>
+      <c r="D135">
+        <v>20180404</v>
+      </c>
+      <c r="E135" t="s">
+        <v>1057</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>1039</v>
+        <v>1032</v>
       </c>
       <c r="C136">
         <f t="shared" si="2"/>
@@ -5668,15 +5929,15 @@
         <v>20170515</v>
       </c>
       <c r="E136" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C137">
         <f t="shared" si="2"/>
@@ -5685,10 +5946,10 @@
     </row>
     <row r="138" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C138">
         <f t="shared" si="2"/>
@@ -5697,10 +5958,10 @@
     </row>
     <row r="139" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C139">
         <f t="shared" si="2"/>
@@ -5709,10 +5970,10 @@
     </row>
     <row r="140" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C140">
         <f t="shared" si="2"/>
@@ -5721,10 +5982,10 @@
     </row>
     <row r="141" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C141">
         <f t="shared" si="2"/>
@@ -5733,10 +5994,10 @@
     </row>
     <row r="142" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C142">
         <f t="shared" si="2"/>
@@ -5745,10 +6006,10 @@
     </row>
     <row r="143" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C143">
         <f t="shared" si="2"/>
@@ -5757,10 +6018,10 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C144">
         <f t="shared" si="2"/>
@@ -5769,10 +6030,10 @@
     </row>
     <row r="145" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C145">
         <f t="shared" si="2"/>
@@ -5781,10 +6042,10 @@
     </row>
     <row r="146" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C146">
         <f t="shared" si="2"/>
@@ -5793,10 +6054,10 @@
     </row>
     <row r="147" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C147">
         <f t="shared" si="2"/>
@@ -5805,10 +6066,10 @@
     </row>
     <row r="148" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C148">
         <f t="shared" si="2"/>
@@ -5817,10 +6078,10 @@
     </row>
     <row r="149" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C149">
         <f t="shared" si="2"/>
@@ -5829,10 +6090,10 @@
     </row>
     <row r="150" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C150">
         <f t="shared" si="2"/>
@@ -5841,10 +6102,10 @@
     </row>
     <row r="151" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>1038</v>
+        <v>1031</v>
       </c>
       <c r="C151">
         <f t="shared" si="2"/>
@@ -5853,10 +6114,10 @@
     </row>
     <row r="152" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C152">
         <f t="shared" si="2"/>
@@ -5865,10 +6126,10 @@
     </row>
     <row r="153" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C153">
         <f t="shared" si="2"/>
@@ -5877,10 +6138,10 @@
     </row>
     <row r="154" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C154">
         <f t="shared" si="2"/>
@@ -5889,10 +6150,10 @@
     </row>
     <row r="155" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C155">
         <f t="shared" si="2"/>
@@ -5901,10 +6162,10 @@
     </row>
     <row r="156" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C156">
         <f t="shared" si="2"/>
@@ -5913,10 +6174,10 @@
     </row>
     <row r="157" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C157">
         <f t="shared" si="2"/>
@@ -5925,10 +6186,10 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C158">
         <f t="shared" si="2"/>
@@ -5937,10 +6198,10 @@
     </row>
     <row r="159" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>1027</v>
+        <v>1020</v>
       </c>
       <c r="C159">
         <f t="shared" si="2"/>
@@ -5950,15 +6211,15 @@
         <v>20170515</v>
       </c>
       <c r="E159" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C160">
         <f t="shared" si="2"/>
@@ -5967,10 +6228,10 @@
     </row>
     <row r="161" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C161">
         <f t="shared" si="2"/>
@@ -5979,10 +6240,10 @@
     </row>
     <row r="162" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C162">
         <f t="shared" si="2"/>
@@ -5991,10 +6252,10 @@
     </row>
     <row r="163" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C163">
         <f t="shared" si="2"/>
@@ -6003,10 +6264,10 @@
     </row>
     <row r="164" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C164">
         <f t="shared" si="2"/>
@@ -6015,10 +6276,10 @@
     </row>
     <row r="165" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C165">
         <f t="shared" si="2"/>
@@ -6027,10 +6288,10 @@
     </row>
     <row r="166" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C166">
         <f t="shared" si="2"/>
@@ -6039,10 +6300,10 @@
     </row>
     <row r="167" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C167">
         <f t="shared" si="2"/>
@@ -6051,10 +6312,10 @@
     </row>
     <row r="168" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C168">
         <f t="shared" si="2"/>
@@ -6063,10 +6324,10 @@
     </row>
     <row r="169" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C169">
         <f t="shared" si="2"/>
@@ -6075,10 +6336,10 @@
     </row>
     <row r="170" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C170">
         <f t="shared" si="2"/>
@@ -6087,10 +6348,10 @@
     </row>
     <row r="171" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C171">
         <f t="shared" si="2"/>
@@ -6099,10 +6360,10 @@
     </row>
     <row r="172" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C172">
         <f t="shared" si="2"/>
@@ -6111,10 +6372,10 @@
     </row>
     <row r="173" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>1033</v>
+        <v>1026</v>
       </c>
       <c r="C173">
         <f t="shared" si="2"/>
@@ -6124,15 +6385,15 @@
         <v>20170515</v>
       </c>
       <c r="E173" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C174">
         <f t="shared" si="2"/>
@@ -6141,10 +6402,10 @@
     </row>
     <row r="175" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C175">
         <f t="shared" si="2"/>
@@ -6153,10 +6414,10 @@
     </row>
     <row r="176" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C176">
         <f t="shared" si="2"/>
@@ -6165,10 +6426,10 @@
     </row>
     <row r="177" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C177">
         <f t="shared" si="2"/>
@@ -6177,10 +6438,10 @@
     </row>
     <row r="178" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C178">
         <f t="shared" si="2"/>
@@ -6189,10 +6450,10 @@
     </row>
     <row r="179" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C179">
         <f t="shared" si="2"/>
@@ -6201,10 +6462,10 @@
     </row>
     <row r="180" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C180">
         <f t="shared" si="2"/>
@@ -6213,10 +6474,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C181">
         <f t="shared" si="2"/>
@@ -6225,10 +6486,10 @@
     </row>
     <row r="182" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C182">
         <f t="shared" si="2"/>
@@ -6237,10 +6498,10 @@
     </row>
     <row r="183" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C183">
         <f t="shared" si="2"/>
@@ -6249,10 +6510,10 @@
     </row>
     <row r="184" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C184">
         <f t="shared" si="2"/>
@@ -6261,10 +6522,10 @@
     </row>
     <row r="185" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C185">
         <f t="shared" si="2"/>
@@ -6273,10 +6534,10 @@
     </row>
     <row r="186" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C186">
         <f t="shared" si="2"/>
@@ -6285,10 +6546,10 @@
     </row>
     <row r="187" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C187">
         <f t="shared" si="2"/>
@@ -6297,10 +6558,10 @@
     </row>
     <row r="188" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C188">
         <f t="shared" si="2"/>
@@ -6309,10 +6570,10 @@
     </row>
     <row r="189" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C189">
         <f t="shared" si="2"/>
@@ -6321,10 +6582,10 @@
     </row>
     <row r="190" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C190">
         <f t="shared" si="2"/>
@@ -6333,10 +6594,10 @@
     </row>
     <row r="191" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C191">
         <f t="shared" si="2"/>
@@ -6345,10 +6606,10 @@
     </row>
     <row r="192" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C192">
         <f t="shared" si="2"/>
@@ -6357,10 +6618,10 @@
     </row>
     <row r="193" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C193">
         <f t="shared" si="2"/>
@@ -6370,15 +6631,15 @@
         <v>20170515</v>
       </c>
       <c r="E193" t="s">
-        <v>1044</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C194">
         <f t="shared" ref="C194:C257" si="3">LEN(B194)</f>
@@ -6387,10 +6648,10 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C195">
         <f t="shared" si="3"/>
@@ -6399,10 +6660,10 @@
     </row>
     <row r="196" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C196">
         <f t="shared" si="3"/>
@@ -6411,10 +6672,10 @@
     </row>
     <row r="197" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C197">
         <f t="shared" si="3"/>
@@ -6423,10 +6684,10 @@
     </row>
     <row r="198" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C198">
         <f t="shared" si="3"/>
@@ -6435,10 +6696,10 @@
     </row>
     <row r="199" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C199">
         <f t="shared" si="3"/>
@@ -6447,10 +6708,10 @@
     </row>
     <row r="200" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C200">
         <f t="shared" si="3"/>
@@ -6459,10 +6720,10 @@
     </row>
     <row r="201" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C201">
         <f t="shared" si="3"/>
@@ -6471,10 +6732,10 @@
     </row>
     <row r="202" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C202">
         <f t="shared" si="3"/>
@@ -6483,10 +6744,10 @@
     </row>
     <row r="203" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C203">
         <f t="shared" si="3"/>
@@ -6495,10 +6756,10 @@
     </row>
     <row r="204" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C204">
         <f t="shared" si="3"/>
@@ -6507,10 +6768,10 @@
     </row>
     <row r="205" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C205">
         <f t="shared" si="3"/>
@@ -6519,10 +6780,10 @@
     </row>
     <row r="206" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C206">
         <f t="shared" si="3"/>
@@ -6531,10 +6792,10 @@
     </row>
     <row r="207" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C207">
         <f t="shared" si="3"/>
@@ -6543,10 +6804,10 @@
     </row>
     <row r="208" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C208">
         <f t="shared" si="3"/>
@@ -6555,10 +6816,10 @@
     </row>
     <row r="209" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C209">
         <f t="shared" si="3"/>
@@ -6567,10 +6828,10 @@
     </row>
     <row r="210" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C210">
         <f t="shared" si="3"/>
@@ -6579,10 +6840,10 @@
     </row>
     <row r="211" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C211">
         <f t="shared" si="3"/>
@@ -6591,10 +6852,10 @@
     </row>
     <row r="212" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C212">
         <f t="shared" si="3"/>
@@ -6603,10 +6864,10 @@
     </row>
     <row r="213" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C213">
         <f t="shared" si="3"/>
@@ -6615,10 +6876,10 @@
     </row>
     <row r="214" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C214">
         <f t="shared" si="3"/>
@@ -6627,10 +6888,10 @@
     </row>
     <row r="215" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C215">
         <f t="shared" si="3"/>
@@ -6639,10 +6900,10 @@
     </row>
     <row r="216" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C216">
         <f t="shared" si="3"/>
@@ -6651,10 +6912,10 @@
     </row>
     <row r="217" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C217">
         <f t="shared" si="3"/>
@@ -6663,10 +6924,10 @@
     </row>
     <row r="218" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>1049</v>
+        <v>1042</v>
       </c>
       <c r="C218">
         <f t="shared" si="3"/>
@@ -6676,15 +6937,15 @@
         <v>20170520</v>
       </c>
       <c r="E218" t="s">
-        <v>1060</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C219">
         <f t="shared" si="3"/>
@@ -6693,10 +6954,10 @@
     </row>
     <row r="220" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C220">
         <f t="shared" si="3"/>
@@ -6705,10 +6966,10 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C221">
         <f t="shared" si="3"/>
@@ -6717,10 +6978,10 @@
     </row>
     <row r="222" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C222">
         <f t="shared" si="3"/>
@@ -6729,10 +6990,10 @@
     </row>
     <row r="223" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C223">
         <f t="shared" si="3"/>
@@ -6741,10 +7002,10 @@
     </row>
     <row r="224" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C224">
         <f t="shared" si="3"/>
@@ -6753,10 +7014,10 @@
     </row>
     <row r="225" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C225">
         <f t="shared" si="3"/>
@@ -6765,10 +7026,10 @@
     </row>
     <row r="226" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C226">
         <f t="shared" si="3"/>
@@ -6777,10 +7038,10 @@
     </row>
     <row r="227" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C227">
         <f t="shared" si="3"/>
@@ -6789,10 +7050,10 @@
     </row>
     <row r="228" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C228">
         <f t="shared" si="3"/>
@@ -6801,10 +7062,10 @@
     </row>
     <row r="229" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C229">
         <f t="shared" si="3"/>
@@ -6813,10 +7074,10 @@
     </row>
     <row r="230" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C230">
         <f t="shared" si="3"/>
@@ -6825,10 +7086,10 @@
     </row>
     <row r="231" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C231">
         <f t="shared" si="3"/>
@@ -6837,10 +7098,10 @@
     </row>
     <row r="232" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C232">
         <f t="shared" si="3"/>
@@ -6849,10 +7110,10 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C233">
         <f t="shared" si="3"/>
@@ -6861,10 +7122,10 @@
     </row>
     <row r="234" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C234">
         <f t="shared" si="3"/>
@@ -6873,10 +7134,10 @@
     </row>
     <row r="235" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C235">
         <f t="shared" si="3"/>
@@ -6885,10 +7146,10 @@
     </row>
     <row r="236" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C236">
         <f t="shared" si="3"/>
@@ -6897,10 +7158,10 @@
     </row>
     <row r="237" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C237">
         <f t="shared" si="3"/>
@@ -6909,10 +7170,10 @@
     </row>
     <row r="238" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C238">
         <f t="shared" si="3"/>
@@ -6921,10 +7182,10 @@
     </row>
     <row r="239" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C239">
         <f t="shared" si="3"/>
@@ -6933,10 +7194,10 @@
     </row>
     <row r="240" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C240">
         <f t="shared" si="3"/>
@@ -6945,10 +7206,10 @@
     </row>
     <row r="241" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C241">
         <f t="shared" si="3"/>
@@ -6957,10 +7218,10 @@
     </row>
     <row r="242" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C242">
         <f t="shared" si="3"/>
@@ -6969,10 +7230,10 @@
     </row>
     <row r="243" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C243">
         <f t="shared" si="3"/>
@@ -6981,10 +7242,10 @@
     </row>
     <row r="244" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C244">
         <f t="shared" si="3"/>
@@ -6993,10 +7254,10 @@
     </row>
     <row r="245" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C245">
         <f t="shared" si="3"/>
@@ -7005,10 +7266,10 @@
     </row>
     <row r="246" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C246">
         <f t="shared" si="3"/>
@@ -7017,10 +7278,10 @@
     </row>
     <row r="247" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C247">
         <f t="shared" si="3"/>
@@ -7029,10 +7290,10 @@
     </row>
     <row r="248" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C248">
         <f t="shared" si="3"/>
@@ -7041,10 +7302,10 @@
     </row>
     <row r="249" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="C249">
         <f t="shared" si="3"/>
@@ -7053,10 +7314,10 @@
     </row>
     <row r="250" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C250">
         <f t="shared" si="3"/>
@@ -7065,10 +7326,10 @@
     </row>
     <row r="251" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C251">
         <f t="shared" si="3"/>
@@ -7077,10 +7338,10 @@
     </row>
     <row r="252" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C252">
         <f t="shared" si="3"/>
@@ -7089,10 +7350,10 @@
     </row>
     <row r="253" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C253">
         <f t="shared" si="3"/>
@@ -7101,10 +7362,10 @@
     </row>
     <row r="254" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>1040</v>
+        <v>1033</v>
       </c>
       <c r="C254">
         <f t="shared" si="3"/>
@@ -7114,15 +7375,15 @@
         <v>20170515</v>
       </c>
       <c r="E254" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="255" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C255">
         <f t="shared" si="3"/>
@@ -7131,10 +7392,10 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="C256">
         <f t="shared" si="3"/>
@@ -7143,10 +7404,10 @@
     </row>
     <row r="257" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="C257">
         <f t="shared" si="3"/>
@@ -7155,10 +7416,10 @@
     </row>
     <row r="258" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="C258">
         <f t="shared" ref="C258:C321" si="4">LEN(B258)</f>
@@ -7167,10 +7428,10 @@
     </row>
     <row r="259" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="C259">
         <f t="shared" si="4"/>
@@ -7179,10 +7440,10 @@
     </row>
     <row r="260" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C260">
         <f t="shared" si="4"/>
@@ -7191,10 +7452,10 @@
     </row>
     <row r="261" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C261">
         <f t="shared" si="4"/>
@@ -7203,10 +7464,10 @@
     </row>
     <row r="262" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C262">
         <f t="shared" si="4"/>
@@ -7215,10 +7476,10 @@
     </row>
     <row r="263" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C263">
         <f t="shared" si="4"/>
@@ -7227,10 +7488,10 @@
     </row>
     <row r="264" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C264">
         <f t="shared" si="4"/>
@@ -7239,10 +7500,10 @@
     </row>
     <row r="265" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C265">
         <f t="shared" si="4"/>
@@ -7251,10 +7512,10 @@
     </row>
     <row r="266" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C266">
         <f t="shared" si="4"/>
@@ -7263,10 +7524,10 @@
     </row>
     <row r="267" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C267">
         <f t="shared" si="4"/>
@@ -7275,10 +7536,10 @@
     </row>
     <row r="268" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C268">
         <f t="shared" si="4"/>
@@ -7287,10 +7548,10 @@
     </row>
     <row r="269" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C269">
         <f t="shared" si="4"/>
@@ -7299,10 +7560,10 @@
     </row>
     <row r="270" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C270">
         <f t="shared" si="4"/>
@@ -7311,10 +7572,10 @@
     </row>
     <row r="271" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C271">
         <f t="shared" si="4"/>
@@ -7323,10 +7584,10 @@
     </row>
     <row r="272" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C272">
         <f t="shared" si="4"/>
@@ -7335,10 +7596,10 @@
     </row>
     <row r="273" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C273">
         <f t="shared" si="4"/>
@@ -7347,10 +7608,10 @@
     </row>
     <row r="274" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C274">
         <f t="shared" si="4"/>
@@ -7359,10 +7620,10 @@
     </row>
     <row r="275" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C275">
         <f t="shared" si="4"/>
@@ -7371,10 +7632,10 @@
     </row>
     <row r="276" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C276">
         <f t="shared" si="4"/>
@@ -7383,10 +7644,10 @@
     </row>
     <row r="277" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C277">
         <f t="shared" si="4"/>
@@ -7395,10 +7656,10 @@
     </row>
     <row r="278" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C278">
         <f t="shared" si="4"/>
@@ -7407,10 +7668,10 @@
     </row>
     <row r="279" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C279">
         <f t="shared" si="4"/>
@@ -7419,10 +7680,10 @@
     </row>
     <row r="280" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C280">
         <f t="shared" si="4"/>
@@ -7431,10 +7692,10 @@
     </row>
     <row r="281" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C281">
         <f t="shared" si="4"/>
@@ -7443,10 +7704,10 @@
     </row>
     <row r="282" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C282">
         <f t="shared" si="4"/>
@@ -7455,10 +7716,10 @@
     </row>
     <row r="283" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C283">
         <f t="shared" si="4"/>
@@ -7467,10 +7728,10 @@
     </row>
     <row r="284" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C284">
         <f t="shared" si="4"/>
@@ -7479,10 +7740,10 @@
     </row>
     <row r="285" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C285">
         <f t="shared" si="4"/>
@@ -7491,10 +7752,10 @@
     </row>
     <row r="286" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C286">
         <f t="shared" si="4"/>
@@ -7503,10 +7764,10 @@
     </row>
     <row r="287" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C287">
         <f t="shared" si="4"/>
@@ -7515,10 +7776,10 @@
     </row>
     <row r="288" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C288">
         <f t="shared" si="4"/>
@@ -7527,10 +7788,10 @@
     </row>
     <row r="289" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C289">
         <f t="shared" si="4"/>
@@ -7539,10 +7800,10 @@
     </row>
     <row r="290" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C290">
         <f t="shared" si="4"/>
@@ -7551,10 +7812,10 @@
     </row>
     <row r="291" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>1035</v>
+        <v>1028</v>
       </c>
       <c r="C291">
         <f t="shared" si="4"/>
@@ -7564,15 +7825,15 @@
         <v>20170515</v>
       </c>
       <c r="E291" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>1034</v>
+        <v>1027</v>
       </c>
       <c r="C292">
         <f t="shared" si="4"/>
@@ -7582,15 +7843,15 @@
         <v>20170515</v>
       </c>
       <c r="E292" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C293">
         <f t="shared" si="4"/>
@@ -7599,10 +7860,10 @@
     </row>
     <row r="294" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C294">
         <f t="shared" si="4"/>
@@ -7611,10 +7872,10 @@
     </row>
     <row r="295" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C295">
         <f t="shared" si="4"/>
@@ -7623,10 +7884,10 @@
     </row>
     <row r="296" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C296">
         <f t="shared" si="4"/>
@@ -7635,10 +7896,10 @@
     </row>
     <row r="297" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C297">
         <f t="shared" si="4"/>
@@ -7647,10 +7908,10 @@
     </row>
     <row r="298" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>1028</v>
+        <v>1021</v>
       </c>
       <c r="C298">
         <f t="shared" si="4"/>
@@ -7660,15 +7921,15 @@
         <v>20170515</v>
       </c>
       <c r="E298" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C299">
         <f t="shared" si="4"/>
@@ -7677,10 +7938,10 @@
     </row>
     <row r="300" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C300">
         <f t="shared" si="4"/>
@@ -7689,10 +7950,10 @@
     </row>
     <row r="301" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C301">
         <f t="shared" si="4"/>
@@ -7701,10 +7962,10 @@
     </row>
     <row r="302" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C302">
         <f t="shared" si="4"/>
@@ -7713,10 +7974,10 @@
     </row>
     <row r="303" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C303">
         <f t="shared" si="4"/>
@@ -7725,10 +7986,10 @@
     </row>
     <row r="304" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C304">
         <f t="shared" si="4"/>
@@ -7737,10 +7998,10 @@
     </row>
     <row r="305" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C305">
         <f t="shared" si="4"/>
@@ -7749,10 +8010,10 @@
     </row>
     <row r="306" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C306">
         <f t="shared" si="4"/>
@@ -7761,10 +8022,10 @@
     </row>
     <row r="307" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C307">
         <f t="shared" si="4"/>
@@ -7773,10 +8034,10 @@
     </row>
     <row r="308" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C308">
         <f t="shared" si="4"/>
@@ -7785,10 +8046,10 @@
     </row>
     <row r="309" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C309">
         <f t="shared" si="4"/>
@@ -7797,10 +8058,10 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C310">
         <f t="shared" si="4"/>
@@ -7809,10 +8070,10 @@
     </row>
     <row r="311" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C311">
         <f t="shared" si="4"/>
@@ -7821,10 +8082,10 @@
     </row>
     <row r="312" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C312">
         <f t="shared" si="4"/>
@@ -7833,10 +8094,10 @@
     </row>
     <row r="313" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C313">
         <f t="shared" si="4"/>
@@ -7845,10 +8106,10 @@
     </row>
     <row r="314" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C314">
         <f t="shared" si="4"/>
@@ -7857,10 +8118,10 @@
     </row>
     <row r="315" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C315">
         <f t="shared" si="4"/>
@@ -7869,10 +8130,10 @@
     </row>
     <row r="316" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C316">
         <f t="shared" si="4"/>
@@ -7881,10 +8142,10 @@
     </row>
     <row r="317" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C317">
         <f t="shared" si="4"/>
@@ -7893,10 +8154,10 @@
     </row>
     <row r="318" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C318">
         <f t="shared" si="4"/>
@@ -7905,10 +8166,10 @@
     </row>
     <row r="319" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C319">
         <f t="shared" si="4"/>
@@ -7917,10 +8178,10 @@
     </row>
     <row r="320" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C320">
         <f t="shared" si="4"/>
@@ -7929,10 +8190,10 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C321">
         <f t="shared" si="4"/>
@@ -7941,10 +8202,10 @@
     </row>
     <row r="322" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C322">
         <f t="shared" ref="C322:C385" si="5">LEN(B322)</f>
@@ -7953,10 +8214,10 @@
     </row>
     <row r="323" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>1051</v>
+        <v>1044</v>
       </c>
       <c r="C323">
         <f t="shared" si="5"/>
@@ -7966,15 +8227,15 @@
         <v>20170808</v>
       </c>
       <c r="E323" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="324" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C324">
         <f t="shared" si="5"/>
@@ -7983,10 +8244,10 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C325">
         <f t="shared" si="5"/>
@@ -7995,10 +8256,10 @@
     </row>
     <row r="326" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C326">
         <f t="shared" si="5"/>
@@ -8007,10 +8268,10 @@
     </row>
     <row r="327" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C327">
         <f t="shared" si="5"/>
@@ -8019,10 +8280,10 @@
     </row>
     <row r="328" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C328">
         <f t="shared" si="5"/>
@@ -8031,10 +8292,10 @@
     </row>
     <row r="329" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C329">
         <f t="shared" si="5"/>
@@ -8043,10 +8304,10 @@
     </row>
     <row r="330" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C330">
         <f t="shared" si="5"/>
@@ -8055,10 +8316,10 @@
     </row>
     <row r="331" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C331">
         <f t="shared" si="5"/>
@@ -8067,10 +8328,10 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C332">
         <f t="shared" si="5"/>
@@ -8079,10 +8340,10 @@
     </row>
     <row r="333" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C333">
         <f t="shared" si="5"/>
@@ -8091,10 +8352,10 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C334">
         <f t="shared" si="5"/>
@@ -8103,10 +8364,10 @@
     </row>
     <row r="335" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C335">
         <f t="shared" si="5"/>
@@ -8115,10 +8376,10 @@
     </row>
     <row r="336" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C336">
         <f t="shared" si="5"/>
@@ -8127,10 +8388,10 @@
     </row>
     <row r="337" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C337">
         <f t="shared" si="5"/>
@@ -8139,10 +8400,10 @@
     </row>
     <row r="338" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
       <c r="C338">
         <f t="shared" si="5"/>
@@ -8152,15 +8413,15 @@
         <v>20170515</v>
       </c>
       <c r="E338" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="339" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C339">
         <f t="shared" si="5"/>
@@ -8169,10 +8430,10 @@
     </row>
     <row r="340" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C340">
         <f t="shared" si="5"/>
@@ -8181,10 +8442,10 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C341">
         <f t="shared" si="5"/>
@@ -8193,10 +8454,10 @@
     </row>
     <row r="342" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C342">
         <f t="shared" si="5"/>
@@ -8205,10 +8466,10 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C343">
         <f t="shared" si="5"/>
@@ -8217,10 +8478,10 @@
     </row>
     <row r="344" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C344">
         <f t="shared" si="5"/>
@@ -8229,10 +8490,10 @@
     </row>
     <row r="345" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C345">
         <f t="shared" si="5"/>
@@ -8241,10 +8502,10 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C346">
         <f t="shared" si="5"/>
@@ -8253,10 +8514,10 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C347">
         <f t="shared" si="5"/>
@@ -8265,10 +8526,10 @@
     </row>
     <row r="348" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C348">
         <f t="shared" si="5"/>
@@ -8277,10 +8538,10 @@
     </row>
     <row r="349" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C349">
         <f t="shared" si="5"/>
@@ -8289,10 +8550,10 @@
     </row>
     <row r="350" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>1052</v>
+        <v>1045</v>
       </c>
       <c r="C350">
         <f t="shared" si="5"/>
@@ -8302,15 +8563,15 @@
         <v>20170820</v>
       </c>
       <c r="E350" t="s">
-        <v>1061</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="351" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C351">
         <f t="shared" si="5"/>
@@ -8319,10 +8580,10 @@
     </row>
     <row r="352" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C352">
         <f t="shared" si="5"/>
@@ -8331,10 +8592,10 @@
     </row>
     <row r="353" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C353">
         <f t="shared" si="5"/>
@@ -8343,10 +8604,10 @@
     </row>
     <row r="354" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C354">
         <f t="shared" si="5"/>
@@ -8355,10 +8616,10 @@
     </row>
     <row r="355" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C355">
         <f t="shared" si="5"/>
@@ -8367,10 +8628,10 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C356">
         <f t="shared" si="5"/>
@@ -8379,10 +8640,10 @@
     </row>
     <row r="357" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C357">
         <f t="shared" si="5"/>
@@ -8391,10 +8652,10 @@
     </row>
     <row r="358" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C358">
         <f t="shared" si="5"/>
@@ -8403,10 +8664,10 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C359">
         <f t="shared" si="5"/>
@@ -8415,10 +8676,10 @@
     </row>
     <row r="360" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C360">
         <f t="shared" si="5"/>
@@ -8427,10 +8688,10 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C361">
         <f t="shared" si="5"/>
@@ -8439,10 +8700,10 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C362">
         <f t="shared" si="5"/>
@@ -8451,10 +8712,10 @@
     </row>
     <row r="363" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C363">
         <f t="shared" si="5"/>
@@ -8463,10 +8724,10 @@
     </row>
     <row r="364" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C364">
         <f t="shared" si="5"/>
@@ -8475,10 +8736,10 @@
     </row>
     <row r="365" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C365">
         <f t="shared" si="5"/>
@@ -8487,10 +8748,10 @@
     </row>
     <row r="366" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C366">
         <f t="shared" si="5"/>
@@ -8499,10 +8760,10 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C367">
         <f t="shared" si="5"/>
@@ -8511,10 +8772,10 @@
     </row>
     <row r="368" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C368">
         <f t="shared" si="5"/>
@@ -8523,10 +8784,10 @@
     </row>
     <row r="369" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C369">
         <f t="shared" si="5"/>
@@ -8535,10 +8796,10 @@
     </row>
     <row r="370" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C370">
         <f t="shared" si="5"/>
@@ -8547,10 +8808,10 @@
     </row>
     <row r="371" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C371">
         <f t="shared" si="5"/>
@@ -8559,10 +8820,10 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C372">
         <f t="shared" si="5"/>
@@ -8571,10 +8832,10 @@
     </row>
     <row r="373" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C373">
         <f t="shared" si="5"/>
@@ -8583,10 +8844,10 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C374">
         <f t="shared" si="5"/>
@@ -8595,10 +8856,10 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C375">
         <f t="shared" si="5"/>
@@ -8607,10 +8868,10 @@
     </row>
     <row r="376" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>1057</v>
+        <v>1050</v>
       </c>
       <c r="C376">
         <f t="shared" si="5"/>
@@ -8619,10 +8880,10 @@
     </row>
     <row r="377" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C377">
         <f t="shared" si="5"/>
@@ -8631,10 +8892,10 @@
     </row>
     <row r="378" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C378">
         <f t="shared" si="5"/>
@@ -8643,10 +8904,10 @@
     </row>
     <row r="379" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C379">
         <f t="shared" si="5"/>
@@ -8655,10 +8916,10 @@
     </row>
     <row r="380" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C380">
         <f t="shared" si="5"/>
@@ -8667,10 +8928,10 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C381">
         <f t="shared" si="5"/>
@@ -8679,10 +8940,10 @@
     </row>
     <row r="382" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C382">
         <f t="shared" si="5"/>
@@ -8691,10 +8952,10 @@
     </row>
     <row r="383" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C383">
         <f t="shared" si="5"/>
@@ -8703,10 +8964,10 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C384">
         <f t="shared" si="5"/>
@@ -8715,10 +8976,10 @@
     </row>
     <row r="385" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C385">
         <f t="shared" si="5"/>
@@ -8727,10 +8988,10 @@
     </row>
     <row r="386" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C386">
         <f t="shared" ref="C386:C449" si="6">LEN(B386)</f>
@@ -8739,10 +9000,10 @@
     </row>
     <row r="387" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>1050</v>
+        <v>1043</v>
       </c>
       <c r="C387">
         <f t="shared" si="6"/>
@@ -8752,27 +9013,33 @@
         <v>20170808</v>
       </c>
       <c r="E387" t="s">
-        <v>1060</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>1056</v>
+        <v>1049</v>
       </c>
       <c r="C388">
         <f t="shared" si="6"/>
         <v>56</v>
       </c>
+      <c r="D388">
+        <v>20170911</v>
+      </c>
+      <c r="E388" t="s">
+        <v>1038</v>
+      </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>1053</v>
+        <v>1046</v>
       </c>
       <c r="C389">
         <f t="shared" si="6"/>
@@ -8781,10 +9048,10 @@
     </row>
     <row r="390" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>1055</v>
+        <v>1048</v>
       </c>
       <c r="C390">
         <f t="shared" si="6"/>
@@ -8794,15 +9061,15 @@
         <v>20170911</v>
       </c>
       <c r="E390" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="391" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>1054</v>
+        <v>1047</v>
       </c>
       <c r="C391">
         <f t="shared" si="6"/>
@@ -8811,10 +9078,10 @@
     </row>
     <row r="392" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C392">
         <f t="shared" si="6"/>
@@ -8823,10 +9090,10 @@
     </row>
     <row r="393" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C393">
         <f t="shared" si="6"/>
@@ -8835,10 +9102,10 @@
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C394">
         <f t="shared" si="6"/>
@@ -8847,10 +9114,10 @@
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C395">
         <f t="shared" si="6"/>
@@ -8859,10 +9126,10 @@
     </row>
     <row r="396" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C396">
         <f t="shared" si="6"/>
@@ -8871,10 +9138,10 @@
     </row>
     <row r="397" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C397">
         <f t="shared" si="6"/>
@@ -8883,10 +9150,10 @@
     </row>
     <row r="398" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C398">
         <f t="shared" si="6"/>
@@ -8895,10 +9162,10 @@
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C399">
         <f t="shared" si="6"/>
@@ -8907,10 +9174,10 @@
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C400">
         <f t="shared" si="6"/>
@@ -8919,10 +9186,10 @@
     </row>
     <row r="401" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C401">
         <f t="shared" si="6"/>
@@ -8931,10 +9198,10 @@
     </row>
     <row r="402" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C402">
         <f t="shared" si="6"/>
@@ -8943,10 +9210,10 @@
     </row>
     <row r="403" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C403">
         <f t="shared" si="6"/>
@@ -8955,10 +9222,10 @@
     </row>
     <row r="404" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C404">
         <f t="shared" si="6"/>
@@ -8967,10 +9234,10 @@
     </row>
     <row r="405" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C405">
         <f t="shared" si="6"/>
@@ -8979,10 +9246,10 @@
     </row>
     <row r="406" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C406">
         <f t="shared" si="6"/>
@@ -8991,10 +9258,10 @@
     </row>
     <row r="407" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C407">
         <f t="shared" si="6"/>
@@ -9003,10 +9270,10 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C408">
         <f t="shared" si="6"/>
@@ -9015,10 +9282,10 @@
     </row>
     <row r="409" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C409">
         <f t="shared" si="6"/>
@@ -9027,10 +9294,10 @@
     </row>
     <row r="410" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C410">
         <f t="shared" si="6"/>
@@ -9039,10 +9306,10 @@
     </row>
     <row r="411" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C411">
         <f t="shared" si="6"/>
@@ -9051,10 +9318,10 @@
     </row>
     <row r="412" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C412">
         <f t="shared" si="6"/>
@@ -9063,10 +9330,10 @@
     </row>
     <row r="413" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C413">
         <f t="shared" si="6"/>
@@ -9075,10 +9342,10 @@
     </row>
     <row r="414" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C414">
         <f t="shared" si="6"/>
@@ -9087,10 +9354,10 @@
     </row>
     <row r="415" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C415">
         <f t="shared" si="6"/>
@@ -9099,10 +9366,10 @@
     </row>
     <row r="416" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C416">
         <f t="shared" si="6"/>
@@ -9111,10 +9378,10 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C417">
         <f t="shared" si="6"/>
@@ -9123,10 +9390,10 @@
     </row>
     <row r="418" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C418">
         <f t="shared" si="6"/>
@@ -9135,10 +9402,10 @@
     </row>
     <row r="419" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C419">
         <f t="shared" si="6"/>
@@ -9147,10 +9414,10 @@
     </row>
     <row r="420" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C420">
         <f t="shared" si="6"/>
@@ -9159,10 +9426,10 @@
     </row>
     <row r="421" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C421">
         <f t="shared" si="6"/>
@@ -9171,10 +9438,10 @@
     </row>
     <row r="422" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C422">
         <f t="shared" si="6"/>
@@ -9183,10 +9450,10 @@
     </row>
     <row r="423" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C423">
         <f t="shared" si="6"/>
@@ -9195,10 +9462,10 @@
     </row>
     <row r="424" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C424">
         <f t="shared" si="6"/>
@@ -9207,10 +9474,10 @@
     </row>
     <row r="425" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C425">
         <f t="shared" si="6"/>
@@ -9219,10 +9486,10 @@
     </row>
     <row r="426" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C426">
         <f t="shared" si="6"/>
@@ -9231,10 +9498,10 @@
     </row>
     <row r="427" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C427">
         <f t="shared" si="6"/>
@@ -9243,10 +9510,10 @@
     </row>
     <row r="428" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C428">
         <f t="shared" si="6"/>
@@ -9255,10 +9522,10 @@
     </row>
     <row r="429" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C429">
         <f t="shared" si="6"/>
@@ -9267,10 +9534,10 @@
     </row>
     <row r="430" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C430">
         <f t="shared" si="6"/>
@@ -9279,10 +9546,10 @@
     </row>
     <row r="431" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C431">
         <f t="shared" si="6"/>
@@ -9291,10 +9558,10 @@
     </row>
     <row r="432" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C432">
         <f t="shared" si="6"/>
@@ -9303,10 +9570,10 @@
     </row>
     <row r="433" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C433">
         <f t="shared" si="6"/>
@@ -9315,10 +9582,10 @@
     </row>
     <row r="434" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C434">
         <f t="shared" si="6"/>
@@ -9327,10 +9594,10 @@
     </row>
     <row r="435" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C435">
         <f t="shared" si="6"/>
@@ -9339,10 +9606,10 @@
     </row>
     <row r="436" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C436">
         <f t="shared" si="6"/>
@@ -9351,10 +9618,10 @@
     </row>
     <row r="437" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C437">
         <f t="shared" si="6"/>
@@ -9363,10 +9630,10 @@
     </row>
     <row r="438" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C438">
         <f t="shared" si="6"/>
@@ -9375,10 +9642,10 @@
     </row>
     <row r="439" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C439">
         <f t="shared" si="6"/>
@@ -9387,10 +9654,10 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C440">
         <f t="shared" si="6"/>
@@ -9399,10 +9666,10 @@
     </row>
     <row r="441" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C441">
         <f t="shared" si="6"/>
@@ -9411,10 +9678,10 @@
     </row>
     <row r="442" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C442">
         <f t="shared" si="6"/>
@@ -9423,10 +9690,10 @@
     </row>
     <row r="443" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C443">
         <f t="shared" si="6"/>
@@ -9435,10 +9702,10 @@
     </row>
     <row r="444" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C444">
         <f t="shared" si="6"/>
@@ -9447,10 +9714,10 @@
     </row>
     <row r="445" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C445">
         <f t="shared" si="6"/>
@@ -9459,10 +9726,10 @@
     </row>
     <row r="446" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C446">
         <f t="shared" si="6"/>
@@ -9471,10 +9738,10 @@
     </row>
     <row r="447" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C447">
         <f t="shared" si="6"/>
@@ -9483,10 +9750,10 @@
     </row>
     <row r="448" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C448">
         <f t="shared" si="6"/>
@@ -9495,10 +9762,10 @@
     </row>
     <row r="449" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C449">
         <f t="shared" si="6"/>
@@ -9507,10 +9774,10 @@
     </row>
     <row r="450" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C450">
         <f t="shared" ref="C450:C513" si="7">LEN(B450)</f>
@@ -9519,10 +9786,10 @@
     </row>
     <row r="451" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>1042</v>
+        <v>1035</v>
       </c>
       <c r="C451">
         <f t="shared" si="7"/>
@@ -9532,15 +9799,15 @@
         <v>20170515</v>
       </c>
       <c r="E451" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="452" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C452">
         <f t="shared" si="7"/>
@@ -9549,10 +9816,10 @@
     </row>
     <row r="453" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C453">
         <f t="shared" si="7"/>
@@ -9561,10 +9828,10 @@
     </row>
     <row r="454" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C454">
         <f t="shared" si="7"/>
@@ -9573,10 +9840,10 @@
     </row>
     <row r="455" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C455">
         <f t="shared" si="7"/>
@@ -9585,10 +9852,10 @@
     </row>
     <row r="456" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C456">
         <f t="shared" si="7"/>
@@ -9597,10 +9864,10 @@
     </row>
     <row r="457" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C457">
         <f t="shared" si="7"/>
@@ -9609,10 +9876,10 @@
     </row>
     <row r="458" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C458">
         <f t="shared" si="7"/>
@@ -9621,10 +9888,10 @@
     </row>
     <row r="459" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C459">
         <f t="shared" si="7"/>
@@ -9633,10 +9900,10 @@
     </row>
     <row r="460" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C460">
         <f t="shared" si="7"/>
@@ -9645,10 +9912,10 @@
     </row>
     <row r="461" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C461">
         <f t="shared" si="7"/>
@@ -9657,10 +9924,10 @@
     </row>
     <row r="462" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C462">
         <f t="shared" si="7"/>
@@ -9669,10 +9936,10 @@
     </row>
     <row r="463" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>1036</v>
+        <v>1029</v>
       </c>
       <c r="C463">
         <f t="shared" si="7"/>
@@ -9682,15 +9949,15 @@
         <v>20170515</v>
       </c>
       <c r="E463" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="464" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C464">
         <f t="shared" si="7"/>
@@ -9699,10 +9966,10 @@
     </row>
     <row r="465" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C465">
         <f t="shared" si="7"/>
@@ -9711,10 +9978,10 @@
     </row>
     <row r="466" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C466">
         <f t="shared" si="7"/>
@@ -9723,10 +9990,10 @@
     </row>
     <row r="467" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C467">
         <f t="shared" si="7"/>
@@ -9735,10 +10002,10 @@
     </row>
     <row r="468" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C468">
         <f t="shared" si="7"/>
@@ -9747,10 +10014,10 @@
     </row>
     <row r="469" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C469">
         <f t="shared" si="7"/>
@@ -9759,10 +10026,10 @@
     </row>
     <row r="470" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C470">
         <f t="shared" si="7"/>
@@ -9771,10 +10038,10 @@
     </row>
     <row r="471" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C471">
         <f t="shared" si="7"/>
@@ -9783,10 +10050,10 @@
     </row>
     <row r="472" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C472">
         <f t="shared" si="7"/>
@@ -9795,10 +10062,10 @@
     </row>
     <row r="473" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C473">
         <f t="shared" si="7"/>
@@ -9807,10 +10074,10 @@
     </row>
     <row r="474" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C474">
         <f t="shared" si="7"/>
@@ -9819,10 +10086,10 @@
     </row>
     <row r="475" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C475">
         <f t="shared" si="7"/>
@@ -9831,10 +10098,10 @@
     </row>
     <row r="476" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C476">
         <f t="shared" si="7"/>
@@ -9843,10 +10110,10 @@
     </row>
     <row r="477" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C477">
         <f t="shared" si="7"/>
@@ -9855,10 +10122,10 @@
     </row>
     <row r="478" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C478">
         <f t="shared" si="7"/>
@@ -9867,10 +10134,10 @@
     </row>
     <row r="479" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C479">
         <f t="shared" si="7"/>
@@ -9879,10 +10146,10 @@
     </row>
     <row r="480" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C480">
         <f t="shared" si="7"/>
@@ -9891,10 +10158,10 @@
     </row>
     <row r="481" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C481">
         <f t="shared" si="7"/>
@@ -9903,10 +10170,10 @@
     </row>
     <row r="482" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C482">
         <f t="shared" si="7"/>
@@ -9915,10 +10182,10 @@
     </row>
     <row r="483" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C483">
         <f t="shared" si="7"/>
@@ -9927,10 +10194,10 @@
     </row>
     <row r="484" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C484">
         <f t="shared" si="7"/>
@@ -9939,10 +10206,10 @@
     </row>
     <row r="485" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C485">
         <f t="shared" si="7"/>
@@ -9951,10 +10218,10 @@
     </row>
     <row r="486" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>1031</v>
+        <v>1024</v>
       </c>
       <c r="C486">
         <f t="shared" si="7"/>
@@ -9964,15 +10231,15 @@
         <v>20170515</v>
       </c>
       <c r="E486" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C487">
         <f t="shared" si="7"/>
@@ -9981,10 +10248,10 @@
     </row>
     <row r="488" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>1058</v>
+        <v>1051</v>
       </c>
       <c r="C488">
         <f t="shared" si="7"/>
@@ -9994,15 +10261,15 @@
         <v>20170920</v>
       </c>
       <c r="E488" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="489" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C489">
         <f t="shared" si="7"/>
@@ -10011,10 +10278,10 @@
     </row>
     <row r="490" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C490">
         <f t="shared" si="7"/>
@@ -10023,10 +10290,10 @@
     </row>
     <row r="491" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C491">
         <f t="shared" si="7"/>
@@ -10035,10 +10302,10 @@
     </row>
     <row r="492" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C492">
         <f t="shared" si="7"/>
@@ -10047,10 +10314,10 @@
     </row>
     <row r="493" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C493">
         <f t="shared" si="7"/>
@@ -10059,10 +10326,10 @@
     </row>
     <row r="494" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C494">
         <f t="shared" si="7"/>
@@ -10071,10 +10338,10 @@
     </row>
     <row r="495" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C495">
         <f t="shared" si="7"/>
@@ -10083,10 +10350,10 @@
     </row>
     <row r="496" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C496">
         <f t="shared" si="7"/>
@@ -10095,10 +10362,10 @@
     </row>
     <row r="497" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C497">
         <f t="shared" si="7"/>
@@ -10107,10 +10374,10 @@
     </row>
     <row r="498" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C498">
         <f t="shared" si="7"/>
@@ -10119,10 +10386,10 @@
     </row>
     <row r="499" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>1037</v>
+        <v>1030</v>
       </c>
       <c r="C499">
         <f t="shared" si="7"/>
@@ -10132,15 +10399,15 @@
         <v>20170515</v>
       </c>
       <c r="E499" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="500" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C500">
         <f t="shared" si="7"/>
@@ -10149,10 +10416,10 @@
     </row>
     <row r="501" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C501">
         <f t="shared" si="7"/>
@@ -10161,10 +10428,10 @@
     </row>
     <row r="502" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C502">
         <f t="shared" si="7"/>
@@ -10173,10 +10440,10 @@
     </row>
     <row r="503" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C503">
         <f t="shared" si="7"/>
@@ -10185,10 +10452,10 @@
     </row>
     <row r="504" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C504">
         <f t="shared" si="7"/>
@@ -10197,22 +10464,28 @@
     </row>
     <row r="505" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>472</v>
+        <v>1058</v>
       </c>
       <c r="C505">
         <f t="shared" si="7"/>
-        <v>85</v>
+        <v>71</v>
+      </c>
+      <c r="D505">
+        <v>20180404</v>
+      </c>
+      <c r="E505" t="s">
+        <v>1057</v>
       </c>
     </row>
     <row r="506" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C506">
         <f t="shared" si="7"/>
@@ -10221,10 +10494,10 @@
     </row>
     <row r="507" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C507">
         <f t="shared" si="7"/>
@@ -10233,10 +10506,10 @@
     </row>
     <row r="508" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C508">
         <f t="shared" si="7"/>
@@ -10245,10 +10518,10 @@
     </row>
     <row r="509" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C509">
         <f t="shared" si="7"/>
@@ -10257,10 +10530,10 @@
     </row>
     <row r="510" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C510">
         <f t="shared" si="7"/>
@@ -10269,10 +10542,10 @@
     </row>
     <row r="511" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C511">
         <f t="shared" si="7"/>
@@ -10281,202 +10554,208 @@
     </row>
     <row r="512" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C512">
         <f t="shared" si="7"/>
         <v>96</v>
       </c>
     </row>
-    <row r="513" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C513">
         <f t="shared" si="7"/>
         <v>74</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C514">
         <f t="shared" ref="C514:C530" si="8">LEN(B514)</f>
         <v>56</v>
       </c>
     </row>
-    <row r="515" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C515">
         <f t="shared" si="8"/>
         <v>112</v>
       </c>
     </row>
-    <row r="516" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C516">
         <f t="shared" si="8"/>
         <v>105</v>
       </c>
     </row>
-    <row r="517" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C517">
         <f t="shared" si="8"/>
         <v>112</v>
       </c>
     </row>
-    <row r="518" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>485</v>
+        <v>1059</v>
       </c>
       <c r="C518">
         <f t="shared" si="8"/>
-        <v>117</v>
-      </c>
-    </row>
-    <row r="519" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="D518">
+        <v>20180404</v>
+      </c>
+      <c r="E518" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="C519">
         <f t="shared" si="8"/>
         <v>106</v>
       </c>
     </row>
-    <row r="520" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="C520">
         <f t="shared" si="8"/>
         <v>135</v>
       </c>
     </row>
-    <row r="521" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="C521">
         <f t="shared" si="8"/>
         <v>85</v>
       </c>
     </row>
-    <row r="522" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C522">
         <f t="shared" si="8"/>
         <v>111</v>
       </c>
     </row>
-    <row r="523" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C523">
         <f t="shared" si="8"/>
         <v>86</v>
       </c>
     </row>
-    <row r="524" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C524">
         <f t="shared" si="8"/>
         <v>104</v>
       </c>
     </row>
-    <row r="525" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C525">
         <f t="shared" si="8"/>
         <v>106</v>
       </c>
     </row>
-    <row r="526" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="C526">
         <f t="shared" si="8"/>
         <v>83</v>
       </c>
     </row>
-    <row r="527" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="C527">
         <f t="shared" si="8"/>
         <v>101</v>
       </c>
     </row>
-    <row r="528" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="C528">
         <f t="shared" si="8"/>
@@ -10485,10 +10764,10 @@
     </row>
     <row r="529" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="C529">
         <f t="shared" si="8"/>
@@ -10497,19 +10776,36 @@
     </row>
     <row r="530" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="C530">
         <f t="shared" si="8"/>
         <v>119</v>
       </c>
     </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A531" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B531" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C531">
+        <f t="shared" ref="C531" si="9">LEN(B531)</f>
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C1:C530">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+      <formula>140</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C531">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>140</formula>
     </cfRule>

--- a/tweetlist.xlsx
+++ b/tweetlist.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="1065">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="1066">
   <si>
     <t>【今日の人工衛星】1/1 1990年：JCSAT-2 日本のJSAT(現・スカパーJSAT)保有の通信衛星。タイタンIIIロケットで打上、東経154度からサービスを提供。現在は寿命が切れている。</t>
   </si>
@@ -570,9 +570,6 @@
   </si>
   <si>
     <t>【今日の人工衛星】4/28 1998年：BSAT-1b BS用の放送衛星。BSデジタルの最初の放送を担当。予備衛星となった後もトラブルが続いたBSAT-2aのリリーフを2回行った。2011年8月30日に運用終了。</t>
-  </si>
-  <si>
-    <t>【今日の人工衛星】4/28 2008年：SEEDS-2(日大)Cute-1.7(東工大) 両大学の小型衛星(CubeSat)。このときインドPSLVロケットは同時に合計10個の衛星を打ち上げたがこれは同ロケットの最大記録</t>
   </si>
   <si>
     <t>【今日の人工衛星】4/29 1985年：STS-51B チャレンジャー号の打ち上げ。主任務はスペースラブ3（通算2回目）実験</t>
@@ -3840,6 +3837,29 @@
     </rPh>
     <rPh sb="120" eb="122">
       <t>ゲンエキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【今日の人工衛星】4/28 2008年：SEEDS-2(日大)Cute-1.7(東工大) 両大学の小型衛星(CubeSat)。このときインドPSLVロケットは同時に合計10個の衛星を打ち上げたがこれは同ロケットの当時の最大記録だった（現在は100個以上となっている）</t>
+    <rPh sb="106" eb="108">
+      <t>トウジ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="123" eb="124">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>イジョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3904,27 +3924,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -4223,8 +4223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E531"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A175" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B195" sqref="B195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -4236,7 +4236,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -4248,7 +4248,7 @@
     </row>
     <row r="2" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -4260,7 +4260,7 @@
     </row>
     <row r="3" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -4272,7 +4272,7 @@
     </row>
     <row r="4" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -4284,7 +4284,7 @@
     </row>
     <row r="5" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -4296,7 +4296,7 @@
     </row>
     <row r="6" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
@@ -4308,7 +4308,7 @@
     </row>
     <row r="7" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
@@ -4320,7 +4320,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
@@ -4332,7 +4332,7 @@
     </row>
     <row r="9" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>8</v>
@@ -4344,7 +4344,7 @@
     </row>
     <row r="10" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -4356,7 +4356,7 @@
     </row>
     <row r="11" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>10</v>
@@ -4368,7 +4368,7 @@
     </row>
     <row r="12" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
@@ -4380,7 +4380,7 @@
     </row>
     <row r="13" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
@@ -4392,7 +4392,7 @@
     </row>
     <row r="14" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>13</v>
@@ -4404,7 +4404,7 @@
     </row>
     <row r="15" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>14</v>
@@ -4416,7 +4416,7 @@
     </row>
     <row r="16" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>15</v>
@@ -4428,7 +4428,7 @@
     </row>
     <row r="17" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>16</v>
@@ -4440,7 +4440,7 @@
     </row>
     <row r="18" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>17</v>
@@ -4452,7 +4452,7 @@
     </row>
     <row r="19" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>18</v>
@@ -4464,7 +4464,7 @@
     </row>
     <row r="20" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>19</v>
@@ -4476,7 +4476,7 @@
     </row>
     <row r="21" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>20</v>
@@ -4488,10 +4488,10 @@
     </row>
     <row r="22" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -4501,12 +4501,12 @@
         <v>20180404</v>
       </c>
       <c r="E22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>21</v>
@@ -4518,7 +4518,7 @@
     </row>
     <row r="24" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>22</v>
@@ -4530,7 +4530,7 @@
     </row>
     <row r="25" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>23</v>
@@ -4542,7 +4542,7 @@
     </row>
     <row r="26" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>24</v>
@@ -4554,7 +4554,7 @@
     </row>
     <row r="27" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>25</v>
@@ -4566,7 +4566,7 @@
     </row>
     <row r="28" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>26</v>
@@ -4578,7 +4578,7 @@
     </row>
     <row r="29" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>27</v>
@@ -4590,7 +4590,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>28</v>
@@ -4602,7 +4602,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>29</v>
@@ -4614,7 +4614,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>30</v>
@@ -4626,7 +4626,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>31</v>
@@ -4638,7 +4638,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>32</v>
@@ -4650,7 +4650,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>33</v>
@@ -4662,7 +4662,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>34</v>
@@ -4674,7 +4674,7 @@
     </row>
     <row r="37" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>35</v>
@@ -4686,7 +4686,7 @@
     </row>
     <row r="38" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>36</v>
@@ -4698,7 +4698,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>37</v>
@@ -4710,7 +4710,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>38</v>
@@ -4722,7 +4722,7 @@
     </row>
     <row r="41" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>39</v>
@@ -4734,7 +4734,7 @@
     </row>
     <row r="42" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>40</v>
@@ -4746,7 +4746,7 @@
     </row>
     <row r="43" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>41</v>
@@ -4758,7 +4758,7 @@
     </row>
     <row r="44" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>42</v>
@@ -4770,7 +4770,7 @@
     </row>
     <row r="45" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>43</v>
@@ -4782,7 +4782,7 @@
     </row>
     <row r="46" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>44</v>
@@ -4794,7 +4794,7 @@
     </row>
     <row r="47" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>45</v>
@@ -4806,7 +4806,7 @@
     </row>
     <row r="48" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>46</v>
@@ -4818,7 +4818,7 @@
     </row>
     <row r="49" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>47</v>
@@ -4830,7 +4830,7 @@
     </row>
     <row r="50" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>48</v>
@@ -4842,10 +4842,10 @@
     </row>
     <row r="51" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
@@ -4855,12 +4855,12 @@
         <v>20180404</v>
       </c>
       <c r="E51" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>49</v>
@@ -4872,7 +4872,7 @@
     </row>
     <row r="53" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>50</v>
@@ -4884,7 +4884,7 @@
     </row>
     <row r="54" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>51</v>
@@ -4896,7 +4896,7 @@
     </row>
     <row r="55" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>52</v>
@@ -4908,7 +4908,7 @@
     </row>
     <row r="56" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>53</v>
@@ -4920,7 +4920,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>54</v>
@@ -4932,7 +4932,7 @@
     </row>
     <row r="58" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>55</v>
@@ -4944,7 +4944,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>56</v>
@@ -4956,7 +4956,7 @@
     </row>
     <row r="60" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>57</v>
@@ -4968,7 +4968,7 @@
     </row>
     <row r="61" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>58</v>
@@ -4980,7 +4980,7 @@
     </row>
     <row r="62" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>59</v>
@@ -4992,7 +4992,7 @@
     </row>
     <row r="63" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>60</v>
@@ -5004,7 +5004,7 @@
     </row>
     <row r="64" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>61</v>
@@ -5016,7 +5016,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>62</v>
@@ -5028,7 +5028,7 @@
     </row>
     <row r="66" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>63</v>
@@ -5040,7 +5040,7 @@
     </row>
     <row r="67" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>64</v>
@@ -5052,7 +5052,7 @@
     </row>
     <row r="68" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>65</v>
@@ -5064,7 +5064,7 @@
     </row>
     <row r="69" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>66</v>
@@ -5076,7 +5076,7 @@
     </row>
     <row r="70" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>67</v>
@@ -5088,7 +5088,7 @@
     </row>
     <row r="71" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>68</v>
@@ -5100,7 +5100,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>69</v>
@@ -5112,7 +5112,7 @@
     </row>
     <row r="73" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>70</v>
@@ -5124,7 +5124,7 @@
     </row>
     <row r="74" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>71</v>
@@ -5136,7 +5136,7 @@
     </row>
     <row r="75" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>72</v>
@@ -5148,7 +5148,7 @@
     </row>
     <row r="76" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>73</v>
@@ -5160,7 +5160,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>74</v>
@@ -5172,7 +5172,7 @@
     </row>
     <row r="78" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>75</v>
@@ -5184,7 +5184,7 @@
     </row>
     <row r="79" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>76</v>
@@ -5196,7 +5196,7 @@
     </row>
     <row r="80" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>77</v>
@@ -5208,7 +5208,7 @@
     </row>
     <row r="81" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>78</v>
@@ -5220,7 +5220,7 @@
     </row>
     <row r="82" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>79</v>
@@ -5232,10 +5232,10 @@
     </row>
     <row r="83" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C83">
         <f t="shared" si="1"/>
@@ -5245,12 +5245,12 @@
         <v>20170515</v>
       </c>
       <c r="E83" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>80</v>
@@ -5262,7 +5262,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>81</v>
@@ -5274,7 +5274,7 @@
     </row>
     <row r="86" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>82</v>
@@ -5286,7 +5286,7 @@
     </row>
     <row r="87" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>83</v>
@@ -5298,7 +5298,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>84</v>
@@ -5310,10 +5310,10 @@
     </row>
     <row r="89" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C89">
         <f t="shared" si="1"/>
@@ -5323,12 +5323,12 @@
         <v>20180404</v>
       </c>
       <c r="E89" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>85</v>
@@ -5340,7 +5340,7 @@
     </row>
     <row r="91" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>86</v>
@@ -5352,7 +5352,7 @@
     </row>
     <row r="92" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>87</v>
@@ -5364,7 +5364,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>88</v>
@@ -5376,7 +5376,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>89</v>
@@ -5388,7 +5388,7 @@
     </row>
     <row r="95" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>90</v>
@@ -5400,7 +5400,7 @@
     </row>
     <row r="96" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>91</v>
@@ -5412,7 +5412,7 @@
     </row>
     <row r="97" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>92</v>
@@ -5424,7 +5424,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>93</v>
@@ -5436,7 +5436,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>94</v>
@@ -5448,7 +5448,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>95</v>
@@ -5460,7 +5460,7 @@
     </row>
     <row r="101" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>96</v>
@@ -5472,7 +5472,7 @@
     </row>
     <row r="102" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>97</v>
@@ -5484,7 +5484,7 @@
     </row>
     <row r="103" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>98</v>
@@ -5496,7 +5496,7 @@
     </row>
     <row r="104" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>99</v>
@@ -5508,7 +5508,7 @@
     </row>
     <row r="105" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>100</v>
@@ -5520,7 +5520,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>101</v>
@@ -5532,7 +5532,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>102</v>
@@ -5544,7 +5544,7 @@
     </row>
     <row r="108" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>103</v>
@@ -5556,7 +5556,7 @@
     </row>
     <row r="109" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>104</v>
@@ -5568,7 +5568,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>105</v>
@@ -5580,7 +5580,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>106</v>
@@ -5592,7 +5592,7 @@
     </row>
     <row r="112" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>107</v>
@@ -5604,7 +5604,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>108</v>
@@ -5616,7 +5616,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>109</v>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="115" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>110</v>
@@ -5640,7 +5640,7 @@
     </row>
     <row r="116" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>111</v>
@@ -5652,7 +5652,7 @@
     </row>
     <row r="117" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>112</v>
@@ -5664,7 +5664,7 @@
     </row>
     <row r="118" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>113</v>
@@ -5676,7 +5676,7 @@
     </row>
     <row r="119" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>114</v>
@@ -5688,7 +5688,7 @@
     </row>
     <row r="120" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>115</v>
@@ -5700,7 +5700,7 @@
     </row>
     <row r="121" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>116</v>
@@ -5712,7 +5712,7 @@
     </row>
     <row r="122" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>117</v>
@@ -5724,10 +5724,10 @@
     </row>
     <row r="123" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>1039</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>1040</v>
       </c>
       <c r="C123">
         <f t="shared" si="1"/>
@@ -5737,12 +5737,12 @@
         <v>20170515</v>
       </c>
       <c r="E123" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>118</v>
@@ -5754,10 +5754,10 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C125">
         <f t="shared" si="1"/>
@@ -5767,7 +5767,7 @@
         <v>20170515</v>
       </c>
       <c r="E125" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -5796,7 +5796,7 @@
     </row>
     <row r="128" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>123</v>
@@ -5808,10 +5808,10 @@
     </row>
     <row r="129" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C129">
         <f t="shared" si="1"/>
@@ -5821,12 +5821,12 @@
         <v>20170515</v>
       </c>
       <c r="E129" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>124</v>
@@ -5838,10 +5838,10 @@
     </row>
     <row r="131" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C131">
         <f t="shared" si="2"/>
@@ -5851,12 +5851,12 @@
         <v>20180404</v>
       </c>
       <c r="E131" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>125</v>
@@ -5868,7 +5868,7 @@
     </row>
     <row r="133" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>126</v>
@@ -5880,10 +5880,10 @@
     </row>
     <row r="134" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C134">
         <f t="shared" si="2"/>
@@ -5893,15 +5893,15 @@
         <v>20170515</v>
       </c>
       <c r="E134" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C135">
         <f t="shared" si="2"/>
@@ -5911,15 +5911,15 @@
         <v>20180404</v>
       </c>
       <c r="E135" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C136">
         <f t="shared" si="2"/>
@@ -5929,12 +5929,12 @@
         <v>20170515</v>
       </c>
       <c r="E136" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>127</v>
@@ -5946,7 +5946,7 @@
     </row>
     <row r="138" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>128</v>
@@ -5958,7 +5958,7 @@
     </row>
     <row r="139" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>129</v>
@@ -5970,7 +5970,7 @@
     </row>
     <row r="140" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>130</v>
@@ -5982,7 +5982,7 @@
     </row>
     <row r="141" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>131</v>
@@ -5994,7 +5994,7 @@
     </row>
     <row r="142" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>132</v>
@@ -6006,7 +6006,7 @@
     </row>
     <row r="143" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>133</v>
@@ -6018,7 +6018,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>134</v>
@@ -6030,7 +6030,7 @@
     </row>
     <row r="145" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>135</v>
@@ -6042,7 +6042,7 @@
     </row>
     <row r="146" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>136</v>
@@ -6054,7 +6054,7 @@
     </row>
     <row r="147" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>137</v>
@@ -6066,7 +6066,7 @@
     </row>
     <row r="148" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>138</v>
@@ -6078,7 +6078,7 @@
     </row>
     <row r="149" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>139</v>
@@ -6090,7 +6090,7 @@
     </row>
     <row r="150" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>140</v>
@@ -6102,10 +6102,10 @@
     </row>
     <row r="151" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C151">
         <f t="shared" si="2"/>
@@ -6114,7 +6114,7 @@
     </row>
     <row r="152" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>141</v>
@@ -6126,7 +6126,7 @@
     </row>
     <row r="153" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>142</v>
@@ -6138,7 +6138,7 @@
     </row>
     <row r="154" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>143</v>
@@ -6150,7 +6150,7 @@
     </row>
     <row r="155" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>144</v>
@@ -6162,7 +6162,7 @@
     </row>
     <row r="156" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>145</v>
@@ -6174,7 +6174,7 @@
     </row>
     <row r="157" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>146</v>
@@ -6186,7 +6186,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>147</v>
@@ -6198,10 +6198,10 @@
     </row>
     <row r="159" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C159">
         <f t="shared" si="2"/>
@@ -6211,12 +6211,12 @@
         <v>20170515</v>
       </c>
       <c r="E159" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>148</v>
@@ -6228,7 +6228,7 @@
     </row>
     <row r="161" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>149</v>
@@ -6240,7 +6240,7 @@
     </row>
     <row r="162" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>150</v>
@@ -6252,7 +6252,7 @@
     </row>
     <row r="163" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>151</v>
@@ -6264,7 +6264,7 @@
     </row>
     <row r="164" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>152</v>
@@ -6276,7 +6276,7 @@
     </row>
     <row r="165" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>153</v>
@@ -6288,7 +6288,7 @@
     </row>
     <row r="166" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>154</v>
@@ -6300,7 +6300,7 @@
     </row>
     <row r="167" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>155</v>
@@ -6312,7 +6312,7 @@
     </row>
     <row r="168" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>156</v>
@@ -6324,7 +6324,7 @@
     </row>
     <row r="169" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>157</v>
@@ -6336,7 +6336,7 @@
     </row>
     <row r="170" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>158</v>
@@ -6348,7 +6348,7 @@
     </row>
     <row r="171" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>159</v>
@@ -6360,7 +6360,7 @@
     </row>
     <row r="172" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>160</v>
@@ -6372,10 +6372,10 @@
     </row>
     <row r="173" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C173">
         <f t="shared" si="2"/>
@@ -6385,12 +6385,12 @@
         <v>20170515</v>
       </c>
       <c r="E173" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>161</v>
@@ -6402,7 +6402,7 @@
     </row>
     <row r="175" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>162</v>
@@ -6414,7 +6414,7 @@
     </row>
     <row r="176" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>163</v>
@@ -6426,7 +6426,7 @@
     </row>
     <row r="177" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>164</v>
@@ -6438,7 +6438,7 @@
     </row>
     <row r="178" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>165</v>
@@ -6450,7 +6450,7 @@
     </row>
     <row r="179" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>166</v>
@@ -6462,7 +6462,7 @@
     </row>
     <row r="180" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>167</v>
@@ -6474,7 +6474,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>168</v>
@@ -6486,7 +6486,7 @@
     </row>
     <row r="182" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>169</v>
@@ -6498,7 +6498,7 @@
     </row>
     <row r="183" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>170</v>
@@ -6510,7 +6510,7 @@
     </row>
     <row r="184" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>171</v>
@@ -6522,7 +6522,7 @@
     </row>
     <row r="185" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>172</v>
@@ -6534,7 +6534,7 @@
     </row>
     <row r="186" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>173</v>
@@ -6546,7 +6546,7 @@
     </row>
     <row r="187" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>174</v>
@@ -6558,7 +6558,7 @@
     </row>
     <row r="188" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>175</v>
@@ -6570,7 +6570,7 @@
     </row>
     <row r="189" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>176</v>
@@ -6582,7 +6582,7 @@
     </row>
     <row r="190" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>177</v>
@@ -6594,7 +6594,7 @@
     </row>
     <row r="191" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>178</v>
@@ -6606,7 +6606,7 @@
     </row>
     <row r="192" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>179</v>
@@ -6618,7 +6618,7 @@
     </row>
     <row r="193" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>180</v>
@@ -6631,27 +6631,33 @@
         <v>20170515</v>
       </c>
       <c r="E193" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>181</v>
+        <v>1065</v>
       </c>
       <c r="C194">
         <f t="shared" ref="C194:C257" si="3">LEN(B194)</f>
-        <v>110</v>
+        <v>133</v>
+      </c>
+      <c r="D194">
+        <v>20180427</v>
+      </c>
+      <c r="E194" t="s">
+        <v>1064</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C195">
         <f t="shared" si="3"/>
@@ -6660,10 +6666,10 @@
     </row>
     <row r="196" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C196">
         <f t="shared" si="3"/>
@@ -6672,10 +6678,10 @@
     </row>
     <row r="197" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C197">
         <f t="shared" si="3"/>
@@ -6684,10 +6690,10 @@
     </row>
     <row r="198" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C198">
         <f t="shared" si="3"/>
@@ -6696,10 +6702,10 @@
     </row>
     <row r="199" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C199">
         <f t="shared" si="3"/>
@@ -6708,10 +6714,10 @@
     </row>
     <row r="200" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C200">
         <f t="shared" si="3"/>
@@ -6720,10 +6726,10 @@
     </row>
     <row r="201" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C201">
         <f t="shared" si="3"/>
@@ -6732,10 +6738,10 @@
     </row>
     <row r="202" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C202">
         <f t="shared" si="3"/>
@@ -6744,10 +6750,10 @@
     </row>
     <row r="203" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C203">
         <f t="shared" si="3"/>
@@ -6756,10 +6762,10 @@
     </row>
     <row r="204" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C204">
         <f t="shared" si="3"/>
@@ -6768,10 +6774,10 @@
     </row>
     <row r="205" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C205">
         <f t="shared" si="3"/>
@@ -6780,10 +6786,10 @@
     </row>
     <row r="206" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C206">
         <f t="shared" si="3"/>
@@ -6792,10 +6798,10 @@
     </row>
     <row r="207" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C207">
         <f t="shared" si="3"/>
@@ -6804,10 +6810,10 @@
     </row>
     <row r="208" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C208">
         <f t="shared" si="3"/>
@@ -6816,10 +6822,10 @@
     </row>
     <row r="209" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C209">
         <f t="shared" si="3"/>
@@ -6828,10 +6834,10 @@
     </row>
     <row r="210" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C210">
         <f t="shared" si="3"/>
@@ -6840,10 +6846,10 @@
     </row>
     <row r="211" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C211">
         <f t="shared" si="3"/>
@@ -6852,10 +6858,10 @@
     </row>
     <row r="212" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C212">
         <f t="shared" si="3"/>
@@ -6864,10 +6870,10 @@
     </row>
     <row r="213" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C213">
         <f t="shared" si="3"/>
@@ -6876,10 +6882,10 @@
     </row>
     <row r="214" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C214">
         <f t="shared" si="3"/>
@@ -6888,10 +6894,10 @@
     </row>
     <row r="215" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C215">
         <f t="shared" si="3"/>
@@ -6900,10 +6906,10 @@
     </row>
     <row r="216" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C216">
         <f t="shared" si="3"/>
@@ -6912,10 +6918,10 @@
     </row>
     <row r="217" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C217">
         <f t="shared" si="3"/>
@@ -6924,10 +6930,10 @@
     </row>
     <row r="218" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C218">
         <f t="shared" si="3"/>
@@ -6937,15 +6943,15 @@
         <v>20170520</v>
       </c>
       <c r="E218" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C219">
         <f t="shared" si="3"/>
@@ -6954,10 +6960,10 @@
     </row>
     <row r="220" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C220">
         <f t="shared" si="3"/>
@@ -6966,10 +6972,10 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C221">
         <f t="shared" si="3"/>
@@ -6978,10 +6984,10 @@
     </row>
     <row r="222" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C222">
         <f t="shared" si="3"/>
@@ -6990,10 +6996,10 @@
     </row>
     <row r="223" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C223">
         <f t="shared" si="3"/>
@@ -7002,10 +7008,10 @@
     </row>
     <row r="224" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C224">
         <f t="shared" si="3"/>
@@ -7014,10 +7020,10 @@
     </row>
     <row r="225" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C225">
         <f t="shared" si="3"/>
@@ -7026,10 +7032,10 @@
     </row>
     <row r="226" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C226">
         <f t="shared" si="3"/>
@@ -7038,10 +7044,10 @@
     </row>
     <row r="227" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C227">
         <f t="shared" si="3"/>
@@ -7050,10 +7056,10 @@
     </row>
     <row r="228" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C228">
         <f t="shared" si="3"/>
@@ -7062,10 +7068,10 @@
     </row>
     <row r="229" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C229">
         <f t="shared" si="3"/>
@@ -7074,10 +7080,10 @@
     </row>
     <row r="230" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C230">
         <f t="shared" si="3"/>
@@ -7086,10 +7092,10 @@
     </row>
     <row r="231" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C231">
         <f t="shared" si="3"/>
@@ -7098,10 +7104,10 @@
     </row>
     <row r="232" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C232">
         <f t="shared" si="3"/>
@@ -7110,10 +7116,10 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C233">
         <f t="shared" si="3"/>
@@ -7122,10 +7128,10 @@
     </row>
     <row r="234" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C234">
         <f t="shared" si="3"/>
@@ -7134,10 +7140,10 @@
     </row>
     <row r="235" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C235">
         <f t="shared" si="3"/>
@@ -7146,10 +7152,10 @@
     </row>
     <row r="236" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C236">
         <f t="shared" si="3"/>
@@ -7158,10 +7164,10 @@
     </row>
     <row r="237" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C237">
         <f t="shared" si="3"/>
@@ -7170,10 +7176,10 @@
     </row>
     <row r="238" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C238">
         <f t="shared" si="3"/>
@@ -7182,10 +7188,10 @@
     </row>
     <row r="239" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C239">
         <f t="shared" si="3"/>
@@ -7194,10 +7200,10 @@
     </row>
     <row r="240" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C240">
         <f t="shared" si="3"/>
@@ -7206,10 +7212,10 @@
     </row>
     <row r="241" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C241">
         <f t="shared" si="3"/>
@@ -7218,10 +7224,10 @@
     </row>
     <row r="242" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C242">
         <f t="shared" si="3"/>
@@ -7230,10 +7236,10 @@
     </row>
     <row r="243" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C243">
         <f t="shared" si="3"/>
@@ -7242,10 +7248,10 @@
     </row>
     <row r="244" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C244">
         <f t="shared" si="3"/>
@@ -7254,10 +7260,10 @@
     </row>
     <row r="245" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C245">
         <f t="shared" si="3"/>
@@ -7266,10 +7272,10 @@
     </row>
     <row r="246" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C246">
         <f t="shared" si="3"/>
@@ -7278,10 +7284,10 @@
     </row>
     <row r="247" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C247">
         <f t="shared" si="3"/>
@@ -7290,10 +7296,10 @@
     </row>
     <row r="248" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C248">
         <f t="shared" si="3"/>
@@ -7302,10 +7308,10 @@
     </row>
     <row r="249" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C249">
         <f t="shared" si="3"/>
@@ -7314,10 +7320,10 @@
     </row>
     <row r="250" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C250">
         <f t="shared" si="3"/>
@@ -7326,10 +7332,10 @@
     </row>
     <row r="251" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C251">
         <f t="shared" si="3"/>
@@ -7338,10 +7344,10 @@
     </row>
     <row r="252" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C252">
         <f t="shared" si="3"/>
@@ -7350,10 +7356,10 @@
     </row>
     <row r="253" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C253">
         <f t="shared" si="3"/>
@@ -7362,10 +7368,10 @@
     </row>
     <row r="254" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C254">
         <f t="shared" si="3"/>
@@ -7375,15 +7381,15 @@
         <v>20170515</v>
       </c>
       <c r="E254" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="255" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C255">
         <f t="shared" si="3"/>
@@ -7392,10 +7398,10 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C256">
         <f t="shared" si="3"/>
@@ -7404,10 +7410,10 @@
     </row>
     <row r="257" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C257">
         <f t="shared" si="3"/>
@@ -7416,10 +7422,10 @@
     </row>
     <row r="258" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C258">
         <f t="shared" ref="C258:C321" si="4">LEN(B258)</f>
@@ -7428,10 +7434,10 @@
     </row>
     <row r="259" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C259">
         <f t="shared" si="4"/>
@@ -7440,10 +7446,10 @@
     </row>
     <row r="260" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C260">
         <f t="shared" si="4"/>
@@ -7452,10 +7458,10 @@
     </row>
     <row r="261" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C261">
         <f t="shared" si="4"/>
@@ -7464,10 +7470,10 @@
     </row>
     <row r="262" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C262">
         <f t="shared" si="4"/>
@@ -7476,10 +7482,10 @@
     </row>
     <row r="263" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C263">
         <f t="shared" si="4"/>
@@ -7488,10 +7494,10 @@
     </row>
     <row r="264" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C264">
         <f t="shared" si="4"/>
@@ -7500,10 +7506,10 @@
     </row>
     <row r="265" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C265">
         <f t="shared" si="4"/>
@@ -7512,10 +7518,10 @@
     </row>
     <row r="266" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C266">
         <f t="shared" si="4"/>
@@ -7524,10 +7530,10 @@
     </row>
     <row r="267" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C267">
         <f t="shared" si="4"/>
@@ -7536,10 +7542,10 @@
     </row>
     <row r="268" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C268">
         <f t="shared" si="4"/>
@@ -7548,10 +7554,10 @@
     </row>
     <row r="269" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C269">
         <f t="shared" si="4"/>
@@ -7560,10 +7566,10 @@
     </row>
     <row r="270" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C270">
         <f t="shared" si="4"/>
@@ -7572,10 +7578,10 @@
     </row>
     <row r="271" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C271">
         <f t="shared" si="4"/>
@@ -7584,10 +7590,10 @@
     </row>
     <row r="272" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C272">
         <f t="shared" si="4"/>
@@ -7596,10 +7602,10 @@
     </row>
     <row r="273" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C273">
         <f t="shared" si="4"/>
@@ -7608,10 +7614,10 @@
     </row>
     <row r="274" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C274">
         <f t="shared" si="4"/>
@@ -7620,10 +7626,10 @@
     </row>
     <row r="275" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C275">
         <f t="shared" si="4"/>
@@ -7632,10 +7638,10 @@
     </row>
     <row r="276" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C276">
         <f t="shared" si="4"/>
@@ -7644,10 +7650,10 @@
     </row>
     <row r="277" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C277">
         <f t="shared" si="4"/>
@@ -7656,10 +7662,10 @@
     </row>
     <row r="278" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C278">
         <f t="shared" si="4"/>
@@ -7668,10 +7674,10 @@
     </row>
     <row r="279" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C279">
         <f t="shared" si="4"/>
@@ -7680,10 +7686,10 @@
     </row>
     <row r="280" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C280">
         <f t="shared" si="4"/>
@@ -7692,10 +7698,10 @@
     </row>
     <row r="281" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C281">
         <f t="shared" si="4"/>
@@ -7704,10 +7710,10 @@
     </row>
     <row r="282" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C282">
         <f t="shared" si="4"/>
@@ -7716,10 +7722,10 @@
     </row>
     <row r="283" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C283">
         <f t="shared" si="4"/>
@@ -7728,10 +7734,10 @@
     </row>
     <row r="284" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C284">
         <f t="shared" si="4"/>
@@ -7740,10 +7746,10 @@
     </row>
     <row r="285" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C285">
         <f t="shared" si="4"/>
@@ -7752,10 +7758,10 @@
     </row>
     <row r="286" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C286">
         <f t="shared" si="4"/>
@@ -7764,10 +7770,10 @@
     </row>
     <row r="287" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C287">
         <f t="shared" si="4"/>
@@ -7776,10 +7782,10 @@
     </row>
     <row r="288" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C288">
         <f t="shared" si="4"/>
@@ -7788,10 +7794,10 @@
     </row>
     <row r="289" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C289">
         <f t="shared" si="4"/>
@@ -7800,10 +7806,10 @@
     </row>
     <row r="290" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C290">
         <f t="shared" si="4"/>
@@ -7812,10 +7818,10 @@
     </row>
     <row r="291" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C291">
         <f t="shared" si="4"/>
@@ -7825,15 +7831,15 @@
         <v>20170515</v>
       </c>
       <c r="E291" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C292">
         <f t="shared" si="4"/>
@@ -7843,15 +7849,15 @@
         <v>20170515</v>
       </c>
       <c r="E292" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C293">
         <f t="shared" si="4"/>
@@ -7860,10 +7866,10 @@
     </row>
     <row r="294" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C294">
         <f t="shared" si="4"/>
@@ -7872,10 +7878,10 @@
     </row>
     <row r="295" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C295">
         <f t="shared" si="4"/>
@@ -7884,10 +7890,10 @@
     </row>
     <row r="296" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C296">
         <f t="shared" si="4"/>
@@ -7896,10 +7902,10 @@
     </row>
     <row r="297" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C297">
         <f t="shared" si="4"/>
@@ -7908,10 +7914,10 @@
     </row>
     <row r="298" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C298">
         <f t="shared" si="4"/>
@@ -7921,15 +7927,15 @@
         <v>20170515</v>
       </c>
       <c r="E298" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C299">
         <f t="shared" si="4"/>
@@ -7938,10 +7944,10 @@
     </row>
     <row r="300" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C300">
         <f t="shared" si="4"/>
@@ -7950,10 +7956,10 @@
     </row>
     <row r="301" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C301">
         <f t="shared" si="4"/>
@@ -7962,10 +7968,10 @@
     </row>
     <row r="302" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C302">
         <f t="shared" si="4"/>
@@ -7974,10 +7980,10 @@
     </row>
     <row r="303" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C303">
         <f t="shared" si="4"/>
@@ -7986,10 +7992,10 @@
     </row>
     <row r="304" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C304">
         <f t="shared" si="4"/>
@@ -7998,10 +8004,10 @@
     </row>
     <row r="305" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C305">
         <f t="shared" si="4"/>
@@ -8010,10 +8016,10 @@
     </row>
     <row r="306" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C306">
         <f t="shared" si="4"/>
@@ -8022,10 +8028,10 @@
     </row>
     <row r="307" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C307">
         <f t="shared" si="4"/>
@@ -8034,10 +8040,10 @@
     </row>
     <row r="308" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C308">
         <f t="shared" si="4"/>
@@ -8046,10 +8052,10 @@
     </row>
     <row r="309" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C309">
         <f t="shared" si="4"/>
@@ -8058,10 +8064,10 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C310">
         <f t="shared" si="4"/>
@@ -8070,10 +8076,10 @@
     </row>
     <row r="311" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C311">
         <f t="shared" si="4"/>
@@ -8082,10 +8088,10 @@
     </row>
     <row r="312" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C312">
         <f t="shared" si="4"/>
@@ -8094,10 +8100,10 @@
     </row>
     <row r="313" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C313">
         <f t="shared" si="4"/>
@@ -8106,10 +8112,10 @@
     </row>
     <row r="314" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C314">
         <f t="shared" si="4"/>
@@ -8118,10 +8124,10 @@
     </row>
     <row r="315" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C315">
         <f t="shared" si="4"/>
@@ -8130,10 +8136,10 @@
     </row>
     <row r="316" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C316">
         <f t="shared" si="4"/>
@@ -8142,10 +8148,10 @@
     </row>
     <row r="317" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C317">
         <f t="shared" si="4"/>
@@ -8154,10 +8160,10 @@
     </row>
     <row r="318" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C318">
         <f t="shared" si="4"/>
@@ -8166,10 +8172,10 @@
     </row>
     <row r="319" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C319">
         <f t="shared" si="4"/>
@@ -8178,10 +8184,10 @@
     </row>
     <row r="320" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C320">
         <f t="shared" si="4"/>
@@ -8190,10 +8196,10 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C321">
         <f t="shared" si="4"/>
@@ -8202,10 +8208,10 @@
     </row>
     <row r="322" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C322">
         <f t="shared" ref="C322:C385" si="5">LEN(B322)</f>
@@ -8214,10 +8220,10 @@
     </row>
     <row r="323" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C323">
         <f t="shared" si="5"/>
@@ -8227,15 +8233,15 @@
         <v>20170808</v>
       </c>
       <c r="E323" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="324" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C324">
         <f t="shared" si="5"/>
@@ -8244,10 +8250,10 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C325">
         <f t="shared" si="5"/>
@@ -8256,10 +8262,10 @@
     </row>
     <row r="326" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C326">
         <f t="shared" si="5"/>
@@ -8268,10 +8274,10 @@
     </row>
     <row r="327" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C327">
         <f t="shared" si="5"/>
@@ -8280,10 +8286,10 @@
     </row>
     <row r="328" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C328">
         <f t="shared" si="5"/>
@@ -8292,10 +8298,10 @@
     </row>
     <row r="329" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C329">
         <f t="shared" si="5"/>
@@ -8304,10 +8310,10 @@
     </row>
     <row r="330" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C330">
         <f t="shared" si="5"/>
@@ -8316,10 +8322,10 @@
     </row>
     <row r="331" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C331">
         <f t="shared" si="5"/>
@@ -8328,10 +8334,10 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C332">
         <f t="shared" si="5"/>
@@ -8340,10 +8346,10 @@
     </row>
     <row r="333" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C333">
         <f t="shared" si="5"/>
@@ -8352,10 +8358,10 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C334">
         <f t="shared" si="5"/>
@@ -8364,10 +8370,10 @@
     </row>
     <row r="335" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C335">
         <f t="shared" si="5"/>
@@ -8376,10 +8382,10 @@
     </row>
     <row r="336" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C336">
         <f t="shared" si="5"/>
@@ -8388,10 +8394,10 @@
     </row>
     <row r="337" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C337">
         <f t="shared" si="5"/>
@@ -8400,10 +8406,10 @@
     </row>
     <row r="338" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C338">
         <f t="shared" si="5"/>
@@ -8413,15 +8419,15 @@
         <v>20170515</v>
       </c>
       <c r="E338" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="339" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C339">
         <f t="shared" si="5"/>
@@ -8430,10 +8436,10 @@
     </row>
     <row r="340" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C340">
         <f t="shared" si="5"/>
@@ -8442,10 +8448,10 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C341">
         <f t="shared" si="5"/>
@@ -8454,10 +8460,10 @@
     </row>
     <row r="342" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C342">
         <f t="shared" si="5"/>
@@ -8466,10 +8472,10 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C343">
         <f t="shared" si="5"/>
@@ -8478,10 +8484,10 @@
     </row>
     <row r="344" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C344">
         <f t="shared" si="5"/>
@@ -8490,10 +8496,10 @@
     </row>
     <row r="345" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C345">
         <f t="shared" si="5"/>
@@ -8502,10 +8508,10 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C346">
         <f t="shared" si="5"/>
@@ -8514,10 +8520,10 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C347">
         <f t="shared" si="5"/>
@@ -8526,10 +8532,10 @@
     </row>
     <row r="348" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C348">
         <f t="shared" si="5"/>
@@ -8538,10 +8544,10 @@
     </row>
     <row r="349" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C349">
         <f t="shared" si="5"/>
@@ -8550,10 +8556,10 @@
     </row>
     <row r="350" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C350">
         <f t="shared" si="5"/>
@@ -8563,15 +8569,15 @@
         <v>20170820</v>
       </c>
       <c r="E350" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="351" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C351">
         <f t="shared" si="5"/>
@@ -8580,10 +8586,10 @@
     </row>
     <row r="352" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C352">
         <f t="shared" si="5"/>
@@ -8592,10 +8598,10 @@
     </row>
     <row r="353" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C353">
         <f t="shared" si="5"/>
@@ -8604,10 +8610,10 @@
     </row>
     <row r="354" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C354">
         <f t="shared" si="5"/>
@@ -8616,10 +8622,10 @@
     </row>
     <row r="355" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C355">
         <f t="shared" si="5"/>
@@ -8628,10 +8634,10 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C356">
         <f t="shared" si="5"/>
@@ -8640,10 +8646,10 @@
     </row>
     <row r="357" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C357">
         <f t="shared" si="5"/>
@@ -8652,10 +8658,10 @@
     </row>
     <row r="358" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C358">
         <f t="shared" si="5"/>
@@ -8664,10 +8670,10 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C359">
         <f t="shared" si="5"/>
@@ -8676,10 +8682,10 @@
     </row>
     <row r="360" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C360">
         <f t="shared" si="5"/>
@@ -8688,10 +8694,10 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C361">
         <f t="shared" si="5"/>
@@ -8700,10 +8706,10 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C362">
         <f t="shared" si="5"/>
@@ -8712,10 +8718,10 @@
     </row>
     <row r="363" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C363">
         <f t="shared" si="5"/>
@@ -8724,10 +8730,10 @@
     </row>
     <row r="364" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C364">
         <f t="shared" si="5"/>
@@ -8736,10 +8742,10 @@
     </row>
     <row r="365" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C365">
         <f t="shared" si="5"/>
@@ -8748,10 +8754,10 @@
     </row>
     <row r="366" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C366">
         <f t="shared" si="5"/>
@@ -8760,10 +8766,10 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C367">
         <f t="shared" si="5"/>
@@ -8772,10 +8778,10 @@
     </row>
     <row r="368" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C368">
         <f t="shared" si="5"/>
@@ -8784,10 +8790,10 @@
     </row>
     <row r="369" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C369">
         <f t="shared" si="5"/>
@@ -8796,10 +8802,10 @@
     </row>
     <row r="370" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C370">
         <f t="shared" si="5"/>
@@ -8808,10 +8814,10 @@
     </row>
     <row r="371" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C371">
         <f t="shared" si="5"/>
@@ -8820,10 +8826,10 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C372">
         <f t="shared" si="5"/>
@@ -8832,10 +8838,10 @@
     </row>
     <row r="373" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C373">
         <f t="shared" si="5"/>
@@ -8844,10 +8850,10 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C374">
         <f t="shared" si="5"/>
@@ -8856,10 +8862,10 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C375">
         <f t="shared" si="5"/>
@@ -8868,10 +8874,10 @@
     </row>
     <row r="376" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C376">
         <f t="shared" si="5"/>
@@ -8880,10 +8886,10 @@
     </row>
     <row r="377" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C377">
         <f t="shared" si="5"/>
@@ -8892,10 +8898,10 @@
     </row>
     <row r="378" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C378">
         <f t="shared" si="5"/>
@@ -8904,10 +8910,10 @@
     </row>
     <row r="379" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C379">
         <f t="shared" si="5"/>
@@ -8916,10 +8922,10 @@
     </row>
     <row r="380" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C380">
         <f t="shared" si="5"/>
@@ -8928,10 +8934,10 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C381">
         <f t="shared" si="5"/>
@@ -8940,10 +8946,10 @@
     </row>
     <row r="382" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C382">
         <f t="shared" si="5"/>
@@ -8952,10 +8958,10 @@
     </row>
     <row r="383" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C383">
         <f t="shared" si="5"/>
@@ -8964,10 +8970,10 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C384">
         <f t="shared" si="5"/>
@@ -8976,10 +8982,10 @@
     </row>
     <row r="385" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C385">
         <f t="shared" si="5"/>
@@ -8988,10 +8994,10 @@
     </row>
     <row r="386" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C386">
         <f t="shared" ref="C386:C449" si="6">LEN(B386)</f>
@@ -9000,10 +9006,10 @@
     </row>
     <row r="387" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C387">
         <f t="shared" si="6"/>
@@ -9013,15 +9019,15 @@
         <v>20170808</v>
       </c>
       <c r="E387" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C388">
         <f t="shared" si="6"/>
@@ -9031,15 +9037,15 @@
         <v>20170911</v>
       </c>
       <c r="E388" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C389">
         <f t="shared" si="6"/>
@@ -9048,10 +9054,10 @@
     </row>
     <row r="390" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C390">
         <f t="shared" si="6"/>
@@ -9061,15 +9067,15 @@
         <v>20170911</v>
       </c>
       <c r="E390" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="391" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C391">
         <f t="shared" si="6"/>
@@ -9078,10 +9084,10 @@
     </row>
     <row r="392" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C392">
         <f t="shared" si="6"/>
@@ -9090,10 +9096,10 @@
     </row>
     <row r="393" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C393">
         <f t="shared" si="6"/>
@@ -9102,10 +9108,10 @@
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C394">
         <f t="shared" si="6"/>
@@ -9114,10 +9120,10 @@
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C395">
         <f t="shared" si="6"/>
@@ -9126,10 +9132,10 @@
     </row>
     <row r="396" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C396">
         <f t="shared" si="6"/>
@@ -9138,10 +9144,10 @@
     </row>
     <row r="397" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C397">
         <f t="shared" si="6"/>
@@ -9150,10 +9156,10 @@
     </row>
     <row r="398" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C398">
         <f t="shared" si="6"/>
@@ -9162,10 +9168,10 @@
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C399">
         <f t="shared" si="6"/>
@@ -9174,10 +9180,10 @@
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C400">
         <f t="shared" si="6"/>
@@ -9186,10 +9192,10 @@
     </row>
     <row r="401" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C401">
         <f t="shared" si="6"/>
@@ -9198,10 +9204,10 @@
     </row>
     <row r="402" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C402">
         <f t="shared" si="6"/>
@@ -9210,10 +9216,10 @@
     </row>
     <row r="403" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C403">
         <f t="shared" si="6"/>
@@ -9222,10 +9228,10 @@
     </row>
     <row r="404" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C404">
         <f t="shared" si="6"/>
@@ -9234,10 +9240,10 @@
     </row>
     <row r="405" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C405">
         <f t="shared" si="6"/>
@@ -9246,10 +9252,10 @@
     </row>
     <row r="406" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C406">
         <f t="shared" si="6"/>
@@ -9258,10 +9264,10 @@
     </row>
     <row r="407" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C407">
         <f t="shared" si="6"/>
@@ -9270,10 +9276,10 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C408">
         <f t="shared" si="6"/>
@@ -9282,10 +9288,10 @@
     </row>
     <row r="409" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C409">
         <f t="shared" si="6"/>
@@ -9294,10 +9300,10 @@
     </row>
     <row r="410" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C410">
         <f t="shared" si="6"/>
@@ -9306,10 +9312,10 @@
     </row>
     <row r="411" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C411">
         <f t="shared" si="6"/>
@@ -9318,10 +9324,10 @@
     </row>
     <row r="412" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C412">
         <f t="shared" si="6"/>
@@ -9330,10 +9336,10 @@
     </row>
     <row r="413" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C413">
         <f t="shared" si="6"/>
@@ -9342,10 +9348,10 @@
     </row>
     <row r="414" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C414">
         <f t="shared" si="6"/>
@@ -9354,10 +9360,10 @@
     </row>
     <row r="415" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C415">
         <f t="shared" si="6"/>
@@ -9366,10 +9372,10 @@
     </row>
     <row r="416" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C416">
         <f t="shared" si="6"/>
@@ -9378,10 +9384,10 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C417">
         <f t="shared" si="6"/>
@@ -9390,10 +9396,10 @@
     </row>
     <row r="418" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C418">
         <f t="shared" si="6"/>
@@ -9402,10 +9408,10 @@
     </row>
     <row r="419" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C419">
         <f t="shared" si="6"/>
@@ -9414,10 +9420,10 @@
     </row>
     <row r="420" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C420">
         <f t="shared" si="6"/>
@@ -9426,10 +9432,10 @@
     </row>
     <row r="421" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C421">
         <f t="shared" si="6"/>
@@ -9438,10 +9444,10 @@
     </row>
     <row r="422" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C422">
         <f t="shared" si="6"/>
@@ -9450,10 +9456,10 @@
     </row>
     <row r="423" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C423">
         <f t="shared" si="6"/>
@@ -9462,10 +9468,10 @@
     </row>
     <row r="424" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C424">
         <f t="shared" si="6"/>
@@ -9474,10 +9480,10 @@
     </row>
     <row r="425" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C425">
         <f t="shared" si="6"/>
@@ -9486,10 +9492,10 @@
     </row>
     <row r="426" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C426">
         <f t="shared" si="6"/>
@@ -9498,10 +9504,10 @@
     </row>
     <row r="427" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C427">
         <f t="shared" si="6"/>
@@ -9510,10 +9516,10 @@
     </row>
     <row r="428" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C428">
         <f t="shared" si="6"/>
@@ -9522,10 +9528,10 @@
     </row>
     <row r="429" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C429">
         <f t="shared" si="6"/>
@@ -9534,10 +9540,10 @@
     </row>
     <row r="430" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C430">
         <f t="shared" si="6"/>
@@ -9546,10 +9552,10 @@
     </row>
     <row r="431" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C431">
         <f t="shared" si="6"/>
@@ -9558,10 +9564,10 @@
     </row>
     <row r="432" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C432">
         <f t="shared" si="6"/>
@@ -9570,10 +9576,10 @@
     </row>
     <row r="433" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C433">
         <f t="shared" si="6"/>
@@ -9582,10 +9588,10 @@
     </row>
     <row r="434" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C434">
         <f t="shared" si="6"/>
@@ -9594,10 +9600,10 @@
     </row>
     <row r="435" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C435">
         <f t="shared" si="6"/>
@@ -9606,10 +9612,10 @@
     </row>
     <row r="436" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C436">
         <f t="shared" si="6"/>
@@ -9618,10 +9624,10 @@
     </row>
     <row r="437" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C437">
         <f t="shared" si="6"/>
@@ -9630,10 +9636,10 @@
     </row>
     <row r="438" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C438">
         <f t="shared" si="6"/>
@@ -9642,10 +9648,10 @@
     </row>
     <row r="439" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C439">
         <f t="shared" si="6"/>
@@ -9654,10 +9660,10 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C440">
         <f t="shared" si="6"/>
@@ -9666,10 +9672,10 @@
     </row>
     <row r="441" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C441">
         <f t="shared" si="6"/>
@@ -9678,10 +9684,10 @@
     </row>
     <row r="442" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C442">
         <f t="shared" si="6"/>
@@ -9690,10 +9696,10 @@
     </row>
     <row r="443" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C443">
         <f t="shared" si="6"/>
@@ -9702,10 +9708,10 @@
     </row>
     <row r="444" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C444">
         <f t="shared" si="6"/>
@@ -9714,10 +9720,10 @@
     </row>
     <row r="445" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C445">
         <f t="shared" si="6"/>
@@ -9726,10 +9732,10 @@
     </row>
     <row r="446" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C446">
         <f t="shared" si="6"/>
@@ -9738,10 +9744,10 @@
     </row>
     <row r="447" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C447">
         <f t="shared" si="6"/>
@@ -9750,10 +9756,10 @@
     </row>
     <row r="448" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C448">
         <f t="shared" si="6"/>
@@ -9762,10 +9768,10 @@
     </row>
     <row r="449" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C449">
         <f t="shared" si="6"/>
@@ -9774,10 +9780,10 @@
     </row>
     <row r="450" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C450">
         <f t="shared" ref="C450:C513" si="7">LEN(B450)</f>
@@ -9786,10 +9792,10 @@
     </row>
     <row r="451" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C451">
         <f t="shared" si="7"/>
@@ -9799,15 +9805,15 @@
         <v>20170515</v>
       </c>
       <c r="E451" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="452" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C452">
         <f t="shared" si="7"/>
@@ -9816,10 +9822,10 @@
     </row>
     <row r="453" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C453">
         <f t="shared" si="7"/>
@@ -9828,10 +9834,10 @@
     </row>
     <row r="454" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C454">
         <f t="shared" si="7"/>
@@ -9840,10 +9846,10 @@
     </row>
     <row r="455" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C455">
         <f t="shared" si="7"/>
@@ -9852,10 +9858,10 @@
     </row>
     <row r="456" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C456">
         <f t="shared" si="7"/>
@@ -9864,10 +9870,10 @@
     </row>
     <row r="457" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C457">
         <f t="shared" si="7"/>
@@ -9876,10 +9882,10 @@
     </row>
     <row r="458" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C458">
         <f t="shared" si="7"/>
@@ -9888,10 +9894,10 @@
     </row>
     <row r="459" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C459">
         <f t="shared" si="7"/>
@@ -9900,10 +9906,10 @@
     </row>
     <row r="460" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C460">
         <f t="shared" si="7"/>
@@ -9912,10 +9918,10 @@
     </row>
     <row r="461" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C461">
         <f t="shared" si="7"/>
@@ -9924,10 +9930,10 @@
     </row>
     <row r="462" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C462">
         <f t="shared" si="7"/>
@@ -9936,10 +9942,10 @@
     </row>
     <row r="463" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C463">
         <f t="shared" si="7"/>
@@ -9949,15 +9955,15 @@
         <v>20170515</v>
       </c>
       <c r="E463" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="464" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C464">
         <f t="shared" si="7"/>
@@ -9966,10 +9972,10 @@
     </row>
     <row r="465" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C465">
         <f t="shared" si="7"/>
@@ -9978,10 +9984,10 @@
     </row>
     <row r="466" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C466">
         <f t="shared" si="7"/>
@@ -9990,10 +9996,10 @@
     </row>
     <row r="467" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C467">
         <f t="shared" si="7"/>
@@ -10002,10 +10008,10 @@
     </row>
     <row r="468" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C468">
         <f t="shared" si="7"/>
@@ -10014,10 +10020,10 @@
     </row>
     <row r="469" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C469">
         <f t="shared" si="7"/>
@@ -10026,10 +10032,10 @@
     </row>
     <row r="470" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C470">
         <f t="shared" si="7"/>
@@ -10038,10 +10044,10 @@
     </row>
     <row r="471" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C471">
         <f t="shared" si="7"/>
@@ -10050,10 +10056,10 @@
     </row>
     <row r="472" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C472">
         <f t="shared" si="7"/>
@@ -10062,10 +10068,10 @@
     </row>
     <row r="473" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C473">
         <f t="shared" si="7"/>
@@ -10074,10 +10080,10 @@
     </row>
     <row r="474" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C474">
         <f t="shared" si="7"/>
@@ -10086,10 +10092,10 @@
     </row>
     <row r="475" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C475">
         <f t="shared" si="7"/>
@@ -10098,10 +10104,10 @@
     </row>
     <row r="476" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C476">
         <f t="shared" si="7"/>
@@ -10110,10 +10116,10 @@
     </row>
     <row r="477" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C477">
         <f t="shared" si="7"/>
@@ -10122,10 +10128,10 @@
     </row>
     <row r="478" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C478">
         <f t="shared" si="7"/>
@@ -10134,10 +10140,10 @@
     </row>
     <row r="479" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C479">
         <f t="shared" si="7"/>
@@ -10146,10 +10152,10 @@
     </row>
     <row r="480" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C480">
         <f t="shared" si="7"/>
@@ -10158,10 +10164,10 @@
     </row>
     <row r="481" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C481">
         <f t="shared" si="7"/>
@@ -10170,10 +10176,10 @@
     </row>
     <row r="482" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C482">
         <f t="shared" si="7"/>
@@ -10182,10 +10188,10 @@
     </row>
     <row r="483" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C483">
         <f t="shared" si="7"/>
@@ -10194,10 +10200,10 @@
     </row>
     <row r="484" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C484">
         <f t="shared" si="7"/>
@@ -10206,10 +10212,10 @@
     </row>
     <row r="485" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C485">
         <f t="shared" si="7"/>
@@ -10218,10 +10224,10 @@
     </row>
     <row r="486" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C486">
         <f t="shared" si="7"/>
@@ -10231,15 +10237,15 @@
         <v>20170515</v>
       </c>
       <c r="E486" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C487">
         <f t="shared" si="7"/>
@@ -10248,10 +10254,10 @@
     </row>
     <row r="488" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C488">
         <f t="shared" si="7"/>
@@ -10261,15 +10267,15 @@
         <v>20170920</v>
       </c>
       <c r="E488" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="489" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C489">
         <f t="shared" si="7"/>
@@ -10278,10 +10284,10 @@
     </row>
     <row r="490" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C490">
         <f t="shared" si="7"/>
@@ -10290,10 +10296,10 @@
     </row>
     <row r="491" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C491">
         <f t="shared" si="7"/>
@@ -10302,10 +10308,10 @@
     </row>
     <row r="492" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C492">
         <f t="shared" si="7"/>
@@ -10314,10 +10320,10 @@
     </row>
     <row r="493" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C493">
         <f t="shared" si="7"/>
@@ -10326,10 +10332,10 @@
     </row>
     <row r="494" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C494">
         <f t="shared" si="7"/>
@@ -10338,10 +10344,10 @@
     </row>
     <row r="495" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C495">
         <f t="shared" si="7"/>
@@ -10350,10 +10356,10 @@
     </row>
     <row r="496" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C496">
         <f t="shared" si="7"/>
@@ -10362,10 +10368,10 @@
     </row>
     <row r="497" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C497">
         <f t="shared" si="7"/>
@@ -10374,10 +10380,10 @@
     </row>
     <row r="498" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C498">
         <f t="shared" si="7"/>
@@ -10386,10 +10392,10 @@
     </row>
     <row r="499" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C499">
         <f t="shared" si="7"/>
@@ -10399,15 +10405,15 @@
         <v>20170515</v>
       </c>
       <c r="E499" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="500" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C500">
         <f t="shared" si="7"/>
@@ -10416,10 +10422,10 @@
     </row>
     <row r="501" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C501">
         <f t="shared" si="7"/>
@@ -10428,10 +10434,10 @@
     </row>
     <row r="502" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C502">
         <f t="shared" si="7"/>
@@ -10440,10 +10446,10 @@
     </row>
     <row r="503" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C503">
         <f t="shared" si="7"/>
@@ -10452,10 +10458,10 @@
     </row>
     <row r="504" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C504">
         <f t="shared" si="7"/>
@@ -10464,10 +10470,10 @@
     </row>
     <row r="505" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C505">
         <f t="shared" si="7"/>
@@ -10477,15 +10483,15 @@
         <v>20180404</v>
       </c>
       <c r="E505" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="506" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C506">
         <f t="shared" si="7"/>
@@ -10494,10 +10500,10 @@
     </row>
     <row r="507" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C507">
         <f t="shared" si="7"/>
@@ -10506,10 +10512,10 @@
     </row>
     <row r="508" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C508">
         <f t="shared" si="7"/>
@@ -10518,10 +10524,10 @@
     </row>
     <row r="509" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C509">
         <f t="shared" si="7"/>
@@ -10530,10 +10536,10 @@
     </row>
     <row r="510" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C510">
         <f t="shared" si="7"/>
@@ -10542,10 +10548,10 @@
     </row>
     <row r="511" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C511">
         <f t="shared" si="7"/>
@@ -10554,10 +10560,10 @@
     </row>
     <row r="512" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C512">
         <f t="shared" si="7"/>
@@ -10566,10 +10572,10 @@
     </row>
     <row r="513" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C513">
         <f t="shared" si="7"/>
@@ -10578,10 +10584,10 @@
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C514">
         <f t="shared" ref="C514:C530" si="8">LEN(B514)</f>
@@ -10590,10 +10596,10 @@
     </row>
     <row r="515" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C515">
         <f t="shared" si="8"/>
@@ -10602,10 +10608,10 @@
     </row>
     <row r="516" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C516">
         <f t="shared" si="8"/>
@@ -10614,10 +10620,10 @@
     </row>
     <row r="517" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C517">
         <f t="shared" si="8"/>
@@ -10626,10 +10632,10 @@
     </row>
     <row r="518" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C518">
         <f t="shared" si="8"/>
@@ -10639,15 +10645,15 @@
         <v>20180404</v>
       </c>
       <c r="E518" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="519" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C519">
         <f t="shared" si="8"/>
@@ -10656,10 +10662,10 @@
     </row>
     <row r="520" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C520">
         <f t="shared" si="8"/>
@@ -10668,10 +10674,10 @@
     </row>
     <row r="521" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C521">
         <f t="shared" si="8"/>
@@ -10680,10 +10686,10 @@
     </row>
     <row r="522" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C522">
         <f t="shared" si="8"/>
@@ -10692,10 +10698,10 @@
     </row>
     <row r="523" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C523">
         <f t="shared" si="8"/>
@@ -10704,10 +10710,10 @@
     </row>
     <row r="524" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C524">
         <f t="shared" si="8"/>
@@ -10716,10 +10722,10 @@
     </row>
     <row r="525" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C525">
         <f t="shared" si="8"/>
@@ -10728,10 +10734,10 @@
     </row>
     <row r="526" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C526">
         <f t="shared" si="8"/>
@@ -10740,10 +10746,10 @@
     </row>
     <row r="527" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C527">
         <f t="shared" si="8"/>
@@ -10752,10 +10758,10 @@
     </row>
     <row r="528" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C528">
         <f t="shared" si="8"/>
@@ -10764,10 +10770,10 @@
     </row>
     <row r="529" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C529">
         <f t="shared" si="8"/>
@@ -10776,10 +10782,10 @@
     </row>
     <row r="530" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C530">
         <f t="shared" si="8"/>
@@ -10788,10 +10794,10 @@
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B531" s="2" t="s">
         <v>1055</v>
-      </c>
-      <c r="B531" s="2" t="s">
-        <v>1056</v>
       </c>
       <c r="C531">
         <f t="shared" ref="C531" si="9">LEN(B531)</f>
@@ -10801,7 +10807,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C1:C530">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
       <formula>140</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tweetlist.xlsx
+++ b/tweetlist.xlsx
@@ -584,9 +584,6 @@
     <t>【今日の人工衛星】5/2 1998年：イリジウム69,イリジウム71 衛星携帯電話の1つイリジウムを提供している衛星。合計66個の衛星+予備機によって運営されている</t>
   </si>
   <si>
-    <t>【今日の人工衛星】5/3 2000年：GOES-11 アメリカの気象衛星GOESシリーズの11号機。現在西経135度で西海岸・太平洋を観測。なお1986年の同日には7番目のGが打ち上げられたが、これは失敗している</t>
-  </si>
-  <si>
     <t>【今日の人工衛星】5/4 1989年：マゼラン NASAの金星探査機。スペースシャトル・アトランティス（STS-30）で打ち上げられた。スペースシャトルから打ち上げた初の探査機。1990年～94年にかけて観測を行った。</t>
   </si>
   <si>
@@ -3860,6 +3857,25 @@
     </rPh>
     <rPh sb="124" eb="126">
       <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【今日の人工衛星】5/3 2000年：GOES-11 アメリカの気象衛星GOESシリーズの11号機。2011年12月にGOES-15に任務を引き継ぐまで西経135度で西海岸・太平洋を観測。なお1986年の同日には7番目のGが打ち上げられたが、これは失敗している</t>
+    <rPh sb="54" eb="55">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ニンム</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>ツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4223,8 +4239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E531"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B195" sqref="B195"/>
+    <sheetView tabSelected="1" topLeftCell="A187" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B200" sqref="B200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -4236,7 +4252,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -4248,7 +4264,7 @@
     </row>
     <row r="2" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -4260,7 +4276,7 @@
     </row>
     <row r="3" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -4272,7 +4288,7 @@
     </row>
     <row r="4" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -4284,7 +4300,7 @@
     </row>
     <row r="5" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -4296,7 +4312,7 @@
     </row>
     <row r="6" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
@@ -4308,7 +4324,7 @@
     </row>
     <row r="7" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
@@ -4320,7 +4336,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
@@ -4332,7 +4348,7 @@
     </row>
     <row r="9" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>8</v>
@@ -4344,7 +4360,7 @@
     </row>
     <row r="10" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -4356,7 +4372,7 @@
     </row>
     <row r="11" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>10</v>
@@ -4368,7 +4384,7 @@
     </row>
     <row r="12" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
@@ -4380,7 +4396,7 @@
     </row>
     <row r="13" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
@@ -4392,7 +4408,7 @@
     </row>
     <row r="14" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>13</v>
@@ -4404,7 +4420,7 @@
     </row>
     <row r="15" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>14</v>
@@ -4416,7 +4432,7 @@
     </row>
     <row r="16" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>15</v>
@@ -4428,7 +4444,7 @@
     </row>
     <row r="17" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>16</v>
@@ -4440,7 +4456,7 @@
     </row>
     <row r="18" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>17</v>
@@ -4452,7 +4468,7 @@
     </row>
     <row r="19" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>18</v>
@@ -4464,7 +4480,7 @@
     </row>
     <row r="20" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>19</v>
@@ -4476,7 +4492,7 @@
     </row>
     <row r="21" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>20</v>
@@ -4488,10 +4504,10 @@
     </row>
     <row r="22" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -4501,12 +4517,12 @@
         <v>20180404</v>
       </c>
       <c r="E22" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>21</v>
@@ -4518,7 +4534,7 @@
     </row>
     <row r="24" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>22</v>
@@ -4530,7 +4546,7 @@
     </row>
     <row r="25" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>23</v>
@@ -4542,7 +4558,7 @@
     </row>
     <row r="26" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>24</v>
@@ -4554,7 +4570,7 @@
     </row>
     <row r="27" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>25</v>
@@ -4566,7 +4582,7 @@
     </row>
     <row r="28" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>26</v>
@@ -4578,7 +4594,7 @@
     </row>
     <row r="29" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>27</v>
@@ -4590,7 +4606,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>28</v>
@@ -4602,7 +4618,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>29</v>
@@ -4614,7 +4630,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>30</v>
@@ -4626,7 +4642,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>31</v>
@@ -4638,7 +4654,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>32</v>
@@ -4650,7 +4666,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>33</v>
@@ -4662,7 +4678,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>34</v>
@@ -4674,7 +4690,7 @@
     </row>
     <row r="37" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>35</v>
@@ -4686,7 +4702,7 @@
     </row>
     <row r="38" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>36</v>
@@ -4698,7 +4714,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>37</v>
@@ -4710,7 +4726,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>38</v>
@@ -4722,7 +4738,7 @@
     </row>
     <row r="41" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>39</v>
@@ -4734,7 +4750,7 @@
     </row>
     <row r="42" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>40</v>
@@ -4746,7 +4762,7 @@
     </row>
     <row r="43" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>41</v>
@@ -4758,7 +4774,7 @@
     </row>
     <row r="44" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>42</v>
@@ -4770,7 +4786,7 @@
     </row>
     <row r="45" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>43</v>
@@ -4782,7 +4798,7 @@
     </row>
     <row r="46" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>44</v>
@@ -4794,7 +4810,7 @@
     </row>
     <row r="47" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>45</v>
@@ -4806,7 +4822,7 @@
     </row>
     <row r="48" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>46</v>
@@ -4818,7 +4834,7 @@
     </row>
     <row r="49" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>47</v>
@@ -4830,7 +4846,7 @@
     </row>
     <row r="50" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>48</v>
@@ -4842,10 +4858,10 @@
     </row>
     <row r="51" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
@@ -4855,12 +4871,12 @@
         <v>20180404</v>
       </c>
       <c r="E51" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>49</v>
@@ -4872,7 +4888,7 @@
     </row>
     <row r="53" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>50</v>
@@ -4884,7 +4900,7 @@
     </row>
     <row r="54" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>51</v>
@@ -4896,7 +4912,7 @@
     </row>
     <row r="55" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>52</v>
@@ -4908,7 +4924,7 @@
     </row>
     <row r="56" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>53</v>
@@ -4920,7 +4936,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>54</v>
@@ -4932,7 +4948,7 @@
     </row>
     <row r="58" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>55</v>
@@ -4944,7 +4960,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>56</v>
@@ -4956,7 +4972,7 @@
     </row>
     <row r="60" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>57</v>
@@ -4968,7 +4984,7 @@
     </row>
     <row r="61" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>58</v>
@@ -4980,7 +4996,7 @@
     </row>
     <row r="62" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>59</v>
@@ -4992,7 +5008,7 @@
     </row>
     <row r="63" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>60</v>
@@ -5004,7 +5020,7 @@
     </row>
     <row r="64" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>61</v>
@@ -5016,7 +5032,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>62</v>
@@ -5028,7 +5044,7 @@
     </row>
     <row r="66" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>63</v>
@@ -5040,7 +5056,7 @@
     </row>
     <row r="67" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>64</v>
@@ -5052,7 +5068,7 @@
     </row>
     <row r="68" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>65</v>
@@ -5064,7 +5080,7 @@
     </row>
     <row r="69" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>66</v>
@@ -5076,7 +5092,7 @@
     </row>
     <row r="70" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>67</v>
@@ -5088,7 +5104,7 @@
     </row>
     <row r="71" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>68</v>
@@ -5100,7 +5116,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>69</v>
@@ -5112,7 +5128,7 @@
     </row>
     <row r="73" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>70</v>
@@ -5124,7 +5140,7 @@
     </row>
     <row r="74" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>71</v>
@@ -5136,7 +5152,7 @@
     </row>
     <row r="75" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>72</v>
@@ -5148,7 +5164,7 @@
     </row>
     <row r="76" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>73</v>
@@ -5160,7 +5176,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>74</v>
@@ -5172,7 +5188,7 @@
     </row>
     <row r="78" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>75</v>
@@ -5184,7 +5200,7 @@
     </row>
     <row r="79" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>76</v>
@@ -5196,7 +5212,7 @@
     </row>
     <row r="80" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>77</v>
@@ -5208,7 +5224,7 @@
     </row>
     <row r="81" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>78</v>
@@ -5220,7 +5236,7 @@
     </row>
     <row r="82" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>79</v>
@@ -5232,10 +5248,10 @@
     </row>
     <row r="83" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C83">
         <f t="shared" si="1"/>
@@ -5245,12 +5261,12 @@
         <v>20170515</v>
       </c>
       <c r="E83" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>80</v>
@@ -5262,7 +5278,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>81</v>
@@ -5274,7 +5290,7 @@
     </row>
     <row r="86" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>82</v>
@@ -5286,7 +5302,7 @@
     </row>
     <row r="87" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>83</v>
@@ -5298,7 +5314,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>84</v>
@@ -5310,10 +5326,10 @@
     </row>
     <row r="89" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C89">
         <f t="shared" si="1"/>
@@ -5323,12 +5339,12 @@
         <v>20180404</v>
       </c>
       <c r="E89" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>85</v>
@@ -5340,7 +5356,7 @@
     </row>
     <row r="91" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>86</v>
@@ -5352,7 +5368,7 @@
     </row>
     <row r="92" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>87</v>
@@ -5364,7 +5380,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>88</v>
@@ -5376,7 +5392,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>89</v>
@@ -5388,7 +5404,7 @@
     </row>
     <row r="95" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>90</v>
@@ -5400,7 +5416,7 @@
     </row>
     <row r="96" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>91</v>
@@ -5412,7 +5428,7 @@
     </row>
     <row r="97" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>92</v>
@@ -5424,7 +5440,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>93</v>
@@ -5436,7 +5452,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>94</v>
@@ -5448,7 +5464,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>95</v>
@@ -5460,7 +5476,7 @@
     </row>
     <row r="101" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>96</v>
@@ -5472,7 +5488,7 @@
     </row>
     <row r="102" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>97</v>
@@ -5484,7 +5500,7 @@
     </row>
     <row r="103" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>98</v>
@@ -5496,7 +5512,7 @@
     </row>
     <row r="104" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>99</v>
@@ -5508,7 +5524,7 @@
     </row>
     <row r="105" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>100</v>
@@ -5520,7 +5536,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>101</v>
@@ -5532,7 +5548,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>102</v>
@@ -5544,7 +5560,7 @@
     </row>
     <row r="108" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>103</v>
@@ -5556,7 +5572,7 @@
     </row>
     <row r="109" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>104</v>
@@ -5568,7 +5584,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>105</v>
@@ -5580,7 +5596,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>106</v>
@@ -5592,7 +5608,7 @@
     </row>
     <row r="112" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>107</v>
@@ -5604,7 +5620,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>108</v>
@@ -5616,7 +5632,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>109</v>
@@ -5628,7 +5644,7 @@
     </row>
     <row r="115" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>110</v>
@@ -5640,7 +5656,7 @@
     </row>
     <row r="116" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>111</v>
@@ -5652,7 +5668,7 @@
     </row>
     <row r="117" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>112</v>
@@ -5664,7 +5680,7 @@
     </row>
     <row r="118" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>113</v>
@@ -5676,7 +5692,7 @@
     </row>
     <row r="119" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>114</v>
@@ -5688,7 +5704,7 @@
     </row>
     <row r="120" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>115</v>
@@ -5700,7 +5716,7 @@
     </row>
     <row r="121" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>116</v>
@@ -5712,7 +5728,7 @@
     </row>
     <row r="122" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>117</v>
@@ -5724,10 +5740,10 @@
     </row>
     <row r="123" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>1038</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>1039</v>
       </c>
       <c r="C123">
         <f t="shared" si="1"/>
@@ -5737,12 +5753,12 @@
         <v>20170515</v>
       </c>
       <c r="E123" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>118</v>
@@ -5754,10 +5770,10 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C125">
         <f t="shared" si="1"/>
@@ -5767,7 +5783,7 @@
         <v>20170515</v>
       </c>
       <c r="E125" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -5796,7 +5812,7 @@
     </row>
     <row r="128" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>123</v>
@@ -5808,10 +5824,10 @@
     </row>
     <row r="129" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C129">
         <f t="shared" si="1"/>
@@ -5821,12 +5837,12 @@
         <v>20170515</v>
       </c>
       <c r="E129" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>124</v>
@@ -5838,10 +5854,10 @@
     </row>
     <row r="131" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C131">
         <f t="shared" si="2"/>
@@ -5851,12 +5867,12 @@
         <v>20180404</v>
       </c>
       <c r="E131" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>125</v>
@@ -5868,7 +5884,7 @@
     </row>
     <row r="133" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>126</v>
@@ -5880,10 +5896,10 @@
     </row>
     <row r="134" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C134">
         <f t="shared" si="2"/>
@@ -5893,15 +5909,15 @@
         <v>20170515</v>
       </c>
       <c r="E134" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C135">
         <f t="shared" si="2"/>
@@ -5911,15 +5927,15 @@
         <v>20180404</v>
       </c>
       <c r="E135" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C136">
         <f t="shared" si="2"/>
@@ -5929,12 +5945,12 @@
         <v>20170515</v>
       </c>
       <c r="E136" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>127</v>
@@ -5946,7 +5962,7 @@
     </row>
     <row r="138" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>128</v>
@@ -5958,7 +5974,7 @@
     </row>
     <row r="139" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>129</v>
@@ -5970,7 +5986,7 @@
     </row>
     <row r="140" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>130</v>
@@ -5982,7 +5998,7 @@
     </row>
     <row r="141" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>131</v>
@@ -5994,7 +6010,7 @@
     </row>
     <row r="142" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>132</v>
@@ -6006,7 +6022,7 @@
     </row>
     <row r="143" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>133</v>
@@ -6018,7 +6034,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>134</v>
@@ -6030,7 +6046,7 @@
     </row>
     <row r="145" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>135</v>
@@ -6042,7 +6058,7 @@
     </row>
     <row r="146" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>136</v>
@@ -6054,7 +6070,7 @@
     </row>
     <row r="147" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>137</v>
@@ -6066,7 +6082,7 @@
     </row>
     <row r="148" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>138</v>
@@ -6078,7 +6094,7 @@
     </row>
     <row r="149" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>139</v>
@@ -6090,7 +6106,7 @@
     </row>
     <row r="150" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>140</v>
@@ -6102,10 +6118,10 @@
     </row>
     <row r="151" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C151">
         <f t="shared" si="2"/>
@@ -6114,7 +6130,7 @@
     </row>
     <row r="152" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>141</v>
@@ -6126,7 +6142,7 @@
     </row>
     <row r="153" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>142</v>
@@ -6138,7 +6154,7 @@
     </row>
     <row r="154" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>143</v>
@@ -6150,7 +6166,7 @@
     </row>
     <row r="155" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>144</v>
@@ -6162,7 +6178,7 @@
     </row>
     <row r="156" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>145</v>
@@ -6174,7 +6190,7 @@
     </row>
     <row r="157" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>146</v>
@@ -6186,7 +6202,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>147</v>
@@ -6198,10 +6214,10 @@
     </row>
     <row r="159" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C159">
         <f t="shared" si="2"/>
@@ -6211,12 +6227,12 @@
         <v>20170515</v>
       </c>
       <c r="E159" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>148</v>
@@ -6228,7 +6244,7 @@
     </row>
     <row r="161" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>149</v>
@@ -6240,7 +6256,7 @@
     </row>
     <row r="162" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>150</v>
@@ -6252,7 +6268,7 @@
     </row>
     <row r="163" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>151</v>
@@ -6264,7 +6280,7 @@
     </row>
     <row r="164" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>152</v>
@@ -6276,7 +6292,7 @@
     </row>
     <row r="165" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>153</v>
@@ -6288,7 +6304,7 @@
     </row>
     <row r="166" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>154</v>
@@ -6300,7 +6316,7 @@
     </row>
     <row r="167" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>155</v>
@@ -6312,7 +6328,7 @@
     </row>
     <row r="168" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>156</v>
@@ -6324,7 +6340,7 @@
     </row>
     <row r="169" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>157</v>
@@ -6336,7 +6352,7 @@
     </row>
     <row r="170" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>158</v>
@@ -6348,7 +6364,7 @@
     </row>
     <row r="171" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>159</v>
@@ -6360,7 +6376,7 @@
     </row>
     <row r="172" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>160</v>
@@ -6372,10 +6388,10 @@
     </row>
     <row r="173" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C173">
         <f t="shared" si="2"/>
@@ -6385,12 +6401,12 @@
         <v>20170515</v>
       </c>
       <c r="E173" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>161</v>
@@ -6402,7 +6418,7 @@
     </row>
     <row r="175" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>162</v>
@@ -6414,7 +6430,7 @@
     </row>
     <row r="176" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>163</v>
@@ -6426,7 +6442,7 @@
     </row>
     <row r="177" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>164</v>
@@ -6438,7 +6454,7 @@
     </row>
     <row r="178" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>165</v>
@@ -6450,7 +6466,7 @@
     </row>
     <row r="179" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>166</v>
@@ -6462,7 +6478,7 @@
     </row>
     <row r="180" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>167</v>
@@ -6474,7 +6490,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>168</v>
@@ -6486,7 +6502,7 @@
     </row>
     <row r="182" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>169</v>
@@ -6498,7 +6514,7 @@
     </row>
     <row r="183" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>170</v>
@@ -6510,7 +6526,7 @@
     </row>
     <row r="184" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>171</v>
@@ -6522,7 +6538,7 @@
     </row>
     <row r="185" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>172</v>
@@ -6534,7 +6550,7 @@
     </row>
     <row r="186" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>173</v>
@@ -6546,7 +6562,7 @@
     </row>
     <row r="187" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>174</v>
@@ -6558,7 +6574,7 @@
     </row>
     <row r="188" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>175</v>
@@ -6570,7 +6586,7 @@
     </row>
     <row r="189" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>176</v>
@@ -6582,7 +6598,7 @@
     </row>
     <row r="190" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>177</v>
@@ -6594,7 +6610,7 @@
     </row>
     <row r="191" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>178</v>
@@ -6606,7 +6622,7 @@
     </row>
     <row r="192" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>179</v>
@@ -6618,7 +6634,7 @@
     </row>
     <row r="193" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>180</v>
@@ -6631,15 +6647,15 @@
         <v>20170515</v>
       </c>
       <c r="E193" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C194">
         <f t="shared" ref="C194:C257" si="3">LEN(B194)</f>
@@ -6649,12 +6665,12 @@
         <v>20180427</v>
       </c>
       <c r="E194" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>181</v>
@@ -6666,7 +6682,7 @@
     </row>
     <row r="196" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>182</v>
@@ -6678,7 +6694,7 @@
     </row>
     <row r="197" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>183</v>
@@ -6690,7 +6706,7 @@
     </row>
     <row r="198" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>184</v>
@@ -6700,24 +6716,24 @@
         <v>82</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>185</v>
+        <v>1065</v>
       </c>
       <c r="C199">
         <f t="shared" si="3"/>
-        <v>106</v>
+        <v>130</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C200">
         <f t="shared" si="3"/>
@@ -6726,10 +6742,10 @@
     </row>
     <row r="201" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C201">
         <f t="shared" si="3"/>
@@ -6738,10 +6754,10 @@
     </row>
     <row r="202" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C202">
         <f t="shared" si="3"/>
@@ -6750,10 +6766,10 @@
     </row>
     <row r="203" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C203">
         <f t="shared" si="3"/>
@@ -6762,10 +6778,10 @@
     </row>
     <row r="204" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C204">
         <f t="shared" si="3"/>
@@ -6774,10 +6790,10 @@
     </row>
     <row r="205" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C205">
         <f t="shared" si="3"/>
@@ -6786,10 +6802,10 @@
     </row>
     <row r="206" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C206">
         <f t="shared" si="3"/>
@@ -6798,10 +6814,10 @@
     </row>
     <row r="207" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C207">
         <f t="shared" si="3"/>
@@ -6810,10 +6826,10 @@
     </row>
     <row r="208" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C208">
         <f t="shared" si="3"/>
@@ -6822,10 +6838,10 @@
     </row>
     <row r="209" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C209">
         <f t="shared" si="3"/>
@@ -6834,10 +6850,10 @@
     </row>
     <row r="210" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C210">
         <f t="shared" si="3"/>
@@ -6846,10 +6862,10 @@
     </row>
     <row r="211" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C211">
         <f t="shared" si="3"/>
@@ -6858,10 +6874,10 @@
     </row>
     <row r="212" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C212">
         <f t="shared" si="3"/>
@@ -6870,10 +6886,10 @@
     </row>
     <row r="213" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C213">
         <f t="shared" si="3"/>
@@ -6882,10 +6898,10 @@
     </row>
     <row r="214" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C214">
         <f t="shared" si="3"/>
@@ -6894,10 +6910,10 @@
     </row>
     <row r="215" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C215">
         <f t="shared" si="3"/>
@@ -6906,10 +6922,10 @@
     </row>
     <row r="216" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C216">
         <f t="shared" si="3"/>
@@ -6918,10 +6934,10 @@
     </row>
     <row r="217" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C217">
         <f t="shared" si="3"/>
@@ -6930,10 +6946,10 @@
     </row>
     <row r="218" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C218">
         <f t="shared" si="3"/>
@@ -6943,15 +6959,15 @@
         <v>20170520</v>
       </c>
       <c r="E218" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C219">
         <f t="shared" si="3"/>
@@ -6960,10 +6976,10 @@
     </row>
     <row r="220" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C220">
         <f t="shared" si="3"/>
@@ -6972,10 +6988,10 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C221">
         <f t="shared" si="3"/>
@@ -6984,10 +7000,10 @@
     </row>
     <row r="222" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C222">
         <f t="shared" si="3"/>
@@ -6996,10 +7012,10 @@
     </row>
     <row r="223" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C223">
         <f t="shared" si="3"/>
@@ -7008,10 +7024,10 @@
     </row>
     <row r="224" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C224">
         <f t="shared" si="3"/>
@@ -7020,10 +7036,10 @@
     </row>
     <row r="225" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C225">
         <f t="shared" si="3"/>
@@ -7032,10 +7048,10 @@
     </row>
     <row r="226" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C226">
         <f t="shared" si="3"/>
@@ -7044,10 +7060,10 @@
     </row>
     <row r="227" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C227">
         <f t="shared" si="3"/>
@@ -7056,10 +7072,10 @@
     </row>
     <row r="228" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C228">
         <f t="shared" si="3"/>
@@ -7068,10 +7084,10 @@
     </row>
     <row r="229" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C229">
         <f t="shared" si="3"/>
@@ -7080,10 +7096,10 @@
     </row>
     <row r="230" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C230">
         <f t="shared" si="3"/>
@@ -7092,10 +7108,10 @@
     </row>
     <row r="231" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C231">
         <f t="shared" si="3"/>
@@ -7104,10 +7120,10 @@
     </row>
     <row r="232" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C232">
         <f t="shared" si="3"/>
@@ -7116,10 +7132,10 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C233">
         <f t="shared" si="3"/>
@@ -7128,10 +7144,10 @@
     </row>
     <row r="234" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C234">
         <f t="shared" si="3"/>
@@ -7140,10 +7156,10 @@
     </row>
     <row r="235" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C235">
         <f t="shared" si="3"/>
@@ -7152,10 +7168,10 @@
     </row>
     <row r="236" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C236">
         <f t="shared" si="3"/>
@@ -7164,10 +7180,10 @@
     </row>
     <row r="237" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C237">
         <f t="shared" si="3"/>
@@ -7176,10 +7192,10 @@
     </row>
     <row r="238" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C238">
         <f t="shared" si="3"/>
@@ -7188,10 +7204,10 @@
     </row>
     <row r="239" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C239">
         <f t="shared" si="3"/>
@@ -7200,10 +7216,10 @@
     </row>
     <row r="240" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C240">
         <f t="shared" si="3"/>
@@ -7212,10 +7228,10 @@
     </row>
     <row r="241" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C241">
         <f t="shared" si="3"/>
@@ -7224,10 +7240,10 @@
     </row>
     <row r="242" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C242">
         <f t="shared" si="3"/>
@@ -7236,10 +7252,10 @@
     </row>
     <row r="243" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C243">
         <f t="shared" si="3"/>
@@ -7248,10 +7264,10 @@
     </row>
     <row r="244" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C244">
         <f t="shared" si="3"/>
@@ -7260,10 +7276,10 @@
     </row>
     <row r="245" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C245">
         <f t="shared" si="3"/>
@@ -7272,10 +7288,10 @@
     </row>
     <row r="246" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C246">
         <f t="shared" si="3"/>
@@ -7284,10 +7300,10 @@
     </row>
     <row r="247" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C247">
         <f t="shared" si="3"/>
@@ -7296,10 +7312,10 @@
     </row>
     <row r="248" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C248">
         <f t="shared" si="3"/>
@@ -7308,10 +7324,10 @@
     </row>
     <row r="249" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C249">
         <f t="shared" si="3"/>
@@ -7320,10 +7336,10 @@
     </row>
     <row r="250" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C250">
         <f t="shared" si="3"/>
@@ -7332,10 +7348,10 @@
     </row>
     <row r="251" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C251">
         <f t="shared" si="3"/>
@@ -7344,10 +7360,10 @@
     </row>
     <row r="252" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C252">
         <f t="shared" si="3"/>
@@ -7356,10 +7372,10 @@
     </row>
     <row r="253" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C253">
         <f t="shared" si="3"/>
@@ -7368,10 +7384,10 @@
     </row>
     <row r="254" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C254">
         <f t="shared" si="3"/>
@@ -7381,15 +7397,15 @@
         <v>20170515</v>
       </c>
       <c r="E254" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="255" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C255">
         <f t="shared" si="3"/>
@@ -7398,10 +7414,10 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C256">
         <f t="shared" si="3"/>
@@ -7410,10 +7426,10 @@
     </row>
     <row r="257" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C257">
         <f t="shared" si="3"/>
@@ -7422,10 +7438,10 @@
     </row>
     <row r="258" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C258">
         <f t="shared" ref="C258:C321" si="4">LEN(B258)</f>
@@ -7434,10 +7450,10 @@
     </row>
     <row r="259" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C259">
         <f t="shared" si="4"/>
@@ -7446,10 +7462,10 @@
     </row>
     <row r="260" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C260">
         <f t="shared" si="4"/>
@@ -7458,10 +7474,10 @@
     </row>
     <row r="261" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C261">
         <f t="shared" si="4"/>
@@ -7470,10 +7486,10 @@
     </row>
     <row r="262" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C262">
         <f t="shared" si="4"/>
@@ -7482,10 +7498,10 @@
     </row>
     <row r="263" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C263">
         <f t="shared" si="4"/>
@@ -7494,10 +7510,10 @@
     </row>
     <row r="264" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C264">
         <f t="shared" si="4"/>
@@ -7506,10 +7522,10 @@
     </row>
     <row r="265" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C265">
         <f t="shared" si="4"/>
@@ -7518,10 +7534,10 @@
     </row>
     <row r="266" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C266">
         <f t="shared" si="4"/>
@@ -7530,10 +7546,10 @@
     </row>
     <row r="267" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C267">
         <f t="shared" si="4"/>
@@ -7542,10 +7558,10 @@
     </row>
     <row r="268" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C268">
         <f t="shared" si="4"/>
@@ -7554,10 +7570,10 @@
     </row>
     <row r="269" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C269">
         <f t="shared" si="4"/>
@@ -7566,10 +7582,10 @@
     </row>
     <row r="270" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C270">
         <f t="shared" si="4"/>
@@ -7578,10 +7594,10 @@
     </row>
     <row r="271" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C271">
         <f t="shared" si="4"/>
@@ -7590,10 +7606,10 @@
     </row>
     <row r="272" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C272">
         <f t="shared" si="4"/>
@@ -7602,10 +7618,10 @@
     </row>
     <row r="273" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C273">
         <f t="shared" si="4"/>
@@ -7614,10 +7630,10 @@
     </row>
     <row r="274" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C274">
         <f t="shared" si="4"/>
@@ -7626,10 +7642,10 @@
     </row>
     <row r="275" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C275">
         <f t="shared" si="4"/>
@@ -7638,10 +7654,10 @@
     </row>
     <row r="276" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C276">
         <f t="shared" si="4"/>
@@ -7650,10 +7666,10 @@
     </row>
     <row r="277" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C277">
         <f t="shared" si="4"/>
@@ -7662,10 +7678,10 @@
     </row>
     <row r="278" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C278">
         <f t="shared" si="4"/>
@@ -7674,10 +7690,10 @@
     </row>
     <row r="279" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C279">
         <f t="shared" si="4"/>
@@ -7686,10 +7702,10 @@
     </row>
     <row r="280" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C280">
         <f t="shared" si="4"/>
@@ -7698,10 +7714,10 @@
     </row>
     <row r="281" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C281">
         <f t="shared" si="4"/>
@@ -7710,10 +7726,10 @@
     </row>
     <row r="282" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C282">
         <f t="shared" si="4"/>
@@ -7722,10 +7738,10 @@
     </row>
     <row r="283" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C283">
         <f t="shared" si="4"/>
@@ -7734,10 +7750,10 @@
     </row>
     <row r="284" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C284">
         <f t="shared" si="4"/>
@@ -7746,10 +7762,10 @@
     </row>
     <row r="285" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C285">
         <f t="shared" si="4"/>
@@ -7758,10 +7774,10 @@
     </row>
     <row r="286" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C286">
         <f t="shared" si="4"/>
@@ -7770,10 +7786,10 @@
     </row>
     <row r="287" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C287">
         <f t="shared" si="4"/>
@@ -7782,10 +7798,10 @@
     </row>
     <row r="288" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C288">
         <f t="shared" si="4"/>
@@ -7794,10 +7810,10 @@
     </row>
     <row r="289" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C289">
         <f t="shared" si="4"/>
@@ -7806,10 +7822,10 @@
     </row>
     <row r="290" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C290">
         <f t="shared" si="4"/>
@@ -7818,10 +7834,10 @@
     </row>
     <row r="291" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C291">
         <f t="shared" si="4"/>
@@ -7831,15 +7847,15 @@
         <v>20170515</v>
       </c>
       <c r="E291" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C292">
         <f t="shared" si="4"/>
@@ -7849,15 +7865,15 @@
         <v>20170515</v>
       </c>
       <c r="E292" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C293">
         <f t="shared" si="4"/>
@@ -7866,10 +7882,10 @@
     </row>
     <row r="294" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C294">
         <f t="shared" si="4"/>
@@ -7878,10 +7894,10 @@
     </row>
     <row r="295" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C295">
         <f t="shared" si="4"/>
@@ -7890,10 +7906,10 @@
     </row>
     <row r="296" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C296">
         <f t="shared" si="4"/>
@@ -7902,10 +7918,10 @@
     </row>
     <row r="297" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C297">
         <f t="shared" si="4"/>
@@ -7914,10 +7930,10 @@
     </row>
     <row r="298" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C298">
         <f t="shared" si="4"/>
@@ -7927,15 +7943,15 @@
         <v>20170515</v>
       </c>
       <c r="E298" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C299">
         <f t="shared" si="4"/>
@@ -7944,10 +7960,10 @@
     </row>
     <row r="300" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C300">
         <f t="shared" si="4"/>
@@ -7956,10 +7972,10 @@
     </row>
     <row r="301" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C301">
         <f t="shared" si="4"/>
@@ -7968,10 +7984,10 @@
     </row>
     <row r="302" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C302">
         <f t="shared" si="4"/>
@@ -7980,10 +7996,10 @@
     </row>
     <row r="303" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C303">
         <f t="shared" si="4"/>
@@ -7992,10 +8008,10 @@
     </row>
     <row r="304" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C304">
         <f t="shared" si="4"/>
@@ -8004,10 +8020,10 @@
     </row>
     <row r="305" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C305">
         <f t="shared" si="4"/>
@@ -8016,10 +8032,10 @@
     </row>
     <row r="306" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C306">
         <f t="shared" si="4"/>
@@ -8028,10 +8044,10 @@
     </row>
     <row r="307" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C307">
         <f t="shared" si="4"/>
@@ -8040,10 +8056,10 @@
     </row>
     <row r="308" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C308">
         <f t="shared" si="4"/>
@@ -8052,10 +8068,10 @@
     </row>
     <row r="309" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C309">
         <f t="shared" si="4"/>
@@ -8064,10 +8080,10 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C310">
         <f t="shared" si="4"/>
@@ -8076,10 +8092,10 @@
     </row>
     <row r="311" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C311">
         <f t="shared" si="4"/>
@@ -8088,10 +8104,10 @@
     </row>
     <row r="312" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C312">
         <f t="shared" si="4"/>
@@ -8100,10 +8116,10 @@
     </row>
     <row r="313" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C313">
         <f t="shared" si="4"/>
@@ -8112,10 +8128,10 @@
     </row>
     <row r="314" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C314">
         <f t="shared" si="4"/>
@@ -8124,10 +8140,10 @@
     </row>
     <row r="315" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C315">
         <f t="shared" si="4"/>
@@ -8136,10 +8152,10 @@
     </row>
     <row r="316" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C316">
         <f t="shared" si="4"/>
@@ -8148,10 +8164,10 @@
     </row>
     <row r="317" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C317">
         <f t="shared" si="4"/>
@@ -8160,10 +8176,10 @@
     </row>
     <row r="318" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C318">
         <f t="shared" si="4"/>
@@ -8172,10 +8188,10 @@
     </row>
     <row r="319" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C319">
         <f t="shared" si="4"/>
@@ -8184,10 +8200,10 @@
     </row>
     <row r="320" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C320">
         <f t="shared" si="4"/>
@@ -8196,10 +8212,10 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C321">
         <f t="shared" si="4"/>
@@ -8208,10 +8224,10 @@
     </row>
     <row r="322" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C322">
         <f t="shared" ref="C322:C385" si="5">LEN(B322)</f>
@@ -8220,10 +8236,10 @@
     </row>
     <row r="323" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C323">
         <f t="shared" si="5"/>
@@ -8233,15 +8249,15 @@
         <v>20170808</v>
       </c>
       <c r="E323" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="324" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C324">
         <f t="shared" si="5"/>
@@ -8250,10 +8266,10 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C325">
         <f t="shared" si="5"/>
@@ -8262,10 +8278,10 @@
     </row>
     <row r="326" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C326">
         <f t="shared" si="5"/>
@@ -8274,10 +8290,10 @@
     </row>
     <row r="327" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C327">
         <f t="shared" si="5"/>
@@ -8286,10 +8302,10 @@
     </row>
     <row r="328" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C328">
         <f t="shared" si="5"/>
@@ -8298,10 +8314,10 @@
     </row>
     <row r="329" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C329">
         <f t="shared" si="5"/>
@@ -8310,10 +8326,10 @@
     </row>
     <row r="330" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C330">
         <f t="shared" si="5"/>
@@ -8322,10 +8338,10 @@
     </row>
     <row r="331" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C331">
         <f t="shared" si="5"/>
@@ -8334,10 +8350,10 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C332">
         <f t="shared" si="5"/>
@@ -8346,10 +8362,10 @@
     </row>
     <row r="333" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C333">
         <f t="shared" si="5"/>
@@ -8358,10 +8374,10 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C334">
         <f t="shared" si="5"/>
@@ -8370,10 +8386,10 @@
     </row>
     <row r="335" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C335">
         <f t="shared" si="5"/>
@@ -8382,10 +8398,10 @@
     </row>
     <row r="336" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C336">
         <f t="shared" si="5"/>
@@ -8394,10 +8410,10 @@
     </row>
     <row r="337" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C337">
         <f t="shared" si="5"/>
@@ -8406,10 +8422,10 @@
     </row>
     <row r="338" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C338">
         <f t="shared" si="5"/>
@@ -8419,15 +8435,15 @@
         <v>20170515</v>
       </c>
       <c r="E338" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="339" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C339">
         <f t="shared" si="5"/>
@@ -8436,10 +8452,10 @@
     </row>
     <row r="340" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C340">
         <f t="shared" si="5"/>
@@ -8448,10 +8464,10 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C341">
         <f t="shared" si="5"/>
@@ -8460,10 +8476,10 @@
     </row>
     <row r="342" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C342">
         <f t="shared" si="5"/>
@@ -8472,10 +8488,10 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C343">
         <f t="shared" si="5"/>
@@ -8484,10 +8500,10 @@
     </row>
     <row r="344" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C344">
         <f t="shared" si="5"/>
@@ -8496,10 +8512,10 @@
     </row>
     <row r="345" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C345">
         <f t="shared" si="5"/>
@@ -8508,10 +8524,10 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C346">
         <f t="shared" si="5"/>
@@ -8520,10 +8536,10 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C347">
         <f t="shared" si="5"/>
@@ -8532,10 +8548,10 @@
     </row>
     <row r="348" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C348">
         <f t="shared" si="5"/>
@@ -8544,10 +8560,10 @@
     </row>
     <row r="349" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C349">
         <f t="shared" si="5"/>
@@ -8556,10 +8572,10 @@
     </row>
     <row r="350" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C350">
         <f t="shared" si="5"/>
@@ -8569,15 +8585,15 @@
         <v>20170820</v>
       </c>
       <c r="E350" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="351" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C351">
         <f t="shared" si="5"/>
@@ -8586,10 +8602,10 @@
     </row>
     <row r="352" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C352">
         <f t="shared" si="5"/>
@@ -8598,10 +8614,10 @@
     </row>
     <row r="353" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C353">
         <f t="shared" si="5"/>
@@ -8610,10 +8626,10 @@
     </row>
     <row r="354" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C354">
         <f t="shared" si="5"/>
@@ -8622,10 +8638,10 @@
     </row>
     <row r="355" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C355">
         <f t="shared" si="5"/>
@@ -8634,10 +8650,10 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C356">
         <f t="shared" si="5"/>
@@ -8646,10 +8662,10 @@
     </row>
     <row r="357" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C357">
         <f t="shared" si="5"/>
@@ -8658,10 +8674,10 @@
     </row>
     <row r="358" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C358">
         <f t="shared" si="5"/>
@@ -8670,10 +8686,10 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C359">
         <f t="shared" si="5"/>
@@ -8682,10 +8698,10 @@
     </row>
     <row r="360" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C360">
         <f t="shared" si="5"/>
@@ -8694,10 +8710,10 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C361">
         <f t="shared" si="5"/>
@@ -8706,10 +8722,10 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C362">
         <f t="shared" si="5"/>
@@ -8718,10 +8734,10 @@
     </row>
     <row r="363" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C363">
         <f t="shared" si="5"/>
@@ -8730,10 +8746,10 @@
     </row>
     <row r="364" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C364">
         <f t="shared" si="5"/>
@@ -8742,10 +8758,10 @@
     </row>
     <row r="365" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C365">
         <f t="shared" si="5"/>
@@ -8754,10 +8770,10 @@
     </row>
     <row r="366" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C366">
         <f t="shared" si="5"/>
@@ -8766,10 +8782,10 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C367">
         <f t="shared" si="5"/>
@@ -8778,10 +8794,10 @@
     </row>
     <row r="368" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C368">
         <f t="shared" si="5"/>
@@ -8790,10 +8806,10 @@
     </row>
     <row r="369" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C369">
         <f t="shared" si="5"/>
@@ -8802,10 +8818,10 @@
     </row>
     <row r="370" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C370">
         <f t="shared" si="5"/>
@@ -8814,10 +8830,10 @@
     </row>
     <row r="371" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C371">
         <f t="shared" si="5"/>
@@ -8826,10 +8842,10 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C372">
         <f t="shared" si="5"/>
@@ -8838,10 +8854,10 @@
     </row>
     <row r="373" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C373">
         <f t="shared" si="5"/>
@@ -8850,10 +8866,10 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C374">
         <f t="shared" si="5"/>
@@ -8862,10 +8878,10 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C375">
         <f t="shared" si="5"/>
@@ -8874,10 +8890,10 @@
     </row>
     <row r="376" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C376">
         <f t="shared" si="5"/>
@@ -8886,10 +8902,10 @@
     </row>
     <row r="377" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C377">
         <f t="shared" si="5"/>
@@ -8898,10 +8914,10 @@
     </row>
     <row r="378" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C378">
         <f t="shared" si="5"/>
@@ -8910,10 +8926,10 @@
     </row>
     <row r="379" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C379">
         <f t="shared" si="5"/>
@@ -8922,10 +8938,10 @@
     </row>
     <row r="380" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C380">
         <f t="shared" si="5"/>
@@ -8934,10 +8950,10 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C381">
         <f t="shared" si="5"/>
@@ -8946,10 +8962,10 @@
     </row>
     <row r="382" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C382">
         <f t="shared" si="5"/>
@@ -8958,10 +8974,10 @@
     </row>
     <row r="383" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C383">
         <f t="shared" si="5"/>
@@ -8970,10 +8986,10 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C384">
         <f t="shared" si="5"/>
@@ -8982,10 +8998,10 @@
     </row>
     <row r="385" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C385">
         <f t="shared" si="5"/>
@@ -8994,10 +9010,10 @@
     </row>
     <row r="386" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C386">
         <f t="shared" ref="C386:C449" si="6">LEN(B386)</f>
@@ -9006,10 +9022,10 @@
     </row>
     <row r="387" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C387">
         <f t="shared" si="6"/>
@@ -9019,15 +9035,15 @@
         <v>20170808</v>
       </c>
       <c r="E387" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C388">
         <f t="shared" si="6"/>
@@ -9037,15 +9053,15 @@
         <v>20170911</v>
       </c>
       <c r="E388" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C389">
         <f t="shared" si="6"/>
@@ -9054,10 +9070,10 @@
     </row>
     <row r="390" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C390">
         <f t="shared" si="6"/>
@@ -9067,15 +9083,15 @@
         <v>20170911</v>
       </c>
       <c r="E390" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="391" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C391">
         <f t="shared" si="6"/>
@@ -9084,10 +9100,10 @@
     </row>
     <row r="392" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C392">
         <f t="shared" si="6"/>
@@ -9096,10 +9112,10 @@
     </row>
     <row r="393" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C393">
         <f t="shared" si="6"/>
@@ -9108,10 +9124,10 @@
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C394">
         <f t="shared" si="6"/>
@@ -9120,10 +9136,10 @@
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C395">
         <f t="shared" si="6"/>
@@ -9132,10 +9148,10 @@
     </row>
     <row r="396" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C396">
         <f t="shared" si="6"/>
@@ -9144,10 +9160,10 @@
     </row>
     <row r="397" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C397">
         <f t="shared" si="6"/>
@@ -9156,10 +9172,10 @@
     </row>
     <row r="398" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C398">
         <f t="shared" si="6"/>
@@ -9168,10 +9184,10 @@
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C399">
         <f t="shared" si="6"/>
@@ -9180,10 +9196,10 @@
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C400">
         <f t="shared" si="6"/>
@@ -9192,10 +9208,10 @@
     </row>
     <row r="401" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C401">
         <f t="shared" si="6"/>
@@ -9204,10 +9220,10 @@
     </row>
     <row r="402" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C402">
         <f t="shared" si="6"/>
@@ -9216,10 +9232,10 @@
     </row>
     <row r="403" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C403">
         <f t="shared" si="6"/>
@@ -9228,10 +9244,10 @@
     </row>
     <row r="404" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C404">
         <f t="shared" si="6"/>
@@ -9240,10 +9256,10 @@
     </row>
     <row r="405" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C405">
         <f t="shared" si="6"/>
@@ -9252,10 +9268,10 @@
     </row>
     <row r="406" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C406">
         <f t="shared" si="6"/>
@@ -9264,10 +9280,10 @@
     </row>
     <row r="407" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C407">
         <f t="shared" si="6"/>
@@ -9276,10 +9292,10 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C408">
         <f t="shared" si="6"/>
@@ -9288,10 +9304,10 @@
     </row>
     <row r="409" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C409">
         <f t="shared" si="6"/>
@@ -9300,10 +9316,10 @@
     </row>
     <row r="410" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C410">
         <f t="shared" si="6"/>
@@ -9312,10 +9328,10 @@
     </row>
     <row r="411" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C411">
         <f t="shared" si="6"/>
@@ -9324,10 +9340,10 @@
     </row>
     <row r="412" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C412">
         <f t="shared" si="6"/>
@@ -9336,10 +9352,10 @@
     </row>
     <row r="413" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C413">
         <f t="shared" si="6"/>
@@ -9348,10 +9364,10 @@
     </row>
     <row r="414" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C414">
         <f t="shared" si="6"/>
@@ -9360,10 +9376,10 @@
     </row>
     <row r="415" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C415">
         <f t="shared" si="6"/>
@@ -9372,10 +9388,10 @@
     </row>
     <row r="416" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C416">
         <f t="shared" si="6"/>
@@ -9384,10 +9400,10 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C417">
         <f t="shared" si="6"/>
@@ -9396,10 +9412,10 @@
     </row>
     <row r="418" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C418">
         <f t="shared" si="6"/>
@@ -9408,10 +9424,10 @@
     </row>
     <row r="419" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C419">
         <f t="shared" si="6"/>
@@ -9420,10 +9436,10 @@
     </row>
     <row r="420" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C420">
         <f t="shared" si="6"/>
@@ -9432,10 +9448,10 @@
     </row>
     <row r="421" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C421">
         <f t="shared" si="6"/>
@@ -9444,10 +9460,10 @@
     </row>
     <row r="422" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C422">
         <f t="shared" si="6"/>
@@ -9456,10 +9472,10 @@
     </row>
     <row r="423" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C423">
         <f t="shared" si="6"/>
@@ -9468,10 +9484,10 @@
     </row>
     <row r="424" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C424">
         <f t="shared" si="6"/>
@@ -9480,10 +9496,10 @@
     </row>
     <row r="425" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C425">
         <f t="shared" si="6"/>
@@ -9492,10 +9508,10 @@
     </row>
     <row r="426" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C426">
         <f t="shared" si="6"/>
@@ -9504,10 +9520,10 @@
     </row>
     <row r="427" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C427">
         <f t="shared" si="6"/>
@@ -9516,10 +9532,10 @@
     </row>
     <row r="428" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C428">
         <f t="shared" si="6"/>
@@ -9528,10 +9544,10 @@
     </row>
     <row r="429" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C429">
         <f t="shared" si="6"/>
@@ -9540,10 +9556,10 @@
     </row>
     <row r="430" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C430">
         <f t="shared" si="6"/>
@@ -9552,10 +9568,10 @@
     </row>
     <row r="431" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C431">
         <f t="shared" si="6"/>
@@ -9564,10 +9580,10 @@
     </row>
     <row r="432" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C432">
         <f t="shared" si="6"/>
@@ -9576,10 +9592,10 @@
     </row>
     <row r="433" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C433">
         <f t="shared" si="6"/>
@@ -9588,10 +9604,10 @@
     </row>
     <row r="434" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C434">
         <f t="shared" si="6"/>
@@ -9600,10 +9616,10 @@
     </row>
     <row r="435" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C435">
         <f t="shared" si="6"/>
@@ -9612,10 +9628,10 @@
     </row>
     <row r="436" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C436">
         <f t="shared" si="6"/>
@@ -9624,10 +9640,10 @@
     </row>
     <row r="437" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C437">
         <f t="shared" si="6"/>
@@ -9636,10 +9652,10 @@
     </row>
     <row r="438" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C438">
         <f t="shared" si="6"/>
@@ -9648,10 +9664,10 @@
     </row>
     <row r="439" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C439">
         <f t="shared" si="6"/>
@@ -9660,10 +9676,10 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C440">
         <f t="shared" si="6"/>
@@ -9672,10 +9688,10 @@
     </row>
     <row r="441" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C441">
         <f t="shared" si="6"/>
@@ -9684,10 +9700,10 @@
     </row>
     <row r="442" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C442">
         <f t="shared" si="6"/>
@@ -9696,10 +9712,10 @@
     </row>
     <row r="443" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C443">
         <f t="shared" si="6"/>
@@ -9708,10 +9724,10 @@
     </row>
     <row r="444" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C444">
         <f t="shared" si="6"/>
@@ -9720,10 +9736,10 @@
     </row>
     <row r="445" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C445">
         <f t="shared" si="6"/>
@@ -9732,10 +9748,10 @@
     </row>
     <row r="446" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C446">
         <f t="shared" si="6"/>
@@ -9744,10 +9760,10 @@
     </row>
     <row r="447" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C447">
         <f t="shared" si="6"/>
@@ -9756,10 +9772,10 @@
     </row>
     <row r="448" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C448">
         <f t="shared" si="6"/>
@@ -9768,10 +9784,10 @@
     </row>
     <row r="449" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C449">
         <f t="shared" si="6"/>
@@ -9780,10 +9796,10 @@
     </row>
     <row r="450" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C450">
         <f t="shared" ref="C450:C513" si="7">LEN(B450)</f>
@@ -9792,10 +9808,10 @@
     </row>
     <row r="451" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C451">
         <f t="shared" si="7"/>
@@ -9805,15 +9821,15 @@
         <v>20170515</v>
       </c>
       <c r="E451" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="452" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C452">
         <f t="shared" si="7"/>
@@ -9822,10 +9838,10 @@
     </row>
     <row r="453" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C453">
         <f t="shared" si="7"/>
@@ -9834,10 +9850,10 @@
     </row>
     <row r="454" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C454">
         <f t="shared" si="7"/>
@@ -9846,10 +9862,10 @@
     </row>
     <row r="455" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C455">
         <f t="shared" si="7"/>
@@ -9858,10 +9874,10 @@
     </row>
     <row r="456" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C456">
         <f t="shared" si="7"/>
@@ -9870,10 +9886,10 @@
     </row>
     <row r="457" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C457">
         <f t="shared" si="7"/>
@@ -9882,10 +9898,10 @@
     </row>
     <row r="458" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C458">
         <f t="shared" si="7"/>
@@ -9894,10 +9910,10 @@
     </row>
     <row r="459" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C459">
         <f t="shared" si="7"/>
@@ -9906,10 +9922,10 @@
     </row>
     <row r="460" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C460">
         <f t="shared" si="7"/>
@@ -9918,10 +9934,10 @@
     </row>
     <row r="461" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C461">
         <f t="shared" si="7"/>
@@ -9930,10 +9946,10 @@
     </row>
     <row r="462" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C462">
         <f t="shared" si="7"/>
@@ -9942,10 +9958,10 @@
     </row>
     <row r="463" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C463">
         <f t="shared" si="7"/>
@@ -9955,15 +9971,15 @@
         <v>20170515</v>
       </c>
       <c r="E463" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="464" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C464">
         <f t="shared" si="7"/>
@@ -9972,10 +9988,10 @@
     </row>
     <row r="465" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C465">
         <f t="shared" si="7"/>
@@ -9984,10 +10000,10 @@
     </row>
     <row r="466" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C466">
         <f t="shared" si="7"/>
@@ -9996,10 +10012,10 @@
     </row>
     <row r="467" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C467">
         <f t="shared" si="7"/>
@@ -10008,10 +10024,10 @@
     </row>
     <row r="468" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C468">
         <f t="shared" si="7"/>
@@ -10020,10 +10036,10 @@
     </row>
     <row r="469" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C469">
         <f t="shared" si="7"/>
@@ -10032,10 +10048,10 @@
     </row>
     <row r="470" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C470">
         <f t="shared" si="7"/>
@@ -10044,10 +10060,10 @@
     </row>
     <row r="471" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C471">
         <f t="shared" si="7"/>
@@ -10056,10 +10072,10 @@
     </row>
     <row r="472" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C472">
         <f t="shared" si="7"/>
@@ -10068,10 +10084,10 @@
     </row>
     <row r="473" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C473">
         <f t="shared" si="7"/>
@@ -10080,10 +10096,10 @@
     </row>
     <row r="474" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C474">
         <f t="shared" si="7"/>
@@ -10092,10 +10108,10 @@
     </row>
     <row r="475" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C475">
         <f t="shared" si="7"/>
@@ -10104,10 +10120,10 @@
     </row>
     <row r="476" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C476">
         <f t="shared" si="7"/>
@@ -10116,10 +10132,10 @@
     </row>
     <row r="477" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C477">
         <f t="shared" si="7"/>
@@ -10128,10 +10144,10 @@
     </row>
     <row r="478" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C478">
         <f t="shared" si="7"/>
@@ -10140,10 +10156,10 @@
     </row>
     <row r="479" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C479">
         <f t="shared" si="7"/>
@@ -10152,10 +10168,10 @@
     </row>
     <row r="480" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C480">
         <f t="shared" si="7"/>
@@ -10164,10 +10180,10 @@
     </row>
     <row r="481" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C481">
         <f t="shared" si="7"/>
@@ -10176,10 +10192,10 @@
     </row>
     <row r="482" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C482">
         <f t="shared" si="7"/>
@@ -10188,10 +10204,10 @@
     </row>
     <row r="483" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C483">
         <f t="shared" si="7"/>
@@ -10200,10 +10216,10 @@
     </row>
     <row r="484" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C484">
         <f t="shared" si="7"/>
@@ -10212,10 +10228,10 @@
     </row>
     <row r="485" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C485">
         <f t="shared" si="7"/>
@@ -10224,10 +10240,10 @@
     </row>
     <row r="486" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C486">
         <f t="shared" si="7"/>
@@ -10237,15 +10253,15 @@
         <v>20170515</v>
       </c>
       <c r="E486" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C487">
         <f t="shared" si="7"/>
@@ -10254,10 +10270,10 @@
     </row>
     <row r="488" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C488">
         <f t="shared" si="7"/>
@@ -10267,15 +10283,15 @@
         <v>20170920</v>
       </c>
       <c r="E488" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="489" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C489">
         <f t="shared" si="7"/>
@@ -10284,10 +10300,10 @@
     </row>
     <row r="490" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C490">
         <f t="shared" si="7"/>
@@ -10296,10 +10312,10 @@
     </row>
     <row r="491" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C491">
         <f t="shared" si="7"/>
@@ -10308,10 +10324,10 @@
     </row>
     <row r="492" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C492">
         <f t="shared" si="7"/>
@@ -10320,10 +10336,10 @@
     </row>
     <row r="493" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C493">
         <f t="shared" si="7"/>
@@ -10332,10 +10348,10 @@
     </row>
     <row r="494" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C494">
         <f t="shared" si="7"/>
@@ -10344,10 +10360,10 @@
     </row>
     <row r="495" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C495">
         <f t="shared" si="7"/>
@@ -10356,10 +10372,10 @@
     </row>
     <row r="496" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C496">
         <f t="shared" si="7"/>
@@ -10368,10 +10384,10 @@
     </row>
     <row r="497" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C497">
         <f t="shared" si="7"/>
@@ -10380,10 +10396,10 @@
     </row>
     <row r="498" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C498">
         <f t="shared" si="7"/>
@@ -10392,10 +10408,10 @@
     </row>
     <row r="499" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C499">
         <f t="shared" si="7"/>
@@ -10405,15 +10421,15 @@
         <v>20170515</v>
       </c>
       <c r="E499" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="500" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C500">
         <f t="shared" si="7"/>
@@ -10422,10 +10438,10 @@
     </row>
     <row r="501" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C501">
         <f t="shared" si="7"/>
@@ -10434,10 +10450,10 @@
     </row>
     <row r="502" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C502">
         <f t="shared" si="7"/>
@@ -10446,10 +10462,10 @@
     </row>
     <row r="503" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C503">
         <f t="shared" si="7"/>
@@ -10458,10 +10474,10 @@
     </row>
     <row r="504" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C504">
         <f t="shared" si="7"/>
@@ -10470,10 +10486,10 @@
     </row>
     <row r="505" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C505">
         <f t="shared" si="7"/>
@@ -10483,15 +10499,15 @@
         <v>20180404</v>
       </c>
       <c r="E505" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="506" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C506">
         <f t="shared" si="7"/>
@@ -10500,10 +10516,10 @@
     </row>
     <row r="507" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C507">
         <f t="shared" si="7"/>
@@ -10512,10 +10528,10 @@
     </row>
     <row r="508" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C508">
         <f t="shared" si="7"/>
@@ -10524,10 +10540,10 @@
     </row>
     <row r="509" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C509">
         <f t="shared" si="7"/>
@@ -10536,10 +10552,10 @@
     </row>
     <row r="510" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C510">
         <f t="shared" si="7"/>
@@ -10548,10 +10564,10 @@
     </row>
     <row r="511" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C511">
         <f t="shared" si="7"/>
@@ -10560,10 +10576,10 @@
     </row>
     <row r="512" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C512">
         <f t="shared" si="7"/>
@@ -10572,10 +10588,10 @@
     </row>
     <row r="513" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C513">
         <f t="shared" si="7"/>
@@ -10584,10 +10600,10 @@
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C514">
         <f t="shared" ref="C514:C530" si="8">LEN(B514)</f>
@@ -10596,10 +10612,10 @@
     </row>
     <row r="515" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C515">
         <f t="shared" si="8"/>
@@ -10608,10 +10624,10 @@
     </row>
     <row r="516" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C516">
         <f t="shared" si="8"/>
@@ -10620,10 +10636,10 @@
     </row>
     <row r="517" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C517">
         <f t="shared" si="8"/>
@@ -10632,10 +10648,10 @@
     </row>
     <row r="518" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C518">
         <f t="shared" si="8"/>
@@ -10645,15 +10661,15 @@
         <v>20180404</v>
       </c>
       <c r="E518" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="519" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C519">
         <f t="shared" si="8"/>
@@ -10662,10 +10678,10 @@
     </row>
     <row r="520" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C520">
         <f t="shared" si="8"/>
@@ -10674,10 +10690,10 @@
     </row>
     <row r="521" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C521">
         <f t="shared" si="8"/>
@@ -10686,10 +10702,10 @@
     </row>
     <row r="522" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C522">
         <f t="shared" si="8"/>
@@ -10698,10 +10714,10 @@
     </row>
     <row r="523" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C523">
         <f t="shared" si="8"/>
@@ -10710,10 +10726,10 @@
     </row>
     <row r="524" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C524">
         <f t="shared" si="8"/>
@@ -10722,10 +10738,10 @@
     </row>
     <row r="525" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C525">
         <f t="shared" si="8"/>
@@ -10734,10 +10750,10 @@
     </row>
     <row r="526" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C526">
         <f t="shared" si="8"/>
@@ -10746,10 +10762,10 @@
     </row>
     <row r="527" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C527">
         <f t="shared" si="8"/>
@@ -10758,10 +10774,10 @@
     </row>
     <row r="528" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C528">
         <f t="shared" si="8"/>
@@ -10770,10 +10786,10 @@
     </row>
     <row r="529" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C529">
         <f t="shared" si="8"/>
@@ -10782,10 +10798,10 @@
     </row>
     <row r="530" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C530">
         <f t="shared" si="8"/>
@@ -10794,10 +10810,10 @@
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B531" s="2" t="s">
         <v>1054</v>
-      </c>
-      <c r="B531" s="2" t="s">
-        <v>1055</v>
       </c>
       <c r="C531">
         <f t="shared" ref="C531" si="9">LEN(B531)</f>
@@ -10817,6 +10833,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tweetlist.xlsx
+++ b/tweetlist.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="1066">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="1066">
   <si>
     <t>【今日の人工衛星】1/1 1990年：JCSAT-2 日本のJSAT(現・スカパーJSAT)保有の通信衛星。タイタンIIIロケットで打上、東経154度からサービスを提供。現在は寿命が切れている。</t>
   </si>
@@ -3066,26 +3066,6 @@
   </si>
   <si>
     <t>12/31 07:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">【お帰りはやぶさ・帰還7周年】6/13 19:54 イトカワのサンプルを格納したカプセルの切り離しに成功 </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">【お帰りはやぶさ・帰還7周年】6/13 22:02 はやぶさ、最後の地球撮影。この写真 http://bit.ly/d6pjWp を内之浦局に送信中に、内之浦の水平線の向こう側に入り通信途絶(22:28)。 </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">【お帰りはやぶさ・帰還7周年】6/13 22:28 はやぶさ、内之浦局の観測圏外になり通信途絶。最後の信号はhttp://hayabusa.jaxa.jp/message/message_049.htmlに掲載されている </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">【お帰りはやぶさ・帰還7周年】6/13 22:51 はやぶさ、地球大気圏再突入。22:56にカプセルからパラシュートが展開され、23:08に着陸を果たした。 </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">【お帰りはやぶさ・帰還7周年】6/9 12:30-15:00 最後の軌道修正となるTCM-4完了。4/4-6、5/1-4、5/23-27、6/3-5とあわせ5回の軌道修正でオーストラリア・ウーメラ砂漠の着陸地点へ誘導完了 </t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>【今日の人工衛星】3/28 2003年：情報収集衛星1号機(光学・レーダ) 日本初の偵察衛星。性能は光学が解像度1m程度と、民間衛星に比べても劣っていた。これ以降継続的に情報収集衛星が軌道上に打ち上げられることになる。</t>
@@ -3877,6 +3857,23 @@
     <rPh sb="72" eb="73">
       <t>ツ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【お帰りはやぶさ・帰還8周年】6/9 12:30-15:00 最後の軌道修正となるTCM-4完了。4/4-6、5/1-4、5/23-27、6/3-5とあわせ5回の軌道修正でオーストラリア・ウーメラ砂漠の着陸地点へ誘導完了 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">【お帰りはやぶさ・帰還8周年】6/13 19:54 イトカワのサンプルを格納したカプセルの切り離しに成功 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">【お帰りはやぶさ・帰還8周年】6/13 22:51 はやぶさ、地球大気圏再突入。22:56にカプセルからパラシュートが展開され、23:08に着陸を果たした。 </t>
+  </si>
+  <si>
+    <t>【お帰りはやぶさ・帰還8周年】6/13 22:02 はやぶさ、最後の地球撮影。この写真 http://www.isas.jaxa.jp/j/topics/topics/2010/0618_3.shtml を内之浦局に送信中に、内之浦の水平線の向こう側に入り通信途絶(22:28)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【お帰りはやぶさ・帰還8周年】6/13 22:28 はやぶさ、内之浦局の観測圏外になり通信途絶。最後の信号はhttp://hayabusa.jaxa.jp/message/message_049.htmlに掲載されている </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4239,8 +4236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E531"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B200" sqref="B200"/>
+    <sheetView tabSelected="1" topLeftCell="A193" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B206" sqref="B206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -4507,7 +4504,7 @@
         <v>511</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -4517,7 +4514,7 @@
         <v>20180404</v>
       </c>
       <c r="E22" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -4861,7 +4858,7 @@
         <v>540</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
@@ -4871,7 +4868,7 @@
         <v>20180404</v>
       </c>
       <c r="E51" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -5251,7 +5248,7 @@
         <v>572</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="C83">
         <f t="shared" si="1"/>
@@ -5261,7 +5258,7 @@
         <v>20170515</v>
       </c>
       <c r="E83" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -5329,7 +5326,7 @@
         <v>578</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="C89">
         <f t="shared" si="1"/>
@@ -5339,7 +5336,7 @@
         <v>20180404</v>
       </c>
       <c r="E89" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -5740,10 +5737,10 @@
     </row>
     <row r="123" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="C123">
         <f t="shared" si="1"/>
@@ -5753,7 +5750,7 @@
         <v>20170515</v>
       </c>
       <c r="E123" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -5773,7 +5770,7 @@
         <v>613</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="C125">
         <f t="shared" si="1"/>
@@ -5783,7 +5780,7 @@
         <v>20170515</v>
       </c>
       <c r="E125" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -5827,7 +5824,7 @@
         <v>615</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="C129">
         <f t="shared" si="1"/>
@@ -5837,7 +5834,7 @@
         <v>20170515</v>
       </c>
       <c r="E129" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -5857,7 +5854,7 @@
         <v>617</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="C131">
         <f t="shared" si="2"/>
@@ -5867,7 +5864,7 @@
         <v>20180404</v>
       </c>
       <c r="E131" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -5899,7 +5896,7 @@
         <v>620</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="C134">
         <f t="shared" si="2"/>
@@ -5909,7 +5906,7 @@
         <v>20170515</v>
       </c>
       <c r="E134" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
@@ -5917,7 +5914,7 @@
         <v>621</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="C135">
         <f t="shared" si="2"/>
@@ -5927,7 +5924,7 @@
         <v>20180404</v>
       </c>
       <c r="E135" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -5935,7 +5932,7 @@
         <v>622</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="C136">
         <f t="shared" si="2"/>
@@ -5945,7 +5942,7 @@
         <v>20170515</v>
       </c>
       <c r="E136" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
@@ -6121,7 +6118,7 @@
         <v>637</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="C151">
         <f t="shared" si="2"/>
@@ -6217,7 +6214,7 @@
         <v>645</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="C159">
         <f t="shared" si="2"/>
@@ -6227,7 +6224,7 @@
         <v>20170515</v>
       </c>
       <c r="E159" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -6391,7 +6388,7 @@
         <v>659</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="C173">
         <f t="shared" si="2"/>
@@ -6401,7 +6398,7 @@
         <v>20170515</v>
       </c>
       <c r="E173" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -6647,7 +6644,7 @@
         <v>20170515</v>
       </c>
       <c r="E193" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
@@ -6655,7 +6652,7 @@
         <v>680</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="C194">
         <f t="shared" ref="C194:C257" si="3">LEN(B194)</f>
@@ -6665,7 +6662,7 @@
         <v>20180427</v>
       </c>
       <c r="E194" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -6721,7 +6718,7 @@
         <v>685</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="C199">
         <f t="shared" si="3"/>
@@ -6949,7 +6946,7 @@
         <v>704</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="C218">
         <f t="shared" si="3"/>
@@ -6959,7 +6956,7 @@
         <v>20170520</v>
       </c>
       <c r="E218" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -7327,12 +7324,18 @@
         <v>735</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>1017</v>
+        <v>1061</v>
       </c>
       <c r="C249">
         <f t="shared" si="3"/>
         <v>111</v>
       </c>
+      <c r="D249">
+        <v>20180608</v>
+      </c>
+      <c r="E249" t="s">
+        <v>1031</v>
+      </c>
     </row>
     <row r="250" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
@@ -7387,7 +7390,7 @@
         <v>740</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="C254">
         <f t="shared" si="3"/>
@@ -7397,7 +7400,7 @@
         <v>20170515</v>
       </c>
       <c r="E254" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="255" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -7417,50 +7420,74 @@
         <v>742</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>1013</v>
+        <v>1062</v>
       </c>
       <c r="C256">
         <f t="shared" si="3"/>
         <v>53</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="D256">
+        <v>20180608</v>
+      </c>
+      <c r="E256" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>743</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>1014</v>
+        <v>1064</v>
       </c>
       <c r="C257">
         <f t="shared" si="3"/>
-        <v>104</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="D257">
+        <v>20180608</v>
+      </c>
+      <c r="E257" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>744</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>1015</v>
+        <v>1065</v>
       </c>
       <c r="C258">
         <f t="shared" ref="C258:C321" si="4">LEN(B258)</f>
         <v>111</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="D258">
+        <v>20180608</v>
+      </c>
+      <c r="E258" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>745</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>1016</v>
+        <v>1063</v>
       </c>
       <c r="C259">
         <f t="shared" si="4"/>
         <v>79</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="D259">
+        <v>20180608</v>
+      </c>
+      <c r="E259" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>746</v>
       </c>
@@ -7472,7 +7499,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>747</v>
       </c>
@@ -7484,7 +7511,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>748</v>
       </c>
@@ -7496,7 +7523,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>749</v>
       </c>
@@ -7508,7 +7535,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>750</v>
       </c>
@@ -7520,7 +7547,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>751</v>
       </c>
@@ -7532,7 +7559,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>752</v>
       </c>
@@ -7544,7 +7571,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>753</v>
       </c>
@@ -7556,7 +7583,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>754</v>
       </c>
@@ -7568,7 +7595,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>755</v>
       </c>
@@ -7580,7 +7607,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>756</v>
       </c>
@@ -7592,7 +7619,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>757</v>
       </c>
@@ -7604,7 +7631,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>758</v>
       </c>
@@ -7837,7 +7864,7 @@
         <v>777</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="C291">
         <f t="shared" si="4"/>
@@ -7847,7 +7874,7 @@
         <v>20170515</v>
       </c>
       <c r="E291" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -7855,7 +7882,7 @@
         <v>778</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="C292">
         <f t="shared" si="4"/>
@@ -7865,7 +7892,7 @@
         <v>20170515</v>
       </c>
       <c r="E292" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -7933,7 +7960,7 @@
         <v>784</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="C298">
         <f t="shared" si="4"/>
@@ -7943,7 +7970,7 @@
         <v>20170515</v>
       </c>
       <c r="E298" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -8239,7 +8266,7 @@
         <v>809</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="C323">
         <f t="shared" si="5"/>
@@ -8249,7 +8276,7 @@
         <v>20170808</v>
       </c>
       <c r="E323" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="324" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -8425,7 +8452,7 @@
         <v>824</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="C338">
         <f t="shared" si="5"/>
@@ -8435,7 +8462,7 @@
         <v>20170515</v>
       </c>
       <c r="E338" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="339" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -8575,7 +8602,7 @@
         <v>836</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="C350">
         <f t="shared" si="5"/>
@@ -8585,7 +8612,7 @@
         <v>20170820</v>
       </c>
       <c r="E350" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="351" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -8893,7 +8920,7 @@
         <v>861</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="C376">
         <f t="shared" si="5"/>
@@ -9025,7 +9052,7 @@
         <v>871</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="C387">
         <f t="shared" si="6"/>
@@ -9035,7 +9062,7 @@
         <v>20170808</v>
       </c>
       <c r="E387" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
@@ -9043,7 +9070,7 @@
         <v>872</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="C388">
         <f t="shared" si="6"/>
@@ -9053,7 +9080,7 @@
         <v>20170911</v>
       </c>
       <c r="E388" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
@@ -9061,7 +9088,7 @@
         <v>873</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="C389">
         <f t="shared" si="6"/>
@@ -9073,7 +9100,7 @@
         <v>874</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="C390">
         <f t="shared" si="6"/>
@@ -9083,7 +9110,7 @@
         <v>20170911</v>
       </c>
       <c r="E390" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="391" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -9091,7 +9118,7 @@
         <v>874</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="C391">
         <f t="shared" si="6"/>
@@ -9811,7 +9838,7 @@
         <v>933</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="C451">
         <f t="shared" si="7"/>
@@ -9821,7 +9848,7 @@
         <v>20170515</v>
       </c>
       <c r="E451" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="452" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -9961,7 +9988,7 @@
         <v>945</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="C463">
         <f t="shared" si="7"/>
@@ -9971,7 +9998,7 @@
         <v>20170515</v>
       </c>
       <c r="E463" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="464" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -10243,7 +10270,7 @@
         <v>968</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="C486">
         <f t="shared" si="7"/>
@@ -10253,7 +10280,7 @@
         <v>20170515</v>
       </c>
       <c r="E486" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
@@ -10273,7 +10300,7 @@
         <v>970</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="C488">
         <f t="shared" si="7"/>
@@ -10283,7 +10310,7 @@
         <v>20170920</v>
       </c>
       <c r="E488" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="489" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -10411,7 +10438,7 @@
         <v>981</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="C499">
         <f t="shared" si="7"/>
@@ -10421,7 +10448,7 @@
         <v>20170515</v>
       </c>
       <c r="E499" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="500" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -10489,7 +10516,7 @@
         <v>987</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="C505">
         <f t="shared" si="7"/>
@@ -10499,7 +10526,7 @@
         <v>20180404</v>
       </c>
       <c r="E505" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="506" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -10651,7 +10678,7 @@
         <v>1000</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="C518">
         <f t="shared" si="8"/>
@@ -10661,7 +10688,7 @@
         <v>20180404</v>
       </c>
       <c r="E518" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="519" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -10810,10 +10837,10 @@
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="C531">
         <f t="shared" ref="C531" si="9">LEN(B531)</f>

--- a/tweetlist.xlsx
+++ b/tweetlist.xlsx
@@ -15,7 +15,7 @@
     <sheet name="todayssatellite" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">todayssatellite!$A$1:$C$530</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">todayssatellite!$A$1:$C$531</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="1066">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="1068">
   <si>
     <t>【今日の人工衛星】1/1 1990年：JCSAT-2 日本のJSAT(現・スカパーJSAT)保有の通信衛星。タイタンIIIロケットで打上、東経154度からサービスを提供。現在は寿命が切れている。</t>
   </si>
@@ -348,12 +348,6 @@
   </si>
   <si>
     <t>★1980年の今日2/22 17:35、N-Iロケット6号機であやめ2号が打ち上げられました。</t>
-  </si>
-  <si>
-    <t>【今日の人工衛星】2/23 1977年：きく2号 日本初の静止衛星。きくシリーズは技術試験衛星。 2008年：きずな(WINDS) 超高速インターネット衛星、最大で1.2Gbpsの通信が可能。ルーターは155MbpsX3チャンネルしか交換できませんが…</t>
-  </si>
-  <si>
-    <t>★1977年の今日2/23 17:50、N-Iロケット3号機できく2号が打ち上げられました。</t>
   </si>
   <si>
     <t>★2008年の今日2/23 17:55、H-IIAロケット14号機で超高速インターネット衛星きずな(WINDS)が打ち上げられました。</t>
@@ -3874,6 +3868,46 @@
   </si>
   <si>
     <t xml:space="preserve">【お帰りはやぶさ・帰還8周年】6/13 22:28 はやぶさ、内之浦局の観測圏外になり通信途絶。最後の信号はhttp://hayabusa.jaxa.jp/message/message_049.htmlに掲載されている </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【今日の人工衛星】2/23 1977年：きく2号 日本初の静止衛星。きくシリーズは技術試験衛星。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02/23 07:01:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>★1977年の今日2/23 17:50、N-Iロケット3号機できく2号が打ち上げられました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【今日の人工衛星】2/23 2008年：きずな(WINDS) 超高速インターネット衛星、最大で3.2Gbpsの当時世界最高速の通信を実施した。通信が回復しないことから2019/02/27に運用を停止した https://t.co/EEkoTlKQER</t>
+    <rPh sb="55" eb="57">
+      <t>トウジ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>セカイ</t>
+    </rPh>
+    <rPh sb="59" eb="62">
+      <t>サイコウソク</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>ウンヨウ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>テイシ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3937,7 +3971,27 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -4234,10 +4288,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E531"/>
+  <dimension ref="A1:E532"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B206" sqref="B206"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -4249,7 +4303,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -4261,7 +4315,7 @@
     </row>
     <row r="2" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -4273,7 +4327,7 @@
     </row>
     <row r="3" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -4285,7 +4339,7 @@
     </row>
     <row r="4" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -4297,7 +4351,7 @@
     </row>
     <row r="5" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -4309,7 +4363,7 @@
     </row>
     <row r="6" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
@@ -4321,7 +4375,7 @@
     </row>
     <row r="7" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
@@ -4333,7 +4387,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
@@ -4345,7 +4399,7 @@
     </row>
     <row r="9" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>8</v>
@@ -4357,7 +4411,7 @@
     </row>
     <row r="10" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -4369,7 +4423,7 @@
     </row>
     <row r="11" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>10</v>
@@ -4381,7 +4435,7 @@
     </row>
     <row r="12" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
@@ -4393,7 +4447,7 @@
     </row>
     <row r="13" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
@@ -4405,7 +4459,7 @@
     </row>
     <row r="14" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>13</v>
@@ -4417,7 +4471,7 @@
     </row>
     <row r="15" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>14</v>
@@ -4429,7 +4483,7 @@
     </row>
     <row r="16" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>15</v>
@@ -4441,7 +4495,7 @@
     </row>
     <row r="17" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>16</v>
@@ -4453,7 +4507,7 @@
     </row>
     <row r="18" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>17</v>
@@ -4465,7 +4519,7 @@
     </row>
     <row r="19" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>18</v>
@@ -4477,7 +4531,7 @@
     </row>
     <row r="20" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>19</v>
@@ -4489,7 +4543,7 @@
     </row>
     <row r="21" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>20</v>
@@ -4501,10 +4555,10 @@
     </row>
     <row r="22" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -4514,12 +4568,12 @@
         <v>20180404</v>
       </c>
       <c r="E22" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>21</v>
@@ -4531,7 +4585,7 @@
     </row>
     <row r="24" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>22</v>
@@ -4543,7 +4597,7 @@
     </row>
     <row r="25" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>23</v>
@@ -4555,7 +4609,7 @@
     </row>
     <row r="26" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>24</v>
@@ -4567,7 +4621,7 @@
     </row>
     <row r="27" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>25</v>
@@ -4579,7 +4633,7 @@
     </row>
     <row r="28" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>26</v>
@@ -4591,7 +4645,7 @@
     </row>
     <row r="29" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>27</v>
@@ -4603,7 +4657,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>28</v>
@@ -4615,7 +4669,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>29</v>
@@ -4627,7 +4681,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>30</v>
@@ -4639,7 +4693,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>31</v>
@@ -4651,7 +4705,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>32</v>
@@ -4663,7 +4717,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>33</v>
@@ -4675,7 +4729,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>34</v>
@@ -4687,7 +4741,7 @@
     </row>
     <row r="37" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>35</v>
@@ -4699,7 +4753,7 @@
     </row>
     <row r="38" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>36</v>
@@ -4711,7 +4765,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>37</v>
@@ -4723,7 +4777,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>38</v>
@@ -4735,7 +4789,7 @@
     </row>
     <row r="41" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>39</v>
@@ -4747,7 +4801,7 @@
     </row>
     <row r="42" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>40</v>
@@ -4759,7 +4813,7 @@
     </row>
     <row r="43" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>41</v>
@@ -4771,7 +4825,7 @@
     </row>
     <row r="44" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>42</v>
@@ -4783,7 +4837,7 @@
     </row>
     <row r="45" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>43</v>
@@ -4795,7 +4849,7 @@
     </row>
     <row r="46" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>44</v>
@@ -4807,7 +4861,7 @@
     </row>
     <row r="47" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>45</v>
@@ -4819,7 +4873,7 @@
     </row>
     <row r="48" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>46</v>
@@ -4831,7 +4885,7 @@
     </row>
     <row r="49" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>47</v>
@@ -4843,7 +4897,7 @@
     </row>
     <row r="50" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>48</v>
@@ -4855,10 +4909,10 @@
     </row>
     <row r="51" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
@@ -4868,12 +4922,12 @@
         <v>20180404</v>
       </c>
       <c r="E51" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>49</v>
@@ -4885,7 +4939,7 @@
     </row>
     <row r="53" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>50</v>
@@ -4897,7 +4951,7 @@
     </row>
     <row r="54" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>51</v>
@@ -4909,7 +4963,7 @@
     </row>
     <row r="55" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>52</v>
@@ -4921,7 +4975,7 @@
     </row>
     <row r="56" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>53</v>
@@ -4933,7 +4987,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>54</v>
@@ -4945,7 +4999,7 @@
     </row>
     <row r="58" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>55</v>
@@ -4957,7 +5011,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>56</v>
@@ -4969,7 +5023,7 @@
     </row>
     <row r="60" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>57</v>
@@ -4981,7 +5035,7 @@
     </row>
     <row r="61" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>58</v>
@@ -4993,7 +5047,7 @@
     </row>
     <row r="62" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>59</v>
@@ -5005,7 +5059,7 @@
     </row>
     <row r="63" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>60</v>
@@ -5017,7 +5071,7 @@
     </row>
     <row r="64" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>61</v>
@@ -5029,19 +5083,19 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C65">
-        <f t="shared" ref="C65:C129" si="1">LEN(B65)</f>
+        <f t="shared" ref="C65:C130" si="1">LEN(B65)</f>
         <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>63</v>
@@ -5053,7 +5107,7 @@
     </row>
     <row r="67" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>64</v>
@@ -5065,7 +5119,7 @@
     </row>
     <row r="68" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>65</v>
@@ -5077,7 +5131,7 @@
     </row>
     <row r="69" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>66</v>
@@ -5089,7 +5143,7 @@
     </row>
     <row r="70" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>67</v>
@@ -5101,7 +5155,7 @@
     </row>
     <row r="71" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>68</v>
@@ -5113,7 +5167,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>69</v>
@@ -5125,7 +5179,7 @@
     </row>
     <row r="73" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>70</v>
@@ -5137,7 +5191,7 @@
     </row>
     <row r="74" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>71</v>
@@ -5149,7 +5203,7 @@
     </row>
     <row r="75" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>72</v>
@@ -5161,7 +5215,7 @@
     </row>
     <row r="76" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>73</v>
@@ -5173,7 +5227,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>74</v>
@@ -5185,7 +5239,7 @@
     </row>
     <row r="78" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>75</v>
@@ -5197,7 +5251,7 @@
     </row>
     <row r="79" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>76</v>
@@ -5209,7 +5263,7 @@
     </row>
     <row r="80" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>77</v>
@@ -5221,7 +5275,7 @@
     </row>
     <row r="81" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>78</v>
@@ -5233,7 +5287,7 @@
     </row>
     <row r="82" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>79</v>
@@ -5245,10 +5299,10 @@
     </row>
     <row r="83" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="C83">
         <f t="shared" si="1"/>
@@ -5258,12 +5312,12 @@
         <v>20170515</v>
       </c>
       <c r="E83" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>80</v>
@@ -5275,7 +5329,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>81</v>
@@ -5287,7 +5341,7 @@
     </row>
     <row r="86" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>82</v>
@@ -5299,7 +5353,7 @@
     </row>
     <row r="87" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>83</v>
@@ -5311,7 +5365,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>84</v>
@@ -5323,10 +5377,10 @@
     </row>
     <row r="89" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="C89">
         <f t="shared" si="1"/>
@@ -5336,12 +5390,12 @@
         <v>20180404</v>
       </c>
       <c r="E89" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>85</v>
@@ -5353,7 +5407,7 @@
     </row>
     <row r="91" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>86</v>
@@ -5365,7 +5419,7 @@
     </row>
     <row r="92" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>87</v>
@@ -5377,7 +5431,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>88</v>
@@ -5389,7 +5443,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>89</v>
@@ -5401,7 +5455,7 @@
     </row>
     <row r="95" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>90</v>
@@ -5413,7 +5467,7 @@
     </row>
     <row r="96" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>91</v>
@@ -5425,7 +5479,7 @@
     </row>
     <row r="97" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>92</v>
@@ -5437,7 +5491,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>93</v>
@@ -5449,7 +5503,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>94</v>
@@ -5461,7 +5515,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>95</v>
@@ -5473,7 +5527,7 @@
     </row>
     <row r="101" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>96</v>
@@ -5485,7 +5539,7 @@
     </row>
     <row r="102" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>97</v>
@@ -5497,7 +5551,7 @@
     </row>
     <row r="103" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>98</v>
@@ -5509,7 +5563,7 @@
     </row>
     <row r="104" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>99</v>
@@ -5521,7 +5575,7 @@
     </row>
     <row r="105" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>100</v>
@@ -5533,7 +5587,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>101</v>
@@ -5545,7 +5599,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>102</v>
@@ -5557,7 +5611,7 @@
     </row>
     <row r="108" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>103</v>
@@ -5569,7 +5623,7 @@
     </row>
     <row r="109" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>104</v>
@@ -5581,7 +5635,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>105</v>
@@ -5593,7 +5647,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>106</v>
@@ -5603,5259 +5657,5276 @@
         <v>47</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>107</v>
+        <v>1064</v>
       </c>
       <c r="C112">
         <f t="shared" si="1"/>
-        <v>126</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>602</v>
+        <v>1065</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>108</v>
+        <v>1067</v>
       </c>
       <c r="C113">
+        <f t="shared" ref="C113" si="2">LEN(B113)</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C114">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C114">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C115">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C115">
+    <row r="116" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C116">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C116">
+    <row r="117" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C117">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C117">
+    <row r="118" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C118">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C118">
+    <row r="119" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C119">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C119">
+    <row r="120" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C120">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C120">
+    <row r="121" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C121">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C121">
+    <row r="122" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C122">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C122">
+    <row r="123" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C123">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C123">
+    <row r="124" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C124">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-      <c r="D123">
+      <c r="D124">
         <v>20170515</v>
       </c>
-      <c r="E123" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C124">
+      <c r="E124" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C125">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C125">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C126">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="D125">
+      <c r="D126">
         <v>20170515</v>
       </c>
-      <c r="E125" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C126">
+      <c r="E126" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C127">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C127">
+    <row r="128" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C128">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C128">
+    <row r="129" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C129">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C129">
+    <row r="130" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C130">
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="D129">
+      <c r="D130">
         <v>20170515</v>
       </c>
-      <c r="E129" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C130">
-        <f t="shared" ref="C130:C193" si="2">LEN(B130)</f>
-        <v>109</v>
+      <c r="E130" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>1056</v>
+        <v>122</v>
       </c>
       <c r="C131">
-        <f t="shared" si="2"/>
-        <v>132</v>
-      </c>
-      <c r="D131">
-        <v>20180404</v>
-      </c>
-      <c r="E131" t="s">
-        <v>1050</v>
+        <f t="shared" ref="C131:C194" si="3">LEN(B131)</f>
+        <v>109</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>125</v>
+        <v>1054</v>
       </c>
       <c r="C132">
-        <f t="shared" si="2"/>
-        <v>102</v>
+        <f t="shared" si="3"/>
+        <v>132</v>
+      </c>
+      <c r="D132">
+        <v>20180404</v>
+      </c>
+      <c r="E132" t="s">
+        <v>1048</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C133">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C134">
+        <f t="shared" si="3"/>
         <v>74</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C134">
-        <f t="shared" si="2"/>
-        <v>132</v>
-      </c>
-      <c r="D134">
-        <v>20170515</v>
-      </c>
-      <c r="E134" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C135">
+        <f t="shared" si="3"/>
+        <v>132</v>
+      </c>
+      <c r="D135">
+        <v>20170515</v>
+      </c>
+      <c r="E135" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C136">
+        <f t="shared" si="3"/>
+        <v>126</v>
+      </c>
+      <c r="D136">
+        <v>20180404</v>
+      </c>
+      <c r="E136" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C137">
+        <f t="shared" si="3"/>
+        <v>105</v>
+      </c>
+      <c r="D137">
+        <v>20170515</v>
+      </c>
+      <c r="E137" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C135">
-        <f t="shared" si="2"/>
-        <v>126</v>
-      </c>
-      <c r="D135">
-        <v>20180404</v>
-      </c>
-      <c r="E135" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C136">
-        <f t="shared" si="2"/>
-        <v>105</v>
-      </c>
-      <c r="D136">
-        <v>20170515</v>
-      </c>
-      <c r="E136" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C137">
-        <f t="shared" si="2"/>
+      <c r="B138" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C138">
+        <f t="shared" si="3"/>
         <v>136</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C138">
-        <f t="shared" si="2"/>
-        <v>107</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C139">
-        <f t="shared" si="2"/>
-        <v>114</v>
+        <f t="shared" si="3"/>
+        <v>107</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C140">
-        <f t="shared" si="2"/>
-        <v>76</v>
+        <f t="shared" si="3"/>
+        <v>114</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C141">
-        <f t="shared" si="2"/>
-        <v>70</v>
+        <f t="shared" si="3"/>
+        <v>76</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C142">
-        <f t="shared" si="2"/>
-        <v>93</v>
+        <f t="shared" si="3"/>
+        <v>70</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C143">
+        <f t="shared" si="3"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C144">
+        <f t="shared" si="3"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C145">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B146" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C143">
-        <f t="shared" si="2"/>
-        <v>106</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
+      <c r="C146">
+        <f t="shared" si="3"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B147" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C144">
-        <f t="shared" si="2"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
+      <c r="C147">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B148" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C145">
-        <f t="shared" si="2"/>
+      <c r="C148">
+        <f t="shared" si="3"/>
         <v>139</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C146">
-        <f t="shared" si="2"/>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C147">
-        <f t="shared" si="2"/>
-        <v>139</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C148">
-        <f t="shared" si="2"/>
-        <v>111</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C149">
-        <f t="shared" si="2"/>
-        <v>124</v>
+        <f t="shared" si="3"/>
+        <v>111</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C150">
-        <f t="shared" si="2"/>
-        <v>110</v>
+        <f t="shared" si="3"/>
+        <v>124</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>1024</v>
+        <v>138</v>
       </c>
       <c r="C151">
-        <f t="shared" si="2"/>
-        <v>119</v>
+        <f t="shared" si="3"/>
+        <v>110</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>141</v>
+        <v>1022</v>
       </c>
       <c r="C152">
-        <f t="shared" si="2"/>
-        <v>138</v>
+        <f t="shared" si="3"/>
+        <v>119</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C153">
-        <f t="shared" si="2"/>
-        <v>109</v>
+        <f t="shared" si="3"/>
+        <v>138</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C154">
-        <f t="shared" si="2"/>
-        <v>98</v>
+        <f t="shared" si="3"/>
+        <v>109</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C155">
-        <f t="shared" si="2"/>
-        <v>94</v>
+        <f t="shared" si="3"/>
+        <v>98</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C156">
-        <f t="shared" si="2"/>
-        <v>111</v>
+        <f t="shared" si="3"/>
+        <v>94</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C157">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>111</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C158">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C159">
+        <f t="shared" si="3"/>
         <v>62</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C159">
-        <f t="shared" si="2"/>
-        <v>109</v>
-      </c>
-      <c r="D159">
-        <v>20170515</v>
-      </c>
-      <c r="E159" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>148</v>
+        <v>1011</v>
       </c>
       <c r="C160">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>109</v>
+      </c>
+      <c r="D160">
+        <v>20170515</v>
+      </c>
+      <c r="E160" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C161">
+        <f t="shared" si="3"/>
         <v>111</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C161">
-        <f t="shared" si="2"/>
+    <row r="162" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C162">
+        <f t="shared" si="3"/>
         <v>133</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C162">
-        <f t="shared" si="2"/>
-        <v>98</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C163">
-        <f t="shared" si="2"/>
-        <v>106</v>
+        <f t="shared" si="3"/>
+        <v>98</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C164">
-        <f t="shared" si="2"/>
-        <v>111</v>
+        <f t="shared" si="3"/>
+        <v>106</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C165">
-        <f t="shared" si="2"/>
-        <v>110</v>
+        <f t="shared" si="3"/>
+        <v>111</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C166">
-        <f t="shared" si="2"/>
-        <v>94</v>
+        <f t="shared" si="3"/>
+        <v>110</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C167">
-        <f t="shared" si="2"/>
-        <v>108</v>
+        <f t="shared" si="3"/>
+        <v>94</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C168">
-        <f t="shared" si="2"/>
-        <v>107</v>
+        <f t="shared" si="3"/>
+        <v>108</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C169">
-        <f t="shared" si="2"/>
-        <v>110</v>
+        <f t="shared" si="3"/>
+        <v>107</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C170">
-        <f t="shared" si="2"/>
-        <v>112</v>
+        <f t="shared" si="3"/>
+        <v>110</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C171">
-        <f t="shared" si="2"/>
-        <v>80</v>
+        <f t="shared" si="3"/>
+        <v>112</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C172">
-        <f t="shared" si="2"/>
-        <v>111</v>
+        <f t="shared" si="3"/>
+        <v>80</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>1019</v>
+        <v>158</v>
       </c>
       <c r="C173">
-        <f t="shared" si="2"/>
-        <v>119</v>
-      </c>
-      <c r="D173">
-        <v>20170515</v>
-      </c>
-      <c r="E173" t="s">
-        <v>1031</v>
+        <f t="shared" si="3"/>
+        <v>111</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>161</v>
+        <v>1017</v>
       </c>
       <c r="C174">
-        <f t="shared" si="2"/>
-        <v>106</v>
+        <f t="shared" si="3"/>
+        <v>119</v>
+      </c>
+      <c r="D174">
+        <v>20170515</v>
+      </c>
+      <c r="E174" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C175">
-        <f t="shared" si="2"/>
-        <v>95</v>
+        <f t="shared" si="3"/>
+        <v>106</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C176">
-        <f t="shared" si="2"/>
-        <v>87</v>
+        <f t="shared" si="3"/>
+        <v>95</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C177">
-        <f t="shared" si="2"/>
-        <v>85</v>
+        <f t="shared" si="3"/>
+        <v>87</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C178">
-        <f t="shared" si="2"/>
-        <v>71</v>
+        <f t="shared" si="3"/>
+        <v>85</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C179">
-        <f t="shared" si="2"/>
-        <v>110</v>
+        <f t="shared" si="3"/>
+        <v>71</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C180">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C181">
+        <f t="shared" si="3"/>
         <v>101</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C181">
-        <f t="shared" si="2"/>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C182">
+        <f t="shared" si="3"/>
         <v>65</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C182">
-        <f t="shared" si="2"/>
-        <v>84</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C183">
-        <f t="shared" si="2"/>
-        <v>108</v>
+        <f t="shared" si="3"/>
+        <v>84</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C184">
-        <f t="shared" si="2"/>
-        <v>111</v>
+        <f t="shared" si="3"/>
+        <v>108</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C185">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>111</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C186">
-        <f t="shared" si="2"/>
-        <v>77</v>
+        <f t="shared" si="3"/>
+        <v>111</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C187">
-        <f t="shared" si="2"/>
-        <v>84</v>
+        <f t="shared" si="3"/>
+        <v>77</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C188">
-        <f t="shared" si="2"/>
-        <v>109</v>
+        <f t="shared" si="3"/>
+        <v>84</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C189">
-        <f t="shared" si="2"/>
-        <v>88</v>
+        <f t="shared" si="3"/>
+        <v>109</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C190">
-        <f t="shared" si="2"/>
-        <v>108</v>
+        <f t="shared" si="3"/>
+        <v>88</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C191">
-        <f t="shared" si="2"/>
-        <v>107</v>
+        <f t="shared" si="3"/>
+        <v>108</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C192">
-        <f t="shared" si="2"/>
-        <v>90</v>
+        <f t="shared" si="3"/>
+        <v>107</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C193">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C194">
+        <f t="shared" si="3"/>
+        <v>106</v>
+      </c>
+      <c r="D194" s="3">
+        <v>20170515</v>
+      </c>
+      <c r="E194" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C195">
+        <f t="shared" ref="C195:C258" si="4">LEN(B195)</f>
+        <v>133</v>
+      </c>
+      <c r="D195">
+        <v>20180427</v>
+      </c>
+      <c r="E195" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="B193" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C193">
-        <f t="shared" si="2"/>
-        <v>106</v>
-      </c>
-      <c r="D193" s="3">
-        <v>20170515</v>
-      </c>
-      <c r="E193" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C194">
-        <f t="shared" ref="C194:C257" si="3">LEN(B194)</f>
-        <v>133</v>
-      </c>
-      <c r="D194">
-        <v>20180427</v>
-      </c>
-      <c r="E194" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C195">
-        <f t="shared" si="3"/>
+      <c r="B196" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C196">
+        <f t="shared" si="4"/>
         <v>62</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C196">
-        <f t="shared" si="3"/>
-        <v>109</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C197">
-        <f t="shared" si="3"/>
-        <v>108</v>
+        <f t="shared" si="4"/>
+        <v>109</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C198">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C199">
+        <f t="shared" si="4"/>
         <v>82</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C199">
-        <f t="shared" si="3"/>
+    <row r="200" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C200">
+        <f t="shared" si="4"/>
         <v>130</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C200">
-        <f t="shared" si="3"/>
-        <v>109</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C201">
-        <f t="shared" si="3"/>
-        <v>106</v>
+        <f t="shared" si="4"/>
+        <v>109</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C202">
-        <f t="shared" si="3"/>
-        <v>89</v>
+        <f t="shared" si="4"/>
+        <v>106</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C203">
-        <f t="shared" si="3"/>
-        <v>104</v>
+        <f t="shared" si="4"/>
+        <v>89</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C204">
-        <f t="shared" si="3"/>
-        <v>108</v>
+        <f t="shared" si="4"/>
+        <v>104</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C205">
-        <f t="shared" si="3"/>
-        <v>107</v>
+        <f t="shared" si="4"/>
+        <v>108</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C206">
-        <f t="shared" si="3"/>
-        <v>123</v>
+        <f t="shared" si="4"/>
+        <v>107</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C207">
-        <f t="shared" si="3"/>
-        <v>103</v>
+        <f t="shared" si="4"/>
+        <v>123</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C208">
-        <f t="shared" si="3"/>
-        <v>106</v>
+        <f t="shared" si="4"/>
+        <v>103</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C209">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>106</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C210">
-        <f t="shared" si="3"/>
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>106</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C211">
-        <f t="shared" si="3"/>
-        <v>107</v>
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C212">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>107</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C213">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>107</v>
       </c>
     </row>
     <row r="214" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C214">
-        <f t="shared" si="3"/>
-        <v>123</v>
+        <f t="shared" si="4"/>
+        <v>107</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C215">
-        <f t="shared" si="3"/>
-        <v>106</v>
+        <f t="shared" si="4"/>
+        <v>123</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C216">
-        <f t="shared" si="3"/>
-        <v>101</v>
+        <f t="shared" si="4"/>
+        <v>106</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C217">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C218">
+        <f t="shared" si="4"/>
         <v>110</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A218" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C218">
-        <f t="shared" si="3"/>
+    <row r="219" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C219">
+        <f t="shared" si="4"/>
         <v>133</v>
       </c>
-      <c r="D218">
+      <c r="D219">
         <v>20170520</v>
       </c>
-      <c r="E218" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A219" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C219">
-        <f t="shared" si="3"/>
-        <v>83</v>
+      <c r="E219" t="s">
+        <v>1044</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C220">
+        <f t="shared" si="4"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C221">
+        <f t="shared" si="4"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C222">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="B220" s="2" t="s">
+      <c r="B223" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C220">
-        <f t="shared" si="3"/>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" s="1" t="s">
+      <c r="C223">
+        <f t="shared" si="4"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="B221" s="2" t="s">
+      <c r="B224" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C221">
-        <f t="shared" si="3"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A222" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C222">
-        <f t="shared" si="3"/>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A223" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C223">
-        <f t="shared" si="3"/>
+      <c r="C224">
+        <f t="shared" si="4"/>
         <v>138</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A224" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C224">
-        <f t="shared" si="3"/>
-        <v>88</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C225">
-        <f t="shared" si="3"/>
-        <v>102</v>
+        <f t="shared" si="4"/>
+        <v>88</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C226">
-        <f t="shared" si="3"/>
-        <v>107</v>
+        <f t="shared" si="4"/>
+        <v>102</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C227">
-        <f t="shared" si="3"/>
-        <v>109</v>
+        <f t="shared" si="4"/>
+        <v>107</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C228">
-        <f t="shared" si="3"/>
-        <v>106</v>
+        <f t="shared" si="4"/>
+        <v>109</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C229">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>106</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C230">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>106</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C231">
-        <f t="shared" si="3"/>
-        <v>101</v>
+        <f t="shared" si="4"/>
+        <v>106</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C232">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C233">
+        <f t="shared" si="4"/>
         <v>110</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C233">
-        <f t="shared" si="3"/>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C234">
+        <f t="shared" si="4"/>
         <v>60</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A234" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C234">
-        <f t="shared" si="3"/>
-        <v>92</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C235">
-        <f t="shared" si="3"/>
-        <v>83</v>
+        <f t="shared" si="4"/>
+        <v>92</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C236">
-        <f t="shared" si="3"/>
-        <v>101</v>
+        <f t="shared" si="4"/>
+        <v>83</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C237">
-        <f t="shared" si="3"/>
-        <v>79</v>
+        <f t="shared" si="4"/>
+        <v>101</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C238">
-        <f t="shared" si="3"/>
-        <v>73</v>
+        <f t="shared" si="4"/>
+        <v>79</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C239">
-        <f t="shared" si="3"/>
-        <v>92</v>
+        <f t="shared" si="4"/>
+        <v>73</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C240">
-        <f t="shared" si="3"/>
-        <v>111</v>
+        <f t="shared" si="4"/>
+        <v>92</v>
       </c>
     </row>
     <row r="241" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C241">
-        <f t="shared" si="3"/>
-        <v>96</v>
+        <f t="shared" si="4"/>
+        <v>111</v>
       </c>
     </row>
     <row r="242" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C242">
-        <f t="shared" si="3"/>
-        <v>108</v>
+        <f t="shared" si="4"/>
+        <v>96</v>
       </c>
     </row>
     <row r="243" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C243">
-        <f t="shared" si="3"/>
-        <v>94</v>
+        <f t="shared" si="4"/>
+        <v>108</v>
       </c>
     </row>
     <row r="244" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C244">
-        <f t="shared" si="3"/>
-        <v>110</v>
+        <f t="shared" si="4"/>
+        <v>94</v>
       </c>
     </row>
     <row r="245" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C245">
-        <f t="shared" si="3"/>
-        <v>75</v>
+        <f t="shared" si="4"/>
+        <v>110</v>
       </c>
     </row>
     <row r="246" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C246">
-        <f t="shared" si="3"/>
-        <v>77</v>
+        <f t="shared" si="4"/>
+        <v>75</v>
       </c>
     </row>
     <row r="247" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C247">
-        <f t="shared" si="3"/>
-        <v>84</v>
+        <f t="shared" si="4"/>
+        <v>77</v>
       </c>
     </row>
     <row r="248" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C248">
-        <f t="shared" si="3"/>
-        <v>101</v>
+        <f t="shared" si="4"/>
+        <v>84</v>
       </c>
     </row>
     <row r="249" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>1061</v>
+        <v>230</v>
       </c>
       <c r="C249">
-        <f t="shared" si="3"/>
-        <v>111</v>
-      </c>
-      <c r="D249">
-        <v>20180608</v>
-      </c>
-      <c r="E249" t="s">
-        <v>1031</v>
+        <f t="shared" si="4"/>
+        <v>101</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>233</v>
+        <v>1059</v>
       </c>
       <c r="C250">
-        <f t="shared" si="3"/>
-        <v>106</v>
+        <f t="shared" si="4"/>
+        <v>111</v>
+      </c>
+      <c r="D250">
+        <v>20180608</v>
+      </c>
+      <c r="E250" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C251">
-        <f t="shared" si="3"/>
-        <v>102</v>
+        <f t="shared" si="4"/>
+        <v>106</v>
       </c>
     </row>
     <row r="252" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C252">
-        <f t="shared" si="3"/>
-        <v>110</v>
+        <f t="shared" si="4"/>
+        <v>102</v>
       </c>
     </row>
     <row r="253" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C253">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C254">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C255">
+        <f t="shared" si="4"/>
+        <v>136</v>
+      </c>
+      <c r="D255">
+        <v>20170515</v>
+      </c>
+      <c r="E255" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="B253" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C253">
-        <f t="shared" si="3"/>
+      <c r="B256" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C256">
+        <f t="shared" si="4"/>
         <v>110</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A254" s="1" t="s">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="B254" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C254">
-        <f t="shared" si="3"/>
-        <v>136</v>
-      </c>
-      <c r="D254">
-        <v>20170515</v>
-      </c>
-      <c r="E254" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A255" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="B255" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C255">
-        <f t="shared" si="3"/>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C256">
-        <f t="shared" si="3"/>
+      <c r="B257" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C257">
+        <f t="shared" si="4"/>
         <v>53</v>
-      </c>
-      <c r="D256">
-        <v>20180608</v>
-      </c>
-      <c r="E256" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A257" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C257">
-        <f t="shared" si="3"/>
-        <v>139</v>
       </c>
       <c r="D257">
         <v>20180608</v>
       </c>
       <c r="E257" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="C258">
-        <f t="shared" ref="C258:C321" si="4">LEN(B258)</f>
-        <v>111</v>
+        <f t="shared" si="4"/>
+        <v>139</v>
       </c>
       <c r="D258">
         <v>20180608</v>
       </c>
       <c r="E258" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="259" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>1063</v>
       </c>
       <c r="C259">
-        <f t="shared" si="4"/>
-        <v>79</v>
+        <f t="shared" ref="C259:C322" si="5">LEN(B259)</f>
+        <v>111</v>
       </c>
       <c r="D259">
         <v>20180608</v>
       </c>
       <c r="E259" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="260" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>238</v>
+        <v>1061</v>
       </c>
       <c r="C260">
-        <f t="shared" si="4"/>
-        <v>107</v>
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="D260">
+        <v>20180608</v>
+      </c>
+      <c r="E260" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="261" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C261">
-        <f t="shared" si="4"/>
-        <v>103</v>
+        <f t="shared" si="5"/>
+        <v>107</v>
       </c>
     </row>
     <row r="262" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C262">
-        <f t="shared" si="4"/>
-        <v>90</v>
+        <f t="shared" si="5"/>
+        <v>103</v>
       </c>
     </row>
     <row r="263" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C263">
-        <f t="shared" si="4"/>
-        <v>106</v>
+        <f t="shared" si="5"/>
+        <v>90</v>
       </c>
     </row>
     <row r="264" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C264">
-        <f t="shared" si="4"/>
-        <v>110</v>
+        <f t="shared" si="5"/>
+        <v>106</v>
       </c>
     </row>
     <row r="265" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C265">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>110</v>
       </c>
     </row>
     <row r="266" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C266">
-        <f t="shared" si="4"/>
-        <v>109</v>
+        <f t="shared" si="5"/>
+        <v>110</v>
       </c>
     </row>
     <row r="267" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C267">
-        <f t="shared" si="4"/>
-        <v>84</v>
+        <f t="shared" si="5"/>
+        <v>109</v>
       </c>
     </row>
     <row r="268" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C268">
-        <f t="shared" si="4"/>
-        <v>118</v>
+        <f t="shared" si="5"/>
+        <v>84</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C269">
-        <f t="shared" si="4"/>
-        <v>107</v>
+        <f t="shared" si="5"/>
+        <v>118</v>
       </c>
     </row>
     <row r="270" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C270">
-        <f t="shared" si="4"/>
-        <v>104</v>
+        <f t="shared" si="5"/>
+        <v>107</v>
       </c>
     </row>
     <row r="271" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C271">
-        <f t="shared" si="4"/>
-        <v>110</v>
+        <f t="shared" si="5"/>
+        <v>104</v>
       </c>
     </row>
     <row r="272" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C272">
-        <f t="shared" si="4"/>
-        <v>96</v>
+        <f t="shared" si="5"/>
+        <v>110</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C273">
-        <f t="shared" si="4"/>
-        <v>86</v>
+        <f t="shared" si="5"/>
+        <v>96</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C274">
-        <f t="shared" si="4"/>
-        <v>102</v>
+        <f t="shared" si="5"/>
+        <v>86</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C275">
-        <f t="shared" si="4"/>
-        <v>104</v>
+        <f t="shared" si="5"/>
+        <v>102</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C276">
-        <f t="shared" si="4"/>
-        <v>109</v>
+        <f t="shared" si="5"/>
+        <v>104</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C277">
-        <f t="shared" si="4"/>
-        <v>110</v>
+        <f t="shared" si="5"/>
+        <v>109</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C278">
-        <f t="shared" si="4"/>
-        <v>108</v>
+        <f t="shared" si="5"/>
+        <v>110</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C279">
-        <f t="shared" si="4"/>
-        <v>99</v>
+        <f t="shared" si="5"/>
+        <v>108</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C280">
-        <f t="shared" si="4"/>
-        <v>107</v>
+        <f t="shared" si="5"/>
+        <v>99</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C281">
-        <f t="shared" si="4"/>
-        <v>105</v>
+        <f t="shared" si="5"/>
+        <v>107</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C282">
-        <f t="shared" si="4"/>
-        <v>106</v>
+        <f t="shared" si="5"/>
+        <v>105</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C283">
-        <f t="shared" si="4"/>
-        <v>104</v>
+        <f t="shared" si="5"/>
+        <v>106</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C284">
-        <f t="shared" si="4"/>
-        <v>97</v>
+        <f t="shared" si="5"/>
+        <v>104</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C285">
-        <f t="shared" si="4"/>
-        <v>108</v>
+        <f t="shared" si="5"/>
+        <v>97</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C286">
-        <f t="shared" si="4"/>
-        <v>110</v>
+        <f t="shared" si="5"/>
+        <v>108</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C287">
-        <f t="shared" si="4"/>
-        <v>79</v>
+        <f t="shared" si="5"/>
+        <v>110</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C288">
-        <f t="shared" si="4"/>
-        <v>105</v>
+        <f t="shared" si="5"/>
+        <v>79</v>
       </c>
     </row>
     <row r="289" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C289">
-        <f t="shared" si="4"/>
-        <v>101</v>
+        <f t="shared" si="5"/>
+        <v>105</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C290">
-        <f t="shared" si="4"/>
-        <v>74</v>
+        <f t="shared" si="5"/>
+        <v>101</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>1021</v>
+        <v>266</v>
       </c>
       <c r="C291">
-        <f t="shared" si="4"/>
-        <v>109</v>
-      </c>
-      <c r="D291">
-        <v>20170515</v>
-      </c>
-      <c r="E291" t="s">
-        <v>1031</v>
+        <f t="shared" si="5"/>
+        <v>74</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C292">
-        <f t="shared" si="4"/>
-        <v>101</v>
+        <f t="shared" si="5"/>
+        <v>109</v>
       </c>
       <c r="D292">
         <v>20170515</v>
       </c>
       <c r="E292" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>269</v>
+        <v>1018</v>
       </c>
       <c r="C293">
-        <f t="shared" si="4"/>
-        <v>100</v>
+        <f t="shared" si="5"/>
+        <v>101</v>
+      </c>
+      <c r="D293">
+        <v>20170515</v>
+      </c>
+      <c r="E293" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C294">
-        <f t="shared" si="4"/>
-        <v>92</v>
+        <f t="shared" si="5"/>
+        <v>100</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C295">
-        <f t="shared" si="4"/>
-        <v>109</v>
+        <f t="shared" si="5"/>
+        <v>92</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C296">
-        <f t="shared" si="4"/>
-        <v>108</v>
+        <f t="shared" si="5"/>
+        <v>109</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C297">
-        <f t="shared" si="4"/>
-        <v>98</v>
+        <f t="shared" si="5"/>
+        <v>108</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>1014</v>
+        <v>271</v>
       </c>
       <c r="C298">
-        <f t="shared" si="4"/>
-        <v>111</v>
-      </c>
-      <c r="D298">
-        <v>20170515</v>
-      </c>
-      <c r="E298" t="s">
-        <v>1031</v>
+        <f t="shared" si="5"/>
+        <v>98</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>274</v>
+        <v>1012</v>
       </c>
       <c r="C299">
-        <f t="shared" si="4"/>
-        <v>105</v>
+        <f t="shared" si="5"/>
+        <v>111</v>
+      </c>
+      <c r="D299">
+        <v>20170515</v>
+      </c>
+      <c r="E299" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C300">
-        <f t="shared" si="4"/>
-        <v>97</v>
+        <f t="shared" si="5"/>
+        <v>105</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C301">
-        <f t="shared" si="4"/>
-        <v>92</v>
+        <f t="shared" si="5"/>
+        <v>97</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C302">
-        <f t="shared" si="4"/>
-        <v>109</v>
+        <f t="shared" si="5"/>
+        <v>92</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C303">
-        <f t="shared" si="4"/>
-        <v>108</v>
+        <f t="shared" si="5"/>
+        <v>109</v>
       </c>
     </row>
     <row r="304" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C304">
-        <f t="shared" si="4"/>
-        <v>65</v>
+        <f t="shared" si="5"/>
+        <v>108</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C305">
-        <f t="shared" si="4"/>
-        <v>106</v>
+        <f t="shared" si="5"/>
+        <v>65</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C306">
-        <f t="shared" si="4"/>
-        <v>104</v>
+        <f t="shared" si="5"/>
+        <v>106</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C307">
-        <f t="shared" si="4"/>
-        <v>110</v>
+        <f t="shared" si="5"/>
+        <v>104</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C308">
-        <f t="shared" si="4"/>
-        <v>84</v>
+        <f t="shared" si="5"/>
+        <v>110</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C309">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C310">
+        <f t="shared" si="5"/>
         <v>102</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A310" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="B310" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C310">
-        <f t="shared" si="4"/>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C311">
+        <f t="shared" si="5"/>
         <v>63</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A311" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="B311" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C311">
-        <f t="shared" si="4"/>
-        <v>104</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C312">
-        <f t="shared" si="4"/>
-        <v>95</v>
+        <f t="shared" si="5"/>
+        <v>104</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C313">
-        <f t="shared" si="4"/>
-        <v>76</v>
+        <f t="shared" si="5"/>
+        <v>95</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C314">
-        <f t="shared" si="4"/>
-        <v>110</v>
+        <f t="shared" si="5"/>
+        <v>76</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C315">
-        <f t="shared" si="4"/>
-        <v>73</v>
+        <f t="shared" si="5"/>
+        <v>110</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C316">
-        <f t="shared" si="4"/>
-        <v>78</v>
+        <f t="shared" si="5"/>
+        <v>73</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C317">
-        <f t="shared" si="4"/>
-        <v>79</v>
+        <f t="shared" si="5"/>
+        <v>78</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C318">
-        <f t="shared" si="4"/>
-        <v>102</v>
+        <f t="shared" si="5"/>
+        <v>79</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C319">
-        <f t="shared" si="4"/>
-        <v>88</v>
+        <f t="shared" si="5"/>
+        <v>102</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C320">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C321">
+        <f t="shared" si="5"/>
         <v>92</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A321" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="B321" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C321">
-        <f t="shared" si="4"/>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C322">
+        <f t="shared" si="5"/>
         <v>51</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A322" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="B322" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C322">
-        <f t="shared" ref="C322:C385" si="5">LEN(B322)</f>
-        <v>98</v>
       </c>
     </row>
     <row r="323" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>1037</v>
+        <v>295</v>
       </c>
       <c r="C323">
-        <f t="shared" si="5"/>
-        <v>117</v>
-      </c>
-      <c r="D323">
-        <v>20170808</v>
-      </c>
-      <c r="E323" t="s">
-        <v>1045</v>
+        <f t="shared" ref="C323:C386" si="6">LEN(B323)</f>
+        <v>98</v>
       </c>
     </row>
     <row r="324" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>298</v>
+        <v>1035</v>
       </c>
       <c r="C324">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v>117</v>
+      </c>
+      <c r="D324">
+        <v>20170808</v>
+      </c>
+      <c r="E324" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C325">
+        <f t="shared" si="6"/>
         <v>78</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A325" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="B325" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C325">
-        <f t="shared" si="5"/>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C326">
+        <f t="shared" si="6"/>
         <v>51</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A326" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="B326" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C326">
-        <f t="shared" si="5"/>
-        <v>77</v>
       </c>
     </row>
     <row r="327" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C327">
-        <f t="shared" si="5"/>
-        <v>80</v>
+        <f t="shared" si="6"/>
+        <v>77</v>
       </c>
     </row>
     <row r="328" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C328">
-        <f t="shared" si="5"/>
-        <v>74</v>
+        <f t="shared" si="6"/>
+        <v>80</v>
       </c>
     </row>
     <row r="329" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C329">
-        <f t="shared" si="5"/>
-        <v>78</v>
+        <f t="shared" si="6"/>
+        <v>74</v>
       </c>
     </row>
     <row r="330" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C330">
-        <f t="shared" si="5"/>
-        <v>70</v>
+        <f t="shared" si="6"/>
+        <v>78</v>
       </c>
     </row>
     <row r="331" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C331">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C332">
+        <f t="shared" si="6"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C333">
+        <f t="shared" si="6"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="B331" s="2" t="s">
+      <c r="B334" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C331">
-        <f t="shared" si="5"/>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A332" s="1" t="s">
+      <c r="C334">
+        <f t="shared" si="6"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="B332" s="2" t="s">
+      <c r="B335" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C332">
-        <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A333" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="B333" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C333">
-        <f t="shared" si="5"/>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A334" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="B334" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C334">
-        <f t="shared" si="5"/>
+      <c r="C335">
+        <f t="shared" si="6"/>
         <v>59</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A335" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="B335" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C335">
-        <f t="shared" si="5"/>
-        <v>83</v>
       </c>
     </row>
     <row r="336" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C336">
-        <f t="shared" si="5"/>
-        <v>90</v>
+        <f t="shared" si="6"/>
+        <v>83</v>
       </c>
     </row>
     <row r="337" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C337">
-        <f t="shared" si="5"/>
-        <v>92</v>
+        <f t="shared" si="6"/>
+        <v>90</v>
       </c>
     </row>
     <row r="338" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>1027</v>
+        <v>309</v>
       </c>
       <c r="C338">
-        <f t="shared" si="5"/>
-        <v>89</v>
-      </c>
-      <c r="D338">
-        <v>20170515</v>
-      </c>
-      <c r="E338" t="s">
-        <v>1031</v>
+        <f t="shared" si="6"/>
+        <v>92</v>
       </c>
     </row>
     <row r="339" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>312</v>
+        <v>1025</v>
       </c>
       <c r="C339">
-        <f t="shared" si="5"/>
-        <v>101</v>
+        <f t="shared" si="6"/>
+        <v>89</v>
+      </c>
+      <c r="D339">
+        <v>20170515</v>
+      </c>
+      <c r="E339" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="340" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C340">
+        <f t="shared" si="6"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C341">
+        <f t="shared" si="6"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C342">
+        <f t="shared" si="6"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="B340" s="2" t="s">
+      <c r="B343" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C340">
-        <f t="shared" si="5"/>
-        <v>86</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A341" s="1" t="s">
+      <c r="C343">
+        <f t="shared" si="6"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="B341" s="2" t="s">
+      <c r="B344" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C341">
-        <f t="shared" si="5"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A342" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="B342" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C342">
-        <f t="shared" si="5"/>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A343" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="B343" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C343">
-        <f t="shared" si="5"/>
+      <c r="C344">
+        <f t="shared" si="6"/>
         <v>57</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A344" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="B344" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C344">
-        <f t="shared" si="5"/>
-        <v>98</v>
       </c>
     </row>
     <row r="345" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C345">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C346">
+        <f t="shared" si="6"/>
         <v>80</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A346" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="B346" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C346">
-        <f t="shared" si="5"/>
-        <v>53</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C347">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C348">
+        <f t="shared" si="6"/>
         <v>63</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A348" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="B348" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C348">
-        <f t="shared" si="5"/>
-        <v>110</v>
       </c>
     </row>
     <row r="349" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C349">
-        <f t="shared" si="5"/>
-        <v>64</v>
+        <f t="shared" si="6"/>
+        <v>110</v>
       </c>
     </row>
     <row r="350" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>1038</v>
+        <v>320</v>
       </c>
       <c r="C350">
-        <f t="shared" si="5"/>
-        <v>67</v>
-      </c>
-      <c r="D350">
-        <v>20170820</v>
-      </c>
-      <c r="E350" t="s">
-        <v>1047</v>
+        <f t="shared" si="6"/>
+        <v>64</v>
       </c>
     </row>
     <row r="351" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>323</v>
+        <v>1036</v>
       </c>
       <c r="C351">
-        <f t="shared" si="5"/>
-        <v>97</v>
+        <f t="shared" si="6"/>
+        <v>67</v>
+      </c>
+      <c r="D351">
+        <v>20170820</v>
+      </c>
+      <c r="E351" t="s">
+        <v>1045</v>
       </c>
     </row>
     <row r="352" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C352">
-        <f t="shared" si="5"/>
-        <v>78</v>
+        <f t="shared" si="6"/>
+        <v>97</v>
       </c>
     </row>
     <row r="353" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C353">
-        <f t="shared" si="5"/>
-        <v>66</v>
+        <f t="shared" si="6"/>
+        <v>78</v>
       </c>
     </row>
     <row r="354" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C354">
-        <f t="shared" si="5"/>
-        <v>111</v>
+        <f t="shared" si="6"/>
+        <v>66</v>
       </c>
     </row>
     <row r="355" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C355">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C356">
+        <f t="shared" si="6"/>
         <v>79</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A356" s="1" t="s">
-        <v>842</v>
-      </c>
-      <c r="B356" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C356">
-        <f t="shared" si="5"/>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C357">
+        <f t="shared" si="6"/>
         <v>51</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A357" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="B357" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C357">
-        <f t="shared" si="5"/>
-        <v>110</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C358">
+        <f t="shared" si="6"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C359">
+        <f t="shared" si="6"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C360">
+        <f t="shared" si="6"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="B358" s="2" t="s">
+      <c r="B361" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="C358">
-        <f t="shared" si="5"/>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A359" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="B359" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C359">
-        <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A360" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="B360" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C360">
-        <f t="shared" si="5"/>
+      <c r="C361">
+        <f t="shared" si="6"/>
         <v>86</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A361" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="B361" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C361">
-        <f t="shared" si="5"/>
-        <v>56</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C362">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C363">
+        <f t="shared" si="6"/>
         <v>51</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A363" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="B363" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C363">
-        <f t="shared" si="5"/>
-        <v>96</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C364">
-        <f t="shared" si="5"/>
-        <v>99</v>
+        <f t="shared" si="6"/>
+        <v>96</v>
       </c>
     </row>
     <row r="365" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C365">
-        <f t="shared" si="5"/>
-        <v>73</v>
+        <f t="shared" si="6"/>
+        <v>99</v>
       </c>
     </row>
     <row r="366" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C366">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C367">
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A367" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="B367" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C367">
-        <f t="shared" si="5"/>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C368">
+        <f t="shared" si="6"/>
         <v>55</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A368" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="B368" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C368">
-        <f t="shared" si="5"/>
-        <v>99</v>
       </c>
     </row>
     <row r="369" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C369">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99</v>
       </c>
     </row>
     <row r="370" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C370">
-        <f t="shared" si="5"/>
-        <v>81</v>
+        <f t="shared" si="6"/>
+        <v>99</v>
       </c>
     </row>
     <row r="371" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C371">
+        <f t="shared" si="6"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A372" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C372">
+        <f t="shared" si="6"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C373">
+        <f t="shared" si="6"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A374" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="B371" s="2" t="s">
+      <c r="B374" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C371">
-        <f t="shared" si="5"/>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A372" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="B372" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="C372">
-        <f t="shared" si="5"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A373" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="B373" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="C373">
-        <f t="shared" si="5"/>
+      <c r="C374">
+        <f t="shared" si="6"/>
         <v>92</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A374" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="B374" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="C374">
-        <f t="shared" si="5"/>
-        <v>68</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C375">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C376">
+        <f t="shared" si="6"/>
         <v>50</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A376" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="B376" s="2" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C376">
-        <f t="shared" si="5"/>
-        <v>113</v>
       </c>
     </row>
     <row r="377" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>348</v>
+        <v>1041</v>
       </c>
       <c r="C377">
-        <f t="shared" si="5"/>
-        <v>86</v>
+        <f t="shared" si="6"/>
+        <v>113</v>
       </c>
     </row>
     <row r="378" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C378">
-        <f t="shared" si="5"/>
-        <v>91</v>
+        <f t="shared" si="6"/>
+        <v>86</v>
       </c>
     </row>
     <row r="379" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C379">
-        <f t="shared" si="5"/>
-        <v>100</v>
+        <f t="shared" si="6"/>
+        <v>91</v>
       </c>
     </row>
     <row r="380" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C380">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A381" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C381">
+        <f t="shared" si="6"/>
         <v>92</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A381" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="B381" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C381">
-        <f t="shared" si="5"/>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C382">
+        <f t="shared" si="6"/>
         <v>51</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A382" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="B382" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C382">
-        <f t="shared" si="5"/>
-        <v>106</v>
       </c>
     </row>
     <row r="383" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C383">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A384" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C384">
+        <f t="shared" si="6"/>
         <v>74</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A384" s="1" t="s">
-        <v>869</v>
-      </c>
-      <c r="B384" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="C384">
-        <f t="shared" si="5"/>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A385" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C385">
+        <f t="shared" si="6"/>
         <v>62</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A385" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="B385" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="C385">
-        <f t="shared" si="5"/>
-        <v>106</v>
       </c>
     </row>
     <row r="386" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C386">
-        <f t="shared" ref="C386:C449" si="6">LEN(B386)</f>
+        <f t="shared" si="6"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A387" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C387">
+        <f t="shared" ref="C387:C450" si="7">LEN(B387)</f>
         <v>110</v>
       </c>
     </row>
-    <row r="387" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A387" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="B387" s="2" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C387">
-        <f t="shared" si="6"/>
+    <row r="388" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A388" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C388">
+        <f t="shared" si="7"/>
         <v>135</v>
       </c>
-      <c r="D387">
+      <c r="D388">
         <v>20170808</v>
       </c>
-      <c r="E387" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A388" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="B388" s="2" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C388">
-        <f t="shared" si="6"/>
-        <v>56</v>
-      </c>
-      <c r="D388">
-        <v>20170911</v>
-      </c>
       <c r="E388" t="s">
-        <v>1031</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="C389">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
+        <v>56</v>
+      </c>
+      <c r="D389">
+        <v>20170911</v>
+      </c>
+      <c r="E389" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A390" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C390">
+        <f t="shared" si="7"/>
         <v>54</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A390" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="B390" s="2" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C390">
-        <f t="shared" si="6"/>
-        <v>126</v>
-      </c>
-      <c r="D390">
-        <v>20170911</v>
-      </c>
-      <c r="E390" t="s">
-        <v>1045</v>
       </c>
     </row>
     <row r="391" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C391">
-        <f t="shared" si="6"/>
-        <v>113</v>
+        <f t="shared" si="7"/>
+        <v>126</v>
+      </c>
+      <c r="D391">
+        <v>20170911</v>
+      </c>
+      <c r="E391" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="392" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>358</v>
+        <v>1038</v>
       </c>
       <c r="C392">
-        <f t="shared" si="6"/>
-        <v>87</v>
+        <f t="shared" si="7"/>
+        <v>113</v>
       </c>
     </row>
     <row r="393" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C393">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A394" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C394">
+        <f t="shared" si="7"/>
         <v>89</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A394" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="B394" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C394">
-        <f t="shared" si="6"/>
-        <v>52</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C395">
+        <f t="shared" si="7"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A396" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C396">
+        <f t="shared" si="7"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A397" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C397">
+        <f t="shared" si="7"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A398" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="B395" s="2" t="s">
+      <c r="B398" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C395">
-        <f t="shared" si="6"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="396" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A396" s="1" t="s">
+      <c r="C398">
+        <f t="shared" si="7"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A399" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="B396" s="2" t="s">
+      <c r="B399" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C396">
-        <f t="shared" si="6"/>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="397" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A397" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="B397" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="C397">
-        <f t="shared" si="6"/>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="398" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A398" s="1" t="s">
-        <v>881</v>
-      </c>
-      <c r="B398" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="C398">
-        <f t="shared" si="6"/>
+      <c r="C399">
+        <f t="shared" si="7"/>
         <v>92</v>
-      </c>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A399" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="B399" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C399">
-        <f t="shared" si="6"/>
-        <v>59</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C400">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C401">
+        <f t="shared" si="7"/>
         <v>52</v>
-      </c>
-    </row>
-    <row r="401" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A401" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="B401" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="C401">
-        <f t="shared" si="6"/>
-        <v>107</v>
       </c>
     </row>
     <row r="402" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C402">
-        <f t="shared" si="6"/>
-        <v>108</v>
+        <f t="shared" si="7"/>
+        <v>107</v>
       </c>
     </row>
     <row r="403" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C403">
-        <f t="shared" si="6"/>
-        <v>101</v>
+        <f t="shared" si="7"/>
+        <v>108</v>
       </c>
     </row>
     <row r="404" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C404">
-        <f t="shared" si="6"/>
-        <v>71</v>
+        <f t="shared" si="7"/>
+        <v>101</v>
       </c>
     </row>
     <row r="405" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C405">
-        <f t="shared" si="6"/>
-        <v>101</v>
+        <f t="shared" si="7"/>
+        <v>71</v>
       </c>
     </row>
     <row r="406" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C406">
-        <f t="shared" si="6"/>
-        <v>71</v>
+        <f t="shared" si="7"/>
+        <v>101</v>
       </c>
     </row>
     <row r="407" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C407">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A408" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C408">
+        <f t="shared" si="7"/>
         <v>106</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A408" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="B408" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="C408">
-        <f t="shared" si="6"/>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C409">
+        <f t="shared" si="7"/>
         <v>50</v>
-      </c>
-    </row>
-    <row r="409" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A409" s="1" t="s">
-        <v>891</v>
-      </c>
-      <c r="B409" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="C409">
-        <f t="shared" si="6"/>
-        <v>101</v>
       </c>
     </row>
     <row r="410" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C410">
-        <f t="shared" si="6"/>
-        <v>100</v>
+        <f t="shared" si="7"/>
+        <v>101</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C411">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A412" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C412">
+        <f t="shared" si="7"/>
         <v>113</v>
       </c>
     </row>
-    <row r="412" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A412" s="1" t="s">
-        <v>894</v>
-      </c>
-      <c r="B412" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="C412">
-        <f t="shared" si="6"/>
+    <row r="413" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A413" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C413">
+        <f t="shared" si="7"/>
         <v>131</v>
-      </c>
-    </row>
-    <row r="413" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A413" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="B413" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="C413">
-        <f t="shared" si="6"/>
-        <v>104</v>
       </c>
     </row>
     <row r="414" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C414">
-        <f t="shared" si="6"/>
-        <v>85</v>
+        <f t="shared" si="7"/>
+        <v>104</v>
       </c>
     </row>
     <row r="415" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C415">
-        <f t="shared" si="6"/>
-        <v>104</v>
+        <f t="shared" si="7"/>
+        <v>85</v>
       </c>
     </row>
     <row r="416" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C416">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A417" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C417">
+        <f t="shared" si="7"/>
         <v>87</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A417" s="1" t="s">
-        <v>899</v>
-      </c>
-      <c r="B417" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="C417">
-        <f t="shared" si="6"/>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="B418" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C418">
+        <f t="shared" si="7"/>
         <v>51</v>
-      </c>
-    </row>
-    <row r="418" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A418" s="1" t="s">
-        <v>900</v>
-      </c>
-      <c r="B418" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="C418">
-        <f t="shared" si="6"/>
-        <v>85</v>
       </c>
     </row>
     <row r="419" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C419">
-        <f t="shared" si="6"/>
-        <v>110</v>
+        <f t="shared" si="7"/>
+        <v>85</v>
       </c>
     </row>
     <row r="420" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C420">
-        <f t="shared" si="6"/>
-        <v>117</v>
+        <f t="shared" si="7"/>
+        <v>110</v>
       </c>
     </row>
     <row r="421" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C421">
-        <f t="shared" si="6"/>
-        <v>112</v>
+        <f t="shared" si="7"/>
+        <v>117</v>
       </c>
     </row>
     <row r="422" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C422">
-        <f t="shared" si="6"/>
-        <v>100</v>
+        <f t="shared" si="7"/>
+        <v>112</v>
       </c>
     </row>
     <row r="423" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C423">
-        <f t="shared" si="6"/>
-        <v>115</v>
+        <f t="shared" si="7"/>
+        <v>100</v>
       </c>
     </row>
     <row r="424" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C424">
-        <f t="shared" si="6"/>
-        <v>82</v>
+        <f t="shared" si="7"/>
+        <v>115</v>
       </c>
     </row>
     <row r="425" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C425">
-        <f t="shared" si="6"/>
-        <v>116</v>
+        <f t="shared" si="7"/>
+        <v>82</v>
       </c>
     </row>
     <row r="426" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C426">
-        <f t="shared" si="6"/>
-        <v>110</v>
+        <f t="shared" si="7"/>
+        <v>116</v>
       </c>
     </row>
     <row r="427" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C427">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>110</v>
       </c>
     </row>
     <row r="428" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C428">
-        <f t="shared" si="6"/>
-        <v>117</v>
+        <f t="shared" si="7"/>
+        <v>110</v>
       </c>
     </row>
     <row r="429" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C429">
-        <f t="shared" si="6"/>
-        <v>111</v>
+        <f t="shared" si="7"/>
+        <v>117</v>
       </c>
     </row>
     <row r="430" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C430">
-        <f t="shared" si="6"/>
-        <v>97</v>
+        <f t="shared" si="7"/>
+        <v>111</v>
       </c>
     </row>
     <row r="431" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C431">
-        <f t="shared" si="6"/>
-        <v>115</v>
+        <f t="shared" si="7"/>
+        <v>97</v>
       </c>
     </row>
     <row r="432" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C432">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A433" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C433">
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
     </row>
-    <row r="433" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A433" s="1" t="s">
-        <v>915</v>
-      </c>
-      <c r="B433" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="C433">
-        <f t="shared" si="6"/>
-        <v>119</v>
-      </c>
-    </row>
-    <row r="434" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C434">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>119</v>
       </c>
     </row>
     <row r="435" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C435">
-        <f t="shared" si="6"/>
-        <v>116</v>
+        <f t="shared" si="7"/>
+        <v>119</v>
       </c>
     </row>
     <row r="436" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C436">
-        <f t="shared" si="6"/>
-        <v>114</v>
+        <f t="shared" si="7"/>
+        <v>116</v>
       </c>
     </row>
     <row r="437" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C437">
-        <f t="shared" si="6"/>
-        <v>82</v>
+        <f t="shared" si="7"/>
+        <v>114</v>
       </c>
     </row>
     <row r="438" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C438">
-        <f t="shared" si="6"/>
-        <v>112</v>
+        <f t="shared" si="7"/>
+        <v>82</v>
       </c>
     </row>
     <row r="439" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C439">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A440" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="B440" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C440">
+        <f t="shared" si="7"/>
         <v>77</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A440" s="1" t="s">
-        <v>922</v>
-      </c>
-      <c r="B440" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="C440">
-        <f t="shared" si="6"/>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="B441" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C441">
+        <f t="shared" si="7"/>
         <v>65</v>
-      </c>
-    </row>
-    <row r="441" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A441" s="1" t="s">
-        <v>923</v>
-      </c>
-      <c r="B441" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="C441">
-        <f t="shared" si="6"/>
-        <v>117</v>
       </c>
     </row>
     <row r="442" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C442">
-        <f t="shared" si="6"/>
-        <v>86</v>
+        <f t="shared" si="7"/>
+        <v>117</v>
       </c>
     </row>
     <row r="443" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C443">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>86</v>
       </c>
     </row>
     <row r="444" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C444">
-        <f t="shared" si="6"/>
-        <v>119</v>
+        <f t="shared" si="7"/>
+        <v>86</v>
       </c>
     </row>
     <row r="445" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C445">
-        <f t="shared" si="6"/>
-        <v>100</v>
+        <f t="shared" si="7"/>
+        <v>119</v>
       </c>
     </row>
     <row r="446" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C446">
-        <f t="shared" si="6"/>
-        <v>119</v>
+        <f t="shared" si="7"/>
+        <v>100</v>
       </c>
     </row>
     <row r="447" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C447">
-        <f t="shared" si="6"/>
-        <v>87</v>
+        <f t="shared" si="7"/>
+        <v>119</v>
       </c>
     </row>
     <row r="448" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C448">
-        <f t="shared" si="6"/>
-        <v>100</v>
+        <f t="shared" si="7"/>
+        <v>87</v>
       </c>
     </row>
     <row r="449" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C449">
-        <f t="shared" si="6"/>
-        <v>97</v>
+        <f t="shared" si="7"/>
+        <v>100</v>
       </c>
     </row>
     <row r="450" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C450">
-        <f t="shared" ref="C450:C513" si="7">LEN(B450)</f>
-        <v>108</v>
+        <f t="shared" si="7"/>
+        <v>97</v>
       </c>
     </row>
     <row r="451" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>1028</v>
+        <v>414</v>
       </c>
       <c r="C451">
-        <f t="shared" si="7"/>
-        <v>109</v>
-      </c>
-      <c r="D451">
-        <v>20170515</v>
-      </c>
-      <c r="E451" t="s">
-        <v>1031</v>
+        <f t="shared" ref="C451:C514" si="8">LEN(B451)</f>
+        <v>108</v>
       </c>
     </row>
     <row r="452" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>417</v>
+        <v>1026</v>
       </c>
       <c r="C452">
-        <f t="shared" si="7"/>
-        <v>116</v>
+        <f t="shared" si="8"/>
+        <v>109</v>
+      </c>
+      <c r="D452">
+        <v>20170515</v>
+      </c>
+      <c r="E452" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="453" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C453">
-        <f t="shared" si="7"/>
-        <v>79</v>
+        <f t="shared" si="8"/>
+        <v>116</v>
       </c>
     </row>
     <row r="454" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C454">
-        <f t="shared" si="7"/>
-        <v>88</v>
+        <f t="shared" si="8"/>
+        <v>79</v>
       </c>
     </row>
     <row r="455" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C455">
-        <f t="shared" si="7"/>
-        <v>104</v>
+        <f t="shared" si="8"/>
+        <v>88</v>
       </c>
     </row>
     <row r="456" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C456">
-        <f t="shared" si="7"/>
-        <v>95</v>
+        <f t="shared" si="8"/>
+        <v>104</v>
       </c>
     </row>
     <row r="457" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C457">
-        <f t="shared" si="7"/>
-        <v>85</v>
+        <f t="shared" si="8"/>
+        <v>95</v>
       </c>
     </row>
     <row r="458" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C458">
-        <f t="shared" si="7"/>
-        <v>102</v>
+        <f t="shared" si="8"/>
+        <v>85</v>
       </c>
     </row>
     <row r="459" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C459">
-        <f t="shared" si="7"/>
-        <v>96</v>
+        <f t="shared" si="8"/>
+        <v>102</v>
       </c>
     </row>
     <row r="460" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C460">
-        <f t="shared" si="7"/>
-        <v>114</v>
+        <f t="shared" si="8"/>
+        <v>96</v>
       </c>
     </row>
     <row r="461" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C461">
-        <f t="shared" si="7"/>
-        <v>95</v>
+        <f t="shared" si="8"/>
+        <v>114</v>
       </c>
     </row>
     <row r="462" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C462">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A463" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C463">
+        <f t="shared" si="8"/>
         <v>65</v>
       </c>
     </row>
-    <row r="463" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A463" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="B463" s="2" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C463">
-        <f t="shared" si="7"/>
+    <row r="464" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A464" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="B464" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C464">
+        <f t="shared" si="8"/>
         <v>123</v>
       </c>
-      <c r="D463">
+      <c r="D464">
         <v>20170515</v>
       </c>
-      <c r="E463" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="464" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A464" s="1" t="s">
-        <v>946</v>
-      </c>
-      <c r="B464" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="C464">
-        <f t="shared" si="7"/>
-        <v>85</v>
+      <c r="E464" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="465" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C465">
-        <f t="shared" si="7"/>
-        <v>99</v>
+        <f t="shared" si="8"/>
+        <v>85</v>
       </c>
     </row>
     <row r="466" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C466">
-        <f t="shared" si="7"/>
-        <v>108</v>
+        <f t="shared" si="8"/>
+        <v>99</v>
       </c>
     </row>
     <row r="467" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C467">
-        <f t="shared" si="7"/>
-        <v>118</v>
+        <f t="shared" si="8"/>
+        <v>108</v>
       </c>
     </row>
     <row r="468" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C468">
-        <f t="shared" si="7"/>
-        <v>93</v>
+        <f t="shared" si="8"/>
+        <v>118</v>
       </c>
     </row>
     <row r="469" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C469">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A470" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="B470" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C470">
+        <f t="shared" si="8"/>
         <v>114</v>
       </c>
     </row>
-    <row r="470" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A470" s="1" t="s">
-        <v>952</v>
-      </c>
-      <c r="B470" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="C470">
-        <f t="shared" si="7"/>
+    <row r="471" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A471" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C471">
+        <f t="shared" si="8"/>
         <v>132</v>
-      </c>
-    </row>
-    <row r="471" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A471" s="1" t="s">
-        <v>953</v>
-      </c>
-      <c r="B471" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="C471">
-        <f t="shared" si="7"/>
-        <v>118</v>
       </c>
     </row>
     <row r="472" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C472">
-        <f t="shared" si="7"/>
-        <v>115</v>
+        <f t="shared" si="8"/>
+        <v>118</v>
       </c>
     </row>
     <row r="473" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C473">
-        <f t="shared" si="7"/>
-        <v>95</v>
+        <f t="shared" si="8"/>
+        <v>115</v>
       </c>
     </row>
     <row r="474" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C474">
-        <f t="shared" si="7"/>
-        <v>91</v>
+        <f t="shared" si="8"/>
+        <v>95</v>
       </c>
     </row>
     <row r="475" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C475">
-        <f t="shared" si="7"/>
-        <v>84</v>
+        <f t="shared" si="8"/>
+        <v>91</v>
       </c>
     </row>
     <row r="476" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C476">
-        <f t="shared" si="7"/>
-        <v>106</v>
+        <f t="shared" si="8"/>
+        <v>84</v>
       </c>
     </row>
     <row r="477" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C477">
-        <f t="shared" si="7"/>
-        <v>112</v>
+        <f t="shared" si="8"/>
+        <v>106</v>
       </c>
     </row>
     <row r="478" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C478">
-        <f t="shared" si="7"/>
-        <v>91</v>
+        <f t="shared" si="8"/>
+        <v>112</v>
       </c>
     </row>
     <row r="479" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C479">
-        <f t="shared" si="7"/>
-        <v>92</v>
+        <f t="shared" si="8"/>
+        <v>91</v>
       </c>
     </row>
     <row r="480" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C480">
-        <f t="shared" si="7"/>
-        <v>71</v>
+        <f t="shared" si="8"/>
+        <v>92</v>
       </c>
     </row>
     <row r="481" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C481">
-        <f t="shared" si="7"/>
-        <v>98</v>
+        <f t="shared" si="8"/>
+        <v>71</v>
       </c>
     </row>
     <row r="482" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C482">
-        <f t="shared" si="7"/>
-        <v>94</v>
+        <f t="shared" si="8"/>
+        <v>98</v>
       </c>
     </row>
     <row r="483" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C483">
-        <f t="shared" si="7"/>
-        <v>102</v>
+        <f t="shared" si="8"/>
+        <v>94</v>
       </c>
     </row>
     <row r="484" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C484">
-        <f t="shared" si="7"/>
-        <v>71</v>
+        <f t="shared" si="8"/>
+        <v>102</v>
       </c>
     </row>
     <row r="485" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="B485" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C485">
+        <f t="shared" si="8"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A486" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="B486" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C486">
+        <f t="shared" si="8"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A487" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="B487" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C487">
+        <f t="shared" si="8"/>
+        <v>135</v>
+      </c>
+      <c r="D487">
+        <v>20170515</v>
+      </c>
+      <c r="E487" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A488" s="1" t="s">
         <v>967</v>
       </c>
-      <c r="B485" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="C485">
-        <f t="shared" si="7"/>
-        <v>117</v>
-      </c>
-    </row>
-    <row r="486" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A486" s="1" t="s">
-        <v>968</v>
-      </c>
-      <c r="B486" s="2" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C486">
-        <f t="shared" si="7"/>
-        <v>135</v>
-      </c>
-      <c r="D486">
-        <v>20170515</v>
-      </c>
-      <c r="E486" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A487" s="1" t="s">
-        <v>969</v>
-      </c>
-      <c r="B487" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="C487">
-        <f t="shared" si="7"/>
+      <c r="B488" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C488">
+        <f t="shared" si="8"/>
         <v>65</v>
-      </c>
-    </row>
-    <row r="488" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A488" s="1" t="s">
-        <v>970</v>
-      </c>
-      <c r="B488" s="2" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C488">
-        <f t="shared" si="7"/>
-        <v>134</v>
-      </c>
-      <c r="D488">
-        <v>20170920</v>
-      </c>
-      <c r="E488" t="s">
-        <v>1045</v>
       </c>
     </row>
     <row r="489" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>451</v>
+        <v>1042</v>
       </c>
       <c r="C489">
-        <f t="shared" si="7"/>
-        <v>117</v>
+        <f t="shared" si="8"/>
+        <v>134</v>
+      </c>
+      <c r="D489">
+        <v>20170920</v>
+      </c>
+      <c r="E489" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="490" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C490">
-        <f t="shared" si="7"/>
-        <v>119</v>
+        <f t="shared" si="8"/>
+        <v>117</v>
       </c>
     </row>
     <row r="491" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C491">
-        <f t="shared" si="7"/>
-        <v>99</v>
+        <f t="shared" si="8"/>
+        <v>119</v>
       </c>
     </row>
     <row r="492" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C492">
-        <f t="shared" si="7"/>
-        <v>89</v>
+        <f t="shared" si="8"/>
+        <v>99</v>
       </c>
     </row>
     <row r="493" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C493">
-        <f t="shared" si="7"/>
-        <v>103</v>
+        <f t="shared" si="8"/>
+        <v>89</v>
       </c>
     </row>
     <row r="494" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C494">
-        <f t="shared" si="7"/>
-        <v>92</v>
+        <f t="shared" si="8"/>
+        <v>103</v>
       </c>
     </row>
     <row r="495" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C495">
-        <f t="shared" si="7"/>
-        <v>75</v>
+        <f t="shared" si="8"/>
+        <v>92</v>
       </c>
     </row>
     <row r="496" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C496">
-        <f t="shared" si="7"/>
-        <v>105</v>
+        <f t="shared" si="8"/>
+        <v>75</v>
       </c>
     </row>
     <row r="497" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C497">
-        <f t="shared" si="7"/>
-        <v>98</v>
+        <f t="shared" si="8"/>
+        <v>105</v>
       </c>
     </row>
     <row r="498" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C498">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A499" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="B499" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C499">
+        <f t="shared" si="8"/>
         <v>115</v>
       </c>
     </row>
-    <row r="499" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A499" s="1" t="s">
-        <v>981</v>
-      </c>
-      <c r="B499" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C499">
-        <f t="shared" si="7"/>
+    <row r="500" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A500" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="B500" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C500">
+        <f t="shared" si="8"/>
         <v>136</v>
       </c>
-      <c r="D499">
+      <c r="D500">
         <v>20170515</v>
       </c>
-      <c r="E499" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="500" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A500" s="1" t="s">
-        <v>982</v>
-      </c>
-      <c r="B500" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="C500">
-        <f t="shared" si="7"/>
-        <v>80</v>
+      <c r="E500" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="501" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C501">
-        <f t="shared" si="7"/>
-        <v>97</v>
+        <f t="shared" si="8"/>
+        <v>80</v>
       </c>
     </row>
     <row r="502" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C502">
-        <f t="shared" si="7"/>
-        <v>98</v>
+        <f t="shared" si="8"/>
+        <v>97</v>
       </c>
     </row>
     <row r="503" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C503">
-        <f t="shared" si="7"/>
-        <v>116</v>
+        <f t="shared" si="8"/>
+        <v>98</v>
       </c>
     </row>
     <row r="504" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C504">
-        <f t="shared" si="7"/>
-        <v>113</v>
+        <f t="shared" si="8"/>
+        <v>116</v>
       </c>
     </row>
     <row r="505" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>1051</v>
+        <v>463</v>
       </c>
       <c r="C505">
-        <f t="shared" si="7"/>
-        <v>71</v>
-      </c>
-      <c r="D505">
-        <v>20180404</v>
-      </c>
-      <c r="E505" t="s">
-        <v>1050</v>
+        <f t="shared" si="8"/>
+        <v>113</v>
       </c>
     </row>
     <row r="506" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>466</v>
+        <v>1049</v>
       </c>
       <c r="C506">
-        <f t="shared" si="7"/>
-        <v>99</v>
+        <f t="shared" si="8"/>
+        <v>71</v>
+      </c>
+      <c r="D506">
+        <v>20180404</v>
+      </c>
+      <c r="E506" t="s">
+        <v>1048</v>
       </c>
     </row>
     <row r="507" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C507">
-        <f t="shared" si="7"/>
-        <v>84</v>
+        <f t="shared" si="8"/>
+        <v>99</v>
       </c>
     </row>
     <row r="508" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C508">
-        <f t="shared" si="7"/>
-        <v>96</v>
+        <f t="shared" si="8"/>
+        <v>84</v>
       </c>
     </row>
     <row r="509" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C509">
-        <f t="shared" si="7"/>
-        <v>108</v>
+        <f t="shared" si="8"/>
+        <v>96</v>
       </c>
     </row>
     <row r="510" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C510">
-        <f t="shared" si="7"/>
-        <v>64</v>
+        <f t="shared" si="8"/>
+        <v>108</v>
       </c>
     </row>
     <row r="511" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C511">
-        <f t="shared" si="7"/>
-        <v>117</v>
+        <f t="shared" si="8"/>
+        <v>64</v>
       </c>
     </row>
     <row r="512" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C512">
-        <f t="shared" si="7"/>
-        <v>96</v>
+        <f t="shared" si="8"/>
+        <v>117</v>
       </c>
     </row>
     <row r="513" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C513">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A514" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="B514" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C514">
+        <f t="shared" si="8"/>
         <v>74</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A514" s="1" t="s">
-        <v>996</v>
-      </c>
-      <c r="B514" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="C514">
-        <f t="shared" ref="C514:C530" si="8">LEN(B514)</f>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A515" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="B515" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C515">
+        <f t="shared" ref="C515:C531" si="9">LEN(B515)</f>
         <v>56</v>
-      </c>
-    </row>
-    <row r="515" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A515" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="B515" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="C515">
-        <f t="shared" si="8"/>
-        <v>112</v>
       </c>
     </row>
     <row r="516" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C516">
-        <f t="shared" si="8"/>
-        <v>105</v>
+        <f t="shared" si="9"/>
+        <v>112</v>
       </c>
     </row>
     <row r="517" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C517">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A518" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="B518" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C518">
+        <f t="shared" si="9"/>
         <v>112</v>
       </c>
     </row>
-    <row r="518" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A518" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B518" s="2" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C518">
-        <f t="shared" si="8"/>
+    <row r="519" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A519" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="B519" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C519">
+        <f t="shared" si="9"/>
         <v>116</v>
       </c>
-      <c r="D518">
+      <c r="D519">
         <v>20180404</v>
       </c>
-      <c r="E518" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="519" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A519" s="1" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B519" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="C519">
-        <f t="shared" si="8"/>
-        <v>106</v>
+      <c r="E519" t="s">
+        <v>1048</v>
       </c>
     </row>
     <row r="520" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C520">
-        <f t="shared" si="8"/>
-        <v>135</v>
+        <f t="shared" si="9"/>
+        <v>106</v>
       </c>
     </row>
     <row r="521" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C521">
-        <f t="shared" si="8"/>
-        <v>85</v>
+        <f t="shared" si="9"/>
+        <v>135</v>
       </c>
     </row>
     <row r="522" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C522">
-        <f t="shared" si="8"/>
-        <v>111</v>
+        <f t="shared" si="9"/>
+        <v>85</v>
       </c>
     </row>
     <row r="523" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C523">
-        <f t="shared" si="8"/>
-        <v>86</v>
+        <f t="shared" si="9"/>
+        <v>111</v>
       </c>
     </row>
     <row r="524" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C524">
-        <f t="shared" si="8"/>
-        <v>104</v>
+        <f t="shared" si="9"/>
+        <v>86</v>
       </c>
     </row>
     <row r="525" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C525">
-        <f t="shared" si="8"/>
-        <v>106</v>
+        <f t="shared" si="9"/>
+        <v>104</v>
       </c>
     </row>
     <row r="526" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C526">
-        <f t="shared" si="8"/>
-        <v>83</v>
+        <f t="shared" si="9"/>
+        <v>106</v>
       </c>
     </row>
     <row r="527" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C527">
-        <f t="shared" si="8"/>
-        <v>101</v>
+        <f t="shared" si="9"/>
+        <v>83</v>
       </c>
     </row>
     <row r="528" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C528">
-        <f t="shared" si="8"/>
-        <v>115</v>
+        <f t="shared" si="9"/>
+        <v>101</v>
       </c>
     </row>
     <row r="529" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C529">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A530" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B530" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C530">
+        <f t="shared" si="9"/>
         <v>87</v>
       </c>
     </row>
-    <row r="530" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A530" s="1" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B530" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="C530">
-        <f t="shared" si="8"/>
+    <row r="531" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A531" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B531" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C531">
+        <f t="shared" si="9"/>
         <v>119</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A531" s="1" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B531" s="2" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C531">
-        <f t="shared" ref="C531" si="9">LEN(B531)</f>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A532" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B532" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C532">
+        <f t="shared" ref="C532" si="10">LEN(B532)</f>
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="C1:C530">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
+  <conditionalFormatting sqref="C1:C112 C114:C531">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>140</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C531">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="C532">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+      <formula>140</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C113">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>140</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tweetlist.xlsx
+++ b/tweetlist.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="1068">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="1066">
   <si>
     <t>【今日の人工衛星】1/1 1990年：JCSAT-2 日本のJSAT(現・スカパーJSAT)保有の通信衛星。タイタンIIIロケットで打上、東経154度からサービスを提供。現在は寿命が切れている。</t>
   </si>
@@ -3580,14 +3580,6 @@
     <rPh sb="3" eb="5">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>04/05 22:19:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>test</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3971,27 +3963,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -4288,10 +4260,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E532"/>
+  <dimension ref="A1:E531"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+    <sheetView tabSelected="1" topLeftCell="A524" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B529" sqref="B529"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -4558,7 +4530,7 @@
         <v>509</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -4568,7 +4540,7 @@
         <v>20180404</v>
       </c>
       <c r="E22" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -4912,7 +4884,7 @@
         <v>538</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
@@ -5380,7 +5352,7 @@
         <v>576</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="C89">
         <f t="shared" si="1"/>
@@ -5390,7 +5362,7 @@
         <v>20180404</v>
       </c>
       <c r="E89" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -5662,7 +5634,7 @@
         <v>599</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="C112">
         <f t="shared" si="1"/>
@@ -5671,10 +5643,10 @@
     </row>
     <row r="113" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>1065</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>1067</v>
       </c>
       <c r="C113">
         <f t="shared" ref="C113" si="2">LEN(B113)</f>
@@ -5686,7 +5658,7 @@
         <v>600</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C114">
         <f t="shared" si="1"/>
@@ -5920,7 +5892,7 @@
         <v>615</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="C132">
         <f t="shared" si="3"/>
@@ -5930,7 +5902,7 @@
         <v>20180404</v>
       </c>
       <c r="E132" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -5980,7 +5952,7 @@
         <v>619</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="C136">
         <f t="shared" si="3"/>
@@ -5990,7 +5962,7 @@
         <v>20180404</v>
       </c>
       <c r="E136" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -6718,7 +6690,7 @@
         <v>678</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="C195">
         <f t="shared" ref="C195:C258" si="4">LEN(B195)</f>
@@ -6728,7 +6700,7 @@
         <v>20180427</v>
       </c>
       <c r="E195" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -6784,7 +6756,7 @@
         <v>683</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C200">
         <f t="shared" si="4"/>
@@ -7390,7 +7362,7 @@
         <v>733</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="C250">
         <f t="shared" si="4"/>
@@ -7486,7 +7458,7 @@
         <v>740</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="C257">
         <f t="shared" si="4"/>
@@ -7504,7 +7476,7 @@
         <v>741</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="C258">
         <f t="shared" si="4"/>
@@ -7522,7 +7494,7 @@
         <v>742</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="C259">
         <f t="shared" ref="C259:C322" si="5">LEN(B259)</f>
@@ -7540,7 +7512,7 @@
         <v>743</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="C260">
         <f t="shared" si="5"/>
@@ -10582,7 +10554,7 @@
         <v>985</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="C506">
         <f t="shared" si="8"/>
@@ -10592,7 +10564,7 @@
         <v>20180404</v>
       </c>
       <c r="E506" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="507" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -10744,7 +10716,7 @@
         <v>998</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="C519">
         <f t="shared" si="9"/>
@@ -10754,7 +10726,7 @@
         <v>20180404</v>
       </c>
       <c r="E519" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="520" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -10901,32 +10873,15 @@
         <v>119</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A532" s="1" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B532" s="2" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C532">
-        <f t="shared" ref="C532" si="10">LEN(B532)</f>
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C1:C112 C114:C531">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
-      <formula>140</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C532">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
       <formula>140</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C113">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>140</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tweetlist.xlsx
+++ b/tweetlist.xlsx
@@ -3846,23 +3846,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">【お帰りはやぶさ・帰還8周年】6/9 12:30-15:00 最後の軌道修正となるTCM-4完了。4/4-6、5/1-4、5/23-27、6/3-5とあわせ5回の軌道修正でオーストラリア・ウーメラ砂漠の着陸地点へ誘導完了 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">【お帰りはやぶさ・帰還8周年】6/13 19:54 イトカワのサンプルを格納したカプセルの切り離しに成功 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">【お帰りはやぶさ・帰還8周年】6/13 22:51 はやぶさ、地球大気圏再突入。22:56にカプセルからパラシュートが展開され、23:08に着陸を果たした。 </t>
-  </si>
-  <si>
-    <t>【お帰りはやぶさ・帰還8周年】6/13 22:02 はやぶさ、最後の地球撮影。この写真 http://www.isas.jaxa.jp/j/topics/topics/2010/0618_3.shtml を内之浦局に送信中に、内之浦の水平線の向こう側に入り通信途絶(22:28)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">【お帰りはやぶさ・帰還8周年】6/13 22:28 はやぶさ、内之浦局の観測圏外になり通信途絶。最後の信号はhttp://hayabusa.jaxa.jp/message/message_049.htmlに掲載されている </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>【今日の人工衛星】2/23 1977年：きく2号 日本初の静止衛星。きくシリーズは技術試験衛星。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3900,6 +3883,26 @@
     <rPh sb="97" eb="99">
       <t>テイシ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【お帰りはやぶさ・帰還10周年】6/9 12:30-15:00 最後の軌道修正となるTCM-4完了。4/4-6、5/1-4、5/23-27、6/3-5とあわせ5回の軌道修正でオーストラリア・ウーメラ砂漠の着陸地点へ誘導完了 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【お帰りはやぶさ・帰還9周年】6/13 19:54 イトカワのサンプルを格納したカプセルの切り離しに成功 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【お帰りはやぶさ・帰還9周年】6/13 22:02 はやぶさ、最後の地球撮影。この写真 http://www.isas.jaxa.jp/j/topics/topics/2010/0618_3.shtml を内之浦局に送信中に、内之浦の水平線の向こう側に入り通信途絶(22:28)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【お帰りはやぶさ・帰還9周年】6/13 22:28 はやぶさ、内之浦局の観測圏外になり通信途絶。最後の信号はhttp://hayabusa.jaxa.jp/message/message_049.htmlに掲載されている </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【お帰りはやぶさ・帰還9周年】6/13 22:51 はやぶさ、地球大気圏再突入。22:56にカプセルからパラシュートが展開され、23:08に着陸を果たした。 </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4262,8 +4265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E531"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A524" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B529" sqref="B529"/>
+    <sheetView tabSelected="1" topLeftCell="A247" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B261" sqref="B261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -5634,7 +5637,7 @@
         <v>599</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="C112">
         <f t="shared" si="1"/>
@@ -5643,10 +5646,10 @@
     </row>
     <row r="113" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="C113">
         <f t="shared" ref="C113" si="2">LEN(B113)</f>
@@ -5658,7 +5661,7 @@
         <v>600</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="C114">
         <f t="shared" si="1"/>
@@ -7362,14 +7365,14 @@
         <v>733</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>1057</v>
+        <v>1061</v>
       </c>
       <c r="C250">
         <f t="shared" si="4"/>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D250">
-        <v>20180608</v>
+        <v>20190610</v>
       </c>
       <c r="E250" t="s">
         <v>1029</v>
@@ -7458,14 +7461,14 @@
         <v>740</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>1058</v>
+        <v>1062</v>
       </c>
       <c r="C257">
         <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="D257">
-        <v>20180608</v>
+        <v>20190610</v>
       </c>
       <c r="E257" t="s">
         <v>1029</v>
@@ -7476,14 +7479,14 @@
         <v>741</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="C258">
         <f t="shared" si="4"/>
         <v>139</v>
       </c>
       <c r="D258">
-        <v>20180608</v>
+        <v>20190610</v>
       </c>
       <c r="E258" t="s">
         <v>1029</v>
@@ -7494,14 +7497,14 @@
         <v>742</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="C259">
         <f t="shared" ref="C259:C322" si="5">LEN(B259)</f>
         <v>111</v>
       </c>
       <c r="D259">
-        <v>20180608</v>
+        <v>20190610</v>
       </c>
       <c r="E259" t="s">
         <v>1029</v>
@@ -7512,14 +7515,14 @@
         <v>743</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="C260">
         <f t="shared" si="5"/>
         <v>79</v>
       </c>
       <c r="D260">
-        <v>20180608</v>
+        <v>20190610</v>
       </c>
       <c r="E260" t="s">
         <v>1029</v>

--- a/tweetlist.xlsx
+++ b/tweetlist.xlsx
@@ -3890,19 +3890,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">【お帰りはやぶさ・帰還9周年】6/13 19:54 イトカワのサンプルを格納したカプセルの切り離しに成功 </t>
+    <t xml:space="preserve">【お帰りはやぶさ・帰還10周年】6/13 19:54 イトカワのサンプルを格納したカプセルの切り離しに成功 </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【お帰りはやぶさ・帰還9周年】6/13 22:02 はやぶさ、最後の地球撮影。この写真 http://www.isas.jaxa.jp/j/topics/topics/2010/0618_3.shtml を内之浦局に送信中に、内之浦の水平線の向こう側に入り通信途絶(22:28)</t>
+    <t>【お帰りはやぶさ・帰還10周年】6/13 22:02 はやぶさ、最後の地球撮影。この写真 http://www.isas.jaxa.jp/j/topics/topics/2010/0618_3.shtml を内之浦局に送信中に、内之浦の水平線の向こう側に入り通信途絶(22:28)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">【お帰りはやぶさ・帰還9周年】6/13 22:28 はやぶさ、内之浦局の観測圏外になり通信途絶。最後の信号はhttp://hayabusa.jaxa.jp/message/message_049.htmlに掲載されている </t>
+    <t xml:space="preserve">【お帰りはやぶさ・帰還10周年】6/13 22:28 はやぶさ、内之浦局の観測圏外になり通信途絶。最後の信号はhttp://hayabusa.jaxa.jp/message/message_049.htmlに掲載されている </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">【お帰りはやぶさ・帰還9周年】6/13 22:51 はやぶさ、地球大気圏再突入。22:56にカプセルからパラシュートが展開され、23:08に着陸を果たした。 </t>
+    <t xml:space="preserve">【お帰りはやぶさ・帰還10周年】6/13 22:51 はやぶさ、地球大気圏再突入。22:56にカプセルからパラシュートが展開され、23:08に着陸を果たした。 </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4265,8 +4265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E531"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B261" sqref="B261"/>
+    <sheetView tabSelected="1" topLeftCell="A190" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B206" sqref="B206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -7465,7 +7465,7 @@
       </c>
       <c r="C257">
         <f t="shared" si="4"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D257">
         <v>20190610</v>
@@ -7483,7 +7483,7 @@
       </c>
       <c r="C258">
         <f t="shared" si="4"/>
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D258">
         <v>20190610</v>
@@ -7501,7 +7501,7 @@
       </c>
       <c r="C259">
         <f t="shared" ref="C259:C322" si="5">LEN(B259)</f>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D259">
         <v>20190610</v>
@@ -7519,7 +7519,7 @@
       </c>
       <c r="C260">
         <f t="shared" si="5"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D260">
         <v>20190610</v>

--- a/tweetlist.xlsx
+++ b/tweetlist.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\BRUNHILD\home\opt\todayssatellite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\GitHub\todayssatellite\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11258"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11265"/>
   </bookViews>
   <sheets>
     <sheet name="todayssatellite" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">todayssatellite!$A$1:$C$531</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">todayssatellite!$A$1:$C$532</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="1066">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="1069">
   <si>
     <t>【今日の人工衛星】1/1 1990年：JCSAT-2 日本のJSAT(現・スカパーJSAT)保有の通信衛星。タイタンIIIロケットで打上、東経154度からサービスを提供。現在は寿命が切れている。</t>
   </si>
@@ -1389,9 +1389,6 @@
   </si>
   <si>
     <t>【今日の人工衛星】12/2 1990年：ソユーズTM-11 TBS所属の秋山豊寛飛行士が日本人として初めて宇宙を訪れた。ちなみに秋山飛行士が帰還したのは先にミールにドッキングしていたソユーズTM-10である</t>
-  </si>
-  <si>
-    <t>【今日の人工衛星】12/3(日本時間) 1997年：JCSAT-1B 日本のJSAT(現・スカパーJSAT)が打ち上げた通信衛星。アリアン4ロケットで打ち上げられ、現在も運用中である。</t>
   </si>
   <si>
     <t>【今日の人工衛星】12/4 1996年：マーズ・パスファインダー アメリカの火星探査機。着陸の衝撃をエアバックで緩和するという独特の着陸方式を用いた。</t>
@@ -3886,23 +3883,93 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">【お帰りはやぶさ・帰還10周年】6/9 12:30-15:00 最後の軌道修正となるTCM-4完了。4/4-6、5/1-4、5/23-27、6/3-5とあわせ5回の軌道修正でオーストラリア・ウーメラ砂漠の着陸地点へ誘導完了 </t>
+    <t xml:space="preserve">【お帰りはやぶさ・帰還11周年】6/9 12:30-15:00 最後の軌道修正となるTCM-4完了。4/4-6、5/1-4、5/23-27、6/3-5とあわせ5回の軌道修正でオーストラリア・ウーメラ砂漠の着陸地点へ誘導完了 </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">【お帰りはやぶさ・帰還10周年】6/13 19:54 イトカワのサンプルを格納したカプセルの切り離しに成功 </t>
+    <t xml:space="preserve">【お帰りはやぶさ・帰還11周年】6/13 19:54 イトカワのサンプルを格納したカプセルの切り離しに成功 </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【お帰りはやぶさ・帰還10周年】6/13 22:02 はやぶさ、最後の地球撮影。この写真 http://www.isas.jaxa.jp/j/topics/topics/2010/0618_3.shtml を内之浦局に送信中に、内之浦の水平線の向こう側に入り通信途絶(22:28)</t>
+    <t>【お帰りはやぶさ・帰還11周年】6/13 22:02 はやぶさ、最後の地球撮影。この写真 http://www.isas.jaxa.jp/j/topics/topics/2010/0618_3.shtml を内之浦局に送信中に、内之浦の水平線の向こう側に入り通信途絶(22:28)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">【お帰りはやぶさ・帰還10周年】6/13 22:28 はやぶさ、内之浦局の観測圏外になり通信途絶。最後の信号はhttp://hayabusa.jaxa.jp/message/message_049.htmlに掲載されている </t>
+    <t xml:space="preserve">【お帰りはやぶさ・帰還11周年】6/13 22:28 はやぶさ、内之浦局の観測圏外になり通信途絶。最後の信号はhttp://hayabusa.jaxa.jp/message/message_049.htmlに掲載されている </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">【お帰りはやぶさ・帰還10周年】6/13 22:51 はやぶさ、地球大気圏再突入。22:56にカプセルからパラシュートが展開され、23:08に着陸を果たした。 </t>
+    <t xml:space="preserve">【お帰りはやぶさ・帰還11周年】6/13 22:51 はやぶさ、地球大気圏再突入。22:56にカプセルからパラシュートが展開され、23:08に着陸を果たした。 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12/03 07:01:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【今日の人工衛星】12/3(日本時間) 1997年：JCSAT-1B 日本のJSAT(現・スカパーJSAT)が打ち上げた通信衛星。アリアン4ロケットで打ち上げられ、現在も運用中である。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【今日の人工衛星】12/3 2014年：はやぶさ2 小惑星探査機。「はやぶさ」後継機として小惑星1999 JU3(打ち上げ後にリュウグウと命名)と往復、2020年12月6日にサンプルリターンに成功。小惑星1998KY26を目指す拡張ミッションを実施中</t>
+    <rPh sb="26" eb="29">
+      <t>ショウワクセイ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>タンサキ</t>
+    </rPh>
+    <rPh sb="39" eb="42">
+      <t>コウケイキ</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>ショウワクセイ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>メイメイ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>オウフク</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="99" eb="102">
+      <t>ショウワクセイ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>メザ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>カクチョウ</t>
+    </rPh>
+    <rPh sb="122" eb="125">
+      <t>ジッシチュウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3966,7 +4033,27 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -4263,22 +4350,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E531"/>
+  <dimension ref="A1:G532"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B206" sqref="B206"/>
+    <sheetView tabSelected="1" topLeftCell="A491" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B495" sqref="B495"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="97.3984375" customWidth="1"/>
-    <col min="4" max="4" width="9.06640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="97.375" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -4288,9 +4375,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -4300,9 +4387,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -4312,9 +4399,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -4324,9 +4411,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -4336,9 +4423,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
@@ -4348,9 +4435,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
@@ -4360,9 +4447,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
@@ -4372,9 +4459,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>8</v>
@@ -4384,9 +4471,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -4396,9 +4483,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>10</v>
@@ -4408,9 +4495,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
@@ -4420,9 +4507,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
@@ -4432,9 +4519,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>13</v>
@@ -4444,9 +4531,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>14</v>
@@ -4456,9 +4543,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>15</v>
@@ -4468,9 +4555,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>16</v>
@@ -4480,9 +4567,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>17</v>
@@ -4492,9 +4579,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>18</v>
@@ -4504,9 +4591,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>19</v>
@@ -4516,9 +4603,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>20</v>
@@ -4528,12 +4615,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -4543,12 +4630,12 @@
         <v>20180404</v>
       </c>
       <c r="E22" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>21</v>
@@ -4558,9 +4645,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>22</v>
@@ -4570,9 +4657,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>23</v>
@@ -4582,9 +4669,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>24</v>
@@ -4594,9 +4681,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>25</v>
@@ -4606,9 +4693,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>26</v>
@@ -4618,9 +4705,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>27</v>
@@ -4630,9 +4717,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>28</v>
@@ -4642,9 +4729,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>29</v>
@@ -4654,9 +4741,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>30</v>
@@ -4666,9 +4753,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>31</v>
@@ -4678,9 +4765,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>32</v>
@@ -4690,9 +4777,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>33</v>
@@ -4702,9 +4789,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>34</v>
@@ -4714,9 +4801,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>35</v>
@@ -4726,9 +4813,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>36</v>
@@ -4738,9 +4825,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>37</v>
@@ -4750,9 +4837,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>38</v>
@@ -4762,9 +4849,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>39</v>
@@ -4774,9 +4861,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>40</v>
@@ -4786,9 +4873,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>41</v>
@@ -4798,9 +4885,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>42</v>
@@ -4810,9 +4897,9 @@
         <v>129</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>43</v>
@@ -4822,9 +4909,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>44</v>
@@ -4834,9 +4921,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>45</v>
@@ -4846,9 +4933,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>46</v>
@@ -4858,9 +4945,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>47</v>
@@ -4870,9 +4957,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>48</v>
@@ -4882,12 +4969,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
@@ -4897,12 +4984,12 @@
         <v>20180404</v>
       </c>
       <c r="E51" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>49</v>
@@ -4912,9 +4999,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>50</v>
@@ -4924,9 +5011,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>51</v>
@@ -4936,9 +5023,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>52</v>
@@ -4948,9 +5035,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>53</v>
@@ -4960,9 +5047,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>54</v>
@@ -4972,9 +5059,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>55</v>
@@ -4984,9 +5071,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>56</v>
@@ -4996,9 +5083,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>57</v>
@@ -5008,9 +5095,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>58</v>
@@ -5020,9 +5107,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>59</v>
@@ -5032,9 +5119,9 @@
         <v>134</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>60</v>
@@ -5044,9 +5131,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>61</v>
@@ -5056,9 +5143,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>62</v>
@@ -5068,9 +5155,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>63</v>
@@ -5080,9 +5167,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>64</v>
@@ -5092,9 +5179,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>65</v>
@@ -5104,9 +5191,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>66</v>
@@ -5116,9 +5203,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>67</v>
@@ -5128,9 +5215,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>68</v>
@@ -5140,9 +5227,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>69</v>
@@ -5152,9 +5239,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>70</v>
@@ -5164,9 +5251,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>71</v>
@@ -5176,9 +5263,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>72</v>
@@ -5188,9 +5275,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>73</v>
@@ -5200,9 +5287,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>74</v>
@@ -5212,9 +5299,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>75</v>
@@ -5224,9 +5311,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>76</v>
@@ -5236,9 +5323,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>77</v>
@@ -5248,9 +5335,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>78</v>
@@ -5260,9 +5347,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>79</v>
@@ -5272,12 +5359,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C83">
         <f t="shared" si="1"/>
@@ -5287,12 +5374,12 @@
         <v>20170515</v>
       </c>
       <c r="E83" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>80</v>
@@ -5302,9 +5389,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>81</v>
@@ -5314,9 +5401,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>82</v>
@@ -5326,9 +5413,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>83</v>
@@ -5338,9 +5425,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>84</v>
@@ -5350,12 +5437,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C89">
         <f t="shared" si="1"/>
@@ -5365,12 +5452,12 @@
         <v>20180404</v>
       </c>
       <c r="E89" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>85</v>
@@ -5380,9 +5467,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>86</v>
@@ -5392,9 +5479,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>87</v>
@@ -5404,9 +5491,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>88</v>
@@ -5416,9 +5503,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>89</v>
@@ -5428,9 +5515,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>90</v>
@@ -5440,9 +5527,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>91</v>
@@ -5452,9 +5539,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>92</v>
@@ -5464,9 +5551,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>93</v>
@@ -5476,9 +5563,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>94</v>
@@ -5488,9 +5575,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>95</v>
@@ -5500,9 +5587,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>96</v>
@@ -5512,9 +5599,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>97</v>
@@ -5524,9 +5611,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>98</v>
@@ -5536,9 +5623,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>99</v>
@@ -5548,9 +5635,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>100</v>
@@ -5560,9 +5647,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>101</v>
@@ -5572,9 +5659,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>102</v>
@@ -5584,9 +5671,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>103</v>
@@ -5596,9 +5683,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>104</v>
@@ -5608,9 +5695,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>105</v>
@@ -5620,9 +5707,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>106</v>
@@ -5632,45 +5719,45 @@
         <v>47</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C112">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C113">
         <f t="shared" ref="C113" si="2">LEN(B113)</f>
         <v>125</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C114">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>107</v>
@@ -5680,9 +5767,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>108</v>
@@ -5692,9 +5779,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>109</v>
@@ -5704,9 +5791,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>110</v>
@@ -5716,9 +5803,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>111</v>
@@ -5728,9 +5815,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>112</v>
@@ -5740,9 +5827,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>113</v>
@@ -5752,9 +5839,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>114</v>
@@ -5764,9 +5851,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>115</v>
@@ -5776,12 +5863,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>1030</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>1031</v>
       </c>
       <c r="C124">
         <f t="shared" si="1"/>
@@ -5791,12 +5878,12 @@
         <v>20170515</v>
       </c>
       <c r="E124" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>116</v>
@@ -5806,12 +5893,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C126">
         <f t="shared" si="1"/>
@@ -5821,10 +5908,10 @@
         <v>20170515</v>
       </c>
       <c r="E126" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
         <v>117</v>
       </c>
@@ -5836,7 +5923,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
         <v>119</v>
       </c>
@@ -5848,9 +5935,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>121</v>
@@ -5860,12 +5947,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C130">
         <f t="shared" si="1"/>
@@ -5875,12 +5962,12 @@
         <v>20170515</v>
       </c>
       <c r="E130" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>122</v>
@@ -5890,12 +5977,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C132">
         <f t="shared" si="3"/>
@@ -5905,12 +5992,12 @@
         <v>20180404</v>
       </c>
       <c r="E132" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>123</v>
@@ -5920,9 +6007,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>124</v>
@@ -5932,12 +6019,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C135">
         <f t="shared" si="3"/>
@@ -5947,15 +6034,15 @@
         <v>20170515</v>
       </c>
       <c r="E135" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C136">
         <f t="shared" si="3"/>
@@ -5965,15 +6052,15 @@
         <v>20180404</v>
       </c>
       <c r="E136" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C137">
         <f t="shared" si="3"/>
@@ -5983,12 +6070,12 @@
         <v>20170515</v>
       </c>
       <c r="E137" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>125</v>
@@ -5998,9 +6085,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>126</v>
@@ -6010,9 +6097,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>127</v>
@@ -6022,9 +6109,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A141" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>128</v>
@@ -6034,9 +6121,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>129</v>
@@ -6046,9 +6133,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A143" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>130</v>
@@ -6058,9 +6145,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A144" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>131</v>
@@ -6070,9 +6157,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>132</v>
@@ -6082,9 +6169,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>133</v>
@@ -6094,9 +6181,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A147" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>134</v>
@@ -6106,9 +6193,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A148" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>135</v>
@@ -6118,9 +6205,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A149" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>136</v>
@@ -6130,9 +6217,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A150" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>137</v>
@@ -6142,9 +6229,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A151" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>138</v>
@@ -6154,21 +6241,21 @@
         <v>110</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A152" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C152">
         <f t="shared" si="3"/>
         <v>119</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A153" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>139</v>
@@ -6178,9 +6265,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A154" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>140</v>
@@ -6190,9 +6277,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A155" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>141</v>
@@ -6202,9 +6289,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A156" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>142</v>
@@ -6214,9 +6301,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A157" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>143</v>
@@ -6226,9 +6313,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A158" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>144</v>
@@ -6238,9 +6325,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A159" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>145</v>
@@ -6250,12 +6337,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A160" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C160">
         <f t="shared" si="3"/>
@@ -6265,12 +6352,12 @@
         <v>20170515</v>
       </c>
       <c r="E160" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A161" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>146</v>
@@ -6280,9 +6367,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A162" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>147</v>
@@ -6292,9 +6379,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A163" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>148</v>
@@ -6304,9 +6391,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A164" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>149</v>
@@ -6316,9 +6403,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A165" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>150</v>
@@ -6328,9 +6415,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A166" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>151</v>
@@ -6340,9 +6427,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A167" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>152</v>
@@ -6352,9 +6439,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A168" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>153</v>
@@ -6364,9 +6451,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A169" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>154</v>
@@ -6376,9 +6463,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A170" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>155</v>
@@ -6388,9 +6475,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A171" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>156</v>
@@ -6400,9 +6487,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A172" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>157</v>
@@ -6412,9 +6499,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A173" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>158</v>
@@ -6424,12 +6511,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A174" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C174">
         <f t="shared" si="3"/>
@@ -6439,12 +6526,12 @@
         <v>20170515</v>
       </c>
       <c r="E174" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A175" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>159</v>
@@ -6454,9 +6541,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A176" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>160</v>
@@ -6466,9 +6553,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A177" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>161</v>
@@ -6478,9 +6565,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A178" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>162</v>
@@ -6490,9 +6577,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A179" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>163</v>
@@ -6502,9 +6589,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A180" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>164</v>
@@ -6514,9 +6601,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A181" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>165</v>
@@ -6526,9 +6613,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A182" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>166</v>
@@ -6538,9 +6625,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A183" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>167</v>
@@ -6550,9 +6637,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A184" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>168</v>
@@ -6562,9 +6649,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A185" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>169</v>
@@ -6574,9 +6661,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A186" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>170</v>
@@ -6586,9 +6673,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A187" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>171</v>
@@ -6598,9 +6685,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A188" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>172</v>
@@ -6610,9 +6697,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A189" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>173</v>
@@ -6622,9 +6709,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A190" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>174</v>
@@ -6634,9 +6721,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A191" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>175</v>
@@ -6646,9 +6733,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A192" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>176</v>
@@ -6658,9 +6745,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A193" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>177</v>
@@ -6670,9 +6757,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A194" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>178</v>
@@ -6685,15 +6772,15 @@
         <v>20170515</v>
       </c>
       <c r="E194" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A195" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C195">
         <f t="shared" ref="C195:C258" si="4">LEN(B195)</f>
@@ -6703,12 +6790,12 @@
         <v>20180427</v>
       </c>
       <c r="E195" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A196" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>179</v>
@@ -6718,9 +6805,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A197" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>180</v>
@@ -6730,9 +6817,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A198" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>181</v>
@@ -6742,9 +6829,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A199" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>182</v>
@@ -6754,21 +6841,21 @@
         <v>82</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A200" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C200">
         <f t="shared" si="4"/>
         <v>130</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A201" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>183</v>
@@ -6778,9 +6865,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A202" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>184</v>
@@ -6790,9 +6877,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A203" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>185</v>
@@ -6802,9 +6889,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A204" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>186</v>
@@ -6814,9 +6901,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A205" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>187</v>
@@ -6826,9 +6913,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A206" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>188</v>
@@ -6838,9 +6925,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A207" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>189</v>
@@ -6850,9 +6937,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A208" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>190</v>
@@ -6862,9 +6949,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A209" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>191</v>
@@ -6874,9 +6961,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A210" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>192</v>
@@ -6886,9 +6973,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A211" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>193</v>
@@ -6898,9 +6985,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A212" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>194</v>
@@ -6910,9 +6997,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A213" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>195</v>
@@ -6922,9 +7009,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A214" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>196</v>
@@ -6934,9 +7021,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A215" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>197</v>
@@ -6946,9 +7033,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A216" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>198</v>
@@ -6958,9 +7045,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A217" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>199</v>
@@ -6970,9 +7057,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A218" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>200</v>
@@ -6982,12 +7069,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A219" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C219">
         <f t="shared" si="4"/>
@@ -6997,12 +7084,12 @@
         <v>20170520</v>
       </c>
       <c r="E219" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A220" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>201</v>
@@ -7012,9 +7099,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A221" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>202</v>
@@ -7024,9 +7111,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A222" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>203</v>
@@ -7036,9 +7123,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A223" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>204</v>
@@ -7048,9 +7135,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A224" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>205</v>
@@ -7060,9 +7147,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A225" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>206</v>
@@ -7072,9 +7159,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A226" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>207</v>
@@ -7084,9 +7171,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A227" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>208</v>
@@ -7096,9 +7183,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A228" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>209</v>
@@ -7108,9 +7195,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A229" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>210</v>
@@ -7120,9 +7207,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A230" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>211</v>
@@ -7132,9 +7219,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A231" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>212</v>
@@ -7144,9 +7231,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A232" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>213</v>
@@ -7156,9 +7243,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A233" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>214</v>
@@ -7168,9 +7255,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A234" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>215</v>
@@ -7180,9 +7267,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A235" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>216</v>
@@ -7192,9 +7279,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A236" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>217</v>
@@ -7204,9 +7291,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A237" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>218</v>
@@ -7216,9 +7303,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A238" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>219</v>
@@ -7228,9 +7315,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A239" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>220</v>
@@ -7240,9 +7327,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A240" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>221</v>
@@ -7252,9 +7339,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A241" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>222</v>
@@ -7264,9 +7351,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A242" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>223</v>
@@ -7276,9 +7363,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A243" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>224</v>
@@ -7288,9 +7375,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A244" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>225</v>
@@ -7300,9 +7387,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A245" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>226</v>
@@ -7312,9 +7399,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A246" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>227</v>
@@ -7324,9 +7411,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A247" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>228</v>
@@ -7336,9 +7423,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A248" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>229</v>
@@ -7348,9 +7435,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A249" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>230</v>
@@ -7360,27 +7447,27 @@
         <v>101</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A250" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C250">
         <f t="shared" si="4"/>
         <v>112</v>
       </c>
       <c r="D250">
-        <v>20190610</v>
+        <v>20210217</v>
       </c>
       <c r="E250" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A251" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>231</v>
@@ -7390,9 +7477,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A252" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>232</v>
@@ -7402,9 +7489,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A253" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>233</v>
@@ -7414,9 +7501,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A254" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>234</v>
@@ -7426,12 +7513,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A255" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C255">
         <f t="shared" si="4"/>
@@ -7441,12 +7528,12 @@
         <v>20170515</v>
       </c>
       <c r="E255" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A256" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>235</v>
@@ -7456,81 +7543,81 @@
         <v>110</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A257" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C257">
         <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="D257">
-        <v>20190610</v>
+        <v>20210217</v>
       </c>
       <c r="E257" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A258" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C258">
         <f t="shared" si="4"/>
         <v>140</v>
       </c>
       <c r="D258">
-        <v>20190610</v>
+        <v>20210217</v>
       </c>
       <c r="E258" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A259" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C259">
         <f t="shared" ref="C259:C322" si="5">LEN(B259)</f>
         <v>112</v>
       </c>
       <c r="D259">
-        <v>20190610</v>
+        <v>20210217</v>
       </c>
       <c r="E259" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A260" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C260">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="D260">
-        <v>20190610</v>
+        <v>20210217</v>
       </c>
       <c r="E260" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A261" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>236</v>
@@ -7540,9 +7627,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A262" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>237</v>
@@ -7552,9 +7639,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A263" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>238</v>
@@ -7564,9 +7651,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A264" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>239</v>
@@ -7576,9 +7663,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A265" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>240</v>
@@ -7588,9 +7675,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A266" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>241</v>
@@ -7600,9 +7687,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A267" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>242</v>
@@ -7612,9 +7699,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A268" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>243</v>
@@ -7624,9 +7711,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A269" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>244</v>
@@ -7636,9 +7723,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A270" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>245</v>
@@ -7648,9 +7735,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A271" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>246</v>
@@ -7660,9 +7747,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A272" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>247</v>
@@ -7672,9 +7759,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A273" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>248</v>
@@ -7684,9 +7771,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A274" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>249</v>
@@ -7696,9 +7783,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A275" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>250</v>
@@ -7708,9 +7795,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A276" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>251</v>
@@ -7720,9 +7807,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A277" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>252</v>
@@ -7732,9 +7819,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A278" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>253</v>
@@ -7744,9 +7831,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A279" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>254</v>
@@ -7756,9 +7843,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A280" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>255</v>
@@ -7768,9 +7855,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A281" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>256</v>
@@ -7780,9 +7867,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A282" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>257</v>
@@ -7792,9 +7879,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A283" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>258</v>
@@ -7804,9 +7891,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A284" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>259</v>
@@ -7816,9 +7903,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A285" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>260</v>
@@ -7828,9 +7915,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A286" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>261</v>
@@ -7840,9 +7927,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A287" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>262</v>
@@ -7852,9 +7939,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A288" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>263</v>
@@ -7864,9 +7951,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="289" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A289" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>264</v>
@@ -7876,9 +7963,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="290" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A290" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>265</v>
@@ -7888,9 +7975,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A291" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>266</v>
@@ -7900,12 +7987,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="292" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A292" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C292">
         <f t="shared" si="5"/>
@@ -7915,15 +8002,15 @@
         <v>20170515</v>
       </c>
       <c r="E292" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A293" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C293">
         <f t="shared" si="5"/>
@@ -7933,12 +8020,12 @@
         <v>20170515</v>
       </c>
       <c r="E293" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A294" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>267</v>
@@ -7948,9 +8035,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A295" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>268</v>
@@ -7960,9 +8047,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="296" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A296" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>269</v>
@@ -7972,9 +8059,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="297" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A297" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>270</v>
@@ -7984,9 +8071,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="298" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A298" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>271</v>
@@ -7996,12 +8083,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="299" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A299" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C299">
         <f t="shared" si="5"/>
@@ -8011,12 +8098,12 @@
         <v>20170515</v>
       </c>
       <c r="E299" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A300" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>272</v>
@@ -8026,9 +8113,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="301" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A301" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>273</v>
@@ -8038,9 +8125,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="302" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A302" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>274</v>
@@ -8050,9 +8137,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="303" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A303" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>275</v>
@@ -8062,9 +8149,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="304" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A304" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>276</v>
@@ -8074,9 +8161,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A305" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>277</v>
@@ -8086,9 +8173,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A306" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>278</v>
@@ -8098,9 +8185,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A307" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>279</v>
@@ -8110,9 +8197,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A308" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>280</v>
@@ -8122,9 +8209,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A309" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>281</v>
@@ -8134,9 +8221,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A310" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>282</v>
@@ -8146,9 +8233,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A311" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>283</v>
@@ -8158,9 +8245,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A312" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>284</v>
@@ -8170,9 +8257,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A313" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>285</v>
@@ -8182,9 +8269,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A314" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>286</v>
@@ -8194,9 +8281,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A315" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>287</v>
@@ -8206,9 +8293,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A316" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>288</v>
@@ -8218,9 +8305,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A317" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>289</v>
@@ -8230,9 +8317,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A318" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>290</v>
@@ -8242,9 +8329,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A319" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>291</v>
@@ -8254,9 +8341,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A320" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>292</v>
@@ -8266,9 +8353,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="321" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A321" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>293</v>
@@ -8278,9 +8365,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A322" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>294</v>
@@ -8290,9 +8377,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="323" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A323" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>295</v>
@@ -8302,12 +8389,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="324" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A324" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C324">
         <f t="shared" si="6"/>
@@ -8317,12 +8404,12 @@
         <v>20170808</v>
       </c>
       <c r="E324" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A325" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>296</v>
@@ -8332,9 +8419,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A326" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>297</v>
@@ -8344,9 +8431,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="327" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A327" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>298</v>
@@ -8356,9 +8443,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="328" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A328" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>299</v>
@@ -8368,9 +8455,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="329" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A329" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>300</v>
@@ -8380,9 +8467,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="330" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A330" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>301</v>
@@ -8392,9 +8479,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="331" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A331" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>302</v>
@@ -8404,9 +8491,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="332" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A332" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>303</v>
@@ -8416,9 +8503,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A333" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>304</v>
@@ -8428,9 +8515,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="334" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A334" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>305</v>
@@ -8440,9 +8527,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A335" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>306</v>
@@ -8452,9 +8539,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="336" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A336" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>307</v>
@@ -8464,9 +8551,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="337" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A337" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>308</v>
@@ -8476,9 +8563,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="338" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A338" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>309</v>
@@ -8488,12 +8575,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="339" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A339" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C339">
         